--- a/Unity/Assets/Config/Excel/EquipMakeConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EquipMakeConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE96AA53-7C9A-4552-80D2-51A73793E0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812807A5-FA19-4F98-849C-9884C5CA49ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1397,9 +1397,6 @@
     <t>精钢锭</t>
   </si>
   <si>
-    <t>10000146;2</t>
-  </si>
-  <si>
     <t>符文布</t>
   </si>
   <si>
@@ -2829,51 +2826,9 @@
     <t>1020001;2@1025010;6</t>
   </si>
   <si>
-    <t>1020001;5@1021010;5@10000146;1@1021008;1</t>
-  </si>
-  <si>
-    <t>1020001;20@1021010;20@10000146;3@1021008;1</t>
-  </si>
-  <si>
-    <t>1020001;5@1022010;5@10000146;1@1022008;1</t>
-  </si>
-  <si>
-    <t>1020001;20@1022010;20@10000146;3@1022008;1</t>
-  </si>
-  <si>
-    <t>1020001;5@1023010;5@10000146;1@1023008;1</t>
-  </si>
-  <si>
-    <t>1020001;20@1023010;20@10000146;3@1023008;1</t>
-  </si>
-  <si>
-    <t>1020001;5@1024010;5@10000146;1@1024008;1</t>
-  </si>
-  <si>
-    <t>1020001;20@1024010;20@10000146;3@1024008;1</t>
-  </si>
-  <si>
-    <t>1020001;5@1025010;5@10000146;1@1025008;1</t>
-  </si>
-  <si>
-    <t>1020001;20@1024010;20@10000146;3@1025008;1</t>
-  </si>
-  <si>
-    <t>1020001;20@10000146;3</t>
-  </si>
-  <si>
     <t>1020001;10</t>
   </si>
   <si>
-    <t>1020001;50@10000146;3</t>
-  </si>
-  <si>
-    <t>1020001;50@10000146;1</t>
-  </si>
-  <si>
-    <t>1020001;10@10000144;1@10010085;10</t>
-  </si>
-  <si>
     <t>1020001;200@1025010;200@10010085;1000@1025008;20@1025009;10@10000143;35</t>
   </si>
   <si>
@@ -2967,139 +2922,184 @@
     <t>1020001;2500@10000152;80@15610201;1@1025008;50@1025009;20@10000143;150</t>
   </si>
   <si>
-    <t>1020001;10@10000147;1@1021001;10</t>
-  </si>
-  <si>
-    <t>1020001;10@10000147;1@102102;10@1021008;1</t>
-  </si>
-  <si>
-    <t>1020001;20@10000147;4@1021003;20@1021008;1</t>
-  </si>
-  <si>
-    <t>1020001;10@10000147;1@1021005;10@1021008;1</t>
-  </si>
-  <si>
-    <t>1020001;20@10000147;4@1021006;20@1021008;1</t>
-  </si>
-  <si>
-    <t>1020001;10@10000147;1@102102;10</t>
-  </si>
-  <si>
-    <t>1020001;10@10000147;1@1021006;10</t>
-  </si>
-  <si>
-    <t>1020001;20@10000147;4@1021007;20@1021008;1</t>
-  </si>
-  <si>
-    <t>1020001;10@10000147;1@1021004;10@1021008;1</t>
-  </si>
-  <si>
-    <t>1020001;10@10000147;1@1021006;10@1021008;1</t>
-  </si>
-  <si>
-    <t>1020001;10@10000147;1@1021003;10</t>
-  </si>
-  <si>
-    <t>1020001;15@10000147;2@1021001;15</t>
-  </si>
-  <si>
-    <t>1020001;15@10000147;2@102102;15@1023008;1</t>
-  </si>
-  <si>
-    <t>1020001;25@10000147;6@1021003;25@1023008;1</t>
-  </si>
-  <si>
-    <t>1020001;15@10000147;2@1021005;15@1023008;1</t>
-  </si>
-  <si>
-    <t>1020001;25@10000147;6@1021006;25@1023008;1</t>
-  </si>
-  <si>
-    <t>1020001;15@10000147;2@102102;15</t>
-  </si>
-  <si>
-    <t>1020001;15@10000147;2@1021006;15</t>
-  </si>
-  <si>
-    <t>1020001;25@10000147;6@1021007;25@1023008;1</t>
-  </si>
-  <si>
-    <t>1020001;15@10000147;2@1021004;15@1023008;1</t>
-  </si>
-  <si>
-    <t>1020001;15@10000147;2@1021006;15@1023008;1</t>
-  </si>
-  <si>
-    <t>1020001;15@10000147;2@1021003;15@1023008;1</t>
-  </si>
-  <si>
-    <t>1020001;20@10000147;3@1021001;20</t>
-  </si>
-  <si>
-    <t>1020001;20@10000147;3@102102;20@1025008;1</t>
-  </si>
-  <si>
-    <t>1020001;30@10000147;8@1021003;30@1025008;1</t>
-  </si>
-  <si>
-    <t>1020001;20@10000147;3@1021005;20@1025008;1</t>
-  </si>
-  <si>
-    <t>1020001;30@10000147;8@1021006;30@1025008;1</t>
-  </si>
-  <si>
-    <t>1020001;20@10000147;3@102102;20</t>
-  </si>
-  <si>
-    <t>1020001;20@10000147;3@1021006;20</t>
-  </si>
-  <si>
-    <t>1020001;30@10000147;8@1021007;30@1025008;1</t>
-  </si>
-  <si>
-    <t>1020001;20@10000147;3@1021004;20@1025008;1</t>
-  </si>
-  <si>
-    <t>1020001;20@10000147;3@1021006;20@1025008;1</t>
-  </si>
-  <si>
-    <t>1020001;20@10000147;3@1021003;20</t>
-  </si>
-  <si>
-    <t>1020001;10@10000144;1@1021010;10@1021008;1</t>
-  </si>
-  <si>
-    <t>1020001;10@10000144;2@1023010;10@1023008;1</t>
-  </si>
-  <si>
-    <t>1020001;10@10000144;3@1025010;10@1025008;1</t>
-  </si>
-  <si>
-    <t>1020001;10@10000145;2@1021010;10@1021008;1</t>
-  </si>
-  <si>
-    <t>1020001;10@10000145;4@1023010;10@1023008;1</t>
-  </si>
-  <si>
-    <t>1020001;10@10000145;6@1025010;10@1025008;1</t>
-  </si>
-  <si>
-    <t>1020001;20@10000145;4@1021010;20@1021008;1</t>
-  </si>
-  <si>
-    <t>1020001;25@10000145;6@1023010;25@1023008;1</t>
-  </si>
-  <si>
-    <t>1020001;30@10000145;8@1025010;30@1025008;1</t>
-  </si>
-  <si>
-    <t>1020001;50@10000146;4@1021010;30@1021008;2@1021009;1</t>
-  </si>
-  <si>
-    <t>1020001;75@10000146;6@1023010;30@1023008;2@1023009;1</t>
-  </si>
-  <si>
-    <t>1020001;100@10000146;12@1025010;30@1025008;2@1025009;1</t>
+    <t>1020001;10@1000029;1@10010085;10</t>
+  </si>
+  <si>
+    <t>1020001;10@1000029;1@1021010;10@1021008;1</t>
+  </si>
+  <si>
+    <t>1020001;10@1000029;2@1023010;10@1023008;1</t>
+  </si>
+  <si>
+    <t>1020001;10@1000029;3@1025010;10@1025008;1</t>
+  </si>
+  <si>
+    <t>1020001;10@1000029;2@1021010;10@1021008;1</t>
+  </si>
+  <si>
+    <t>1020001;10@1000029;4@1023010;10@1023008;1</t>
+  </si>
+  <si>
+    <t>1020001;10@1000029;6@1025010;10@1025008;1</t>
+  </si>
+  <si>
+    <t>1020001;20@1000029;4@1021010;20@1021008;1</t>
+  </si>
+  <si>
+    <t>1020001;25@1000029;6@1023010;25@1023008;1</t>
+  </si>
+  <si>
+    <t>1020001;30@1000029;8@1025010;30@1025008;1</t>
+  </si>
+  <si>
+    <t>1020001;5@1021010;5@1000029;1@1021008;1</t>
+  </si>
+  <si>
+    <t>1020001;20@1021010;20@1000029;3@1021008;1</t>
+  </si>
+  <si>
+    <t>1020001;5@1022010;5@1000029;1@1022008;1</t>
+  </si>
+  <si>
+    <t>1020001;20@1022010;20@1000029;3@1022008;1</t>
+  </si>
+  <si>
+    <t>1020001;5@1023010;5@1000029;1@1023008;1</t>
+  </si>
+  <si>
+    <t>1020001;20@1023010;20@1000029;3@1023008;1</t>
+  </si>
+  <si>
+    <t>1020001;5@1024010;5@1000029;1@1024008;1</t>
+  </si>
+  <si>
+    <t>1020001;20@1024010;20@1000029;3@1024008;1</t>
+  </si>
+  <si>
+    <t>1020001;5@1025010;5@1000029;1@1025008;1</t>
+  </si>
+  <si>
+    <t>1020001;20@1024010;20@1000029;3@1025008;1</t>
+  </si>
+  <si>
+    <t>1020001;20@1000029;3</t>
+  </si>
+  <si>
+    <t>1020001;50@1000029;3</t>
+  </si>
+  <si>
+    <t>1020001;50@1000029;1</t>
+  </si>
+  <si>
+    <t>1000029;2</t>
+  </si>
+  <si>
+    <t>1020001;50@1000029;4@1021010;30@1021008;2@1021009;1</t>
+  </si>
+  <si>
+    <t>1020001;75@1000029;6@1023010;30@1023008;2@1023009;1</t>
+  </si>
+  <si>
+    <t>1020001;100@1000029;12@1025010;30@1025008;2@1025009;1</t>
+  </si>
+  <si>
+    <t>1020001;10@1000029;1@1021001;10</t>
+  </si>
+  <si>
+    <t>1020001;10@1000029;1@102102;10@1021008;1</t>
+  </si>
+  <si>
+    <t>1020001;20@1000029;4@1021003;20@1021008;1</t>
+  </si>
+  <si>
+    <t>1020001;10@1000029;1@1021005;10@1021008;1</t>
+  </si>
+  <si>
+    <t>1020001;20@1000029;4@1021006;20@1021008;1</t>
+  </si>
+  <si>
+    <t>1020001;10@1000029;1@102102;10</t>
+  </si>
+  <si>
+    <t>1020001;10@1000029;1@1021006;10</t>
+  </si>
+  <si>
+    <t>1020001;20@1000029;4@1021007;20@1021008;1</t>
+  </si>
+  <si>
+    <t>1020001;10@1000029;1@1021004;10@1021008;1</t>
+  </si>
+  <si>
+    <t>1020001;10@1000029;1@1021006;10@1021008;1</t>
+  </si>
+  <si>
+    <t>1020001;10@1000029;1@1021003;10</t>
+  </si>
+  <si>
+    <t>1020001;15@1000029;2@1021001;15</t>
+  </si>
+  <si>
+    <t>1020001;15@1000029;2@102102;15@1023008;1</t>
+  </si>
+  <si>
+    <t>1020001;25@1000029;6@1021003;25@1023008;1</t>
+  </si>
+  <si>
+    <t>1020001;15@1000029;2@1021005;15@1023008;1</t>
+  </si>
+  <si>
+    <t>1020001;25@1000029;6@1021006;25@1023008;1</t>
+  </si>
+  <si>
+    <t>1020001;15@1000029;2@102102;15</t>
+  </si>
+  <si>
+    <t>1020001;15@1000029;2@1021006;15</t>
+  </si>
+  <si>
+    <t>1020001;25@1000029;6@1021007;25@1023008;1</t>
+  </si>
+  <si>
+    <t>1020001;15@1000029;2@1021004;15@1023008;1</t>
+  </si>
+  <si>
+    <t>1020001;15@1000029;2@1021006;15@1023008;1</t>
+  </si>
+  <si>
+    <t>1020001;15@1000029;2@1021003;15@1023008;1</t>
+  </si>
+  <si>
+    <t>1020001;20@1000029;3@1021001;20</t>
+  </si>
+  <si>
+    <t>1020001;20@1000029;3@102102;20@1025008;1</t>
+  </si>
+  <si>
+    <t>1020001;30@1000029;8@1021003;30@1025008;1</t>
+  </si>
+  <si>
+    <t>1020001;20@1000029;3@1021005;20@1025008;1</t>
+  </si>
+  <si>
+    <t>1020001;30@1000029;8@1021006;30@1025008;1</t>
+  </si>
+  <si>
+    <t>1020001;20@1000029;3@102102;20</t>
+  </si>
+  <si>
+    <t>1020001;20@1000029;3@1021006;20</t>
+  </si>
+  <si>
+    <t>1020001;30@1000029;8@1021007;30@1025008;1</t>
+  </si>
+  <si>
+    <t>1020001;20@1000029;3@1021004;20@1025008;1</t>
+  </si>
+  <si>
+    <t>1020001;20@1000029;3@1021006;20@1025008;1</t>
+  </si>
+  <si>
+    <t>1020001;20@1000029;3@1021003;20</t>
   </si>
 </sst>
 </file>
@@ -3786,8 +3786,8 @@
   <dimension ref="C1:Z1107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y292" sqref="Y292"/>
+      <pane ySplit="5" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y435" sqref="Y435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="44" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="Z7" s="44" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="44" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="44" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="27" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="27" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="27" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="16" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="Z18" s="27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="27" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="Z20" s="27" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="Z21" s="27" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="Z22" s="27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="Z23" s="27" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="24" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="27" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="25" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5519,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="27" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="Z26" s="27" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="27" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="28" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="28" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="28" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="29" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="Z29" s="28" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5889,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="Z30" s="27" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="31" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5963,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="Z31" s="27" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="32" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5971,7 +5971,7 @@
         <v>100127</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E32" s="16">
         <v>1</v>
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="27" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="33" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="29" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="34" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="29" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="35" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="Z35" s="29" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="36" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6333,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="Z36" s="29" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="37" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="Z37" s="29" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="38" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6481,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="Z38" s="29" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="39" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="Z39" s="29" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="40" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6629,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="Z40" s="29" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="41" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6637,7 +6637,7 @@
         <v>100159</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E41" s="22">
         <v>5</v>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="Z41" s="29" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="42" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6778,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="Z42" s="28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="43" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6853,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="Z43" s="28" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="44" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="Z44" s="28" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7003,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="Z45" s="28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="46" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="Z46" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="47" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="28" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="48" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="28" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="49" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="Z49" s="28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="50" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7378,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="Z50" s="28" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="51" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7453,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="Z51" s="28" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="52" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="Z52" s="28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="53" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7603,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="Z53" s="28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="54" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="Z54" s="28" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="55" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="Z55" s="28" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="56" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7828,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="Z56" s="28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="57" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7903,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="Z57" s="28" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="58" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="Z58" s="28" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="59" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8053,7 +8053,7 @@
         <v>0</v>
       </c>
       <c r="Z59" s="28" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="60" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="Z60" s="28" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="61" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8203,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="28" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="62" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="Z62" s="28" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="63" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="Z63" s="28" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="64" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="Z64" s="28" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="65" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="Z65" s="28" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="66" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8578,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="Z66" s="28" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="67" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8653,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="Z67" s="28" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="68" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8661,7 +8661,7 @@
         <v>100227</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E68" s="16">
         <v>1</v>
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="Z68" s="28" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="69" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8802,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="Z69" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="70" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="Z70" s="29" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="71" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="Z71" s="29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="72" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Z72" s="29" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="73" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9098,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="Z73" s="29" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="74" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="Z74" s="29" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="75" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="Z75" s="29" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="76" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9320,7 +9320,7 @@
         <v>0</v>
       </c>
       <c r="Z76" s="29" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="77" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9328,7 +9328,7 @@
         <v>100259</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E77" s="22">
         <v>5</v>
@@ -9394,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="Z77" s="29" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="78" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9469,7 +9469,7 @@
         <v>0</v>
       </c>
       <c r="Z78" s="28" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="79" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9544,7 +9544,7 @@
         <v>0</v>
       </c>
       <c r="Z79" s="28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="80" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="Z80" s="28" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="81" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9694,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="Z81" s="28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="82" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9769,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="Z82" s="28" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="83" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9844,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="Z83" s="28" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="84" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9919,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="Z84" s="28" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="85" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="Z85" s="28" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="86" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10069,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="Z86" s="28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="87" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10144,7 +10144,7 @@
         <v>0</v>
       </c>
       <c r="Z87" s="28" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="88" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10219,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="Z88" s="28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="89" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10294,7 +10294,7 @@
         <v>0</v>
       </c>
       <c r="Z89" s="28" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="90" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Z90" s="28" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="91" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10444,7 +10444,7 @@
         <v>0</v>
       </c>
       <c r="Z91" s="28" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="92" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10519,7 +10519,7 @@
         <v>0</v>
       </c>
       <c r="Z92" s="28" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="93" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="Z93" s="28" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="94" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10669,7 +10669,7 @@
         <v>0</v>
       </c>
       <c r="Z94" s="28" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="95" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10744,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="Z95" s="28" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="96" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10819,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="Z96" s="28" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="97" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10894,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="Z97" s="28" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="98" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10969,7 +10969,7 @@
         <v>0</v>
       </c>
       <c r="Z98" s="28" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="99" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11044,7 +11044,7 @@
         <v>0</v>
       </c>
       <c r="Z99" s="28" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="100" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11119,7 +11119,7 @@
         <v>0</v>
       </c>
       <c r="Z100" s="28" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="101" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11194,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="Z101" s="28" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="102" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11269,7 +11269,7 @@
         <v>0</v>
       </c>
       <c r="Z102" s="28" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="103" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11344,7 +11344,7 @@
         <v>0</v>
       </c>
       <c r="Z103" s="28" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="104" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11352,7 +11352,7 @@
         <v>100327</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E104" s="16">
         <v>1</v>
@@ -11419,7 +11419,7 @@
         <v>0</v>
       </c>
       <c r="Z104" s="28" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="105" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11493,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="Z105" s="29" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="106" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11567,7 +11567,7 @@
         <v>0</v>
       </c>
       <c r="Z106" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="107" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11641,7 +11641,7 @@
         <v>0</v>
       </c>
       <c r="Z107" s="29" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="108" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11715,7 +11715,7 @@
         <v>0</v>
       </c>
       <c r="Z108" s="29" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="109" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11789,7 +11789,7 @@
         <v>0</v>
       </c>
       <c r="Z109" s="29" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="110" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="Z110" s="29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="111" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="Z111" s="29" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="112" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12011,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="Z112" s="29" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="113" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12019,7 +12019,7 @@
         <v>100359</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E113" s="22">
         <v>5</v>
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="Z113" s="29" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="114" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12160,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="Z114" s="28" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="115" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12235,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="Z115" s="28" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="116" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12310,7 +12310,7 @@
         <v>0</v>
       </c>
       <c r="Z116" s="28" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="117" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12385,7 +12385,7 @@
         <v>0</v>
       </c>
       <c r="Z117" s="28" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="118" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12460,7 +12460,7 @@
         <v>0</v>
       </c>
       <c r="Z118" s="28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="119" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12535,7 +12535,7 @@
         <v>0</v>
       </c>
       <c r="Z119" s="28" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="120" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12610,7 +12610,7 @@
         <v>0</v>
       </c>
       <c r="Z120" s="28" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="121" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12685,7 +12685,7 @@
         <v>0</v>
       </c>
       <c r="Z121" s="28" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="122" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12760,7 +12760,7 @@
         <v>0</v>
       </c>
       <c r="Z122" s="28" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="123" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12835,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="Z123" s="28" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="124" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12910,7 +12910,7 @@
         <v>0</v>
       </c>
       <c r="Z124" s="28" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="125" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="Z125" s="28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="126" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13060,7 +13060,7 @@
         <v>0</v>
       </c>
       <c r="Z126" s="28" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="127" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13135,7 +13135,7 @@
         <v>0</v>
       </c>
       <c r="Z127" s="28" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="128" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13210,7 +13210,7 @@
         <v>0</v>
       </c>
       <c r="Z128" s="28" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="129" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13285,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="Z129" s="28" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="130" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="Z130" s="28" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="131" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13435,7 +13435,7 @@
         <v>0</v>
       </c>
       <c r="Z131" s="28" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="132" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="Z132" s="28" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="133" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13585,7 +13585,7 @@
         <v>0</v>
       </c>
       <c r="Z133" s="28" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="134" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13660,7 +13660,7 @@
         <v>0</v>
       </c>
       <c r="Z134" s="28" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="135" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13735,7 +13735,7 @@
         <v>0</v>
       </c>
       <c r="Z135" s="28" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="136" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13810,7 +13810,7 @@
         <v>0</v>
       </c>
       <c r="Z136" s="28" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="137" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13885,7 +13885,7 @@
         <v>0</v>
       </c>
       <c r="Z137" s="28" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="138" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13960,7 +13960,7 @@
         <v>0</v>
       </c>
       <c r="Z138" s="28" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="139" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14035,7 +14035,7 @@
         <v>0</v>
       </c>
       <c r="Z139" s="28" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="140" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14043,7 +14043,7 @@
         <v>100427</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E140" s="16">
         <v>1</v>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="Z140" s="28" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="141" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14184,7 +14184,7 @@
         <v>0</v>
       </c>
       <c r="Z141" s="29" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="142" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14258,7 +14258,7 @@
         <v>0</v>
       </c>
       <c r="Z142" s="29" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="143" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14332,7 +14332,7 @@
         <v>0</v>
       </c>
       <c r="Z143" s="29" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="144" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14406,7 +14406,7 @@
         <v>0</v>
       </c>
       <c r="Z144" s="29" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="145" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14480,7 +14480,7 @@
         <v>0</v>
       </c>
       <c r="Z145" s="29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="146" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14554,7 +14554,7 @@
         <v>0</v>
       </c>
       <c r="Z146" s="29" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="147" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14628,7 +14628,7 @@
         <v>0</v>
       </c>
       <c r="Z147" s="29" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="148" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14702,7 +14702,7 @@
         <v>0</v>
       </c>
       <c r="Z148" s="29" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="149" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14710,7 +14710,7 @@
         <v>100459</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E149" s="22">
         <v>5</v>
@@ -14776,7 +14776,7 @@
         <v>0</v>
       </c>
       <c r="Z149" s="29" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="150" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14852,7 +14852,7 @@
         <v>0</v>
       </c>
       <c r="Z150" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="151" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14928,7 +14928,7 @@
         <v>0</v>
       </c>
       <c r="Z151" s="28" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="152" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15004,7 +15004,7 @@
         <v>0</v>
       </c>
       <c r="Z152" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="153" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15080,7 +15080,7 @@
         <v>0</v>
       </c>
       <c r="Z153" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="154" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15156,7 +15156,7 @@
         <v>0</v>
       </c>
       <c r="Z154" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="155" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15232,7 +15232,7 @@
         <v>0</v>
       </c>
       <c r="Z155" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="156" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15308,7 +15308,7 @@
         <v>0</v>
       </c>
       <c r="Z156" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="157" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15384,7 +15384,7 @@
         <v>0</v>
       </c>
       <c r="Z157" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="158" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15460,7 +15460,7 @@
         <v>0</v>
       </c>
       <c r="Z158" s="28" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="159" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15536,7 +15536,7 @@
         <v>0</v>
       </c>
       <c r="Z159" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="160" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15612,7 +15612,7 @@
         <v>0</v>
       </c>
       <c r="Z160" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="161" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15688,7 +15688,7 @@
         <v>0</v>
       </c>
       <c r="Z161" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="162" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15764,7 +15764,7 @@
         <v>0</v>
       </c>
       <c r="Z162" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="163" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15840,7 +15840,7 @@
         <v>0</v>
       </c>
       <c r="Z163" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="164" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15916,7 +15916,7 @@
         <v>0</v>
       </c>
       <c r="Z164" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="165" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15992,7 +15992,7 @@
         <v>0</v>
       </c>
       <c r="Z165" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="166" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16068,7 +16068,7 @@
         <v>0</v>
       </c>
       <c r="Z166" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="167" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16144,7 +16144,7 @@
         <v>0</v>
       </c>
       <c r="Z167" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="168" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16220,7 +16220,7 @@
         <v>0</v>
       </c>
       <c r="Z168" s="28" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="169" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16296,7 +16296,7 @@
         <v>0</v>
       </c>
       <c r="Z169" s="28" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="170" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16372,7 +16372,7 @@
         <v>0</v>
       </c>
       <c r="Z170" s="28" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="171" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16448,7 +16448,7 @@
         <v>0</v>
       </c>
       <c r="Z171" s="28" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="172" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16524,7 +16524,7 @@
         <v>0</v>
       </c>
       <c r="Z172" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="173" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16600,7 +16600,7 @@
         <v>0</v>
       </c>
       <c r="Z173" s="28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="174" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16676,7 +16676,7 @@
         <v>0</v>
       </c>
       <c r="Z174" s="28" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="175" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16752,7 +16752,7 @@
         <v>0</v>
       </c>
       <c r="Z175" s="28" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="176" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16760,7 +16760,7 @@
         <v>100527</v>
       </c>
       <c r="D176" s="23" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E176" s="16">
         <v>1</v>
@@ -16828,7 +16828,7 @@
         <v>0</v>
       </c>
       <c r="Z176" s="28" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="177" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16903,7 +16903,7 @@
         <v>0</v>
       </c>
       <c r="Z177" s="28" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="178" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16978,7 +16978,7 @@
         <v>0</v>
       </c>
       <c r="Z178" s="28" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="179" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17053,7 +17053,7 @@
         <v>0</v>
       </c>
       <c r="Z179" s="29" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="180" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17128,7 +17128,7 @@
         <v>0</v>
       </c>
       <c r="Z180" s="29" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="181" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17203,7 +17203,7 @@
         <v>0</v>
       </c>
       <c r="Z181" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="182" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17278,7 +17278,7 @@
         <v>0</v>
       </c>
       <c r="Z182" s="29" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="183" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17353,7 +17353,7 @@
         <v>0</v>
       </c>
       <c r="Z183" s="29" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="184" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17428,7 +17428,7 @@
         <v>0</v>
       </c>
       <c r="Z184" s="29" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="185" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17436,7 +17436,7 @@
         <v>100559</v>
       </c>
       <c r="D185" s="21" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E185" s="22">
         <v>5</v>
@@ -17503,7 +17503,7 @@
         <v>0</v>
       </c>
       <c r="Z185" s="29" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="186" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17577,7 +17577,7 @@
         <v>0</v>
       </c>
       <c r="Z186" s="28" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="187" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17651,7 +17651,7 @@
         <v>0</v>
       </c>
       <c r="Z187" s="28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="188" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17725,7 +17725,7 @@
         <v>0</v>
       </c>
       <c r="Z188" s="28" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="189" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17799,7 +17799,7 @@
         <v>0</v>
       </c>
       <c r="Z189" s="28" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="190" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17873,7 +17873,7 @@
         <v>0</v>
       </c>
       <c r="Z190" s="28" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="191" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17947,7 +17947,7 @@
         <v>0</v>
       </c>
       <c r="Z191" s="28" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="192" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18021,7 +18021,7 @@
         <v>0</v>
       </c>
       <c r="Z192" s="28" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="193" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18095,7 +18095,7 @@
         <v>0</v>
       </c>
       <c r="Z193" s="28" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="194" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18169,7 +18169,7 @@
         <v>0</v>
       </c>
       <c r="Z194" s="28" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="195" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18243,7 +18243,7 @@
         <v>0</v>
       </c>
       <c r="Z195" s="28" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="196" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18317,7 +18317,7 @@
         <v>0</v>
       </c>
       <c r="Z196" s="28" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="197" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="Z197" s="28" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="198" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18465,7 +18465,7 @@
         <v>0</v>
       </c>
       <c r="Z198" s="28" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="199" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18540,7 +18540,7 @@
         <v>0</v>
       </c>
       <c r="Z199" s="28" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="200" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18615,7 +18615,7 @@
         <v>0</v>
       </c>
       <c r="Z200" s="28" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="201" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18690,7 +18690,7 @@
         <v>0</v>
       </c>
       <c r="Z201" s="28" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="202" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18765,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="Z202" s="28" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="203" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18840,7 +18840,7 @@
         <v>0</v>
       </c>
       <c r="Z203" s="28" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="204" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18915,7 +18915,7 @@
         <v>0</v>
       </c>
       <c r="Z204" s="28" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="205" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18990,7 +18990,7 @@
         <v>0</v>
       </c>
       <c r="Z205" s="28" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="206" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19065,7 +19065,7 @@
         <v>0</v>
       </c>
       <c r="Z206" s="28" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="207" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19140,7 +19140,7 @@
         <v>0</v>
       </c>
       <c r="Z207" s="28" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="208" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19215,7 +19215,7 @@
         <v>0</v>
       </c>
       <c r="Z208" s="28" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="209" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19290,7 +19290,7 @@
         <v>0</v>
       </c>
       <c r="Z209" s="28" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="210" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19365,7 +19365,7 @@
         <v>0</v>
       </c>
       <c r="Z210" s="28" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="211" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19440,7 +19440,7 @@
         <v>0</v>
       </c>
       <c r="Z211" s="28" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="212" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19515,7 +19515,7 @@
         <v>0</v>
       </c>
       <c r="Z212" s="28" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="213" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19590,7 +19590,7 @@
         <v>0</v>
       </c>
       <c r="Z213" s="28" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="214" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19665,7 +19665,7 @@
         <v>0</v>
       </c>
       <c r="Z214" s="28" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="215" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19740,7 +19740,7 @@
         <v>0</v>
       </c>
       <c r="Z215" s="28" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="216" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19815,7 +19815,7 @@
         <v>0</v>
       </c>
       <c r="Z216" s="28" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="217" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19889,7 +19889,7 @@
         <v>0</v>
       </c>
       <c r="Z217" s="28" t="s">
-        <v>729</v>
+        <v>770</v>
       </c>
     </row>
     <row r="218" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19963,7 +19963,7 @@
         <v>0</v>
       </c>
       <c r="Z218" s="28" t="s">
-        <v>729</v>
+        <v>770</v>
       </c>
     </row>
     <row r="219" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20037,7 +20037,7 @@
         <v>0</v>
       </c>
       <c r="Z219" s="28" t="s">
-        <v>729</v>
+        <v>770</v>
       </c>
     </row>
     <row r="220" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20111,7 +20111,7 @@
         <v>0</v>
       </c>
       <c r="Z220" s="28" t="s">
-        <v>729</v>
+        <v>770</v>
       </c>
     </row>
     <row r="221" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20185,7 +20185,7 @@
         <v>0</v>
       </c>
       <c r="Z221" s="28" t="s">
-        <v>730</v>
+        <v>771</v>
       </c>
     </row>
     <row r="222" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20260,7 +20260,7 @@
         <v>0</v>
       </c>
       <c r="Z222" s="28" t="s">
-        <v>731</v>
+        <v>772</v>
       </c>
     </row>
     <row r="223" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20335,7 +20335,7 @@
         <v>0</v>
       </c>
       <c r="Z223" s="28" t="s">
-        <v>731</v>
+        <v>772</v>
       </c>
     </row>
     <row r="224" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20410,7 +20410,7 @@
         <v>0</v>
       </c>
       <c r="Z224" s="28" t="s">
-        <v>731</v>
+        <v>772</v>
       </c>
     </row>
     <row r="225" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20485,7 +20485,7 @@
         <v>0</v>
       </c>
       <c r="Z225" s="28" t="s">
-        <v>731</v>
+        <v>772</v>
       </c>
     </row>
     <row r="226" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20560,7 +20560,7 @@
         <v>0</v>
       </c>
       <c r="Z226" s="28" t="s">
-        <v>732</v>
+        <v>773</v>
       </c>
     </row>
     <row r="227" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="Z227" s="28" t="s">
-        <v>733</v>
+        <v>774</v>
       </c>
     </row>
     <row r="228" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20710,7 +20710,7 @@
         <v>0</v>
       </c>
       <c r="Z228" s="28" t="s">
-        <v>733</v>
+        <v>774</v>
       </c>
     </row>
     <row r="229" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20785,7 +20785,7 @@
         <v>0</v>
       </c>
       <c r="Z229" s="28" t="s">
-        <v>733</v>
+        <v>774</v>
       </c>
     </row>
     <row r="230" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20860,7 +20860,7 @@
         <v>0</v>
       </c>
       <c r="Z230" s="28" t="s">
-        <v>733</v>
+        <v>774</v>
       </c>
     </row>
     <row r="231" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20935,7 +20935,7 @@
         <v>0</v>
       </c>
       <c r="Z231" s="28" t="s">
-        <v>734</v>
+        <v>775</v>
       </c>
     </row>
     <row r="232" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21010,7 +21010,7 @@
         <v>0</v>
       </c>
       <c r="Z232" s="28" t="s">
-        <v>735</v>
+        <v>776</v>
       </c>
     </row>
     <row r="233" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21085,7 +21085,7 @@
         <v>0</v>
       </c>
       <c r="Z233" s="28" t="s">
-        <v>735</v>
+        <v>776</v>
       </c>
     </row>
     <row r="234" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21160,7 +21160,7 @@
         <v>0</v>
       </c>
       <c r="Z234" s="28" t="s">
-        <v>735</v>
+        <v>776</v>
       </c>
     </row>
     <row r="235" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21235,7 +21235,7 @@
         <v>0</v>
       </c>
       <c r="Z235" s="28" t="s">
-        <v>735</v>
+        <v>776</v>
       </c>
     </row>
     <row r="236" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21310,7 +21310,7 @@
         <v>0</v>
       </c>
       <c r="Z236" s="28" t="s">
-        <v>736</v>
+        <v>777</v>
       </c>
     </row>
     <row r="237" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21385,7 +21385,7 @@
         <v>0</v>
       </c>
       <c r="Z237" s="28" t="s">
-        <v>737</v>
+        <v>778</v>
       </c>
     </row>
     <row r="238" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21460,7 +21460,7 @@
         <v>0</v>
       </c>
       <c r="Z238" s="28" t="s">
-        <v>737</v>
+        <v>778</v>
       </c>
     </row>
     <row r="239" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21535,7 +21535,7 @@
         <v>0</v>
       </c>
       <c r="Z239" s="28" t="s">
-        <v>737</v>
+        <v>778</v>
       </c>
     </row>
     <row r="240" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21610,7 +21610,7 @@
         <v>0</v>
       </c>
       <c r="Z240" s="28" t="s">
-        <v>737</v>
+        <v>778</v>
       </c>
     </row>
     <row r="241" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21685,7 +21685,7 @@
         <v>0</v>
       </c>
       <c r="Z241" s="28" t="s">
-        <v>738</v>
+        <v>779</v>
       </c>
     </row>
     <row r="242" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21693,7 +21693,7 @@
         <v>200602</v>
       </c>
       <c r="D242" s="45" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E242" s="16">
         <v>3</v>
@@ -21759,7 +21759,7 @@
         <v>0</v>
       </c>
       <c r="Z242" s="28" t="s">
-        <v>739</v>
+        <v>780</v>
       </c>
     </row>
     <row r="243" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21767,7 +21767,7 @@
         <v>200603</v>
       </c>
       <c r="D243" s="46" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E243" s="16">
         <v>3</v>
@@ -21833,7 +21833,7 @@
         <v>0</v>
       </c>
       <c r="Z243" s="28" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="244" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21841,7 +21841,7 @@
         <v>200604</v>
       </c>
       <c r="D244" s="46" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E244" s="16">
         <v>3</v>
@@ -21907,7 +21907,7 @@
         <v>0</v>
       </c>
       <c r="Z244" s="28" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="245" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21981,7 +21981,7 @@
         <v>0</v>
       </c>
       <c r="Z245" s="28" t="s">
-        <v>741</v>
+        <v>781</v>
       </c>
     </row>
     <row r="246" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22055,7 +22055,7 @@
         <v>0</v>
       </c>
       <c r="Z246" s="28" t="s">
-        <v>742</v>
+        <v>782</v>
       </c>
     </row>
     <row r="247" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22129,7 +22129,7 @@
         <v>0</v>
       </c>
       <c r="Z247" s="28" t="s">
-        <v>257</v>
+        <v>783</v>
       </c>
     </row>
     <row r="248" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22137,7 +22137,7 @@
         <v>201102</v>
       </c>
       <c r="D248" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E248" s="16">
         <v>3</v>
@@ -22203,7 +22203,7 @@
         <v>0</v>
       </c>
       <c r="Z248" s="28" t="s">
-        <v>257</v>
+        <v>783</v>
       </c>
     </row>
     <row r="249" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22211,7 +22211,7 @@
         <v>201103</v>
       </c>
       <c r="D249" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E249" s="16">
         <v>3</v>
@@ -22277,7 +22277,7 @@
         <v>0</v>
       </c>
       <c r="Z249" s="28" t="s">
-        <v>257</v>
+        <v>783</v>
       </c>
     </row>
     <row r="250" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22285,7 +22285,7 @@
         <v>300001</v>
       </c>
       <c r="D250" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E250" s="16">
         <v>1</v>
@@ -22351,7 +22351,7 @@
         <v>0</v>
       </c>
       <c r="Z250" s="28" t="s">
-        <v>743</v>
+        <v>760</v>
       </c>
     </row>
     <row r="251" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22359,7 +22359,7 @@
         <v>300002</v>
       </c>
       <c r="D251" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E251" s="16">
         <v>1</v>
@@ -22425,7 +22425,7 @@
         <v>0</v>
       </c>
       <c r="Z251" s="28" t="s">
-        <v>743</v>
+        <v>760</v>
       </c>
     </row>
     <row r="252" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22433,7 +22433,7 @@
         <v>300003</v>
       </c>
       <c r="D252" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E252" s="16">
         <v>1</v>
@@ -22499,7 +22499,7 @@
         <v>0</v>
       </c>
       <c r="Z252" s="28" t="s">
-        <v>743</v>
+        <v>760</v>
       </c>
     </row>
     <row r="253" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22507,7 +22507,7 @@
         <v>4000101</v>
       </c>
       <c r="D253" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E253" s="16">
         <v>4</v>
@@ -22573,7 +22573,7 @@
         <v>2500</v>
       </c>
       <c r="Z253" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="254" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22581,7 +22581,7 @@
         <v>4000102</v>
       </c>
       <c r="D254" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E254" s="16">
         <v>4</v>
@@ -22647,7 +22647,7 @@
         <v>3500</v>
       </c>
       <c r="Z254" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="255" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22655,7 +22655,7 @@
         <v>4000103</v>
       </c>
       <c r="D255" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E255" s="16">
         <v>4</v>
@@ -22721,7 +22721,7 @@
         <v>5000</v>
       </c>
       <c r="Z255" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="256" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22729,7 +22729,7 @@
         <v>4000104</v>
       </c>
       <c r="D256" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E256" s="16">
         <v>4</v>
@@ -22795,7 +22795,7 @@
         <v>7500</v>
       </c>
       <c r="Z256" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="257" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22803,7 +22803,7 @@
         <v>4000105</v>
       </c>
       <c r="D257" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E257" s="16">
         <v>4</v>
@@ -22869,7 +22869,7 @@
         <v>10000</v>
       </c>
       <c r="Z257" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="258" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22877,7 +22877,7 @@
         <v>4000106</v>
       </c>
       <c r="D258" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E258" s="16">
         <v>4</v>
@@ -22943,7 +22943,7 @@
         <v>20000</v>
       </c>
       <c r="Z258" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="259" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22951,7 +22951,7 @@
         <v>4000107</v>
       </c>
       <c r="D259" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E259" s="16">
         <v>4</v>
@@ -23017,7 +23017,7 @@
         <v>30000</v>
       </c>
       <c r="Z259" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="260" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23025,7 +23025,7 @@
         <v>4000108</v>
       </c>
       <c r="D260" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E260" s="16">
         <v>4</v>
@@ -23091,7 +23091,7 @@
         <v>40000</v>
       </c>
       <c r="Z260" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="261" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23099,7 +23099,7 @@
         <v>4000109</v>
       </c>
       <c r="D261" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E261" s="16">
         <v>4</v>
@@ -23165,7 +23165,7 @@
         <v>50000</v>
       </c>
       <c r="Z261" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="262" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23173,7 +23173,7 @@
         <v>4000110</v>
       </c>
       <c r="D262" s="32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E262" s="33">
         <v>4</v>
@@ -23239,7 +23239,7 @@
         <v>100000</v>
       </c>
       <c r="Z262" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="263" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23247,7 +23247,7 @@
         <v>4000111</v>
       </c>
       <c r="D263" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E263" s="33">
         <v>4</v>
@@ -23313,7 +23313,7 @@
         <v>200000</v>
       </c>
       <c r="Z263" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="264" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23321,7 +23321,7 @@
         <v>4000201</v>
       </c>
       <c r="D264" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E264" s="16">
         <v>4</v>
@@ -23387,7 +23387,7 @@
         <v>2500</v>
       </c>
       <c r="Z264" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="265" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23395,7 +23395,7 @@
         <v>4000202</v>
       </c>
       <c r="D265" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E265" s="16">
         <v>4</v>
@@ -23461,7 +23461,7 @@
         <v>3500</v>
       </c>
       <c r="Z265" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="266" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23469,7 +23469,7 @@
         <v>4000203</v>
       </c>
       <c r="D266" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E266" s="16">
         <v>4</v>
@@ -23535,7 +23535,7 @@
         <v>5000</v>
       </c>
       <c r="Z266" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="267" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23543,7 +23543,7 @@
         <v>4000204</v>
       </c>
       <c r="D267" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E267" s="16">
         <v>4</v>
@@ -23609,7 +23609,7 @@
         <v>7500</v>
       </c>
       <c r="Z267" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="268" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23617,7 +23617,7 @@
         <v>4000205</v>
       </c>
       <c r="D268" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E268" s="16">
         <v>4</v>
@@ -23683,7 +23683,7 @@
         <v>10000</v>
       </c>
       <c r="Z268" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="269" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23691,7 +23691,7 @@
         <v>4000206</v>
       </c>
       <c r="D269" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E269" s="16">
         <v>4</v>
@@ -23757,7 +23757,7 @@
         <v>20000</v>
       </c>
       <c r="Z269" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="270" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23765,7 +23765,7 @@
         <v>4000207</v>
       </c>
       <c r="D270" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E270" s="16">
         <v>4</v>
@@ -23831,7 +23831,7 @@
         <v>30000</v>
       </c>
       <c r="Z270" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="271" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23839,7 +23839,7 @@
         <v>4000208</v>
       </c>
       <c r="D271" s="31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E271" s="16">
         <v>4</v>
@@ -23905,7 +23905,7 @@
         <v>40000</v>
       </c>
       <c r="Z271" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="272" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23913,7 +23913,7 @@
         <v>4000209</v>
       </c>
       <c r="D272" s="31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E272" s="16">
         <v>4</v>
@@ -23979,7 +23979,7 @@
         <v>50000</v>
       </c>
       <c r="Z272" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="273" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23987,7 +23987,7 @@
         <v>4000210</v>
       </c>
       <c r="D273" s="32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E273" s="33">
         <v>4</v>
@@ -24053,7 +24053,7 @@
         <v>100000</v>
       </c>
       <c r="Z273" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="274" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24061,7 +24061,7 @@
         <v>4000211</v>
       </c>
       <c r="D274" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E274" s="33">
         <v>4</v>
@@ -24127,7 +24127,7 @@
         <v>200000</v>
       </c>
       <c r="Z274" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="275" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24135,7 +24135,7 @@
         <v>4000301</v>
       </c>
       <c r="D275" s="31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E275" s="16">
         <v>4</v>
@@ -24201,7 +24201,7 @@
         <v>2500</v>
       </c>
       <c r="Z275" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="276" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24209,7 +24209,7 @@
         <v>4000302</v>
       </c>
       <c r="D276" s="31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E276" s="16">
         <v>4</v>
@@ -24275,7 +24275,7 @@
         <v>3500</v>
       </c>
       <c r="Z276" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="277" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24283,7 +24283,7 @@
         <v>4000303</v>
       </c>
       <c r="D277" s="31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E277" s="16">
         <v>4</v>
@@ -24349,7 +24349,7 @@
         <v>5000</v>
       </c>
       <c r="Z277" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="278" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24357,7 +24357,7 @@
         <v>4000304</v>
       </c>
       <c r="D278" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E278" s="16">
         <v>4</v>
@@ -24423,7 +24423,7 @@
         <v>7500</v>
       </c>
       <c r="Z278" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="279" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24431,7 +24431,7 @@
         <v>4000305</v>
       </c>
       <c r="D279" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E279" s="16">
         <v>4</v>
@@ -24497,7 +24497,7 @@
         <v>10000</v>
       </c>
       <c r="Z279" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="280" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24505,7 +24505,7 @@
         <v>4000306</v>
       </c>
       <c r="D280" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E280" s="16">
         <v>4</v>
@@ -24571,7 +24571,7 @@
         <v>20000</v>
       </c>
       <c r="Z280" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="281" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24579,7 +24579,7 @@
         <v>4000307</v>
       </c>
       <c r="D281" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E281" s="16">
         <v>4</v>
@@ -24645,7 +24645,7 @@
         <v>30000</v>
       </c>
       <c r="Z281" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="282" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24653,7 +24653,7 @@
         <v>4000308</v>
       </c>
       <c r="D282" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E282" s="16">
         <v>4</v>
@@ -24719,7 +24719,7 @@
         <v>40000</v>
       </c>
       <c r="Z282" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="283" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24727,7 +24727,7 @@
         <v>4000309</v>
       </c>
       <c r="D283" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E283" s="16">
         <v>4</v>
@@ -24793,7 +24793,7 @@
         <v>50000</v>
       </c>
       <c r="Z283" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="284" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24801,7 +24801,7 @@
         <v>4000310</v>
       </c>
       <c r="D284" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E284" s="33">
         <v>4</v>
@@ -24867,7 +24867,7 @@
         <v>100000</v>
       </c>
       <c r="Z284" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="285" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24875,7 +24875,7 @@
         <v>4000311</v>
       </c>
       <c r="D285" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E285" s="33">
         <v>4</v>
@@ -24941,7 +24941,7 @@
         <v>200000</v>
       </c>
       <c r="Z285" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="286" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24949,7 +24949,7 @@
         <v>4000401</v>
       </c>
       <c r="D286" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E286" s="16">
         <v>4</v>
@@ -25015,7 +25015,7 @@
         <v>2500</v>
       </c>
       <c r="Z286" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="287" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25023,7 +25023,7 @@
         <v>4000402</v>
       </c>
       <c r="D287" s="31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E287" s="16">
         <v>4</v>
@@ -25089,7 +25089,7 @@
         <v>3500</v>
       </c>
       <c r="Z287" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="288" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25097,7 +25097,7 @@
         <v>4000403</v>
       </c>
       <c r="D288" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E288" s="16">
         <v>4</v>
@@ -25163,7 +25163,7 @@
         <v>5000</v>
       </c>
       <c r="Z288" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="289" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25171,7 +25171,7 @@
         <v>4000404</v>
       </c>
       <c r="D289" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E289" s="16">
         <v>4</v>
@@ -25237,7 +25237,7 @@
         <v>7500</v>
       </c>
       <c r="Z289" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="290" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25245,7 +25245,7 @@
         <v>4000405</v>
       </c>
       <c r="D290" s="31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E290" s="16">
         <v>4</v>
@@ -25311,7 +25311,7 @@
         <v>10000</v>
       </c>
       <c r="Z290" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="291" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25319,7 +25319,7 @@
         <v>4000406</v>
       </c>
       <c r="D291" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E291" s="16">
         <v>4</v>
@@ -25385,7 +25385,7 @@
         <v>20000</v>
       </c>
       <c r="Z291" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="292" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25393,7 +25393,7 @@
         <v>4000407</v>
       </c>
       <c r="D292" s="31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E292" s="16">
         <v>4</v>
@@ -25459,7 +25459,7 @@
         <v>30000</v>
       </c>
       <c r="Z292" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="293" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25467,7 +25467,7 @@
         <v>4000408</v>
       </c>
       <c r="D293" s="31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E293" s="16">
         <v>4</v>
@@ -25533,7 +25533,7 @@
         <v>40000</v>
       </c>
       <c r="Z293" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="294" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25541,7 +25541,7 @@
         <v>4000409</v>
       </c>
       <c r="D294" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E294" s="16">
         <v>4</v>
@@ -25607,7 +25607,7 @@
         <v>50000</v>
       </c>
       <c r="Z294" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="295" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25615,7 +25615,7 @@
         <v>4000410</v>
       </c>
       <c r="D295" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E295" s="33">
         <v>4</v>
@@ -25681,7 +25681,7 @@
         <v>100000</v>
       </c>
       <c r="Z295" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="296" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25689,7 +25689,7 @@
         <v>4000411</v>
       </c>
       <c r="D296" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E296" s="33">
         <v>4</v>
@@ -25755,7 +25755,7 @@
         <v>200000</v>
       </c>
       <c r="Z296" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="297" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25763,7 +25763,7 @@
         <v>5000001</v>
       </c>
       <c r="D297" s="37" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E297" s="6">
         <v>5</v>
@@ -25829,7 +25829,7 @@
         <v>1000000</v>
       </c>
       <c r="Z297" s="6" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
     </row>
     <row r="298" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25837,7 +25837,7 @@
         <v>5000002</v>
       </c>
       <c r="D298" s="37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E298" s="6">
         <v>5</v>
@@ -25903,7 +25903,7 @@
         <v>1000000</v>
       </c>
       <c r="Z298" s="6" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
     </row>
     <row r="299" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25911,7 +25911,7 @@
         <v>5000003</v>
       </c>
       <c r="D299" s="37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E299" s="6">
         <v>5</v>
@@ -25977,7 +25977,7 @@
         <v>1000000</v>
       </c>
       <c r="Z299" s="6" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
     </row>
     <row r="300" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25985,7 +25985,7 @@
         <v>5000011</v>
       </c>
       <c r="D300" s="37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E300" s="6">
         <v>5</v>
@@ -26051,7 +26051,7 @@
         <v>1000000</v>
       </c>
       <c r="Z300" s="6" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
     </row>
     <row r="301" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26059,7 +26059,7 @@
         <v>5000012</v>
       </c>
       <c r="D301" s="37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E301" s="6">
         <v>5</v>
@@ -26125,7 +26125,7 @@
         <v>1000000</v>
       </c>
       <c r="Z301" s="6" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
     </row>
     <row r="302" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26133,7 +26133,7 @@
         <v>5000013</v>
       </c>
       <c r="D302" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E302" s="6">
         <v>5</v>
@@ -26199,7 +26199,7 @@
         <v>1000000</v>
       </c>
       <c r="Z302" s="6" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
     </row>
     <row r="303" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26207,7 +26207,7 @@
         <v>5000021</v>
       </c>
       <c r="D303" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E303" s="6">
         <v>5</v>
@@ -26273,7 +26273,7 @@
         <v>1000000</v>
       </c>
       <c r="Z303" s="6" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
     </row>
     <row r="304" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26281,7 +26281,7 @@
         <v>5000022</v>
       </c>
       <c r="D304" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E304" s="6">
         <v>5</v>
@@ -26347,7 +26347,7 @@
         <v>1000000</v>
       </c>
       <c r="Z304" s="6" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
     </row>
     <row r="305" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26355,7 +26355,7 @@
         <v>5000023</v>
       </c>
       <c r="D305" s="37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E305" s="6">
         <v>5</v>
@@ -26421,7 +26421,7 @@
         <v>1000000</v>
       </c>
       <c r="Z305" s="6" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
     </row>
     <row r="306" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26429,7 +26429,7 @@
         <v>5000031</v>
       </c>
       <c r="D306" s="37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E306" s="6">
         <v>5</v>
@@ -26495,7 +26495,7 @@
         <v>1000000</v>
       </c>
       <c r="Z306" s="6" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
     </row>
     <row r="307" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26503,7 +26503,7 @@
         <v>5000032</v>
       </c>
       <c r="D307" s="37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E307" s="6">
         <v>5</v>
@@ -26569,7 +26569,7 @@
         <v>1000000</v>
       </c>
       <c r="Z307" s="6" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
     </row>
     <row r="308" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26577,7 +26577,7 @@
         <v>5000033</v>
       </c>
       <c r="D308" s="37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E308" s="6">
         <v>5</v>
@@ -26643,7 +26643,7 @@
         <v>1000000</v>
       </c>
       <c r="Z308" s="6" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
     </row>
     <row r="309" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26651,7 +26651,7 @@
         <v>5000041</v>
       </c>
       <c r="D309" s="37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E309" s="6">
         <v>5</v>
@@ -26717,7 +26717,7 @@
         <v>1000000</v>
       </c>
       <c r="Z309" s="6" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
     </row>
     <row r="310" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26725,7 +26725,7 @@
         <v>5000042</v>
       </c>
       <c r="D310" s="37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E310" s="6">
         <v>5</v>
@@ -26791,7 +26791,7 @@
         <v>1000000</v>
       </c>
       <c r="Z310" s="6" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
     </row>
     <row r="311" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26799,7 +26799,7 @@
         <v>5000043</v>
       </c>
       <c r="D311" s="37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E311" s="6">
         <v>5</v>
@@ -26865,7 +26865,7 @@
         <v>1000000</v>
       </c>
       <c r="Z311" s="6" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
     </row>
     <row r="312" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26873,7 +26873,7 @@
         <v>5000051</v>
       </c>
       <c r="D312" s="37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E312" s="6">
         <v>5</v>
@@ -26939,7 +26939,7 @@
         <v>1000000</v>
       </c>
       <c r="Z312" s="6" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
     </row>
     <row r="313" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26947,7 +26947,7 @@
         <v>5000052</v>
       </c>
       <c r="D313" s="37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E313" s="6">
         <v>5</v>
@@ -27013,7 +27013,7 @@
         <v>1000000</v>
       </c>
       <c r="Z313" s="6" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
     </row>
     <row r="314" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27021,7 +27021,7 @@
         <v>5000061</v>
       </c>
       <c r="D314" s="37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E314" s="6">
         <v>5</v>
@@ -27087,7 +27087,7 @@
         <v>1000000</v>
       </c>
       <c r="Z314" s="6" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
     </row>
     <row r="315" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27095,7 +27095,7 @@
         <v>5000062</v>
       </c>
       <c r="D315" s="37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E315" s="6">
         <v>5</v>
@@ -27161,7 +27161,7 @@
         <v>1000000</v>
       </c>
       <c r="Z315" s="6" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
     </row>
     <row r="316" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27169,7 +27169,7 @@
         <v>5000071</v>
       </c>
       <c r="D316" s="37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E316" s="6">
         <v>5</v>
@@ -27235,7 +27235,7 @@
         <v>1000000</v>
       </c>
       <c r="Z316" s="6" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="317" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27243,7 +27243,7 @@
         <v>5000072</v>
       </c>
       <c r="D317" s="37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E317" s="6">
         <v>5</v>
@@ -27309,7 +27309,7 @@
         <v>1000000</v>
       </c>
       <c r="Z317" s="6" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="318" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27317,7 +27317,7 @@
         <v>5000081</v>
       </c>
       <c r="D318" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E318" s="6">
         <v>5</v>
@@ -27383,7 +27383,7 @@
         <v>1000000</v>
       </c>
       <c r="Z318" s="6" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="319" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27391,7 +27391,7 @@
         <v>5000082</v>
       </c>
       <c r="D319" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E319" s="6">
         <v>5</v>
@@ -27457,7 +27457,7 @@
         <v>1000000</v>
       </c>
       <c r="Z319" s="6" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="320" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27465,7 +27465,7 @@
         <v>5000091</v>
       </c>
       <c r="D320" s="37" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E320" s="6">
         <v>5</v>
@@ -27531,7 +27531,7 @@
         <v>1000000</v>
       </c>
       <c r="Z320" s="6" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="321" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27539,7 +27539,7 @@
         <v>5000092</v>
       </c>
       <c r="D321" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E321" s="6">
         <v>5</v>
@@ -27605,7 +27605,7 @@
         <v>1000000</v>
       </c>
       <c r="Z321" s="6" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="322" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27613,7 +27613,7 @@
         <v>5000093</v>
       </c>
       <c r="D322" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E322" s="6">
         <v>5</v>
@@ -27679,7 +27679,7 @@
         <v>1000000</v>
       </c>
       <c r="Z322" s="6" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="323" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27687,7 +27687,7 @@
         <v>5000101</v>
       </c>
       <c r="D323" s="37" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E323" s="6">
         <v>5</v>
@@ -27753,7 +27753,7 @@
         <v>1000000</v>
       </c>
       <c r="Z323" s="6" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="324" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27761,7 +27761,7 @@
         <v>5001001</v>
       </c>
       <c r="D324" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E324" s="6">
         <v>5</v>
@@ -27827,7 +27827,7 @@
         <v>50000</v>
       </c>
       <c r="Z324" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="325" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27835,7 +27835,7 @@
         <v>5001002</v>
       </c>
       <c r="D325" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E325" s="6">
         <v>5</v>
@@ -27901,7 +27901,7 @@
         <v>100000</v>
       </c>
       <c r="Z325" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="326" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27909,7 +27909,7 @@
         <v>5001003</v>
       </c>
       <c r="D326" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E326" s="6">
         <v>5</v>
@@ -27975,7 +27975,7 @@
         <v>300000</v>
       </c>
       <c r="Z326" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="327" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27983,7 +27983,7 @@
         <v>5001004</v>
       </c>
       <c r="D327" s="38" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E327" s="6">
         <v>5</v>
@@ -28049,7 +28049,7 @@
         <v>300000</v>
       </c>
       <c r="Z327" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="328" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28057,7 +28057,7 @@
         <v>5002001</v>
       </c>
       <c r="D328" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E328" s="7">
         <v>0</v>
@@ -28123,7 +28123,7 @@
         <v>0</v>
       </c>
       <c r="Z328" s="39" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
     </row>
     <row r="329" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28131,7 +28131,7 @@
         <v>5002002</v>
       </c>
       <c r="D329" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E329" s="7">
         <v>0</v>
@@ -28197,7 +28197,7 @@
         <v>0</v>
       </c>
       <c r="Z329" s="39" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
     </row>
     <row r="330" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28205,7 +28205,7 @@
         <v>5002003</v>
       </c>
       <c r="D330" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E330" s="7">
         <v>0</v>
@@ -28271,7 +28271,7 @@
         <v>0</v>
       </c>
       <c r="Z330" s="39" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
     </row>
     <row r="331" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28279,7 +28279,7 @@
         <v>5002011</v>
       </c>
       <c r="D331" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E331" s="7">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="Z331" s="39" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
     </row>
     <row r="332" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28353,7 +28353,7 @@
         <v>5002012</v>
       </c>
       <c r="D332" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E332" s="7">
         <v>0</v>
@@ -28419,7 +28419,7 @@
         <v>0</v>
       </c>
       <c r="Z332" s="39" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
     </row>
     <row r="333" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28427,7 +28427,7 @@
         <v>5002013</v>
       </c>
       <c r="D333" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E333" s="7">
         <v>0</v>
@@ -28493,7 +28493,7 @@
         <v>0</v>
       </c>
       <c r="Z333" s="39" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
     </row>
     <row r="334" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28501,7 +28501,7 @@
         <v>5002021</v>
       </c>
       <c r="D334" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E334" s="7">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="Z334" s="39" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
     </row>
     <row r="335" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28575,7 +28575,7 @@
         <v>5002022</v>
       </c>
       <c r="D335" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E335" s="7">
         <v>0</v>
@@ -28641,7 +28641,7 @@
         <v>0</v>
       </c>
       <c r="Z335" s="39" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
     </row>
     <row r="336" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28649,7 +28649,7 @@
         <v>5002023</v>
       </c>
       <c r="D336" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E336" s="7">
         <v>0</v>
@@ -28715,7 +28715,7 @@
         <v>0</v>
       </c>
       <c r="Z336" s="39" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
     </row>
     <row r="337" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28723,7 +28723,7 @@
         <v>5002031</v>
       </c>
       <c r="D337" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E337" s="7">
         <v>0</v>
@@ -28789,7 +28789,7 @@
         <v>0</v>
       </c>
       <c r="Z337" s="39" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
     </row>
     <row r="338" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28797,7 +28797,7 @@
         <v>5002032</v>
       </c>
       <c r="D338" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E338" s="7">
         <v>0</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="Z338" s="39" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
     </row>
     <row r="339" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28871,7 +28871,7 @@
         <v>5002033</v>
       </c>
       <c r="D339" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E339" s="7">
         <v>0</v>
@@ -28937,7 +28937,7 @@
         <v>0</v>
       </c>
       <c r="Z339" s="39" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
     </row>
     <row r="340" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28945,7 +28945,7 @@
         <v>5002041</v>
       </c>
       <c r="D340" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E340" s="7">
         <v>0</v>
@@ -29011,7 +29011,7 @@
         <v>0</v>
       </c>
       <c r="Z340" s="39" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
     </row>
     <row r="341" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29019,7 +29019,7 @@
         <v>5002042</v>
       </c>
       <c r="D341" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E341" s="7">
         <v>0</v>
@@ -29085,7 +29085,7 @@
         <v>0</v>
       </c>
       <c r="Z341" s="39" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
     </row>
     <row r="342" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29093,7 +29093,7 @@
         <v>5002043</v>
       </c>
       <c r="D342" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E342" s="7">
         <v>0</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Z342" s="39" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
     </row>
     <row r="343" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29167,7 +29167,7 @@
         <v>5002051</v>
       </c>
       <c r="D343" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E343" s="7">
         <v>0</v>
@@ -29233,7 +29233,7 @@
         <v>0</v>
       </c>
       <c r="Z343" s="39" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
     </row>
     <row r="344" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29241,7 +29241,7 @@
         <v>5002052</v>
       </c>
       <c r="D344" s="18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E344" s="7">
         <v>0</v>
@@ -29307,7 +29307,7 @@
         <v>0</v>
       </c>
       <c r="Z344" s="39" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
     </row>
     <row r="345" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29315,7 +29315,7 @@
         <v>5002061</v>
       </c>
       <c r="D345" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E345" s="7">
         <v>0</v>
@@ -29381,7 +29381,7 @@
         <v>0</v>
       </c>
       <c r="Z345" s="39" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
     </row>
     <row r="346" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29389,7 +29389,7 @@
         <v>5002062</v>
       </c>
       <c r="D346" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E346" s="7">
         <v>0</v>
@@ -29455,7 +29455,7 @@
         <v>0</v>
       </c>
       <c r="Z346" s="39" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="347" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29463,7 +29463,7 @@
         <v>5002071</v>
       </c>
       <c r="D347" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E347" s="7">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="Z347" s="39" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
     </row>
     <row r="348" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29537,7 +29537,7 @@
         <v>5002072</v>
       </c>
       <c r="D348" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E348" s="7">
         <v>0</v>
@@ -29603,7 +29603,7 @@
         <v>0</v>
       </c>
       <c r="Z348" s="39" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
     </row>
     <row r="349" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29611,7 +29611,7 @@
         <v>5002081</v>
       </c>
       <c r="D349" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E349" s="7">
         <v>0</v>
@@ -29677,7 +29677,7 @@
         <v>0</v>
       </c>
       <c r="Z349" s="39" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
     </row>
     <row r="350" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29685,7 +29685,7 @@
         <v>5002082</v>
       </c>
       <c r="D350" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E350" s="7">
         <v>0</v>
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="Z350" s="39" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
     </row>
     <row r="351" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29759,7 +29759,7 @@
         <v>5002091</v>
       </c>
       <c r="D351" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E351" s="7">
         <v>0</v>
@@ -29825,7 +29825,7 @@
         <v>0</v>
       </c>
       <c r="Z351" s="39" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
     </row>
     <row r="352" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29833,7 +29833,7 @@
         <v>5002092</v>
       </c>
       <c r="D352" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E352" s="7">
         <v>0</v>
@@ -29899,7 +29899,7 @@
         <v>0</v>
       </c>
       <c r="Z352" s="39" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
     </row>
     <row r="353" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29907,7 +29907,7 @@
         <v>5002093</v>
       </c>
       <c r="D353" s="18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E353" s="7">
         <v>0</v>
@@ -29973,7 +29973,7 @@
         <v>0</v>
       </c>
       <c r="Z353" s="39" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
     </row>
     <row r="354" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29981,7 +29981,7 @@
         <v>5002101</v>
       </c>
       <c r="D354" s="18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E354" s="7">
         <v>0</v>
@@ -30047,7 +30047,7 @@
         <v>0</v>
       </c>
       <c r="Z354" s="39" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
     </row>
     <row r="355" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30055,7 +30055,7 @@
         <v>6101001</v>
       </c>
       <c r="D355" s="41" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E355" s="6">
         <v>6</v>
@@ -30122,7 +30122,7 @@
         <v>0</v>
       </c>
       <c r="Z355" s="42" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
     </row>
     <row r="356" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30130,7 +30130,7 @@
         <v>6101002</v>
       </c>
       <c r="D356" s="41" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E356" s="6">
         <v>6</v>
@@ -30197,7 +30197,7 @@
         <v>0</v>
       </c>
       <c r="Z356" s="42" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
     </row>
     <row r="357" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30205,7 +30205,7 @@
         <v>6101003</v>
       </c>
       <c r="D357" s="41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E357" s="6">
         <v>6</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="Z357" s="42" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
     </row>
     <row r="358" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30280,7 +30280,7 @@
         <v>6102001</v>
       </c>
       <c r="D358" s="41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E358" s="6">
         <v>6</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="Z358" s="42" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
     </row>
     <row r="359" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30356,7 +30356,7 @@
         <v>6102002</v>
       </c>
       <c r="D359" s="41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E359" s="6">
         <v>6</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Z359" s="42" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
     </row>
     <row r="360" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30432,7 +30432,7 @@
         <v>6102003</v>
       </c>
       <c r="D360" s="41" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E360" s="6">
         <v>6</v>
@@ -30498,7 +30498,7 @@
         <v>0</v>
       </c>
       <c r="Z360" s="42" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
     </row>
     <row r="361" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30507,7 +30507,7 @@
         <v>6103001</v>
       </c>
       <c r="D361" s="41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E361" s="6">
         <v>6</v>
@@ -30574,7 +30574,7 @@
         <v>0</v>
       </c>
       <c r="Z361" s="42" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
     </row>
     <row r="362" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30583,7 +30583,7 @@
         <v>6103002</v>
       </c>
       <c r="D362" s="41" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E362" s="6">
         <v>6</v>
@@ -30650,7 +30650,7 @@
         <v>0</v>
       </c>
       <c r="Z362" s="42" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
     </row>
     <row r="363" spans="3:26" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -30659,7 +30659,7 @@
         <v>6103003</v>
       </c>
       <c r="D363" s="41" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E363" s="6">
         <v>6</v>
@@ -30725,7 +30725,7 @@
         <v>0</v>
       </c>
       <c r="Z363" s="42" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
     </row>
     <row r="364" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30733,7 +30733,7 @@
         <v>6104001</v>
       </c>
       <c r="D364" s="41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E364" s="6">
         <v>6</v>
@@ -30800,7 +30800,7 @@
         <v>0</v>
       </c>
       <c r="Z364" s="42" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
     </row>
     <row r="365" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30808,7 +30808,7 @@
         <v>6104002</v>
       </c>
       <c r="D365" s="41" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E365" s="6">
         <v>6</v>
@@ -30875,7 +30875,7 @@
         <v>0</v>
       </c>
       <c r="Z365" s="42" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
     </row>
     <row r="366" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30883,7 +30883,7 @@
         <v>6104003</v>
       </c>
       <c r="D366" s="41" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E366" s="6">
         <v>6</v>
@@ -30950,7 +30950,7 @@
         <v>0</v>
       </c>
       <c r="Z366" s="42" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
     </row>
     <row r="367" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30958,7 +30958,7 @@
         <v>6104004</v>
       </c>
       <c r="D367" s="41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E367" s="6">
         <v>6</v>
@@ -31024,7 +31024,7 @@
         <v>0</v>
       </c>
       <c r="Z367" s="42" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
     </row>
     <row r="368" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31032,7 +31032,7 @@
         <v>6105001</v>
       </c>
       <c r="D368" s="41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E368" s="6">
         <v>6</v>
@@ -31099,7 +31099,7 @@
         <v>0</v>
       </c>
       <c r="Z368" s="42" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
     </row>
     <row r="369" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31107,7 +31107,7 @@
         <v>6105002</v>
       </c>
       <c r="D369" s="41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E369" s="6">
         <v>6</v>
@@ -31174,7 +31174,7 @@
         <v>0</v>
       </c>
       <c r="Z369" s="42" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
     </row>
     <row r="370" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31182,7 +31182,7 @@
         <v>6105003</v>
       </c>
       <c r="D370" s="41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E370" s="6">
         <v>6</v>
@@ -31249,7 +31249,7 @@
         <v>0</v>
       </c>
       <c r="Z370" s="42" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
     </row>
     <row r="371" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31257,7 +31257,7 @@
         <v>6105004</v>
       </c>
       <c r="D371" s="41" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E371" s="6">
         <v>6</v>
@@ -31323,7 +31323,7 @@
         <v>0</v>
       </c>
       <c r="Z371" s="42" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
     </row>
     <row r="372" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31331,7 +31331,7 @@
         <v>6106001</v>
       </c>
       <c r="D372" s="41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E372" s="6">
         <v>6</v>
@@ -31398,7 +31398,7 @@
         <v>0</v>
       </c>
       <c r="Z372" s="42" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
     </row>
     <row r="373" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31406,7 +31406,7 @@
         <v>6106002</v>
       </c>
       <c r="D373" s="41" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E373" s="6">
         <v>6</v>
@@ -31473,7 +31473,7 @@
         <v>0</v>
       </c>
       <c r="Z373" s="42" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
     </row>
     <row r="374" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31481,7 +31481,7 @@
         <v>6106003</v>
       </c>
       <c r="D374" s="41" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E374" s="6">
         <v>6</v>
@@ -31547,7 +31547,7 @@
         <v>0</v>
       </c>
       <c r="Z374" s="42" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
     </row>
     <row r="375" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31555,7 +31555,7 @@
         <v>6201001</v>
       </c>
       <c r="D375" s="41" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E375" s="6">
         <v>6</v>
@@ -31621,7 +31621,7 @@
         <v>0</v>
       </c>
       <c r="Z375" s="42" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
     </row>
     <row r="376" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31629,7 +31629,7 @@
         <v>6201002</v>
       </c>
       <c r="D376" s="41" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E376" s="6">
         <v>6</v>
@@ -31695,7 +31695,7 @@
         <v>0</v>
       </c>
       <c r="Z376" s="42" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
     </row>
     <row r="377" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31703,7 +31703,7 @@
         <v>6201003</v>
       </c>
       <c r="D377" s="41" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E377" s="6">
         <v>6</v>
@@ -31769,7 +31769,7 @@
         <v>0</v>
       </c>
       <c r="Z377" s="42" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
     </row>
     <row r="378" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31777,7 +31777,7 @@
         <v>6202001</v>
       </c>
       <c r="D378" s="41" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E378" s="6">
         <v>6</v>
@@ -31843,7 +31843,7 @@
         <v>0</v>
       </c>
       <c r="Z378" s="42" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
     </row>
     <row r="379" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31851,7 +31851,7 @@
         <v>6202002</v>
       </c>
       <c r="D379" s="41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E379" s="6">
         <v>6</v>
@@ -31917,7 +31917,7 @@
         <v>0</v>
       </c>
       <c r="Z379" s="42" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
     </row>
     <row r="380" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31925,7 +31925,7 @@
         <v>6202003</v>
       </c>
       <c r="D380" s="41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E380" s="6">
         <v>6</v>
@@ -31991,7 +31991,7 @@
         <v>0</v>
       </c>
       <c r="Z380" s="42" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
     </row>
     <row r="381" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31999,7 +31999,7 @@
         <v>6203001</v>
       </c>
       <c r="D381" s="41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E381" s="6">
         <v>6</v>
@@ -32065,7 +32065,7 @@
         <v>0</v>
       </c>
       <c r="Z381" s="42" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
     </row>
     <row r="382" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32073,7 +32073,7 @@
         <v>6203002</v>
       </c>
       <c r="D382" s="41" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E382" s="6">
         <v>6</v>
@@ -32139,7 +32139,7 @@
         <v>0</v>
       </c>
       <c r="Z382" s="42" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
     </row>
     <row r="383" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32147,7 +32147,7 @@
         <v>6203003</v>
       </c>
       <c r="D383" s="41" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E383" s="6">
         <v>6</v>
@@ -32213,7 +32213,7 @@
         <v>0</v>
       </c>
       <c r="Z383" s="42" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
     </row>
     <row r="384" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32221,7 +32221,7 @@
         <v>6204001</v>
       </c>
       <c r="D384" s="41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E384" s="6">
         <v>6</v>
@@ -32287,7 +32287,7 @@
         <v>0</v>
       </c>
       <c r="Z384" s="42" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
     </row>
     <row r="385" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32295,7 +32295,7 @@
         <v>6204002</v>
       </c>
       <c r="D385" s="41" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E385" s="6">
         <v>6</v>
@@ -32361,7 +32361,7 @@
         <v>0</v>
       </c>
       <c r="Z385" s="42" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
     </row>
     <row r="386" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32369,7 +32369,7 @@
         <v>6204003</v>
       </c>
       <c r="D386" s="41" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E386" s="6">
         <v>6</v>
@@ -32435,7 +32435,7 @@
         <v>0</v>
       </c>
       <c r="Z386" s="42" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
     </row>
     <row r="387" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32443,7 +32443,7 @@
         <v>6204004</v>
       </c>
       <c r="D387" s="41" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E387" s="6">
         <v>6</v>
@@ -32509,7 +32509,7 @@
         <v>0</v>
       </c>
       <c r="Z387" s="42" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
     </row>
     <row r="388" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32517,7 +32517,7 @@
         <v>6205001</v>
       </c>
       <c r="D388" s="41" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E388" s="6">
         <v>6</v>
@@ -32583,7 +32583,7 @@
         <v>0</v>
       </c>
       <c r="Z388" s="42" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
     </row>
     <row r="389" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32591,7 +32591,7 @@
         <v>6205002</v>
       </c>
       <c r="D389" s="41" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E389" s="6">
         <v>6</v>
@@ -32657,7 +32657,7 @@
         <v>0</v>
       </c>
       <c r="Z389" s="42" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
     </row>
     <row r="390" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32665,7 +32665,7 @@
         <v>6205003</v>
       </c>
       <c r="D390" s="41" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E390" s="6">
         <v>6</v>
@@ -32731,7 +32731,7 @@
         <v>0</v>
       </c>
       <c r="Z390" s="42" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
     </row>
     <row r="391" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32739,7 +32739,7 @@
         <v>6205004</v>
       </c>
       <c r="D391" s="41" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E391" s="6">
         <v>6</v>
@@ -32805,7 +32805,7 @@
         <v>0</v>
       </c>
       <c r="Z391" s="42" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
     </row>
     <row r="392" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32813,7 +32813,7 @@
         <v>6206001</v>
       </c>
       <c r="D392" s="41" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E392" s="6">
         <v>6</v>
@@ -32879,7 +32879,7 @@
         <v>0</v>
       </c>
       <c r="Z392" s="42" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
     </row>
     <row r="393" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32887,7 +32887,7 @@
         <v>6206002</v>
       </c>
       <c r="D393" s="41" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E393" s="6">
         <v>6</v>
@@ -32953,7 +32953,7 @@
         <v>0</v>
       </c>
       <c r="Z393" s="42" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
     </row>
     <row r="394" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32961,7 +32961,7 @@
         <v>6206003</v>
       </c>
       <c r="D394" s="41" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E394" s="6">
         <v>6</v>
@@ -33027,7 +33027,7 @@
         <v>0</v>
       </c>
       <c r="Z394" s="42" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
     </row>
     <row r="395" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33035,7 +33035,7 @@
         <v>6301001</v>
       </c>
       <c r="D395" s="41" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E395" s="6">
         <v>6</v>
@@ -33102,7 +33102,7 @@
         <v>0</v>
       </c>
       <c r="Z395" s="42" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
     </row>
     <row r="396" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33110,7 +33110,7 @@
         <v>6301002</v>
       </c>
       <c r="D396" s="41" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E396" s="6">
         <v>6</v>
@@ -33177,7 +33177,7 @@
         <v>0</v>
       </c>
       <c r="Z396" s="42" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
     </row>
     <row r="397" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33185,7 +33185,7 @@
         <v>6301003</v>
       </c>
       <c r="D397" s="41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E397" s="6">
         <v>6</v>
@@ -33252,7 +33252,7 @@
         <v>0</v>
       </c>
       <c r="Z397" s="42" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
     </row>
     <row r="398" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33260,7 +33260,7 @@
         <v>6302001</v>
       </c>
       <c r="D398" s="41" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E398" s="6">
         <v>6</v>
@@ -33327,7 +33327,7 @@
         <v>0</v>
       </c>
       <c r="Z398" s="42" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
     </row>
     <row r="399" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33335,7 +33335,7 @@
         <v>6302002</v>
       </c>
       <c r="D399" s="41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E399" s="6">
         <v>6</v>
@@ -33401,7 +33401,7 @@
         <v>0</v>
       </c>
       <c r="Z399" s="42" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
     </row>
     <row r="400" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33409,7 +33409,7 @@
         <v>6302003</v>
       </c>
       <c r="D400" s="41" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E400" s="6">
         <v>6</v>
@@ -33476,7 +33476,7 @@
         <v>0</v>
       </c>
       <c r="Z400" s="42" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
     </row>
     <row r="401" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33484,7 +33484,7 @@
         <v>6303001</v>
       </c>
       <c r="D401" s="41" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E401" s="6">
         <v>6</v>
@@ -33551,7 +33551,7 @@
         <v>0</v>
       </c>
       <c r="Z401" s="42" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
     </row>
     <row r="402" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33559,7 +33559,7 @@
         <v>6303002</v>
       </c>
       <c r="D402" s="41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E402" s="6">
         <v>6</v>
@@ -33625,7 +33625,7 @@
         <v>0</v>
       </c>
       <c r="Z402" s="42" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
     </row>
     <row r="403" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33633,7 +33633,7 @@
         <v>6303003</v>
       </c>
       <c r="D403" s="41" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E403" s="6">
         <v>6</v>
@@ -33700,7 +33700,7 @@
         <v>0</v>
       </c>
       <c r="Z403" s="42" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
     </row>
     <row r="404" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33708,7 +33708,7 @@
         <v>6304001</v>
       </c>
       <c r="D404" s="41" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E404" s="6">
         <v>6</v>
@@ -33775,7 +33775,7 @@
         <v>0</v>
       </c>
       <c r="Z404" s="42" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
     </row>
     <row r="405" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33783,7 +33783,7 @@
         <v>6304002</v>
       </c>
       <c r="D405" s="41" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E405" s="6">
         <v>6</v>
@@ -33849,7 +33849,7 @@
         <v>0</v>
       </c>
       <c r="Z405" s="42" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
     </row>
     <row r="406" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33857,7 +33857,7 @@
         <v>6304003</v>
       </c>
       <c r="D406" s="41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E406" s="6">
         <v>6</v>
@@ -33923,7 +33923,7 @@
         <v>0</v>
       </c>
       <c r="Z406" s="42" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
     </row>
     <row r="407" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33931,7 +33931,7 @@
         <v>6304004</v>
       </c>
       <c r="D407" s="41" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E407" s="6">
         <v>6</v>
@@ -33998,7 +33998,7 @@
         <v>0</v>
       </c>
       <c r="Z407" s="42" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
     </row>
     <row r="408" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34006,7 +34006,7 @@
         <v>6305001</v>
       </c>
       <c r="D408" s="41" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E408" s="6">
         <v>6</v>
@@ -34073,7 +34073,7 @@
         <v>0</v>
       </c>
       <c r="Z408" s="42" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
     </row>
     <row r="409" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34081,7 +34081,7 @@
         <v>6305002</v>
       </c>
       <c r="D409" s="41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E409" s="6">
         <v>6</v>
@@ -34147,7 +34147,7 @@
         <v>0</v>
       </c>
       <c r="Z409" s="42" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
     </row>
     <row r="410" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34155,7 +34155,7 @@
         <v>6305003</v>
       </c>
       <c r="D410" s="41" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E410" s="6">
         <v>6</v>
@@ -34221,7 +34221,7 @@
         <v>0</v>
       </c>
       <c r="Z410" s="42" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
     </row>
     <row r="411" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34229,7 +34229,7 @@
         <v>6305004</v>
       </c>
       <c r="D411" s="41" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E411" s="6">
         <v>6</v>
@@ -34296,7 +34296,7 @@
         <v>0</v>
       </c>
       <c r="Z411" s="42" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
     </row>
     <row r="412" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34304,7 +34304,7 @@
         <v>6306001</v>
       </c>
       <c r="D412" s="41" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E412" s="6">
         <v>6</v>
@@ -34371,7 +34371,7 @@
         <v>0</v>
       </c>
       <c r="Z412" s="42" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
     </row>
     <row r="413" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34379,7 +34379,7 @@
         <v>6306002</v>
       </c>
       <c r="D413" s="41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E413" s="6">
         <v>6</v>
@@ -34445,7 +34445,7 @@
         <v>0</v>
       </c>
       <c r="Z413" s="42" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
     </row>
     <row r="414" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34453,7 +34453,7 @@
         <v>6306003</v>
       </c>
       <c r="D414" s="41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E414" s="6">
         <v>6</v>
@@ -34519,7 +34519,7 @@
         <v>0</v>
       </c>
       <c r="Z414" s="42" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
     </row>
     <row r="415" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34527,7 +34527,7 @@
         <v>7101001</v>
       </c>
       <c r="D415" s="41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E415" s="6">
         <v>1</v>
@@ -34593,7 +34593,7 @@
         <v>0</v>
       </c>
       <c r="Z415" s="42" t="s">
-        <v>808</v>
+        <v>761</v>
       </c>
     </row>
     <row r="416" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34601,7 +34601,7 @@
         <v>7101002</v>
       </c>
       <c r="D416" s="41" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E416" s="6">
         <v>1</v>
@@ -34667,7 +34667,7 @@
         <v>0</v>
       </c>
       <c r="Z416" s="8" t="s">
-        <v>808</v>
+        <v>761</v>
       </c>
     </row>
     <row r="417" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34675,7 +34675,7 @@
         <v>7101003</v>
       </c>
       <c r="D417" s="41" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E417" s="6">
         <v>1</v>
@@ -34741,7 +34741,7 @@
         <v>0</v>
       </c>
       <c r="Z417" s="8" t="s">
-        <v>808</v>
+        <v>761</v>
       </c>
     </row>
     <row r="418" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34749,7 +34749,7 @@
         <v>7101004</v>
       </c>
       <c r="D418" s="41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E418" s="6">
         <v>1</v>
@@ -34815,7 +34815,7 @@
         <v>0</v>
       </c>
       <c r="Z418" s="8" t="s">
-        <v>808</v>
+        <v>761</v>
       </c>
     </row>
     <row r="419" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34823,7 +34823,7 @@
         <v>7102001</v>
       </c>
       <c r="D419" s="41" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E419" s="6">
         <v>1</v>
@@ -34890,7 +34890,7 @@
         <v>0</v>
       </c>
       <c r="Z419" s="8" t="s">
-        <v>809</v>
+        <v>762</v>
       </c>
     </row>
     <row r="420" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34898,7 +34898,7 @@
         <v>7102002</v>
       </c>
       <c r="D420" s="41" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E420" s="6">
         <v>1</v>
@@ -34965,7 +34965,7 @@
         <v>0</v>
       </c>
       <c r="Z420" s="8" t="s">
-        <v>809</v>
+        <v>762</v>
       </c>
     </row>
     <row r="421" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34973,7 +34973,7 @@
         <v>7102003</v>
       </c>
       <c r="D421" s="41" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E421" s="6">
         <v>1</v>
@@ -35040,7 +35040,7 @@
         <v>0</v>
       </c>
       <c r="Z421" s="8" t="s">
-        <v>809</v>
+        <v>762</v>
       </c>
     </row>
     <row r="422" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35048,7 +35048,7 @@
         <v>7102004</v>
       </c>
       <c r="D422" s="41" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E422" s="6">
         <v>1</v>
@@ -35115,7 +35115,7 @@
         <v>0</v>
       </c>
       <c r="Z422" s="8" t="s">
-        <v>809</v>
+        <v>762</v>
       </c>
     </row>
     <row r="423" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35123,7 +35123,7 @@
         <v>7103001</v>
       </c>
       <c r="D423" s="41" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E423" s="6">
         <v>1</v>
@@ -35190,7 +35190,7 @@
         <v>0</v>
       </c>
       <c r="Z423" s="8" t="s">
-        <v>810</v>
+        <v>763</v>
       </c>
     </row>
     <row r="424" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35198,7 +35198,7 @@
         <v>7103002</v>
       </c>
       <c r="D424" s="41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E424" s="6">
         <v>1</v>
@@ -35265,7 +35265,7 @@
         <v>0</v>
       </c>
       <c r="Z424" s="8" t="s">
-        <v>810</v>
+        <v>763</v>
       </c>
     </row>
     <row r="425" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35273,7 +35273,7 @@
         <v>7103003</v>
       </c>
       <c r="D425" s="41" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E425" s="6">
         <v>1</v>
@@ -35340,7 +35340,7 @@
         <v>0</v>
       </c>
       <c r="Z425" s="8" t="s">
-        <v>810</v>
+        <v>763</v>
       </c>
     </row>
     <row r="426" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35348,7 +35348,7 @@
         <v>7103004</v>
       </c>
       <c r="D426" s="41" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E426" s="6">
         <v>1</v>
@@ -35415,7 +35415,7 @@
         <v>0</v>
       </c>
       <c r="Z426" s="8" t="s">
-        <v>810</v>
+        <v>763</v>
       </c>
     </row>
     <row r="427" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35423,7 +35423,7 @@
         <v>7201001</v>
       </c>
       <c r="D427" s="30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E427" s="6">
         <v>2</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="Z427" s="8" t="s">
-        <v>811</v>
+        <v>764</v>
       </c>
     </row>
     <row r="428" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35497,7 +35497,7 @@
         <v>7201002</v>
       </c>
       <c r="D428" s="30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E428" s="6">
         <v>2</v>
@@ -35563,7 +35563,7 @@
         <v>0</v>
       </c>
       <c r="Z428" s="8" t="s">
-        <v>811</v>
+        <v>764</v>
       </c>
     </row>
     <row r="429" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35571,7 +35571,7 @@
         <v>7201003</v>
       </c>
       <c r="D429" s="30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E429" s="6">
         <v>2</v>
@@ -35637,7 +35637,7 @@
         <v>0</v>
       </c>
       <c r="Z429" s="8" t="s">
-        <v>811</v>
+        <v>764</v>
       </c>
     </row>
     <row r="430" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35645,7 +35645,7 @@
         <v>7201004</v>
       </c>
       <c r="D430" s="30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E430" s="6">
         <v>2</v>
@@ -35711,7 +35711,7 @@
         <v>0</v>
       </c>
       <c r="Z430" s="8" t="s">
-        <v>811</v>
+        <v>764</v>
       </c>
     </row>
     <row r="431" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35719,7 +35719,7 @@
         <v>7202001</v>
       </c>
       <c r="D431" s="30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E431" s="6">
         <v>2</v>
@@ -35786,7 +35786,7 @@
         <v>0</v>
       </c>
       <c r="Z431" s="8" t="s">
-        <v>812</v>
+        <v>765</v>
       </c>
     </row>
     <row r="432" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35794,7 +35794,7 @@
         <v>7202002</v>
       </c>
       <c r="D432" s="30" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E432" s="6">
         <v>2</v>
@@ -35861,7 +35861,7 @@
         <v>0</v>
       </c>
       <c r="Z432" s="8" t="s">
-        <v>812</v>
+        <v>765</v>
       </c>
     </row>
     <row r="433" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35869,7 +35869,7 @@
         <v>7202003</v>
       </c>
       <c r="D433" s="30" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E433" s="6">
         <v>2</v>
@@ -35936,7 +35936,7 @@
         <v>0</v>
       </c>
       <c r="Z433" s="8" t="s">
-        <v>812</v>
+        <v>765</v>
       </c>
     </row>
     <row r="434" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35944,7 +35944,7 @@
         <v>7202004</v>
       </c>
       <c r="D434" s="30" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E434" s="6">
         <v>2</v>
@@ -36011,7 +36011,7 @@
         <v>0</v>
       </c>
       <c r="Z434" s="8" t="s">
-        <v>812</v>
+        <v>765</v>
       </c>
     </row>
     <row r="435" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36019,7 +36019,7 @@
         <v>7203001</v>
       </c>
       <c r="D435" s="30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E435" s="6">
         <v>2</v>
@@ -36086,7 +36086,7 @@
         <v>0</v>
       </c>
       <c r="Z435" s="8" t="s">
-        <v>813</v>
+        <v>766</v>
       </c>
     </row>
     <row r="436" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36094,7 +36094,7 @@
         <v>7203002</v>
       </c>
       <c r="D436" s="30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E436" s="6">
         <v>2</v>
@@ -36161,7 +36161,7 @@
         <v>0</v>
       </c>
       <c r="Z436" s="8" t="s">
-        <v>813</v>
+        <v>766</v>
       </c>
     </row>
     <row r="437" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36169,7 +36169,7 @@
         <v>7203003</v>
       </c>
       <c r="D437" s="30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E437" s="6">
         <v>2</v>
@@ -36236,7 +36236,7 @@
         <v>0</v>
       </c>
       <c r="Z437" s="8" t="s">
-        <v>813</v>
+        <v>766</v>
       </c>
     </row>
     <row r="438" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36244,7 +36244,7 @@
         <v>7203004</v>
       </c>
       <c r="D438" s="30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E438" s="6">
         <v>2</v>
@@ -36311,7 +36311,7 @@
         <v>0</v>
       </c>
       <c r="Z438" s="8" t="s">
-        <v>813</v>
+        <v>766</v>
       </c>
     </row>
     <row r="439" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36319,7 +36319,7 @@
         <v>7204101</v>
       </c>
       <c r="D439" s="30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E439" s="6">
         <v>2</v>
@@ -36385,7 +36385,7 @@
         <v>0</v>
       </c>
       <c r="Z439" s="8" t="s">
-        <v>814</v>
+        <v>767</v>
       </c>
     </row>
     <row r="440" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36393,7 +36393,7 @@
         <v>7204102</v>
       </c>
       <c r="D440" s="30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E440" s="6">
         <v>2</v>
@@ -36459,7 +36459,7 @@
         <v>0</v>
       </c>
       <c r="Z440" s="8" t="s">
-        <v>815</v>
+        <v>768</v>
       </c>
     </row>
     <row r="441" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36467,7 +36467,7 @@
         <v>7204103</v>
       </c>
       <c r="D441" s="30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E441" s="6">
         <v>2</v>
@@ -36533,7 +36533,7 @@
         <v>0</v>
       </c>
       <c r="Z441" s="8" t="s">
-        <v>816</v>
+        <v>769</v>
       </c>
     </row>
     <row r="442" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36541,7 +36541,7 @@
         <v>7204201</v>
       </c>
       <c r="D442" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E442" s="6">
         <v>2</v>
@@ -36607,7 +36607,7 @@
         <v>0</v>
       </c>
       <c r="Z442" s="8" t="s">
-        <v>814</v>
+        <v>767</v>
       </c>
     </row>
     <row r="443" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36615,7 +36615,7 @@
         <v>7204202</v>
       </c>
       <c r="D443" s="30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E443" s="6">
         <v>2</v>
@@ -36681,7 +36681,7 @@
         <v>0</v>
       </c>
       <c r="Z443" s="8" t="s">
-        <v>815</v>
+        <v>768</v>
       </c>
     </row>
     <row r="444" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36689,7 +36689,7 @@
         <v>7204203</v>
       </c>
       <c r="D444" s="30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E444" s="6">
         <v>2</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="Z444" s="8" t="s">
-        <v>816</v>
+        <v>769</v>
       </c>
     </row>
     <row r="445" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36763,7 +36763,7 @@
         <v>7204301</v>
       </c>
       <c r="D445" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E445" s="6">
         <v>2</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="Z445" s="8" t="s">
-        <v>814</v>
+        <v>767</v>
       </c>
     </row>
     <row r="446" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36837,7 +36837,7 @@
         <v>7204302</v>
       </c>
       <c r="D446" s="30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E446" s="6">
         <v>2</v>
@@ -36903,7 +36903,7 @@
         <v>0</v>
       </c>
       <c r="Z446" s="8" t="s">
-        <v>815</v>
+        <v>768</v>
       </c>
     </row>
     <row r="447" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36911,7 +36911,7 @@
         <v>7204303</v>
       </c>
       <c r="D447" s="30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E447" s="6">
         <v>2</v>
@@ -36977,7 +36977,7 @@
         <v>0</v>
       </c>
       <c r="Z447" s="8" t="s">
-        <v>816</v>
+        <v>769</v>
       </c>
     </row>
     <row r="448" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36985,7 +36985,7 @@
         <v>7204401</v>
       </c>
       <c r="D448" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E448" s="6">
         <v>2</v>
@@ -37051,7 +37051,7 @@
         <v>0</v>
       </c>
       <c r="Z448" s="8" t="s">
-        <v>814</v>
+        <v>767</v>
       </c>
     </row>
     <row r="449" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37059,7 +37059,7 @@
         <v>7204402</v>
       </c>
       <c r="D449" s="30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E449" s="6">
         <v>2</v>
@@ -37125,7 +37125,7 @@
         <v>0</v>
       </c>
       <c r="Z449" s="8" t="s">
-        <v>815</v>
+        <v>768</v>
       </c>
     </row>
     <row r="450" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37133,7 +37133,7 @@
         <v>7204403</v>
       </c>
       <c r="D450" s="30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E450" s="6">
         <v>2</v>
@@ -37199,7 +37199,7 @@
         <v>0</v>
       </c>
       <c r="Z450" s="8" t="s">
-        <v>816</v>
+        <v>769</v>
       </c>
     </row>
     <row r="451" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37207,7 +37207,7 @@
         <v>7204501</v>
       </c>
       <c r="D451" s="30" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E451" s="6">
         <v>2</v>
@@ -37273,7 +37273,7 @@
         <v>0</v>
       </c>
       <c r="Z451" s="8" t="s">
-        <v>814</v>
+        <v>767</v>
       </c>
     </row>
     <row r="452" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37281,7 +37281,7 @@
         <v>7204502</v>
       </c>
       <c r="D452" s="30" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E452" s="6">
         <v>2</v>
@@ -37347,7 +37347,7 @@
         <v>0</v>
       </c>
       <c r="Z452" s="8" t="s">
-        <v>815</v>
+        <v>768</v>
       </c>
     </row>
     <row r="453" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37355,7 +37355,7 @@
         <v>7204503</v>
       </c>
       <c r="D453" s="30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E453" s="6">
         <v>2</v>
@@ -37421,7 +37421,7 @@
         <v>0</v>
       </c>
       <c r="Z453" s="8" t="s">
-        <v>816</v>
+        <v>769</v>
       </c>
     </row>
     <row r="454" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37429,7 +37429,7 @@
         <v>7301001</v>
       </c>
       <c r="D454" s="30" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E454" s="6">
         <v>3</v>
@@ -37495,7 +37495,7 @@
         <v>0</v>
       </c>
       <c r="Z454" s="8" t="s">
-        <v>817</v>
+        <v>784</v>
       </c>
     </row>
     <row r="455" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37503,7 +37503,7 @@
         <v>7301002</v>
       </c>
       <c r="D455" s="30" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E455" s="6">
         <v>3</v>
@@ -37569,7 +37569,7 @@
         <v>0</v>
       </c>
       <c r="Z455" s="8" t="s">
-        <v>817</v>
+        <v>784</v>
       </c>
     </row>
     <row r="456" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37577,7 +37577,7 @@
         <v>7302001</v>
       </c>
       <c r="D456" s="30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E456" s="6">
         <v>3</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="Z456" s="8" t="s">
-        <v>818</v>
+        <v>785</v>
       </c>
     </row>
     <row r="457" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37651,7 +37651,7 @@
         <v>7302002</v>
       </c>
       <c r="D457" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E457" s="6">
         <v>3</v>
@@ -37717,7 +37717,7 @@
         <v>0</v>
       </c>
       <c r="Z457" s="8" t="s">
-        <v>818</v>
+        <v>785</v>
       </c>
     </row>
     <row r="458" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37725,7 +37725,7 @@
         <v>7303001</v>
       </c>
       <c r="D458" s="30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E458" s="6">
         <v>3</v>
@@ -37791,7 +37791,7 @@
         <v>0</v>
       </c>
       <c r="Z458" s="8" t="s">
-        <v>819</v>
+        <v>786</v>
       </c>
     </row>
     <row r="459" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37799,7 +37799,7 @@
         <v>7303002</v>
       </c>
       <c r="D459" s="30" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E459" s="6">
         <v>3</v>
@@ -37865,7 +37865,7 @@
         <v>0</v>
       </c>
       <c r="Z459" s="8" t="s">
-        <v>819</v>
+        <v>786</v>
       </c>
     </row>
     <row r="460" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -37873,7 +37873,7 @@
         <v>8000001</v>
       </c>
       <c r="D460" s="30" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E460" s="6">
         <v>8</v>
@@ -37939,7 +37939,7 @@
         <v>0</v>
       </c>
       <c r="Z460" s="43" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="461" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -37947,7 +37947,7 @@
         <v>8000002</v>
       </c>
       <c r="D461" s="30" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E461" s="6">
         <v>8</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="Z461" s="43" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="462" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38021,7 +38021,7 @@
         <v>8000003</v>
       </c>
       <c r="D462" s="30" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E462" s="6">
         <v>8</v>
@@ -38087,7 +38087,7 @@
         <v>0</v>
       </c>
       <c r="Z462" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="463" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38095,7 +38095,7 @@
         <v>8000004</v>
       </c>
       <c r="D463" s="30" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E463" s="6">
         <v>8</v>
@@ -38161,7 +38161,7 @@
         <v>0</v>
       </c>
       <c r="Z463" s="43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="464" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38169,7 +38169,7 @@
         <v>8000005</v>
       </c>
       <c r="D464" s="30" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E464" s="6">
         <v>8</v>
@@ -38235,7 +38235,7 @@
         <v>0</v>
       </c>
       <c r="Z464" s="43" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="465" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38243,7 +38243,7 @@
         <v>8000006</v>
       </c>
       <c r="D465" s="30" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E465" s="6">
         <v>8</v>
@@ -38309,7 +38309,7 @@
         <v>0</v>
       </c>
       <c r="Z465" s="43" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="466" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38317,7 +38317,7 @@
         <v>8000007</v>
       </c>
       <c r="D466" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E466" s="6">
         <v>8</v>
@@ -38383,7 +38383,7 @@
         <v>0</v>
       </c>
       <c r="Z466" s="43" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="467" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38391,7 +38391,7 @@
         <v>8000008</v>
       </c>
       <c r="D467" s="30" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E467" s="6">
         <v>8</v>
@@ -38457,7 +38457,7 @@
         <v>0</v>
       </c>
       <c r="Z467" s="43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="468" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38465,7 +38465,7 @@
         <v>8000009</v>
       </c>
       <c r="D468" s="30" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E468" s="6">
         <v>8</v>
@@ -38531,7 +38531,7 @@
         <v>0</v>
       </c>
       <c r="Z468" s="43" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="469" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38539,7 +38539,7 @@
         <v>8000010</v>
       </c>
       <c r="D469" s="30" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E469" s="6">
         <v>8</v>
@@ -38605,7 +38605,7 @@
         <v>0</v>
       </c>
       <c r="Z469" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="470" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38613,7 +38613,7 @@
         <v>8000011</v>
       </c>
       <c r="D470" s="30" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E470" s="6">
         <v>8</v>
@@ -38679,7 +38679,7 @@
         <v>0</v>
       </c>
       <c r="Z470" s="43" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="471" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38687,7 +38687,7 @@
         <v>8000012</v>
       </c>
       <c r="D471" s="30" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E471" s="6">
         <v>8</v>
@@ -38753,7 +38753,7 @@
         <v>0</v>
       </c>
       <c r="Z471" s="43" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="472" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38761,7 +38761,7 @@
         <v>8000013</v>
       </c>
       <c r="D472" s="30" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E472" s="6">
         <v>8</v>
@@ -38827,7 +38827,7 @@
         <v>0</v>
       </c>
       <c r="Z472" s="43" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="473" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38835,7 +38835,7 @@
         <v>8000014</v>
       </c>
       <c r="D473" s="30" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E473" s="6">
         <v>8</v>
@@ -38901,7 +38901,7 @@
         <v>0</v>
       </c>
       <c r="Z473" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="474" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38909,7 +38909,7 @@
         <v>8000015</v>
       </c>
       <c r="D474" s="30" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E474" s="6">
         <v>8</v>
@@ -38975,7 +38975,7 @@
         <v>0</v>
       </c>
       <c r="Z474" s="43" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="475" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38983,7 +38983,7 @@
         <v>8000016</v>
       </c>
       <c r="D475" s="30" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E475" s="6">
         <v>8</v>
@@ -39049,7 +39049,7 @@
         <v>0</v>
       </c>
       <c r="Z475" s="43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="476" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39057,7 +39057,7 @@
         <v>8000017</v>
       </c>
       <c r="D476" s="30" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E476" s="6">
         <v>8</v>
@@ -39123,7 +39123,7 @@
         <v>0</v>
       </c>
       <c r="Z476" s="43" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="477" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39131,7 +39131,7 @@
         <v>8000018</v>
       </c>
       <c r="D477" s="30" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E477" s="6">
         <v>8</v>
@@ -39197,7 +39197,7 @@
         <v>0</v>
       </c>
       <c r="Z477" s="43" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="478" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39205,7 +39205,7 @@
         <v>8000019</v>
       </c>
       <c r="D478" s="30" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E478" s="6">
         <v>8</v>
@@ -39271,7 +39271,7 @@
         <v>0</v>
       </c>
       <c r="Z478" s="43" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="479" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39279,7 +39279,7 @@
         <v>8000020</v>
       </c>
       <c r="D479" s="30" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E479" s="6">
         <v>8</v>
@@ -39345,7 +39345,7 @@
         <v>0</v>
       </c>
       <c r="Z479" s="43" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="480" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39353,7 +39353,7 @@
         <v>8000021</v>
       </c>
       <c r="D480" s="30" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E480" s="6">
         <v>8</v>
@@ -39419,7 +39419,7 @@
         <v>0</v>
       </c>
       <c r="Z480" s="43" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="481" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39427,7 +39427,7 @@
         <v>8000022</v>
       </c>
       <c r="D481" s="30" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E481" s="6">
         <v>8</v>
@@ -39493,7 +39493,7 @@
         <v>0</v>
       </c>
       <c r="Z481" s="43" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="482" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39501,7 +39501,7 @@
         <v>8000023</v>
       </c>
       <c r="D482" s="30" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E482" s="6">
         <v>8</v>
@@ -39567,7 +39567,7 @@
         <v>0</v>
       </c>
       <c r="Z482" s="43" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="483" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39575,7 +39575,7 @@
         <v>8000024</v>
       </c>
       <c r="D483" s="30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E483" s="6">
         <v>8</v>
@@ -39641,7 +39641,7 @@
         <v>0</v>
       </c>
       <c r="Z483" s="43" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="484" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39649,7 +39649,7 @@
         <v>8000025</v>
       </c>
       <c r="D484" s="30" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E484" s="6">
         <v>8</v>
@@ -39715,7 +39715,7 @@
         <v>0</v>
       </c>
       <c r="Z484" s="43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="485" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39723,7 +39723,7 @@
         <v>8000026</v>
       </c>
       <c r="D485" s="30" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E485" s="6">
         <v>8</v>
@@ -39789,7 +39789,7 @@
         <v>0</v>
       </c>
       <c r="Z485" s="43" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="486" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39797,7 +39797,7 @@
         <v>8000027</v>
       </c>
       <c r="D486" s="30" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E486" s="6">
         <v>8</v>
@@ -39863,7 +39863,7 @@
         <v>0</v>
       </c>
       <c r="Z486" s="43" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="487" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39871,7 +39871,7 @@
         <v>8000028</v>
       </c>
       <c r="D487" s="30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E487" s="6">
         <v>8</v>
@@ -39937,7 +39937,7 @@
         <v>0</v>
       </c>
       <c r="Z487" s="43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="488" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39945,7 +39945,7 @@
         <v>8000029</v>
       </c>
       <c r="D488" s="30" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E488" s="6">
         <v>8</v>
@@ -40011,7 +40011,7 @@
         <v>0</v>
       </c>
       <c r="Z488" s="43" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="489" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40019,7 +40019,7 @@
         <v>8000030</v>
       </c>
       <c r="D489" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E489" s="6">
         <v>8</v>
@@ -40085,7 +40085,7 @@
         <v>0</v>
       </c>
       <c r="Z489" s="43" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="490" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40093,7 +40093,7 @@
         <v>8000031</v>
       </c>
       <c r="D490" s="30" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E490" s="6">
         <v>8</v>
@@ -40159,7 +40159,7 @@
         <v>0</v>
       </c>
       <c r="Z490" s="43" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="491" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40167,7 +40167,7 @@
         <v>8000032</v>
       </c>
       <c r="D491" s="30" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E491" s="6">
         <v>8</v>
@@ -40233,7 +40233,7 @@
         <v>0</v>
       </c>
       <c r="Z491" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="492" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40241,7 +40241,7 @@
         <v>8000033</v>
       </c>
       <c r="D492" s="30" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E492" s="6">
         <v>8</v>
@@ -40307,7 +40307,7 @@
         <v>0</v>
       </c>
       <c r="Z492" s="43" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="493" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40315,7 +40315,7 @@
         <v>8000034</v>
       </c>
       <c r="D493" s="30" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E493" s="6">
         <v>8</v>
@@ -40381,7 +40381,7 @@
         <v>0</v>
       </c>
       <c r="Z493" s="43" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="494" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40389,7 +40389,7 @@
         <v>8000035</v>
       </c>
       <c r="D494" s="30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E494" s="6">
         <v>8</v>
@@ -40455,7 +40455,7 @@
         <v>0</v>
       </c>
       <c r="Z494" s="43" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="495" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Unity/Assets/Config/Excel/EquipMakeConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EquipMakeConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812807A5-FA19-4F98-849C-9884C5CA49ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECB79F2-9F7B-4A04-8B7A-F918AFB92DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipMakeProto" sheetId="1" r:id="rId1"/>
@@ -1211,9 +1211,6 @@
     <t>传承:怒之烈焰</t>
   </si>
   <si>
-    <t>初级治愈药水</t>
-  </si>
-  <si>
     <t>1,1</t>
   </si>
   <si>
@@ -2364,9 +2361,6 @@
     <t>1020001;10@1021010;10@1021001;10@1021008;2@1021009;1</t>
   </si>
   <si>
-    <t>1020001;10@1021010;10@102102;10@1021008;2@1021009;1</t>
-  </si>
-  <si>
     <t>1020001;10@1021010;10@1021003;10@1021008;2@1021009;1</t>
   </si>
   <si>
@@ -2382,9 +2376,6 @@
     <t>1020001;10@1021010;10@1021007;10@1021008;2@1021009;1</t>
   </si>
   <si>
-    <t>1020001;20@1021010;20@102102;20@1021008;4@1021009;2</t>
-  </si>
-  <si>
     <t>1020001;20@1021010;20@1021003;20@1021008;4@1021009;2</t>
   </si>
   <si>
@@ -2742,9 +2733,6 @@
     <t>1020001;5@1021010;5@1021001;3@1021003;3@</t>
   </si>
   <si>
-    <t>1020001;5@1021010;5@102102;3@1021004;3@</t>
-  </si>
-  <si>
     <t>1020001;5@1021010;5@1021003;3@1021005;3@1021008;1@</t>
   </si>
   <si>
@@ -3006,9 +2994,6 @@
     <t>1020001;10@1000029;1@1021001;10</t>
   </si>
   <si>
-    <t>1020001;10@1000029;1@102102;10@1021008;1</t>
-  </si>
-  <si>
     <t>1020001;20@1000029;4@1021003;20@1021008;1</t>
   </si>
   <si>
@@ -3018,9 +3003,6 @@
     <t>1020001;20@1000029;4@1021006;20@1021008;1</t>
   </si>
   <si>
-    <t>1020001;10@1000029;1@102102;10</t>
-  </si>
-  <si>
     <t>1020001;10@1000029;1@1021006;10</t>
   </si>
   <si>
@@ -3039,9 +3021,6 @@
     <t>1020001;15@1000029;2@1021001;15</t>
   </si>
   <si>
-    <t>1020001;15@1000029;2@102102;15@1023008;1</t>
-  </si>
-  <si>
     <t>1020001;25@1000029;6@1021003;25@1023008;1</t>
   </si>
   <si>
@@ -3051,9 +3030,6 @@
     <t>1020001;25@1000029;6@1021006;25@1023008;1</t>
   </si>
   <si>
-    <t>1020001;15@1000029;2@102102;15</t>
-  </si>
-  <si>
     <t>1020001;15@1000029;2@1021006;15</t>
   </si>
   <si>
@@ -3072,9 +3048,6 @@
     <t>1020001;20@1000029;3@1021001;20</t>
   </si>
   <si>
-    <t>1020001;20@1000029;3@102102;20@1025008;1</t>
-  </si>
-  <si>
     <t>1020001;30@1000029;8@1021003;30@1025008;1</t>
   </si>
   <si>
@@ -3084,9 +3057,6 @@
     <t>1020001;30@1000029;8@1021006;30@1025008;1</t>
   </si>
   <si>
-    <t>1020001;20@1000029;3@102102;20</t>
-  </si>
-  <si>
     <t>1020001;20@1000029;3@1021006;20</t>
   </si>
   <si>
@@ -3100,6 +3070,37 @@
   </si>
   <si>
     <t>1020001;20@1000029;3@1021003;20</t>
+  </si>
+  <si>
+    <t>初级治愈药水</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;10@1021010;10@1021002;10@1021008;2@1021009;1</t>
+  </si>
+  <si>
+    <t>1020001;20@1021010;20@1021002;20@1021008;4@1021009;2</t>
+  </si>
+  <si>
+    <t>1020001;5@1021010;5@1021002;3@1021004;3@</t>
+  </si>
+  <si>
+    <t>1020001;10@1000029;1@1021002;10@1021008;1</t>
+  </si>
+  <si>
+    <t>1020001;10@1000029;1@1021002;10</t>
+  </si>
+  <si>
+    <t>1020001;15@1000029;2@1021002;15@1023008;1</t>
+  </si>
+  <si>
+    <t>1020001;15@1000029;2@1021002;15</t>
+  </si>
+  <si>
+    <t>1020001;20@1000029;3@1021002;20@1025008;1</t>
+  </si>
+  <si>
+    <t>1020001;20@1000029;3@1021002;20</t>
   </si>
 </sst>
 </file>
@@ -3785,9 +3786,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Z1107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y435" sqref="Y435"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z365" sqref="Z365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -4113,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="44" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4187,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="Z7" s="44" t="s">
-        <v>574</v>
+        <v>811</v>
       </c>
     </row>
     <row r="8" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4261,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="44" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4335,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="44" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4409,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="27" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4483,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="27" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4557,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="27" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4631,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4705,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="27" t="s">
-        <v>574</v>
+        <v>811</v>
       </c>
     </row>
     <row r="15" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4779,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="27" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4853,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="27" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4927,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="27" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5001,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="Z18" s="27" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5075,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="27" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5149,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="Z20" s="27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5223,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="Z21" s="27" t="s">
-        <v>580</v>
+        <v>812</v>
       </c>
     </row>
     <row r="22" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5297,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="Z22" s="27" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5371,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="Z23" s="27" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="24" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5445,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="27" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="25" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5519,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="27" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5593,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="Z26" s="27" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="27" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5667,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="28" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="28" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5741,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="28" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="29" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5815,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="Z29" s="28" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="30" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5889,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="Z30" s="27" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5963,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="Z31" s="27" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="32" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5971,7 +5972,7 @@
         <v>100127</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E32" s="16">
         <v>1</v>
@@ -6037,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="27" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="33" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6111,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="29" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="34" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6185,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="29" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="35" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6259,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="Z35" s="29" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="36" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6333,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="Z36" s="29" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="37" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6407,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="Z37" s="29" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="38" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6481,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="Z38" s="29" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="39" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6555,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="Z39" s="29" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="40" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6629,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="Z40" s="29" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="41" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6637,7 +6638,7 @@
         <v>100159</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E41" s="22">
         <v>5</v>
@@ -6703,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="Z41" s="29" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="42" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6778,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="Z42" s="28" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="43" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6853,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="Z43" s="28" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="44" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6928,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="Z44" s="28" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="45" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7003,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="Z45" s="28" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="46" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7078,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="Z46" s="28" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="47" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7153,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="28" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="48" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7228,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="28" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="49" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7303,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="Z49" s="28" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="50" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7378,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="Z50" s="28" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="51" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7453,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="Z51" s="28" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="52" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7528,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="Z52" s="28" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="53" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7603,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="Z53" s="28" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="54" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7678,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="Z54" s="28" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="55" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7753,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="Z55" s="28" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="56" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7828,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="Z56" s="28" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="57" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7903,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="Z57" s="28" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="58" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7978,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="Z58" s="28" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="59" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8053,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="Z59" s="28" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="60" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8128,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="Z60" s="28" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="61" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8203,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="28" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="62" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8278,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="Z62" s="28" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="63" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8353,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="Z63" s="28" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="64" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8428,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="Z64" s="28" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="65" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8503,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="Z65" s="28" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="66" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8578,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="Z66" s="28" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="67" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8653,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="Z67" s="28" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="68" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8661,7 +8662,7 @@
         <v>100227</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E68" s="16">
         <v>1</v>
@@ -8728,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="Z68" s="28" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="69" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8802,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="Z69" s="29" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="70" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8876,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="Z70" s="29" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="71" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8950,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="Z71" s="29" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="72" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9024,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="Z72" s="29" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="73" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9098,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="Z73" s="29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="74" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9172,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="Z74" s="29" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="75" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9246,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="Z75" s="29" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="76" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9320,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="Z76" s="29" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="77" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9328,7 +9329,7 @@
         <v>100259</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E77" s="22">
         <v>5</v>
@@ -9394,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="Z77" s="29" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="78" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9469,7 +9470,7 @@
         <v>0</v>
       </c>
       <c r="Z78" s="28" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="79" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9544,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="Z79" s="28" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="80" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9619,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="Z80" s="28" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="81" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9694,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="Z81" s="28" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="82" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9769,7 +9770,7 @@
         <v>0</v>
       </c>
       <c r="Z82" s="28" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="83" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9844,7 +9845,7 @@
         <v>0</v>
       </c>
       <c r="Z83" s="28" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="84" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9919,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="Z84" s="28" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="85" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9994,7 +9995,7 @@
         <v>0</v>
       </c>
       <c r="Z85" s="28" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="86" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10069,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="Z86" s="28" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="87" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10144,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="Z87" s="28" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="88" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10219,7 +10220,7 @@
         <v>0</v>
       </c>
       <c r="Z88" s="28" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="89" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10294,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="Z89" s="28" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="90" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10369,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="Z90" s="28" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="91" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10444,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="Z91" s="28" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="92" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10519,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="Z92" s="28" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="93" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10594,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="Z93" s="28" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="94" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10669,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="Z94" s="28" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="95" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10744,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="Z95" s="28" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="96" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10819,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="Z96" s="28" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="97" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10894,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="Z97" s="28" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="98" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10969,7 +10970,7 @@
         <v>0</v>
       </c>
       <c r="Z98" s="28" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="99" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11044,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="Z99" s="28" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="100" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11119,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="Z100" s="28" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="101" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11194,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="Z101" s="28" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="102" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11269,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="Z102" s="28" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="103" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11344,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="Z103" s="28" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="104" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11352,7 +11353,7 @@
         <v>100327</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E104" s="16">
         <v>1</v>
@@ -11419,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="Z104" s="28" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="105" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11493,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="Z105" s="29" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="106" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11567,7 +11568,7 @@
         <v>0</v>
       </c>
       <c r="Z106" s="29" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="107" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11641,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="Z107" s="29" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="108" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11715,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="Z108" s="29" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="109" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11789,7 +11790,7 @@
         <v>0</v>
       </c>
       <c r="Z109" s="29" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="110" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11863,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="Z110" s="29" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="111" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11937,7 +11938,7 @@
         <v>0</v>
       </c>
       <c r="Z111" s="29" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="112" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12011,7 +12012,7 @@
         <v>0</v>
       </c>
       <c r="Z112" s="29" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="113" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12019,7 +12020,7 @@
         <v>100359</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E113" s="22">
         <v>5</v>
@@ -12085,7 +12086,7 @@
         <v>0</v>
       </c>
       <c r="Z113" s="29" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="114" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12160,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="Z114" s="28" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="115" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12235,7 +12236,7 @@
         <v>0</v>
       </c>
       <c r="Z115" s="28" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="116" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12310,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="Z116" s="28" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="117" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12385,7 +12386,7 @@
         <v>0</v>
       </c>
       <c r="Z117" s="28" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="118" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12460,7 +12461,7 @@
         <v>0</v>
       </c>
       <c r="Z118" s="28" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="119" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12535,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="Z119" s="28" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="120" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12610,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="Z120" s="28" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="121" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12685,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="Z121" s="28" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="122" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12760,7 +12761,7 @@
         <v>0</v>
       </c>
       <c r="Z122" s="28" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="123" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12835,7 +12836,7 @@
         <v>0</v>
       </c>
       <c r="Z123" s="28" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="124" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12910,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="Z124" s="28" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="125" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12985,7 +12986,7 @@
         <v>0</v>
       </c>
       <c r="Z125" s="28" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="126" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13060,7 +13061,7 @@
         <v>0</v>
       </c>
       <c r="Z126" s="28" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="127" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13135,7 +13136,7 @@
         <v>0</v>
       </c>
       <c r="Z127" s="28" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="128" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13210,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="Z128" s="28" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="129" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13285,7 +13286,7 @@
         <v>0</v>
       </c>
       <c r="Z129" s="28" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="130" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13360,7 +13361,7 @@
         <v>0</v>
       </c>
       <c r="Z130" s="28" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="131" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13435,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="Z131" s="28" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="132" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13510,7 +13511,7 @@
         <v>0</v>
       </c>
       <c r="Z132" s="28" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="133" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13585,7 +13586,7 @@
         <v>0</v>
       </c>
       <c r="Z133" s="28" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="134" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13660,7 +13661,7 @@
         <v>0</v>
       </c>
       <c r="Z134" s="28" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="135" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13735,7 +13736,7 @@
         <v>0</v>
       </c>
       <c r="Z135" s="28" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="136" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13810,7 +13811,7 @@
         <v>0</v>
       </c>
       <c r="Z136" s="28" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="137" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13885,7 +13886,7 @@
         <v>0</v>
       </c>
       <c r="Z137" s="28" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="138" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13960,7 +13961,7 @@
         <v>0</v>
       </c>
       <c r="Z138" s="28" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="139" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14035,7 +14036,7 @@
         <v>0</v>
       </c>
       <c r="Z139" s="28" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="140" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14043,7 +14044,7 @@
         <v>100427</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E140" s="16">
         <v>1</v>
@@ -14110,7 +14111,7 @@
         <v>0</v>
       </c>
       <c r="Z140" s="28" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="141" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14184,7 +14185,7 @@
         <v>0</v>
       </c>
       <c r="Z141" s="29" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="142" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14258,7 +14259,7 @@
         <v>0</v>
       </c>
       <c r="Z142" s="29" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="143" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14332,7 +14333,7 @@
         <v>0</v>
       </c>
       <c r="Z143" s="29" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="144" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14406,7 +14407,7 @@
         <v>0</v>
       </c>
       <c r="Z144" s="29" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="145" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14480,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="Z145" s="29" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="146" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14554,7 +14555,7 @@
         <v>0</v>
       </c>
       <c r="Z146" s="29" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="147" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14628,7 +14629,7 @@
         <v>0</v>
       </c>
       <c r="Z147" s="29" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="148" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14702,7 +14703,7 @@
         <v>0</v>
       </c>
       <c r="Z148" s="29" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="149" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14710,7 +14711,7 @@
         <v>100459</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E149" s="22">
         <v>5</v>
@@ -14776,7 +14777,7 @@
         <v>0</v>
       </c>
       <c r="Z149" s="29" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="150" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14852,7 +14853,7 @@
         <v>0</v>
       </c>
       <c r="Z150" s="28" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="151" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14928,7 +14929,7 @@
         <v>0</v>
       </c>
       <c r="Z151" s="28" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="152" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15004,7 +15005,7 @@
         <v>0</v>
       </c>
       <c r="Z152" s="28" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="153" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15080,7 +15081,7 @@
         <v>0</v>
       </c>
       <c r="Z153" s="28" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="154" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15156,7 +15157,7 @@
         <v>0</v>
       </c>
       <c r="Z154" s="28" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="155" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15232,7 +15233,7 @@
         <v>0</v>
       </c>
       <c r="Z155" s="28" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="156" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15308,7 +15309,7 @@
         <v>0</v>
       </c>
       <c r="Z156" s="28" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="157" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15384,7 +15385,7 @@
         <v>0</v>
       </c>
       <c r="Z157" s="28" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="158" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15460,7 +15461,7 @@
         <v>0</v>
       </c>
       <c r="Z158" s="28" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="159" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15536,7 +15537,7 @@
         <v>0</v>
       </c>
       <c r="Z159" s="28" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="160" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15612,7 +15613,7 @@
         <v>0</v>
       </c>
       <c r="Z160" s="28" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="161" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15688,7 +15689,7 @@
         <v>0</v>
       </c>
       <c r="Z161" s="28" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="162" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15764,7 +15765,7 @@
         <v>0</v>
       </c>
       <c r="Z162" s="28" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="163" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15840,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="Z163" s="28" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="164" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15916,7 +15917,7 @@
         <v>0</v>
       </c>
       <c r="Z164" s="28" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="165" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15992,7 +15993,7 @@
         <v>0</v>
       </c>
       <c r="Z165" s="28" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="166" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16068,7 +16069,7 @@
         <v>0</v>
       </c>
       <c r="Z166" s="28" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="167" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16144,7 +16145,7 @@
         <v>0</v>
       </c>
       <c r="Z167" s="28" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="168" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16220,7 +16221,7 @@
         <v>0</v>
       </c>
       <c r="Z168" s="28" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="169" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16296,7 +16297,7 @@
         <v>0</v>
       </c>
       <c r="Z169" s="28" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="170" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16372,7 +16373,7 @@
         <v>0</v>
       </c>
       <c r="Z170" s="28" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="171" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16448,7 +16449,7 @@
         <v>0</v>
       </c>
       <c r="Z171" s="28" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="172" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16524,7 +16525,7 @@
         <v>0</v>
       </c>
       <c r="Z172" s="28" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="173" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16600,7 +16601,7 @@
         <v>0</v>
       </c>
       <c r="Z173" s="28" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="174" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16676,7 +16677,7 @@
         <v>0</v>
       </c>
       <c r="Z174" s="28" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="175" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16752,7 +16753,7 @@
         <v>0</v>
       </c>
       <c r="Z175" s="28" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="176" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16760,7 +16761,7 @@
         <v>100527</v>
       </c>
       <c r="D176" s="23" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E176" s="16">
         <v>1</v>
@@ -16828,7 +16829,7 @@
         <v>0</v>
       </c>
       <c r="Z176" s="28" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="177" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16903,7 +16904,7 @@
         <v>0</v>
       </c>
       <c r="Z177" s="28" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="178" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16978,7 +16979,7 @@
         <v>0</v>
       </c>
       <c r="Z178" s="28" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="179" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17053,7 +17054,7 @@
         <v>0</v>
       </c>
       <c r="Z179" s="29" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="180" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17128,7 +17129,7 @@
         <v>0</v>
       </c>
       <c r="Z180" s="29" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="181" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17203,7 +17204,7 @@
         <v>0</v>
       </c>
       <c r="Z181" s="29" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="182" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17278,7 +17279,7 @@
         <v>0</v>
       </c>
       <c r="Z182" s="29" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="183" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17353,7 +17354,7 @@
         <v>0</v>
       </c>
       <c r="Z183" s="29" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="184" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17428,7 +17429,7 @@
         <v>0</v>
       </c>
       <c r="Z184" s="29" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="185" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17436,7 +17437,7 @@
         <v>100559</v>
       </c>
       <c r="D185" s="21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E185" s="22">
         <v>5</v>
@@ -17503,7 +17504,7 @@
         <v>0</v>
       </c>
       <c r="Z185" s="29" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="186" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17511,13 +17512,13 @@
         <v>200001</v>
       </c>
       <c r="D186" s="23" t="s">
-        <v>195</v>
+        <v>810</v>
       </c>
       <c r="E186" s="16">
         <v>3</v>
       </c>
       <c r="F186" s="23">
-        <v>1141001</v>
+        <v>1151001</v>
       </c>
       <c r="G186" s="14">
         <v>0</v>
@@ -17562,7 +17563,7 @@
         <v>75</v>
       </c>
       <c r="U186" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V186" s="24">
         <v>1</v>
@@ -17577,7 +17578,7 @@
         <v>0</v>
       </c>
       <c r="Z186" s="28" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="187" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17585,13 +17586,13 @@
         <v>200002</v>
       </c>
       <c r="D187" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E187" s="16">
         <v>3</v>
       </c>
       <c r="F187" s="23">
-        <v>1141002</v>
+        <v>1151002</v>
       </c>
       <c r="G187" s="14">
         <v>0</v>
@@ -17636,7 +17637,7 @@
         <v>120</v>
       </c>
       <c r="U187" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V187" s="24">
         <v>1</v>
@@ -17651,7 +17652,7 @@
         <v>0</v>
       </c>
       <c r="Z187" s="28" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="188" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17659,13 +17660,13 @@
         <v>200003</v>
       </c>
       <c r="D188" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E188" s="16">
         <v>3</v>
       </c>
       <c r="F188" s="23">
-        <v>1141003</v>
+        <v>1151003</v>
       </c>
       <c r="G188" s="14">
         <v>0</v>
@@ -17710,7 +17711,7 @@
         <v>120</v>
       </c>
       <c r="U188" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V188" s="24">
         <v>1</v>
@@ -17725,7 +17726,7 @@
         <v>0</v>
       </c>
       <c r="Z188" s="28" t="s">
-        <v>700</v>
+        <v>813</v>
       </c>
     </row>
     <row r="189" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17733,13 +17734,13 @@
         <v>200004</v>
       </c>
       <c r="D189" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E189" s="16">
         <v>3</v>
       </c>
       <c r="F189" s="23">
-        <v>1141004</v>
+        <v>1151004</v>
       </c>
       <c r="G189" s="14">
         <v>0</v>
@@ -17784,7 +17785,7 @@
         <v>120</v>
       </c>
       <c r="U189" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V189" s="24">
         <v>1</v>
@@ -17799,7 +17800,7 @@
         <v>0</v>
       </c>
       <c r="Z189" s="28" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="190" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17807,13 +17808,13 @@
         <v>200005</v>
       </c>
       <c r="D190" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E190" s="16">
         <v>3</v>
       </c>
       <c r="F190" s="23">
-        <v>1141005</v>
+        <v>1151005</v>
       </c>
       <c r="G190" s="14">
         <v>0</v>
@@ -17858,7 +17859,7 @@
         <v>120</v>
       </c>
       <c r="U190" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V190" s="24">
         <v>1</v>
@@ -17873,7 +17874,7 @@
         <v>0</v>
       </c>
       <c r="Z190" s="28" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="191" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17881,13 +17882,13 @@
         <v>200006</v>
       </c>
       <c r="D191" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E191" s="16">
         <v>3</v>
       </c>
       <c r="F191" s="23">
-        <v>1141006</v>
+        <v>1151006</v>
       </c>
       <c r="G191" s="14">
         <v>0</v>
@@ -17932,7 +17933,7 @@
         <v>120</v>
       </c>
       <c r="U191" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V191" s="24">
         <v>1</v>
@@ -17947,7 +17948,7 @@
         <v>0</v>
       </c>
       <c r="Z191" s="28" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="192" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17955,13 +17956,13 @@
         <v>200007</v>
       </c>
       <c r="D192" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E192" s="16">
         <v>3</v>
       </c>
       <c r="F192" s="23">
-        <v>1142001</v>
+        <v>1152001</v>
       </c>
       <c r="G192" s="14">
         <v>0</v>
@@ -18006,7 +18007,7 @@
         <v>200</v>
       </c>
       <c r="U192" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V192" s="24">
         <v>1</v>
@@ -18021,7 +18022,7 @@
         <v>0</v>
       </c>
       <c r="Z192" s="28" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="193" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18029,13 +18030,13 @@
         <v>200008</v>
       </c>
       <c r="D193" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E193" s="16">
         <v>3</v>
       </c>
       <c r="F193" s="23">
-        <v>1142002</v>
+        <v>1152002</v>
       </c>
       <c r="G193" s="14">
         <v>0</v>
@@ -18080,7 +18081,7 @@
         <v>220</v>
       </c>
       <c r="U193" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V193" s="24">
         <v>1</v>
@@ -18095,7 +18096,7 @@
         <v>0</v>
       </c>
       <c r="Z193" s="28" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="194" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18103,13 +18104,13 @@
         <v>200009</v>
       </c>
       <c r="D194" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E194" s="16">
         <v>3</v>
       </c>
       <c r="F194" s="23">
-        <v>1142003</v>
+        <v>1152003</v>
       </c>
       <c r="G194" s="14">
         <v>0</v>
@@ -18154,7 +18155,7 @@
         <v>220</v>
       </c>
       <c r="U194" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V194" s="24">
         <v>1</v>
@@ -18169,7 +18170,7 @@
         <v>0</v>
       </c>
       <c r="Z194" s="28" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="195" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18177,13 +18178,13 @@
         <v>200010</v>
       </c>
       <c r="D195" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E195" s="16">
         <v>3</v>
       </c>
       <c r="F195" s="23">
-        <v>1142004</v>
+        <v>1152004</v>
       </c>
       <c r="G195" s="14">
         <v>0</v>
@@ -18228,7 +18229,7 @@
         <v>220</v>
       </c>
       <c r="U195" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V195" s="24">
         <v>1</v>
@@ -18243,7 +18244,7 @@
         <v>0</v>
       </c>
       <c r="Z195" s="28" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="196" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18251,13 +18252,13 @@
         <v>200011</v>
       </c>
       <c r="D196" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E196" s="16">
         <v>3</v>
       </c>
       <c r="F196" s="23">
-        <v>1142005</v>
+        <v>1152005</v>
       </c>
       <c r="G196" s="14">
         <v>0</v>
@@ -18302,7 +18303,7 @@
         <v>220</v>
       </c>
       <c r="U196" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V196" s="24">
         <v>1</v>
@@ -18317,7 +18318,7 @@
         <v>0</v>
       </c>
       <c r="Z196" s="28" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="197" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18325,13 +18326,13 @@
         <v>200012</v>
       </c>
       <c r="D197" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E197" s="16">
         <v>3</v>
       </c>
       <c r="F197" s="23">
-        <v>1142006</v>
+        <v>1152006</v>
       </c>
       <c r="G197" s="14">
         <v>0</v>
@@ -18376,7 +18377,7 @@
         <v>220</v>
       </c>
       <c r="U197" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V197" s="24">
         <v>1</v>
@@ -18391,7 +18392,7 @@
         <v>0</v>
       </c>
       <c r="Z197" s="28" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="198" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18399,13 +18400,13 @@
         <v>200013</v>
       </c>
       <c r="D198" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E198" s="16">
         <v>3</v>
       </c>
       <c r="F198" s="23">
-        <v>1143001</v>
+        <v>1153001</v>
       </c>
       <c r="G198" s="14">
         <v>0</v>
@@ -18450,7 +18451,7 @@
         <v>275</v>
       </c>
       <c r="U198" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V198" s="24">
         <v>1</v>
@@ -18465,7 +18466,7 @@
         <v>0</v>
       </c>
       <c r="Z198" s="28" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="199" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18473,13 +18474,13 @@
         <v>200014</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E199" s="16">
         <v>3</v>
       </c>
       <c r="F199" s="23">
-        <v>1143002</v>
+        <v>1153002</v>
       </c>
       <c r="G199" s="14">
         <v>0</v>
@@ -18525,7 +18526,7 @@
         <v>320</v>
       </c>
       <c r="U199" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V199" s="24">
         <v>1</v>
@@ -18540,7 +18541,7 @@
         <v>0</v>
       </c>
       <c r="Z199" s="28" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="200" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18548,13 +18549,13 @@
         <v>200015</v>
       </c>
       <c r="D200" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E200" s="16">
         <v>3</v>
       </c>
       <c r="F200" s="23">
-        <v>1143003</v>
+        <v>1153003</v>
       </c>
       <c r="G200" s="14">
         <v>0</v>
@@ -18600,7 +18601,7 @@
         <v>320</v>
       </c>
       <c r="U200" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V200" s="24">
         <v>1</v>
@@ -18615,7 +18616,7 @@
         <v>0</v>
       </c>
       <c r="Z200" s="28" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="201" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18623,13 +18624,13 @@
         <v>200016</v>
       </c>
       <c r="D201" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E201" s="16">
         <v>3</v>
       </c>
       <c r="F201" s="23">
-        <v>1143004</v>
+        <v>1153004</v>
       </c>
       <c r="G201" s="14">
         <v>0</v>
@@ -18675,7 +18676,7 @@
         <v>320</v>
       </c>
       <c r="U201" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V201" s="24">
         <v>1</v>
@@ -18690,7 +18691,7 @@
         <v>0</v>
       </c>
       <c r="Z201" s="28" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="202" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18698,13 +18699,13 @@
         <v>200017</v>
       </c>
       <c r="D202" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E202" s="16">
         <v>3</v>
       </c>
       <c r="F202" s="23">
-        <v>1143005</v>
+        <v>1153005</v>
       </c>
       <c r="G202" s="14">
         <v>0</v>
@@ -18750,7 +18751,7 @@
         <v>320</v>
       </c>
       <c r="U202" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V202" s="24">
         <v>1</v>
@@ -18765,7 +18766,7 @@
         <v>0</v>
       </c>
       <c r="Z202" s="28" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="203" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18773,13 +18774,13 @@
         <v>200018</v>
       </c>
       <c r="D203" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E203" s="16">
         <v>3</v>
       </c>
       <c r="F203" s="23">
-        <v>1143006</v>
+        <v>1153006</v>
       </c>
       <c r="G203" s="14">
         <v>0</v>
@@ -18825,7 +18826,7 @@
         <v>320</v>
       </c>
       <c r="U203" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V203" s="24">
         <v>1</v>
@@ -18840,7 +18841,7 @@
         <v>0</v>
       </c>
       <c r="Z203" s="28" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="204" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18848,13 +18849,13 @@
         <v>200019</v>
       </c>
       <c r="D204" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E204" s="16">
         <v>3</v>
       </c>
       <c r="F204" s="23">
-        <v>1144001</v>
+        <v>1154001</v>
       </c>
       <c r="G204" s="14">
         <v>0</v>
@@ -18900,7 +18901,7 @@
         <v>375</v>
       </c>
       <c r="U204" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V204" s="24">
         <v>1</v>
@@ -18915,7 +18916,7 @@
         <v>0</v>
       </c>
       <c r="Z204" s="28" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="205" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18923,13 +18924,13 @@
         <v>200020</v>
       </c>
       <c r="D205" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E205" s="16">
         <v>3</v>
       </c>
       <c r="F205" s="23">
-        <v>1144002</v>
+        <v>1154002</v>
       </c>
       <c r="G205" s="14">
         <v>0</v>
@@ -18975,7 +18976,7 @@
         <v>420</v>
       </c>
       <c r="U205" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V205" s="24">
         <v>1</v>
@@ -18990,7 +18991,7 @@
         <v>0</v>
       </c>
       <c r="Z205" s="28" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="206" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18998,13 +18999,13 @@
         <v>200021</v>
       </c>
       <c r="D206" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E206" s="16">
         <v>3</v>
       </c>
       <c r="F206" s="23">
-        <v>1144003</v>
+        <v>1154003</v>
       </c>
       <c r="G206" s="14">
         <v>0</v>
@@ -19050,7 +19051,7 @@
         <v>420</v>
       </c>
       <c r="U206" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V206" s="24">
         <v>1</v>
@@ -19065,7 +19066,7 @@
         <v>0</v>
       </c>
       <c r="Z206" s="28" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="207" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19073,13 +19074,13 @@
         <v>200022</v>
       </c>
       <c r="D207" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E207" s="16">
         <v>3</v>
       </c>
       <c r="F207" s="23">
-        <v>1144004</v>
+        <v>1154004</v>
       </c>
       <c r="G207" s="14">
         <v>0</v>
@@ -19125,7 +19126,7 @@
         <v>420</v>
       </c>
       <c r="U207" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V207" s="24">
         <v>1</v>
@@ -19140,7 +19141,7 @@
         <v>0</v>
       </c>
       <c r="Z207" s="28" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="208" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19148,13 +19149,13 @@
         <v>200023</v>
       </c>
       <c r="D208" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E208" s="16">
         <v>3</v>
       </c>
       <c r="F208" s="23">
-        <v>1144005</v>
+        <v>1154005</v>
       </c>
       <c r="G208" s="14">
         <v>0</v>
@@ -19200,7 +19201,7 @@
         <v>420</v>
       </c>
       <c r="U208" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V208" s="24">
         <v>1</v>
@@ -19215,7 +19216,7 @@
         <v>0</v>
       </c>
       <c r="Z208" s="28" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="209" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19223,13 +19224,13 @@
         <v>200024</v>
       </c>
       <c r="D209" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E209" s="16">
         <v>3</v>
       </c>
       <c r="F209" s="23">
-        <v>1144006</v>
+        <v>1154006</v>
       </c>
       <c r="G209" s="14">
         <v>0</v>
@@ -19275,7 +19276,7 @@
         <v>420</v>
       </c>
       <c r="U209" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V209" s="24">
         <v>1</v>
@@ -19290,7 +19291,7 @@
         <v>0</v>
       </c>
       <c r="Z209" s="28" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="210" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19298,13 +19299,13 @@
         <v>200025</v>
       </c>
       <c r="D210" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E210" s="16">
         <v>3</v>
       </c>
       <c r="F210" s="23">
-        <v>1145001</v>
+        <v>1155001</v>
       </c>
       <c r="G210" s="14">
         <v>0</v>
@@ -19350,7 +19351,7 @@
         <v>450</v>
       </c>
       <c r="U210" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V210" s="24">
         <v>1</v>
@@ -19365,7 +19366,7 @@
         <v>0</v>
       </c>
       <c r="Z210" s="28" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="211" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19373,13 +19374,13 @@
         <v>200026</v>
       </c>
       <c r="D211" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E211" s="16">
         <v>3</v>
       </c>
       <c r="F211" s="23">
-        <v>1145002</v>
+        <v>1155002</v>
       </c>
       <c r="G211" s="14">
         <v>0</v>
@@ -19425,7 +19426,7 @@
         <v>500</v>
       </c>
       <c r="U211" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V211" s="24">
         <v>1</v>
@@ -19440,7 +19441,7 @@
         <v>0</v>
       </c>
       <c r="Z211" s="28" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="212" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19448,13 +19449,13 @@
         <v>200027</v>
       </c>
       <c r="D212" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E212" s="16">
         <v>3</v>
       </c>
       <c r="F212" s="23">
-        <v>1145003</v>
+        <v>1155003</v>
       </c>
       <c r="G212" s="14">
         <v>0</v>
@@ -19500,7 +19501,7 @@
         <v>500</v>
       </c>
       <c r="U212" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V212" s="24">
         <v>1</v>
@@ -19515,7 +19516,7 @@
         <v>0</v>
       </c>
       <c r="Z212" s="28" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="213" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19523,13 +19524,13 @@
         <v>200028</v>
       </c>
       <c r="D213" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E213" s="16">
         <v>3</v>
       </c>
       <c r="F213" s="23">
-        <v>1145004</v>
+        <v>1155004</v>
       </c>
       <c r="G213" s="14">
         <v>0</v>
@@ -19575,7 +19576,7 @@
         <v>500</v>
       </c>
       <c r="U213" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V213" s="24">
         <v>1</v>
@@ -19590,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="Z213" s="28" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="214" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19598,13 +19599,13 @@
         <v>200029</v>
       </c>
       <c r="D214" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E214" s="16">
         <v>3</v>
       </c>
       <c r="F214" s="23">
-        <v>1145005</v>
+        <v>1155005</v>
       </c>
       <c r="G214" s="14">
         <v>0</v>
@@ -19650,7 +19651,7 @@
         <v>500</v>
       </c>
       <c r="U214" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V214" s="24">
         <v>1</v>
@@ -19665,7 +19666,7 @@
         <v>0</v>
       </c>
       <c r="Z214" s="28" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="215" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19673,13 +19674,13 @@
         <v>200030</v>
       </c>
       <c r="D215" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E215" s="16">
         <v>3</v>
       </c>
       <c r="F215" s="23">
-        <v>1145006</v>
+        <v>1155006</v>
       </c>
       <c r="G215" s="14">
         <v>0</v>
@@ -19725,7 +19726,7 @@
         <v>500</v>
       </c>
       <c r="U215" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V215" s="24">
         <v>1</v>
@@ -19740,7 +19741,7 @@
         <v>0</v>
       </c>
       <c r="Z215" s="28" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="216" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19748,13 +19749,13 @@
         <v>200031</v>
       </c>
       <c r="D216" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E216" s="16">
         <v>3</v>
       </c>
       <c r="F216" s="23">
-        <v>1146001</v>
+        <v>1156001</v>
       </c>
       <c r="G216" s="14">
         <v>0</v>
@@ -19800,7 +19801,7 @@
         <v>450</v>
       </c>
       <c r="U216" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V216" s="24">
         <v>1</v>
@@ -19815,7 +19816,7 @@
         <v>0</v>
       </c>
       <c r="Z216" s="28" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="217" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19823,13 +19824,13 @@
         <v>200101</v>
       </c>
       <c r="D217" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E217" s="16">
         <v>3</v>
       </c>
       <c r="F217" s="18">
-        <v>1141101</v>
+        <v>1151101</v>
       </c>
       <c r="G217" s="14">
         <v>0</v>
@@ -19874,7 +19875,7 @@
         <v>120</v>
       </c>
       <c r="U217" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V217" s="24">
         <v>1</v>
@@ -19889,7 +19890,7 @@
         <v>0</v>
       </c>
       <c r="Z217" s="28" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="218" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19897,13 +19898,13 @@
         <v>200102</v>
       </c>
       <c r="D218" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E218" s="16">
         <v>3</v>
       </c>
       <c r="F218" s="18">
-        <v>1141102</v>
+        <v>1151102</v>
       </c>
       <c r="G218" s="14">
         <v>0</v>
@@ -19948,7 +19949,7 @@
         <v>120</v>
       </c>
       <c r="U218" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V218" s="24">
         <v>1</v>
@@ -19963,7 +19964,7 @@
         <v>0</v>
       </c>
       <c r="Z218" s="28" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="219" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19971,13 +19972,13 @@
         <v>200103</v>
       </c>
       <c r="D219" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E219" s="16">
         <v>3</v>
       </c>
       <c r="F219" s="18">
-        <v>1141103</v>
+        <v>1151103</v>
       </c>
       <c r="G219" s="14">
         <v>0</v>
@@ -20022,7 +20023,7 @@
         <v>120</v>
       </c>
       <c r="U219" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V219" s="24">
         <v>1</v>
@@ -20037,7 +20038,7 @@
         <v>0</v>
       </c>
       <c r="Z219" s="28" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="220" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20045,13 +20046,13 @@
         <v>200104</v>
       </c>
       <c r="D220" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E220" s="16">
         <v>3</v>
       </c>
       <c r="F220" s="18">
-        <v>1141104</v>
+        <v>1151104</v>
       </c>
       <c r="G220" s="14">
         <v>0</v>
@@ -20096,7 +20097,7 @@
         <v>120</v>
       </c>
       <c r="U220" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V220" s="24">
         <v>1</v>
@@ -20111,7 +20112,7 @@
         <v>0</v>
       </c>
       <c r="Z220" s="28" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="221" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20119,13 +20120,13 @@
         <v>200105</v>
       </c>
       <c r="D221" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E221" s="16">
         <v>3</v>
       </c>
       <c r="F221" s="18">
-        <v>1141105</v>
+        <v>1151105</v>
       </c>
       <c r="G221" s="14">
         <v>0</v>
@@ -20170,7 +20171,7 @@
         <v>120</v>
       </c>
       <c r="U221" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V221" s="24">
         <v>1</v>
@@ -20185,7 +20186,7 @@
         <v>0</v>
       </c>
       <c r="Z221" s="28" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="222" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20194,13 +20195,13 @@
         <v>200201</v>
       </c>
       <c r="D222" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E222" s="16">
         <v>3</v>
       </c>
       <c r="F222" s="18">
-        <v>1142101</v>
+        <v>1152101</v>
       </c>
       <c r="G222" s="14">
         <v>0</v>
@@ -20245,7 +20246,7 @@
         <v>220</v>
       </c>
       <c r="U222" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V222" s="24">
         <v>1</v>
@@ -20260,7 +20261,7 @@
         <v>0</v>
       </c>
       <c r="Z222" s="28" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="223" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20269,13 +20270,13 @@
         <v>200202</v>
       </c>
       <c r="D223" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E223" s="16">
         <v>3</v>
       </c>
       <c r="F223" s="18">
-        <v>1142102</v>
+        <v>1152102</v>
       </c>
       <c r="G223" s="14">
         <v>0</v>
@@ -20320,7 +20321,7 @@
         <v>220</v>
       </c>
       <c r="U223" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V223" s="24">
         <v>1</v>
@@ -20335,7 +20336,7 @@
         <v>0</v>
       </c>
       <c r="Z223" s="28" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="224" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20344,13 +20345,13 @@
         <v>200203</v>
       </c>
       <c r="D224" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E224" s="16">
         <v>3</v>
       </c>
       <c r="F224" s="18">
-        <v>1142103</v>
+        <v>1152103</v>
       </c>
       <c r="G224" s="14">
         <v>0</v>
@@ -20395,7 +20396,7 @@
         <v>220</v>
       </c>
       <c r="U224" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V224" s="24">
         <v>1</v>
@@ -20410,7 +20411,7 @@
         <v>0</v>
       </c>
       <c r="Z224" s="28" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="225" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20419,13 +20420,13 @@
         <v>200204</v>
       </c>
       <c r="D225" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E225" s="16">
         <v>3</v>
       </c>
       <c r="F225" s="18">
-        <v>1142104</v>
+        <v>1152104</v>
       </c>
       <c r="G225" s="14">
         <v>0</v>
@@ -20470,7 +20471,7 @@
         <v>220</v>
       </c>
       <c r="U225" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V225" s="24">
         <v>1</v>
@@ -20485,7 +20486,7 @@
         <v>0</v>
       </c>
       <c r="Z225" s="28" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="226" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20494,13 +20495,13 @@
         <v>200205</v>
       </c>
       <c r="D226" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E226" s="16">
         <v>3</v>
       </c>
       <c r="F226" s="18">
-        <v>1142105</v>
+        <v>1152105</v>
       </c>
       <c r="G226" s="14">
         <v>0</v>
@@ -20545,7 +20546,7 @@
         <v>220</v>
       </c>
       <c r="U226" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V226" s="24">
         <v>1</v>
@@ -20560,7 +20561,7 @@
         <v>0</v>
       </c>
       <c r="Z226" s="28" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="227" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20569,13 +20570,13 @@
         <v>200301</v>
       </c>
       <c r="D227" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E227" s="16">
         <v>3</v>
       </c>
       <c r="F227" s="18">
-        <v>1143101</v>
+        <v>1153101</v>
       </c>
       <c r="G227" s="14">
         <v>0</v>
@@ -20620,7 +20621,7 @@
         <v>320</v>
       </c>
       <c r="U227" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V227" s="24">
         <v>1</v>
@@ -20635,7 +20636,7 @@
         <v>0</v>
       </c>
       <c r="Z227" s="28" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="228" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20644,13 +20645,13 @@
         <v>200302</v>
       </c>
       <c r="D228" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E228" s="16">
         <v>3</v>
       </c>
       <c r="F228" s="18">
-        <v>1143102</v>
+        <v>1153102</v>
       </c>
       <c r="G228" s="14">
         <v>0</v>
@@ -20695,7 +20696,7 @@
         <v>320</v>
       </c>
       <c r="U228" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V228" s="24">
         <v>1</v>
@@ -20710,7 +20711,7 @@
         <v>0</v>
       </c>
       <c r="Z228" s="28" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="229" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20719,13 +20720,13 @@
         <v>200303</v>
       </c>
       <c r="D229" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E229" s="16">
         <v>3</v>
       </c>
       <c r="F229" s="18">
-        <v>1143103</v>
+        <v>1153103</v>
       </c>
       <c r="G229" s="14">
         <v>0</v>
@@ -20770,7 +20771,7 @@
         <v>320</v>
       </c>
       <c r="U229" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V229" s="24">
         <v>1</v>
@@ -20785,7 +20786,7 @@
         <v>0</v>
       </c>
       <c r="Z229" s="28" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="230" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20794,13 +20795,13 @@
         <v>200304</v>
       </c>
       <c r="D230" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E230" s="16">
         <v>3</v>
       </c>
       <c r="F230" s="18">
-        <v>1143104</v>
+        <v>1153104</v>
       </c>
       <c r="G230" s="14">
         <v>0</v>
@@ -20845,7 +20846,7 @@
         <v>320</v>
       </c>
       <c r="U230" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V230" s="24">
         <v>1</v>
@@ -20860,7 +20861,7 @@
         <v>0</v>
       </c>
       <c r="Z230" s="28" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="231" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20869,13 +20870,13 @@
         <v>200305</v>
       </c>
       <c r="D231" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E231" s="16">
         <v>3</v>
       </c>
       <c r="F231" s="18">
-        <v>1143105</v>
+        <v>1153105</v>
       </c>
       <c r="G231" s="14">
         <v>0</v>
@@ -20920,7 +20921,7 @@
         <v>320</v>
       </c>
       <c r="U231" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V231" s="24">
         <v>1</v>
@@ -20935,7 +20936,7 @@
         <v>0</v>
       </c>
       <c r="Z231" s="28" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="232" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20944,13 +20945,13 @@
         <v>200401</v>
       </c>
       <c r="D232" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E232" s="16">
         <v>3</v>
       </c>
       <c r="F232" s="18">
-        <v>1144101</v>
+        <v>1154101</v>
       </c>
       <c r="G232" s="14">
         <v>0</v>
@@ -20995,7 +20996,7 @@
         <v>420</v>
       </c>
       <c r="U232" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V232" s="24">
         <v>1</v>
@@ -21010,7 +21011,7 @@
         <v>0</v>
       </c>
       <c r="Z232" s="28" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="233" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21019,13 +21020,13 @@
         <v>200402</v>
       </c>
       <c r="D233" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E233" s="16">
         <v>3</v>
       </c>
       <c r="F233" s="18">
-        <v>1144102</v>
+        <v>1154102</v>
       </c>
       <c r="G233" s="14">
         <v>0</v>
@@ -21070,7 +21071,7 @@
         <v>420</v>
       </c>
       <c r="U233" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V233" s="24">
         <v>1</v>
@@ -21085,7 +21086,7 @@
         <v>0</v>
       </c>
       <c r="Z233" s="28" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="234" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21094,13 +21095,13 @@
         <v>200403</v>
       </c>
       <c r="D234" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E234" s="16">
         <v>3</v>
       </c>
       <c r="F234" s="18">
-        <v>1144103</v>
+        <v>1154103</v>
       </c>
       <c r="G234" s="14">
         <v>0</v>
@@ -21145,7 +21146,7 @@
         <v>420</v>
       </c>
       <c r="U234" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V234" s="24">
         <v>1</v>
@@ -21160,7 +21161,7 @@
         <v>0</v>
       </c>
       <c r="Z234" s="28" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="235" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21169,13 +21170,13 @@
         <v>200404</v>
       </c>
       <c r="D235" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E235" s="16">
         <v>3</v>
       </c>
       <c r="F235" s="18">
-        <v>1144104</v>
+        <v>1154104</v>
       </c>
       <c r="G235" s="14">
         <v>0</v>
@@ -21220,7 +21221,7 @@
         <v>420</v>
       </c>
       <c r="U235" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V235" s="24">
         <v>1</v>
@@ -21235,7 +21236,7 @@
         <v>0</v>
       </c>
       <c r="Z235" s="28" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="236" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21244,13 +21245,13 @@
         <v>200405</v>
       </c>
       <c r="D236" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E236" s="16">
         <v>3</v>
       </c>
       <c r="F236" s="18">
-        <v>1144105</v>
+        <v>1154105</v>
       </c>
       <c r="G236" s="14">
         <v>0</v>
@@ -21295,7 +21296,7 @@
         <v>420</v>
       </c>
       <c r="U236" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V236" s="24">
         <v>1</v>
@@ -21310,7 +21311,7 @@
         <v>0</v>
       </c>
       <c r="Z236" s="28" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="237" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21319,13 +21320,13 @@
         <v>200501</v>
       </c>
       <c r="D237" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E237" s="16">
         <v>3</v>
       </c>
       <c r="F237" s="18">
-        <v>1145101</v>
+        <v>1155101</v>
       </c>
       <c r="G237" s="14">
         <v>0</v>
@@ -21370,7 +21371,7 @@
         <v>500</v>
       </c>
       <c r="U237" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V237" s="24">
         <v>1</v>
@@ -21385,7 +21386,7 @@
         <v>0</v>
       </c>
       <c r="Z237" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="238" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21394,13 +21395,13 @@
         <v>200502</v>
       </c>
       <c r="D238" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E238" s="16">
         <v>3</v>
       </c>
       <c r="F238" s="18">
-        <v>1145102</v>
+        <v>1155102</v>
       </c>
       <c r="G238" s="14">
         <v>0</v>
@@ -21445,7 +21446,7 @@
         <v>500</v>
       </c>
       <c r="U238" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V238" s="24">
         <v>1</v>
@@ -21460,7 +21461,7 @@
         <v>0</v>
       </c>
       <c r="Z238" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="239" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21469,13 +21470,13 @@
         <v>200503</v>
       </c>
       <c r="D239" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E239" s="16">
         <v>3</v>
       </c>
       <c r="F239" s="18">
-        <v>1145103</v>
+        <v>1155103</v>
       </c>
       <c r="G239" s="14">
         <v>0</v>
@@ -21520,7 +21521,7 @@
         <v>500</v>
       </c>
       <c r="U239" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V239" s="24">
         <v>1</v>
@@ -21535,7 +21536,7 @@
         <v>0</v>
       </c>
       <c r="Z239" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="240" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21544,13 +21545,13 @@
         <v>200504</v>
       </c>
       <c r="D240" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E240" s="16">
         <v>3</v>
       </c>
       <c r="F240" s="18">
-        <v>1145104</v>
+        <v>1155104</v>
       </c>
       <c r="G240" s="14">
         <v>0</v>
@@ -21595,7 +21596,7 @@
         <v>500</v>
       </c>
       <c r="U240" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V240" s="24">
         <v>1</v>
@@ -21610,7 +21611,7 @@
         <v>0</v>
       </c>
       <c r="Z240" s="28" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="241" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21619,13 +21620,13 @@
         <v>200505</v>
       </c>
       <c r="D241" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E241" s="16">
         <v>3</v>
       </c>
       <c r="F241" s="18">
-        <v>1145105</v>
+        <v>1155105</v>
       </c>
       <c r="G241" s="14">
         <v>0</v>
@@ -21670,7 +21671,7 @@
         <v>500</v>
       </c>
       <c r="U241" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V241" s="24">
         <v>1</v>
@@ -21685,7 +21686,7 @@
         <v>0</v>
       </c>
       <c r="Z241" s="28" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="242" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21693,13 +21694,13 @@
         <v>200602</v>
       </c>
       <c r="D242" s="45" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E242" s="16">
         <v>3</v>
       </c>
       <c r="F242" s="45">
-        <v>1146002</v>
+        <v>1156002</v>
       </c>
       <c r="G242" s="14">
         <v>0</v>
@@ -21744,7 +21745,7 @@
         <v>150</v>
       </c>
       <c r="U242" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V242" s="24">
         <v>1</v>
@@ -21759,7 +21760,7 @@
         <v>0</v>
       </c>
       <c r="Z242" s="28" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="243" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21767,13 +21768,13 @@
         <v>200603</v>
       </c>
       <c r="D243" s="46" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E243" s="16">
         <v>3</v>
       </c>
       <c r="F243" s="45">
-        <v>1146003</v>
+        <v>1156003</v>
       </c>
       <c r="G243" s="14">
         <v>0</v>
@@ -21818,7 +21819,7 @@
         <v>150</v>
       </c>
       <c r="U243" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V243" s="24">
         <v>1</v>
@@ -21833,7 +21834,7 @@
         <v>0</v>
       </c>
       <c r="Z243" s="28" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="244" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21841,13 +21842,13 @@
         <v>200604</v>
       </c>
       <c r="D244" s="46" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E244" s="16">
         <v>3</v>
       </c>
       <c r="F244" s="45">
-        <v>1146004</v>
+        <v>1156004</v>
       </c>
       <c r="G244" s="14">
         <v>0</v>
@@ -21892,7 +21893,7 @@
         <v>150</v>
       </c>
       <c r="U244" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V244" s="24">
         <v>1</v>
@@ -21907,7 +21908,7 @@
         <v>0</v>
       </c>
       <c r="Z244" s="28" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="245" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21915,13 +21916,13 @@
         <v>201001</v>
       </c>
       <c r="D245" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E245" s="16">
         <v>3</v>
       </c>
       <c r="F245" s="18">
-        <v>1149001</v>
+        <v>1159001</v>
       </c>
       <c r="G245" s="14">
         <v>0</v>
@@ -21966,7 +21967,7 @@
         <v>200</v>
       </c>
       <c r="U245" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V245" s="24">
         <v>1</v>
@@ -21981,7 +21982,7 @@
         <v>0</v>
       </c>
       <c r="Z245" s="28" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="246" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21989,13 +21990,13 @@
         <v>201002</v>
       </c>
       <c r="D246" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E246" s="16">
         <v>3</v>
       </c>
       <c r="F246" s="18">
-        <v>1149002</v>
+        <v>1159002</v>
       </c>
       <c r="G246" s="14">
         <v>0</v>
@@ -22040,7 +22041,7 @@
         <v>200</v>
       </c>
       <c r="U246" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V246" s="24">
         <v>1</v>
@@ -22055,7 +22056,7 @@
         <v>0</v>
       </c>
       <c r="Z246" s="28" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="247" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22063,7 +22064,7 @@
         <v>201101</v>
       </c>
       <c r="D247" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E247" s="16">
         <v>3</v>
@@ -22114,7 +22115,7 @@
         <v>200</v>
       </c>
       <c r="U247" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V247" s="24">
         <v>1</v>
@@ -22129,7 +22130,7 @@
         <v>0</v>
       </c>
       <c r="Z247" s="28" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="248" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22137,7 +22138,7 @@
         <v>201102</v>
       </c>
       <c r="D248" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E248" s="16">
         <v>3</v>
@@ -22188,7 +22189,7 @@
         <v>200</v>
       </c>
       <c r="U248" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V248" s="24">
         <v>1</v>
@@ -22203,7 +22204,7 @@
         <v>0</v>
       </c>
       <c r="Z248" s="28" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="249" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22211,7 +22212,7 @@
         <v>201103</v>
       </c>
       <c r="D249" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E249" s="16">
         <v>3</v>
@@ -22262,7 +22263,7 @@
         <v>200</v>
       </c>
       <c r="U249" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V249" s="24">
         <v>1</v>
@@ -22277,7 +22278,7 @@
         <v>0</v>
       </c>
       <c r="Z249" s="28" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="250" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22285,7 +22286,7 @@
         <v>300001</v>
       </c>
       <c r="D250" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E250" s="16">
         <v>1</v>
@@ -22336,7 +22337,7 @@
         <v>200</v>
       </c>
       <c r="U250" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V250" s="24">
         <v>1</v>
@@ -22351,7 +22352,7 @@
         <v>0</v>
       </c>
       <c r="Z250" s="28" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="251" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22359,7 +22360,7 @@
         <v>300002</v>
       </c>
       <c r="D251" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E251" s="16">
         <v>1</v>
@@ -22410,7 +22411,7 @@
         <v>200</v>
       </c>
       <c r="U251" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V251" s="24">
         <v>1</v>
@@ -22425,7 +22426,7 @@
         <v>0</v>
       </c>
       <c r="Z251" s="28" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="252" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22433,7 +22434,7 @@
         <v>300003</v>
       </c>
       <c r="D252" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E252" s="16">
         <v>1</v>
@@ -22484,7 +22485,7 @@
         <v>200</v>
       </c>
       <c r="U252" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V252" s="24">
         <v>1</v>
@@ -22499,7 +22500,7 @@
         <v>0</v>
       </c>
       <c r="Z252" s="28" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="253" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22507,7 +22508,7 @@
         <v>4000101</v>
       </c>
       <c r="D253" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E253" s="16">
         <v>4</v>
@@ -22573,7 +22574,7 @@
         <v>2500</v>
       </c>
       <c r="Z253" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="254" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22581,7 +22582,7 @@
         <v>4000102</v>
       </c>
       <c r="D254" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E254" s="16">
         <v>4</v>
@@ -22647,7 +22648,7 @@
         <v>3500</v>
       </c>
       <c r="Z254" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="255" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22655,7 +22656,7 @@
         <v>4000103</v>
       </c>
       <c r="D255" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E255" s="16">
         <v>4</v>
@@ -22721,7 +22722,7 @@
         <v>5000</v>
       </c>
       <c r="Z255" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="256" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22729,7 +22730,7 @@
         <v>4000104</v>
       </c>
       <c r="D256" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E256" s="16">
         <v>4</v>
@@ -22795,7 +22796,7 @@
         <v>7500</v>
       </c>
       <c r="Z256" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="257" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22803,7 +22804,7 @@
         <v>4000105</v>
       </c>
       <c r="D257" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E257" s="16">
         <v>4</v>
@@ -22869,7 +22870,7 @@
         <v>10000</v>
       </c>
       <c r="Z257" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="258" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22877,7 +22878,7 @@
         <v>4000106</v>
       </c>
       <c r="D258" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E258" s="16">
         <v>4</v>
@@ -22943,7 +22944,7 @@
         <v>20000</v>
       </c>
       <c r="Z258" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="259" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22951,7 +22952,7 @@
         <v>4000107</v>
       </c>
       <c r="D259" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E259" s="16">
         <v>4</v>
@@ -23017,7 +23018,7 @@
         <v>30000</v>
       </c>
       <c r="Z259" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="260" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23025,7 +23026,7 @@
         <v>4000108</v>
       </c>
       <c r="D260" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E260" s="16">
         <v>4</v>
@@ -23091,7 +23092,7 @@
         <v>40000</v>
       </c>
       <c r="Z260" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="261" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23099,7 +23100,7 @@
         <v>4000109</v>
       </c>
       <c r="D261" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E261" s="16">
         <v>4</v>
@@ -23165,7 +23166,7 @@
         <v>50000</v>
       </c>
       <c r="Z261" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="262" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23173,7 +23174,7 @@
         <v>4000110</v>
       </c>
       <c r="D262" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E262" s="33">
         <v>4</v>
@@ -23239,7 +23240,7 @@
         <v>100000</v>
       </c>
       <c r="Z262" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="263" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23247,7 +23248,7 @@
         <v>4000111</v>
       </c>
       <c r="D263" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E263" s="33">
         <v>4</v>
@@ -23313,7 +23314,7 @@
         <v>200000</v>
       </c>
       <c r="Z263" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="264" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23321,7 +23322,7 @@
         <v>4000201</v>
       </c>
       <c r="D264" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E264" s="16">
         <v>4</v>
@@ -23387,7 +23388,7 @@
         <v>2500</v>
       </c>
       <c r="Z264" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="265" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23395,7 +23396,7 @@
         <v>4000202</v>
       </c>
       <c r="D265" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E265" s="16">
         <v>4</v>
@@ -23461,7 +23462,7 @@
         <v>3500</v>
       </c>
       <c r="Z265" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="266" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23469,7 +23470,7 @@
         <v>4000203</v>
       </c>
       <c r="D266" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E266" s="16">
         <v>4</v>
@@ -23535,7 +23536,7 @@
         <v>5000</v>
       </c>
       <c r="Z266" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="267" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23543,7 +23544,7 @@
         <v>4000204</v>
       </c>
       <c r="D267" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E267" s="16">
         <v>4</v>
@@ -23609,7 +23610,7 @@
         <v>7500</v>
       </c>
       <c r="Z267" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="268" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23617,7 +23618,7 @@
         <v>4000205</v>
       </c>
       <c r="D268" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E268" s="16">
         <v>4</v>
@@ -23683,7 +23684,7 @@
         <v>10000</v>
       </c>
       <c r="Z268" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="269" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23691,7 +23692,7 @@
         <v>4000206</v>
       </c>
       <c r="D269" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E269" s="16">
         <v>4</v>
@@ -23757,7 +23758,7 @@
         <v>20000</v>
       </c>
       <c r="Z269" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="270" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23765,7 +23766,7 @@
         <v>4000207</v>
       </c>
       <c r="D270" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E270" s="16">
         <v>4</v>
@@ -23831,7 +23832,7 @@
         <v>30000</v>
       </c>
       <c r="Z270" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="271" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23839,7 +23840,7 @@
         <v>4000208</v>
       </c>
       <c r="D271" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E271" s="16">
         <v>4</v>
@@ -23905,7 +23906,7 @@
         <v>40000</v>
       </c>
       <c r="Z271" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="272" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23913,7 +23914,7 @@
         <v>4000209</v>
       </c>
       <c r="D272" s="31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E272" s="16">
         <v>4</v>
@@ -23979,7 +23980,7 @@
         <v>50000</v>
       </c>
       <c r="Z272" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="273" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23987,7 +23988,7 @@
         <v>4000210</v>
       </c>
       <c r="D273" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E273" s="33">
         <v>4</v>
@@ -24053,7 +24054,7 @@
         <v>100000</v>
       </c>
       <c r="Z273" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="274" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24061,7 +24062,7 @@
         <v>4000211</v>
       </c>
       <c r="D274" s="32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E274" s="33">
         <v>4</v>
@@ -24127,7 +24128,7 @@
         <v>200000</v>
       </c>
       <c r="Z274" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="275" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24135,7 +24136,7 @@
         <v>4000301</v>
       </c>
       <c r="D275" s="31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E275" s="16">
         <v>4</v>
@@ -24201,7 +24202,7 @@
         <v>2500</v>
       </c>
       <c r="Z275" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="276" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24209,7 +24210,7 @@
         <v>4000302</v>
       </c>
       <c r="D276" s="31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E276" s="16">
         <v>4</v>
@@ -24275,7 +24276,7 @@
         <v>3500</v>
       </c>
       <c r="Z276" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="277" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24283,7 +24284,7 @@
         <v>4000303</v>
       </c>
       <c r="D277" s="31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E277" s="16">
         <v>4</v>
@@ -24349,7 +24350,7 @@
         <v>5000</v>
       </c>
       <c r="Z277" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="278" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24357,7 +24358,7 @@
         <v>4000304</v>
       </c>
       <c r="D278" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E278" s="16">
         <v>4</v>
@@ -24423,7 +24424,7 @@
         <v>7500</v>
       </c>
       <c r="Z278" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="279" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24431,7 +24432,7 @@
         <v>4000305</v>
       </c>
       <c r="D279" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E279" s="16">
         <v>4</v>
@@ -24497,7 +24498,7 @@
         <v>10000</v>
       </c>
       <c r="Z279" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="280" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24505,7 +24506,7 @@
         <v>4000306</v>
       </c>
       <c r="D280" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E280" s="16">
         <v>4</v>
@@ -24571,7 +24572,7 @@
         <v>20000</v>
       </c>
       <c r="Z280" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="281" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24579,7 +24580,7 @@
         <v>4000307</v>
       </c>
       <c r="D281" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E281" s="16">
         <v>4</v>
@@ -24645,7 +24646,7 @@
         <v>30000</v>
       </c>
       <c r="Z281" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="282" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24653,7 +24654,7 @@
         <v>4000308</v>
       </c>
       <c r="D282" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E282" s="16">
         <v>4</v>
@@ -24719,7 +24720,7 @@
         <v>40000</v>
       </c>
       <c r="Z282" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="283" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24727,7 +24728,7 @@
         <v>4000309</v>
       </c>
       <c r="D283" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E283" s="16">
         <v>4</v>
@@ -24793,7 +24794,7 @@
         <v>50000</v>
       </c>
       <c r="Z283" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="284" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24801,7 +24802,7 @@
         <v>4000310</v>
       </c>
       <c r="D284" s="31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E284" s="33">
         <v>4</v>
@@ -24867,7 +24868,7 @@
         <v>100000</v>
       </c>
       <c r="Z284" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="285" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24875,7 +24876,7 @@
         <v>4000311</v>
       </c>
       <c r="D285" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E285" s="33">
         <v>4</v>
@@ -24941,7 +24942,7 @@
         <v>200000</v>
       </c>
       <c r="Z285" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="286" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24949,7 +24950,7 @@
         <v>4000401</v>
       </c>
       <c r="D286" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E286" s="16">
         <v>4</v>
@@ -25015,7 +25016,7 @@
         <v>2500</v>
       </c>
       <c r="Z286" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="287" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25023,7 +25024,7 @@
         <v>4000402</v>
       </c>
       <c r="D287" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E287" s="16">
         <v>4</v>
@@ -25089,7 +25090,7 @@
         <v>3500</v>
       </c>
       <c r="Z287" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="288" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25097,7 +25098,7 @@
         <v>4000403</v>
       </c>
       <c r="D288" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E288" s="16">
         <v>4</v>
@@ -25163,7 +25164,7 @@
         <v>5000</v>
       </c>
       <c r="Z288" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="289" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25171,7 +25172,7 @@
         <v>4000404</v>
       </c>
       <c r="D289" s="31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E289" s="16">
         <v>4</v>
@@ -25237,7 +25238,7 @@
         <v>7500</v>
       </c>
       <c r="Z289" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="290" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25245,7 +25246,7 @@
         <v>4000405</v>
       </c>
       <c r="D290" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E290" s="16">
         <v>4</v>
@@ -25311,7 +25312,7 @@
         <v>10000</v>
       </c>
       <c r="Z290" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="291" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25319,7 +25320,7 @@
         <v>4000406</v>
       </c>
       <c r="D291" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E291" s="16">
         <v>4</v>
@@ -25385,7 +25386,7 @@
         <v>20000</v>
       </c>
       <c r="Z291" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="292" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25393,7 +25394,7 @@
         <v>4000407</v>
       </c>
       <c r="D292" s="31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E292" s="16">
         <v>4</v>
@@ -25459,7 +25460,7 @@
         <v>30000</v>
       </c>
       <c r="Z292" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="293" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25467,7 +25468,7 @@
         <v>4000408</v>
       </c>
       <c r="D293" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E293" s="16">
         <v>4</v>
@@ -25533,7 +25534,7 @@
         <v>40000</v>
       </c>
       <c r="Z293" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="294" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25541,7 +25542,7 @@
         <v>4000409</v>
       </c>
       <c r="D294" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E294" s="16">
         <v>4</v>
@@ -25607,7 +25608,7 @@
         <v>50000</v>
       </c>
       <c r="Z294" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="295" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25615,7 +25616,7 @@
         <v>4000410</v>
       </c>
       <c r="D295" s="31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E295" s="33">
         <v>4</v>
@@ -25681,7 +25682,7 @@
         <v>100000</v>
       </c>
       <c r="Z295" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="296" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25689,7 +25690,7 @@
         <v>4000411</v>
       </c>
       <c r="D296" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E296" s="33">
         <v>4</v>
@@ -25755,7 +25756,7 @@
         <v>200000</v>
       </c>
       <c r="Z296" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="297" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25763,7 +25764,7 @@
         <v>5000001</v>
       </c>
       <c r="D297" s="37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E297" s="6">
         <v>5</v>
@@ -25829,7 +25830,7 @@
         <v>1000000</v>
       </c>
       <c r="Z297" s="6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="298" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25837,7 +25838,7 @@
         <v>5000002</v>
       </c>
       <c r="D298" s="37" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E298" s="6">
         <v>5</v>
@@ -25903,7 +25904,7 @@
         <v>1000000</v>
       </c>
       <c r="Z298" s="6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="299" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25911,7 +25912,7 @@
         <v>5000003</v>
       </c>
       <c r="D299" s="37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E299" s="6">
         <v>5</v>
@@ -25977,7 +25978,7 @@
         <v>1000000</v>
       </c>
       <c r="Z299" s="6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="300" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25985,7 +25986,7 @@
         <v>5000011</v>
       </c>
       <c r="D300" s="37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E300" s="6">
         <v>5</v>
@@ -26051,7 +26052,7 @@
         <v>1000000</v>
       </c>
       <c r="Z300" s="6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="301" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26059,7 +26060,7 @@
         <v>5000012</v>
       </c>
       <c r="D301" s="37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E301" s="6">
         <v>5</v>
@@ -26125,7 +26126,7 @@
         <v>1000000</v>
       </c>
       <c r="Z301" s="6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="302" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26133,7 +26134,7 @@
         <v>5000013</v>
       </c>
       <c r="D302" s="37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E302" s="6">
         <v>5</v>
@@ -26199,7 +26200,7 @@
         <v>1000000</v>
       </c>
       <c r="Z302" s="6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="303" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26207,7 +26208,7 @@
         <v>5000021</v>
       </c>
       <c r="D303" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E303" s="6">
         <v>5</v>
@@ -26273,7 +26274,7 @@
         <v>1000000</v>
       </c>
       <c r="Z303" s="6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="304" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26281,7 +26282,7 @@
         <v>5000022</v>
       </c>
       <c r="D304" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E304" s="6">
         <v>5</v>
@@ -26347,7 +26348,7 @@
         <v>1000000</v>
       </c>
       <c r="Z304" s="6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="305" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26355,7 +26356,7 @@
         <v>5000023</v>
       </c>
       <c r="D305" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E305" s="6">
         <v>5</v>
@@ -26421,7 +26422,7 @@
         <v>1000000</v>
       </c>
       <c r="Z305" s="6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="306" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26429,7 +26430,7 @@
         <v>5000031</v>
       </c>
       <c r="D306" s="37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E306" s="6">
         <v>5</v>
@@ -26495,7 +26496,7 @@
         <v>1000000</v>
       </c>
       <c r="Z306" s="6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="307" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26503,7 +26504,7 @@
         <v>5000032</v>
       </c>
       <c r="D307" s="37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E307" s="6">
         <v>5</v>
@@ -26569,7 +26570,7 @@
         <v>1000000</v>
       </c>
       <c r="Z307" s="6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="308" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26577,7 +26578,7 @@
         <v>5000033</v>
       </c>
       <c r="D308" s="37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E308" s="6">
         <v>5</v>
@@ -26643,7 +26644,7 @@
         <v>1000000</v>
       </c>
       <c r="Z308" s="6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="309" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26651,7 +26652,7 @@
         <v>5000041</v>
       </c>
       <c r="D309" s="37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E309" s="6">
         <v>5</v>
@@ -26717,7 +26718,7 @@
         <v>1000000</v>
       </c>
       <c r="Z309" s="6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="310" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26725,7 +26726,7 @@
         <v>5000042</v>
       </c>
       <c r="D310" s="37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E310" s="6">
         <v>5</v>
@@ -26791,7 +26792,7 @@
         <v>1000000</v>
       </c>
       <c r="Z310" s="6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="311" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26799,7 +26800,7 @@
         <v>5000043</v>
       </c>
       <c r="D311" s="37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E311" s="6">
         <v>5</v>
@@ -26865,7 +26866,7 @@
         <v>1000000</v>
       </c>
       <c r="Z311" s="6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="312" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26873,7 +26874,7 @@
         <v>5000051</v>
       </c>
       <c r="D312" s="37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E312" s="6">
         <v>5</v>
@@ -26939,7 +26940,7 @@
         <v>1000000</v>
       </c>
       <c r="Z312" s="6" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="313" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26947,7 +26948,7 @@
         <v>5000052</v>
       </c>
       <c r="D313" s="37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E313" s="6">
         <v>5</v>
@@ -27013,7 +27014,7 @@
         <v>1000000</v>
       </c>
       <c r="Z313" s="6" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="314" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27021,7 +27022,7 @@
         <v>5000061</v>
       </c>
       <c r="D314" s="37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E314" s="6">
         <v>5</v>
@@ -27087,7 +27088,7 @@
         <v>1000000</v>
       </c>
       <c r="Z314" s="6" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="315" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27095,7 +27096,7 @@
         <v>5000062</v>
       </c>
       <c r="D315" s="37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E315" s="6">
         <v>5</v>
@@ -27161,7 +27162,7 @@
         <v>1000000</v>
       </c>
       <c r="Z315" s="6" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="316" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27169,7 +27170,7 @@
         <v>5000071</v>
       </c>
       <c r="D316" s="37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E316" s="6">
         <v>5</v>
@@ -27235,7 +27236,7 @@
         <v>1000000</v>
       </c>
       <c r="Z316" s="6" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="317" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27243,7 +27244,7 @@
         <v>5000072</v>
       </c>
       <c r="D317" s="37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E317" s="6">
         <v>5</v>
@@ -27309,7 +27310,7 @@
         <v>1000000</v>
       </c>
       <c r="Z317" s="6" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="318" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27317,7 +27318,7 @@
         <v>5000081</v>
       </c>
       <c r="D318" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E318" s="6">
         <v>5</v>
@@ -27383,7 +27384,7 @@
         <v>1000000</v>
       </c>
       <c r="Z318" s="6" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="319" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27391,7 +27392,7 @@
         <v>5000082</v>
       </c>
       <c r="D319" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E319" s="6">
         <v>5</v>
@@ -27457,7 +27458,7 @@
         <v>1000000</v>
       </c>
       <c r="Z319" s="6" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="320" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27465,7 +27466,7 @@
         <v>5000091</v>
       </c>
       <c r="D320" s="37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E320" s="6">
         <v>5</v>
@@ -27531,7 +27532,7 @@
         <v>1000000</v>
       </c>
       <c r="Z320" s="6" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="321" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27539,7 +27540,7 @@
         <v>5000092</v>
       </c>
       <c r="D321" s="37" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E321" s="6">
         <v>5</v>
@@ -27605,7 +27606,7 @@
         <v>1000000</v>
       </c>
       <c r="Z321" s="6" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="322" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27613,7 +27614,7 @@
         <v>5000093</v>
       </c>
       <c r="D322" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E322" s="6">
         <v>5</v>
@@ -27679,7 +27680,7 @@
         <v>1000000</v>
       </c>
       <c r="Z322" s="6" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="323" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27687,7 +27688,7 @@
         <v>5000101</v>
       </c>
       <c r="D323" s="37" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E323" s="6">
         <v>5</v>
@@ -27753,7 +27754,7 @@
         <v>1000000</v>
       </c>
       <c r="Z323" s="6" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="324" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27761,7 +27762,7 @@
         <v>5001001</v>
       </c>
       <c r="D324" s="38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E324" s="6">
         <v>5</v>
@@ -27827,7 +27828,7 @@
         <v>50000</v>
       </c>
       <c r="Z324" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="325" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27835,7 +27836,7 @@
         <v>5001002</v>
       </c>
       <c r="D325" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E325" s="6">
         <v>5</v>
@@ -27901,7 +27902,7 @@
         <v>100000</v>
       </c>
       <c r="Z325" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="326" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27909,7 +27910,7 @@
         <v>5001003</v>
       </c>
       <c r="D326" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E326" s="6">
         <v>5</v>
@@ -27975,7 +27976,7 @@
         <v>300000</v>
       </c>
       <c r="Z326" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="327" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27983,7 +27984,7 @@
         <v>5001004</v>
       </c>
       <c r="D327" s="38" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E327" s="6">
         <v>5</v>
@@ -28049,7 +28050,7 @@
         <v>300000</v>
       </c>
       <c r="Z327" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="328" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28057,7 +28058,7 @@
         <v>5002001</v>
       </c>
       <c r="D328" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E328" s="7">
         <v>0</v>
@@ -28123,7 +28124,7 @@
         <v>0</v>
       </c>
       <c r="Z328" s="39" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="329" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28131,7 +28132,7 @@
         <v>5002002</v>
       </c>
       <c r="D329" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E329" s="7">
         <v>0</v>
@@ -28197,7 +28198,7 @@
         <v>0</v>
       </c>
       <c r="Z329" s="39" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="330" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28205,7 +28206,7 @@
         <v>5002003</v>
       </c>
       <c r="D330" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E330" s="7">
         <v>0</v>
@@ -28271,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="Z330" s="39" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="331" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28279,7 +28280,7 @@
         <v>5002011</v>
       </c>
       <c r="D331" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E331" s="7">
         <v>0</v>
@@ -28345,7 +28346,7 @@
         <v>0</v>
       </c>
       <c r="Z331" s="39" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="332" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28353,7 +28354,7 @@
         <v>5002012</v>
       </c>
       <c r="D332" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E332" s="7">
         <v>0</v>
@@ -28419,7 +28420,7 @@
         <v>0</v>
       </c>
       <c r="Z332" s="39" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="333" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28427,7 +28428,7 @@
         <v>5002013</v>
       </c>
       <c r="D333" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E333" s="7">
         <v>0</v>
@@ -28493,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="Z333" s="39" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="334" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28501,7 +28502,7 @@
         <v>5002021</v>
       </c>
       <c r="D334" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E334" s="7">
         <v>0</v>
@@ -28567,7 +28568,7 @@
         <v>0</v>
       </c>
       <c r="Z334" s="39" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="335" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28575,7 +28576,7 @@
         <v>5002022</v>
       </c>
       <c r="D335" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E335" s="7">
         <v>0</v>
@@ -28641,7 +28642,7 @@
         <v>0</v>
       </c>
       <c r="Z335" s="39" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="336" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28649,7 +28650,7 @@
         <v>5002023</v>
       </c>
       <c r="D336" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E336" s="7">
         <v>0</v>
@@ -28715,7 +28716,7 @@
         <v>0</v>
       </c>
       <c r="Z336" s="39" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="337" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28723,7 +28724,7 @@
         <v>5002031</v>
       </c>
       <c r="D337" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E337" s="7">
         <v>0</v>
@@ -28789,7 +28790,7 @@
         <v>0</v>
       </c>
       <c r="Z337" s="39" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="338" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28797,7 +28798,7 @@
         <v>5002032</v>
       </c>
       <c r="D338" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E338" s="7">
         <v>0</v>
@@ -28863,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="Z338" s="39" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="339" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28871,7 +28872,7 @@
         <v>5002033</v>
       </c>
       <c r="D339" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E339" s="7">
         <v>0</v>
@@ -28937,7 +28938,7 @@
         <v>0</v>
       </c>
       <c r="Z339" s="39" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="340" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28945,7 +28946,7 @@
         <v>5002041</v>
       </c>
       <c r="D340" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E340" s="7">
         <v>0</v>
@@ -29011,7 +29012,7 @@
         <v>0</v>
       </c>
       <c r="Z340" s="39" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="341" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29019,7 +29020,7 @@
         <v>5002042</v>
       </c>
       <c r="D341" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E341" s="7">
         <v>0</v>
@@ -29085,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="Z341" s="39" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="342" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29093,7 +29094,7 @@
         <v>5002043</v>
       </c>
       <c r="D342" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E342" s="7">
         <v>0</v>
@@ -29159,7 +29160,7 @@
         <v>0</v>
       </c>
       <c r="Z342" s="39" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="343" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29167,7 +29168,7 @@
         <v>5002051</v>
       </c>
       <c r="D343" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E343" s="7">
         <v>0</v>
@@ -29233,7 +29234,7 @@
         <v>0</v>
       </c>
       <c r="Z343" s="39" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="344" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29241,7 +29242,7 @@
         <v>5002052</v>
       </c>
       <c r="D344" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E344" s="7">
         <v>0</v>
@@ -29307,7 +29308,7 @@
         <v>0</v>
       </c>
       <c r="Z344" s="39" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="345" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29315,7 +29316,7 @@
         <v>5002061</v>
       </c>
       <c r="D345" s="18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E345" s="7">
         <v>0</v>
@@ -29381,7 +29382,7 @@
         <v>0</v>
       </c>
       <c r="Z345" s="39" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="346" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29389,7 +29390,7 @@
         <v>5002062</v>
       </c>
       <c r="D346" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E346" s="7">
         <v>0</v>
@@ -29455,7 +29456,7 @@
         <v>0</v>
       </c>
       <c r="Z346" s="39" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="347" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29463,7 +29464,7 @@
         <v>5002071</v>
       </c>
       <c r="D347" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E347" s="7">
         <v>0</v>
@@ -29529,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="Z347" s="39" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="348" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29537,7 +29538,7 @@
         <v>5002072</v>
       </c>
       <c r="D348" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E348" s="7">
         <v>0</v>
@@ -29603,7 +29604,7 @@
         <v>0</v>
       </c>
       <c r="Z348" s="39" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="349" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29611,7 +29612,7 @@
         <v>5002081</v>
       </c>
       <c r="D349" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E349" s="7">
         <v>0</v>
@@ -29677,7 +29678,7 @@
         <v>0</v>
       </c>
       <c r="Z349" s="39" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="350" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29685,7 +29686,7 @@
         <v>5002082</v>
       </c>
       <c r="D350" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E350" s="7">
         <v>0</v>
@@ -29751,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="Z350" s="39" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="351" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29759,7 +29760,7 @@
         <v>5002091</v>
       </c>
       <c r="D351" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E351" s="7">
         <v>0</v>
@@ -29825,7 +29826,7 @@
         <v>0</v>
       </c>
       <c r="Z351" s="39" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="352" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29833,7 +29834,7 @@
         <v>5002092</v>
       </c>
       <c r="D352" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E352" s="7">
         <v>0</v>
@@ -29899,7 +29900,7 @@
         <v>0</v>
       </c>
       <c r="Z352" s="39" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="353" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29907,7 +29908,7 @@
         <v>5002093</v>
       </c>
       <c r="D353" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E353" s="7">
         <v>0</v>
@@ -29973,7 +29974,7 @@
         <v>0</v>
       </c>
       <c r="Z353" s="39" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="354" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29981,7 +29982,7 @@
         <v>5002101</v>
       </c>
       <c r="D354" s="18" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E354" s="7">
         <v>0</v>
@@ -30047,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="Z354" s="39" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="355" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30055,7 +30056,7 @@
         <v>6101001</v>
       </c>
       <c r="D355" s="41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E355" s="6">
         <v>6</v>
@@ -30107,7 +30108,7 @@
         <v>175</v>
       </c>
       <c r="U355" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V355" s="6">
         <v>0</v>
@@ -30122,7 +30123,7 @@
         <v>0</v>
       </c>
       <c r="Z355" s="42" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="356" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30130,7 +30131,7 @@
         <v>6101002</v>
       </c>
       <c r="D356" s="41" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E356" s="6">
         <v>6</v>
@@ -30182,7 +30183,7 @@
         <v>175</v>
       </c>
       <c r="U356" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V356" s="6">
         <v>0</v>
@@ -30197,7 +30198,7 @@
         <v>0</v>
       </c>
       <c r="Z356" s="42" t="s">
-        <v>788</v>
+        <v>814</v>
       </c>
     </row>
     <row r="357" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30205,7 +30206,7 @@
         <v>6101003</v>
       </c>
       <c r="D357" s="41" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E357" s="6">
         <v>6</v>
@@ -30256,7 +30257,7 @@
         <v>175</v>
       </c>
       <c r="U357" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V357" s="6">
         <v>0</v>
@@ -30271,7 +30272,7 @@
         <v>0</v>
       </c>
       <c r="Z357" s="42" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="358" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30280,7 +30281,7 @@
         <v>6102001</v>
       </c>
       <c r="D358" s="41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E358" s="6">
         <v>6</v>
@@ -30332,7 +30333,7 @@
         <v>175</v>
       </c>
       <c r="U358" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V358" s="6">
         <v>0</v>
@@ -30347,7 +30348,7 @@
         <v>0</v>
       </c>
       <c r="Z358" s="42" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="359" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30356,7 +30357,7 @@
         <v>6102002</v>
       </c>
       <c r="D359" s="41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E359" s="6">
         <v>6</v>
@@ -30408,7 +30409,7 @@
         <v>175</v>
       </c>
       <c r="U359" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V359" s="6">
         <v>0</v>
@@ -30423,7 +30424,7 @@
         <v>0</v>
       </c>
       <c r="Z359" s="42" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="360" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30432,7 +30433,7 @@
         <v>6102003</v>
       </c>
       <c r="D360" s="41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E360" s="6">
         <v>6</v>
@@ -30483,7 +30484,7 @@
         <v>175</v>
       </c>
       <c r="U360" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V360" s="6">
         <v>0</v>
@@ -30498,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="Z360" s="42" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="361" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30507,7 +30508,7 @@
         <v>6103001</v>
       </c>
       <c r="D361" s="41" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E361" s="6">
         <v>6</v>
@@ -30559,7 +30560,7 @@
         <v>175</v>
       </c>
       <c r="U361" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V361" s="6">
         <v>0</v>
@@ -30574,7 +30575,7 @@
         <v>0</v>
       </c>
       <c r="Z361" s="42" t="s">
-        <v>792</v>
+        <v>815</v>
       </c>
     </row>
     <row r="362" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30583,7 +30584,7 @@
         <v>6103002</v>
       </c>
       <c r="D362" s="41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E362" s="6">
         <v>6</v>
@@ -30635,7 +30636,7 @@
         <v>175</v>
       </c>
       <c r="U362" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V362" s="6">
         <v>0</v>
@@ -30650,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="Z362" s="42" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="363" spans="3:26" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -30659,7 +30660,7 @@
         <v>6103003</v>
       </c>
       <c r="D363" s="41" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E363" s="6">
         <v>6</v>
@@ -30710,7 +30711,7 @@
         <v>175</v>
       </c>
       <c r="U363" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V363" s="6">
         <v>0</v>
@@ -30725,7 +30726,7 @@
         <v>0</v>
       </c>
       <c r="Z363" s="42" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="364" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30733,7 +30734,7 @@
         <v>6104001</v>
       </c>
       <c r="D364" s="41" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E364" s="6">
         <v>6</v>
@@ -30785,7 +30786,7 @@
         <v>175</v>
       </c>
       <c r="U364" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V364" s="6">
         <v>0</v>
@@ -30800,7 +30801,7 @@
         <v>0</v>
       </c>
       <c r="Z364" s="42" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="365" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30808,7 +30809,7 @@
         <v>6104002</v>
       </c>
       <c r="D365" s="41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E365" s="6">
         <v>6</v>
@@ -30860,7 +30861,7 @@
         <v>175</v>
       </c>
       <c r="U365" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V365" s="6">
         <v>0</v>
@@ -30875,7 +30876,7 @@
         <v>0</v>
       </c>
       <c r="Z365" s="42" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="366" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30883,7 +30884,7 @@
         <v>6104003</v>
       </c>
       <c r="D366" s="41" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E366" s="6">
         <v>6</v>
@@ -30935,7 +30936,7 @@
         <v>175</v>
       </c>
       <c r="U366" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V366" s="6">
         <v>0</v>
@@ -30950,7 +30951,7 @@
         <v>0</v>
       </c>
       <c r="Z366" s="42" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="367" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30958,7 +30959,7 @@
         <v>6104004</v>
       </c>
       <c r="D367" s="41" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E367" s="6">
         <v>6</v>
@@ -31009,7 +31010,7 @@
         <v>175</v>
       </c>
       <c r="U367" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V367" s="6">
         <v>0</v>
@@ -31024,7 +31025,7 @@
         <v>0</v>
       </c>
       <c r="Z367" s="42" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="368" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31032,7 +31033,7 @@
         <v>6105001</v>
       </c>
       <c r="D368" s="41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E368" s="6">
         <v>6</v>
@@ -31084,7 +31085,7 @@
         <v>175</v>
       </c>
       <c r="U368" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V368" s="6">
         <v>0</v>
@@ -31099,7 +31100,7 @@
         <v>0</v>
       </c>
       <c r="Z368" s="42" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="369" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31107,7 +31108,7 @@
         <v>6105002</v>
       </c>
       <c r="D369" s="41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E369" s="6">
         <v>6</v>
@@ -31159,7 +31160,7 @@
         <v>175</v>
       </c>
       <c r="U369" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V369" s="6">
         <v>0</v>
@@ -31174,7 +31175,7 @@
         <v>0</v>
       </c>
       <c r="Z369" s="42" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="370" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31182,7 +31183,7 @@
         <v>6105003</v>
       </c>
       <c r="D370" s="41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E370" s="6">
         <v>6</v>
@@ -31234,7 +31235,7 @@
         <v>175</v>
       </c>
       <c r="U370" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V370" s="6">
         <v>0</v>
@@ -31249,7 +31250,7 @@
         <v>0</v>
       </c>
       <c r="Z370" s="42" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="371" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31257,7 +31258,7 @@
         <v>6105004</v>
       </c>
       <c r="D371" s="41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E371" s="6">
         <v>6</v>
@@ -31308,7 +31309,7 @@
         <v>175</v>
       </c>
       <c r="U371" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V371" s="6">
         <v>0</v>
@@ -31323,7 +31324,7 @@
         <v>0</v>
       </c>
       <c r="Z371" s="42" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="372" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31331,7 +31332,7 @@
         <v>6106001</v>
       </c>
       <c r="D372" s="41" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E372" s="6">
         <v>6</v>
@@ -31383,7 +31384,7 @@
         <v>175</v>
       </c>
       <c r="U372" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V372" s="6">
         <v>0</v>
@@ -31398,7 +31399,7 @@
         <v>0</v>
       </c>
       <c r="Z372" s="42" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="373" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31406,7 +31407,7 @@
         <v>6106002</v>
       </c>
       <c r="D373" s="41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E373" s="6">
         <v>6</v>
@@ -31458,7 +31459,7 @@
         <v>175</v>
       </c>
       <c r="U373" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V373" s="6">
         <v>0</v>
@@ -31473,7 +31474,7 @@
         <v>0</v>
       </c>
       <c r="Z373" s="42" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="374" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31481,7 +31482,7 @@
         <v>6106003</v>
       </c>
       <c r="D374" s="41" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E374" s="6">
         <v>6</v>
@@ -31532,7 +31533,7 @@
         <v>175</v>
       </c>
       <c r="U374" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V374" s="6">
         <v>0</v>
@@ -31547,7 +31548,7 @@
         <v>0</v>
       </c>
       <c r="Z374" s="42" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="375" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31555,7 +31556,7 @@
         <v>6201001</v>
       </c>
       <c r="D375" s="41" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E375" s="6">
         <v>6</v>
@@ -31606,7 +31607,7 @@
         <v>350</v>
       </c>
       <c r="U375" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V375" s="6">
         <v>0</v>
@@ -31621,7 +31622,7 @@
         <v>0</v>
       </c>
       <c r="Z375" s="42" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="376" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31629,7 +31630,7 @@
         <v>6201002</v>
       </c>
       <c r="D376" s="41" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E376" s="6">
         <v>6</v>
@@ -31680,7 +31681,7 @@
         <v>350</v>
       </c>
       <c r="U376" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V376" s="6">
         <v>0</v>
@@ -31695,7 +31696,7 @@
         <v>0</v>
       </c>
       <c r="Z376" s="42" t="s">
-        <v>799</v>
+        <v>816</v>
       </c>
     </row>
     <row r="377" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31703,7 +31704,7 @@
         <v>6201003</v>
       </c>
       <c r="D377" s="41" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E377" s="6">
         <v>6</v>
@@ -31754,7 +31755,7 @@
         <v>350</v>
       </c>
       <c r="U377" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V377" s="6">
         <v>0</v>
@@ -31769,7 +31770,7 @@
         <v>0</v>
       </c>
       <c r="Z377" s="42" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
     </row>
     <row r="378" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31777,7 +31778,7 @@
         <v>6202001</v>
       </c>
       <c r="D378" s="41" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E378" s="6">
         <v>6</v>
@@ -31828,7 +31829,7 @@
         <v>350</v>
       </c>
       <c r="U378" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V378" s="6">
         <v>0</v>
@@ -31843,7 +31844,7 @@
         <v>0</v>
       </c>
       <c r="Z378" s="42" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="379" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31851,7 +31852,7 @@
         <v>6202002</v>
       </c>
       <c r="D379" s="41" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E379" s="6">
         <v>6</v>
@@ -31902,7 +31903,7 @@
         <v>350</v>
       </c>
       <c r="U379" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V379" s="6">
         <v>0</v>
@@ -31917,7 +31918,7 @@
         <v>0</v>
       </c>
       <c r="Z379" s="42" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
     </row>
     <row r="380" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31925,7 +31926,7 @@
         <v>6202003</v>
       </c>
       <c r="D380" s="41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E380" s="6">
         <v>6</v>
@@ -31976,7 +31977,7 @@
         <v>350</v>
       </c>
       <c r="U380" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V380" s="6">
         <v>0</v>
@@ -31991,7 +31992,7 @@
         <v>0</v>
       </c>
       <c r="Z380" s="42" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
     </row>
     <row r="381" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31999,7 +32000,7 @@
         <v>6203001</v>
       </c>
       <c r="D381" s="41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E381" s="6">
         <v>6</v>
@@ -32050,7 +32051,7 @@
         <v>350</v>
       </c>
       <c r="U381" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V381" s="6">
         <v>0</v>
@@ -32065,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="Z381" s="42" t="s">
-        <v>803</v>
+        <v>817</v>
       </c>
     </row>
     <row r="382" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32073,7 +32074,7 @@
         <v>6203002</v>
       </c>
       <c r="D382" s="41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E382" s="6">
         <v>6</v>
@@ -32124,7 +32125,7 @@
         <v>350</v>
       </c>
       <c r="U382" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V382" s="6">
         <v>0</v>
@@ -32139,7 +32140,7 @@
         <v>0</v>
       </c>
       <c r="Z382" s="42" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
     </row>
     <row r="383" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32147,7 +32148,7 @@
         <v>6203003</v>
       </c>
       <c r="D383" s="41" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E383" s="6">
         <v>6</v>
@@ -32198,7 +32199,7 @@
         <v>350</v>
       </c>
       <c r="U383" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V383" s="6">
         <v>0</v>
@@ -32213,7 +32214,7 @@
         <v>0</v>
       </c>
       <c r="Z383" s="42" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
     </row>
     <row r="384" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32221,7 +32222,7 @@
         <v>6204001</v>
       </c>
       <c r="D384" s="41" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E384" s="6">
         <v>6</v>
@@ -32272,7 +32273,7 @@
         <v>350</v>
       </c>
       <c r="U384" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V384" s="6">
         <v>0</v>
@@ -32287,7 +32288,7 @@
         <v>0</v>
       </c>
       <c r="Z384" s="42" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="385" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32295,7 +32296,7 @@
         <v>6204002</v>
       </c>
       <c r="D385" s="41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E385" s="6">
         <v>6</v>
@@ -32346,7 +32347,7 @@
         <v>350</v>
       </c>
       <c r="U385" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V385" s="6">
         <v>0</v>
@@ -32361,7 +32362,7 @@
         <v>0</v>
       </c>
       <c r="Z385" s="42" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
     </row>
     <row r="386" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32369,7 +32370,7 @@
         <v>6204003</v>
       </c>
       <c r="D386" s="41" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E386" s="6">
         <v>6</v>
@@ -32420,7 +32421,7 @@
         <v>350</v>
       </c>
       <c r="U386" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V386" s="6">
         <v>0</v>
@@ -32435,7 +32436,7 @@
         <v>0</v>
       </c>
       <c r="Z386" s="42" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="387" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32443,7 +32444,7 @@
         <v>6204004</v>
       </c>
       <c r="D387" s="41" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E387" s="6">
         <v>6</v>
@@ -32494,7 +32495,7 @@
         <v>350</v>
       </c>
       <c r="U387" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V387" s="6">
         <v>0</v>
@@ -32509,7 +32510,7 @@
         <v>0</v>
       </c>
       <c r="Z387" s="42" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
     </row>
     <row r="388" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32517,7 +32518,7 @@
         <v>6205001</v>
       </c>
       <c r="D388" s="41" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E388" s="6">
         <v>6</v>
@@ -32568,7 +32569,7 @@
         <v>350</v>
       </c>
       <c r="U388" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V388" s="6">
         <v>0</v>
@@ -32583,7 +32584,7 @@
         <v>0</v>
       </c>
       <c r="Z388" s="42" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="389" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32591,7 +32592,7 @@
         <v>6205002</v>
       </c>
       <c r="D389" s="41" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E389" s="6">
         <v>6</v>
@@ -32642,7 +32643,7 @@
         <v>350</v>
       </c>
       <c r="U389" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V389" s="6">
         <v>0</v>
@@ -32657,7 +32658,7 @@
         <v>0</v>
       </c>
       <c r="Z389" s="42" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
     </row>
     <row r="390" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32665,7 +32666,7 @@
         <v>6205003</v>
       </c>
       <c r="D390" s="41" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E390" s="6">
         <v>6</v>
@@ -32716,7 +32717,7 @@
         <v>350</v>
       </c>
       <c r="U390" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V390" s="6">
         <v>0</v>
@@ -32731,7 +32732,7 @@
         <v>0</v>
       </c>
       <c r="Z390" s="42" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="391" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32739,7 +32740,7 @@
         <v>6205004</v>
       </c>
       <c r="D391" s="41" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E391" s="6">
         <v>6</v>
@@ -32790,7 +32791,7 @@
         <v>350</v>
       </c>
       <c r="U391" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V391" s="6">
         <v>0</v>
@@ -32805,7 +32806,7 @@
         <v>0</v>
       </c>
       <c r="Z391" s="42" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
     </row>
     <row r="392" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32813,7 +32814,7 @@
         <v>6206001</v>
       </c>
       <c r="D392" s="41" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E392" s="6">
         <v>6</v>
@@ -32864,7 +32865,7 @@
         <v>350</v>
       </c>
       <c r="U392" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V392" s="6">
         <v>0</v>
@@ -32879,7 +32880,7 @@
         <v>0</v>
       </c>
       <c r="Z392" s="42" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
     </row>
     <row r="393" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32887,7 +32888,7 @@
         <v>6206002</v>
       </c>
       <c r="D393" s="41" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E393" s="6">
         <v>6</v>
@@ -32938,7 +32939,7 @@
         <v>350</v>
       </c>
       <c r="U393" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V393" s="6">
         <v>0</v>
@@ -32953,7 +32954,7 @@
         <v>0</v>
       </c>
       <c r="Z393" s="42" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="394" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32961,7 +32962,7 @@
         <v>6206003</v>
       </c>
       <c r="D394" s="41" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E394" s="6">
         <v>6</v>
@@ -33012,7 +33013,7 @@
         <v>350</v>
       </c>
       <c r="U394" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V394" s="6">
         <v>0</v>
@@ -33027,7 +33028,7 @@
         <v>0</v>
       </c>
       <c r="Z394" s="42" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
     </row>
     <row r="395" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33035,7 +33036,7 @@
         <v>6301001</v>
       </c>
       <c r="D395" s="41" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E395" s="6">
         <v>6</v>
@@ -33087,7 +33088,7 @@
         <v>500</v>
       </c>
       <c r="U395" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V395" s="6">
         <v>0</v>
@@ -33102,7 +33103,7 @@
         <v>0</v>
       </c>
       <c r="Z395" s="42" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="396" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33110,7 +33111,7 @@
         <v>6301002</v>
       </c>
       <c r="D396" s="41" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E396" s="6">
         <v>6</v>
@@ -33162,7 +33163,7 @@
         <v>500</v>
       </c>
       <c r="U396" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V396" s="6">
         <v>0</v>
@@ -33177,7 +33178,7 @@
         <v>0</v>
       </c>
       <c r="Z396" s="42" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="397" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33185,7 +33186,7 @@
         <v>6301003</v>
       </c>
       <c r="D397" s="41" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E397" s="6">
         <v>6</v>
@@ -33237,7 +33238,7 @@
         <v>500</v>
       </c>
       <c r="U397" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V397" s="6">
         <v>0</v>
@@ -33252,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="Z397" s="42" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
     </row>
     <row r="398" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33260,7 +33261,7 @@
         <v>6302001</v>
       </c>
       <c r="D398" s="41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E398" s="6">
         <v>6</v>
@@ -33312,7 +33313,7 @@
         <v>500</v>
       </c>
       <c r="U398" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V398" s="6">
         <v>0</v>
@@ -33327,7 +33328,7 @@
         <v>0</v>
       </c>
       <c r="Z398" s="42" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="399" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33335,7 +33336,7 @@
         <v>6302002</v>
       </c>
       <c r="D399" s="41" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E399" s="6">
         <v>6</v>
@@ -33386,7 +33387,7 @@
         <v>500</v>
       </c>
       <c r="U399" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V399" s="6">
         <v>0</v>
@@ -33401,7 +33402,7 @@
         <v>0</v>
       </c>
       <c r="Z399" s="42" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
     </row>
     <row r="400" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33409,7 +33410,7 @@
         <v>6302003</v>
       </c>
       <c r="D400" s="41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E400" s="6">
         <v>6</v>
@@ -33461,7 +33462,7 @@
         <v>500</v>
       </c>
       <c r="U400" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V400" s="6">
         <v>0</v>
@@ -33476,7 +33477,7 @@
         <v>0</v>
       </c>
       <c r="Z400" s="42" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
     </row>
     <row r="401" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33484,7 +33485,7 @@
         <v>6303001</v>
       </c>
       <c r="D401" s="41" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E401" s="6">
         <v>6</v>
@@ -33536,7 +33537,7 @@
         <v>500</v>
       </c>
       <c r="U401" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V401" s="6">
         <v>0</v>
@@ -33551,7 +33552,7 @@
         <v>0</v>
       </c>
       <c r="Z401" s="42" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
     </row>
     <row r="402" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33559,7 +33560,7 @@
         <v>6303002</v>
       </c>
       <c r="D402" s="41" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E402" s="6">
         <v>6</v>
@@ -33610,7 +33611,7 @@
         <v>500</v>
       </c>
       <c r="U402" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V402" s="6">
         <v>0</v>
@@ -33625,7 +33626,7 @@
         <v>0</v>
       </c>
       <c r="Z402" s="42" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="403" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33633,7 +33634,7 @@
         <v>6303003</v>
       </c>
       <c r="D403" s="41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E403" s="6">
         <v>6</v>
@@ -33685,7 +33686,7 @@
         <v>500</v>
       </c>
       <c r="U403" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V403" s="6">
         <v>0</v>
@@ -33700,7 +33701,7 @@
         <v>0</v>
       </c>
       <c r="Z403" s="42" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
     </row>
     <row r="404" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33708,7 +33709,7 @@
         <v>6304001</v>
       </c>
       <c r="D404" s="41" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E404" s="6">
         <v>6</v>
@@ -33760,7 +33761,7 @@
         <v>500</v>
       </c>
       <c r="U404" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V404" s="6">
         <v>0</v>
@@ -33775,7 +33776,7 @@
         <v>0</v>
       </c>
       <c r="Z404" s="42" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
     </row>
     <row r="405" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33783,7 +33784,7 @@
         <v>6304002</v>
       </c>
       <c r="D405" s="41" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E405" s="6">
         <v>6</v>
@@ -33834,7 +33835,7 @@
         <v>500</v>
       </c>
       <c r="U405" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V405" s="6">
         <v>0</v>
@@ -33849,7 +33850,7 @@
         <v>0</v>
       </c>
       <c r="Z405" s="42" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
     </row>
     <row r="406" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33857,7 +33858,7 @@
         <v>6304003</v>
       </c>
       <c r="D406" s="41" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E406" s="6">
         <v>6</v>
@@ -33908,7 +33909,7 @@
         <v>500</v>
       </c>
       <c r="U406" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V406" s="6">
         <v>0</v>
@@ -33923,7 +33924,7 @@
         <v>0</v>
       </c>
       <c r="Z406" s="42" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
     </row>
     <row r="407" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33931,7 +33932,7 @@
         <v>6304004</v>
       </c>
       <c r="D407" s="41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E407" s="6">
         <v>6</v>
@@ -33983,7 +33984,7 @@
         <v>500</v>
       </c>
       <c r="U407" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V407" s="6">
         <v>0</v>
@@ -33998,7 +33999,7 @@
         <v>0</v>
       </c>
       <c r="Z407" s="42" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
     </row>
     <row r="408" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34006,7 +34007,7 @@
         <v>6305001</v>
       </c>
       <c r="D408" s="41" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E408" s="6">
         <v>6</v>
@@ -34058,7 +34059,7 @@
         <v>500</v>
       </c>
       <c r="U408" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V408" s="6">
         <v>0</v>
@@ -34073,7 +34074,7 @@
         <v>0</v>
       </c>
       <c r="Z408" s="42" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
     </row>
     <row r="409" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34081,7 +34082,7 @@
         <v>6305002</v>
       </c>
       <c r="D409" s="41" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E409" s="6">
         <v>6</v>
@@ -34132,7 +34133,7 @@
         <v>500</v>
       </c>
       <c r="U409" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V409" s="6">
         <v>0</v>
@@ -34147,7 +34148,7 @@
         <v>0</v>
       </c>
       <c r="Z409" s="42" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
     </row>
     <row r="410" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34155,7 +34156,7 @@
         <v>6305003</v>
       </c>
       <c r="D410" s="41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E410" s="6">
         <v>6</v>
@@ -34206,7 +34207,7 @@
         <v>500</v>
       </c>
       <c r="U410" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V410" s="6">
         <v>0</v>
@@ -34221,7 +34222,7 @@
         <v>0</v>
       </c>
       <c r="Z410" s="42" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
     </row>
     <row r="411" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34229,7 +34230,7 @@
         <v>6305004</v>
       </c>
       <c r="D411" s="41" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E411" s="6">
         <v>6</v>
@@ -34281,7 +34282,7 @@
         <v>500</v>
       </c>
       <c r="U411" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V411" s="6">
         <v>0</v>
@@ -34296,7 +34297,7 @@
         <v>0</v>
       </c>
       <c r="Z411" s="42" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
     </row>
     <row r="412" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34304,7 +34305,7 @@
         <v>6306001</v>
       </c>
       <c r="D412" s="41" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E412" s="6">
         <v>6</v>
@@ -34356,7 +34357,7 @@
         <v>500</v>
       </c>
       <c r="U412" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V412" s="6">
         <v>0</v>
@@ -34371,7 +34372,7 @@
         <v>0</v>
       </c>
       <c r="Z412" s="42" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
     </row>
     <row r="413" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34379,7 +34380,7 @@
         <v>6306002</v>
       </c>
       <c r="D413" s="41" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E413" s="6">
         <v>6</v>
@@ -34430,7 +34431,7 @@
         <v>500</v>
       </c>
       <c r="U413" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V413" s="6">
         <v>0</v>
@@ -34445,7 +34446,7 @@
         <v>0</v>
       </c>
       <c r="Z413" s="42" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="414" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34453,7 +34454,7 @@
         <v>6306003</v>
       </c>
       <c r="D414" s="41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E414" s="6">
         <v>6</v>
@@ -34504,7 +34505,7 @@
         <v>500</v>
       </c>
       <c r="U414" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V414" s="6">
         <v>0</v>
@@ -34519,7 +34520,7 @@
         <v>0</v>
       </c>
       <c r="Z414" s="42" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
     </row>
     <row r="415" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34527,7 +34528,7 @@
         <v>7101001</v>
       </c>
       <c r="D415" s="41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E415" s="6">
         <v>1</v>
@@ -34578,7 +34579,7 @@
         <v>0</v>
       </c>
       <c r="U415" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V415" s="6">
         <v>0</v>
@@ -34593,7 +34594,7 @@
         <v>0</v>
       </c>
       <c r="Z415" s="42" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="416" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34601,7 +34602,7 @@
         <v>7101002</v>
       </c>
       <c r="D416" s="41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E416" s="6">
         <v>1</v>
@@ -34652,7 +34653,7 @@
         <v>0</v>
       </c>
       <c r="U416" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V416" s="6">
         <v>0</v>
@@ -34667,7 +34668,7 @@
         <v>0</v>
       </c>
       <c r="Z416" s="8" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="417" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34675,7 +34676,7 @@
         <v>7101003</v>
       </c>
       <c r="D417" s="41" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E417" s="6">
         <v>1</v>
@@ -34726,7 +34727,7 @@
         <v>0</v>
       </c>
       <c r="U417" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V417" s="6">
         <v>0</v>
@@ -34741,7 +34742,7 @@
         <v>0</v>
       </c>
       <c r="Z417" s="8" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="418" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34749,7 +34750,7 @@
         <v>7101004</v>
       </c>
       <c r="D418" s="41" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E418" s="6">
         <v>1</v>
@@ -34800,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="U418" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V418" s="6">
         <v>0</v>
@@ -34815,7 +34816,7 @@
         <v>0</v>
       </c>
       <c r="Z418" s="8" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="419" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34823,7 +34824,7 @@
         <v>7102001</v>
       </c>
       <c r="D419" s="41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E419" s="6">
         <v>1</v>
@@ -34875,7 +34876,7 @@
         <v>0</v>
       </c>
       <c r="U419" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V419" s="6">
         <v>0</v>
@@ -34890,7 +34891,7 @@
         <v>0</v>
       </c>
       <c r="Z419" s="8" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="420" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34898,7 +34899,7 @@
         <v>7102002</v>
       </c>
       <c r="D420" s="41" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E420" s="6">
         <v>1</v>
@@ -34950,7 +34951,7 @@
         <v>0</v>
       </c>
       <c r="U420" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V420" s="6">
         <v>0</v>
@@ -34965,7 +34966,7 @@
         <v>0</v>
       </c>
       <c r="Z420" s="8" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="421" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34973,7 +34974,7 @@
         <v>7102003</v>
       </c>
       <c r="D421" s="41" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E421" s="6">
         <v>1</v>
@@ -35025,7 +35026,7 @@
         <v>0</v>
       </c>
       <c r="U421" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V421" s="6">
         <v>0</v>
@@ -35040,7 +35041,7 @@
         <v>0</v>
       </c>
       <c r="Z421" s="8" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="422" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35048,7 +35049,7 @@
         <v>7102004</v>
       </c>
       <c r="D422" s="41" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E422" s="6">
         <v>1</v>
@@ -35100,7 +35101,7 @@
         <v>0</v>
       </c>
       <c r="U422" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V422" s="6">
         <v>0</v>
@@ -35115,7 +35116,7 @@
         <v>0</v>
       </c>
       <c r="Z422" s="8" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="423" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35123,7 +35124,7 @@
         <v>7103001</v>
       </c>
       <c r="D423" s="41" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E423" s="6">
         <v>1</v>
@@ -35175,7 +35176,7 @@
         <v>0</v>
       </c>
       <c r="U423" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V423" s="6">
         <v>0</v>
@@ -35190,7 +35191,7 @@
         <v>0</v>
       </c>
       <c r="Z423" s="8" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="424" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35198,7 +35199,7 @@
         <v>7103002</v>
       </c>
       <c r="D424" s="41" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E424" s="6">
         <v>1</v>
@@ -35250,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="U424" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V424" s="6">
         <v>0</v>
@@ -35265,7 +35266,7 @@
         <v>0</v>
       </c>
       <c r="Z424" s="8" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="425" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35273,7 +35274,7 @@
         <v>7103003</v>
       </c>
       <c r="D425" s="41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E425" s="6">
         <v>1</v>
@@ -35325,7 +35326,7 @@
         <v>0</v>
       </c>
       <c r="U425" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V425" s="6">
         <v>0</v>
@@ -35340,7 +35341,7 @@
         <v>0</v>
       </c>
       <c r="Z425" s="8" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="426" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35348,7 +35349,7 @@
         <v>7103004</v>
       </c>
       <c r="D426" s="41" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E426" s="6">
         <v>1</v>
@@ -35400,7 +35401,7 @@
         <v>0</v>
       </c>
       <c r="U426" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V426" s="6">
         <v>0</v>
@@ -35415,7 +35416,7 @@
         <v>0</v>
       </c>
       <c r="Z426" s="8" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="427" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35423,7 +35424,7 @@
         <v>7201001</v>
       </c>
       <c r="D427" s="30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E427" s="6">
         <v>2</v>
@@ -35474,7 +35475,7 @@
         <v>200</v>
       </c>
       <c r="U427" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V427" s="6">
         <v>0</v>
@@ -35489,7 +35490,7 @@
         <v>0</v>
       </c>
       <c r="Z427" s="8" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="428" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35497,7 +35498,7 @@
         <v>7201002</v>
       </c>
       <c r="D428" s="30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E428" s="6">
         <v>2</v>
@@ -35548,7 +35549,7 @@
         <v>200</v>
       </c>
       <c r="U428" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V428" s="6">
         <v>0</v>
@@ -35563,7 +35564,7 @@
         <v>0</v>
       </c>
       <c r="Z428" s="8" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="429" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35571,7 +35572,7 @@
         <v>7201003</v>
       </c>
       <c r="D429" s="30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E429" s="6">
         <v>2</v>
@@ -35622,7 +35623,7 @@
         <v>200</v>
       </c>
       <c r="U429" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V429" s="6">
         <v>0</v>
@@ -35637,7 +35638,7 @@
         <v>0</v>
       </c>
       <c r="Z429" s="8" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="430" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35645,7 +35646,7 @@
         <v>7201004</v>
       </c>
       <c r="D430" s="30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E430" s="6">
         <v>2</v>
@@ -35696,7 +35697,7 @@
         <v>200</v>
       </c>
       <c r="U430" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V430" s="6">
         <v>0</v>
@@ -35711,7 +35712,7 @@
         <v>0</v>
       </c>
       <c r="Z430" s="8" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="431" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35719,7 +35720,7 @@
         <v>7202001</v>
       </c>
       <c r="D431" s="30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E431" s="6">
         <v>2</v>
@@ -35771,7 +35772,7 @@
         <v>350</v>
       </c>
       <c r="U431" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V431" s="6">
         <v>0</v>
@@ -35786,7 +35787,7 @@
         <v>0</v>
       </c>
       <c r="Z431" s="8" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="432" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35794,7 +35795,7 @@
         <v>7202002</v>
       </c>
       <c r="D432" s="30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E432" s="6">
         <v>2</v>
@@ -35846,7 +35847,7 @@
         <v>350</v>
       </c>
       <c r="U432" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V432" s="6">
         <v>0</v>
@@ -35861,7 +35862,7 @@
         <v>0</v>
       </c>
       <c r="Z432" s="8" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="433" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35869,7 +35870,7 @@
         <v>7202003</v>
       </c>
       <c r="D433" s="30" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E433" s="6">
         <v>2</v>
@@ -35921,7 +35922,7 @@
         <v>350</v>
       </c>
       <c r="U433" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V433" s="6">
         <v>0</v>
@@ -35936,7 +35937,7 @@
         <v>0</v>
       </c>
       <c r="Z433" s="8" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="434" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35944,7 +35945,7 @@
         <v>7202004</v>
       </c>
       <c r="D434" s="30" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E434" s="6">
         <v>2</v>
@@ -35996,7 +35997,7 @@
         <v>350</v>
       </c>
       <c r="U434" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V434" s="6">
         <v>0</v>
@@ -36011,7 +36012,7 @@
         <v>0</v>
       </c>
       <c r="Z434" s="8" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="435" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36019,7 +36020,7 @@
         <v>7203001</v>
       </c>
       <c r="D435" s="30" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E435" s="6">
         <v>2</v>
@@ -36071,7 +36072,7 @@
         <v>500</v>
       </c>
       <c r="U435" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V435" s="6">
         <v>0</v>
@@ -36086,7 +36087,7 @@
         <v>0</v>
       </c>
       <c r="Z435" s="8" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="436" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36094,7 +36095,7 @@
         <v>7203002</v>
       </c>
       <c r="D436" s="30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E436" s="6">
         <v>2</v>
@@ -36146,7 +36147,7 @@
         <v>500</v>
       </c>
       <c r="U436" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V436" s="6">
         <v>0</v>
@@ -36161,7 +36162,7 @@
         <v>0</v>
       </c>
       <c r="Z436" s="8" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="437" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36169,7 +36170,7 @@
         <v>7203003</v>
       </c>
       <c r="D437" s="30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E437" s="6">
         <v>2</v>
@@ -36221,7 +36222,7 @@
         <v>500</v>
       </c>
       <c r="U437" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V437" s="6">
         <v>0</v>
@@ -36236,7 +36237,7 @@
         <v>0</v>
       </c>
       <c r="Z437" s="8" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="438" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36244,7 +36245,7 @@
         <v>7203004</v>
       </c>
       <c r="D438" s="30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E438" s="6">
         <v>2</v>
@@ -36296,7 +36297,7 @@
         <v>500</v>
       </c>
       <c r="U438" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V438" s="6">
         <v>0</v>
@@ -36311,7 +36312,7 @@
         <v>0</v>
       </c>
       <c r="Z438" s="8" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="439" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36319,7 +36320,7 @@
         <v>7204101</v>
       </c>
       <c r="D439" s="30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E439" s="6">
         <v>2</v>
@@ -36370,7 +36371,7 @@
         <v>200</v>
       </c>
       <c r="U439" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V439" s="6">
         <v>0</v>
@@ -36385,7 +36386,7 @@
         <v>0</v>
       </c>
       <c r="Z439" s="8" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="440" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36393,7 +36394,7 @@
         <v>7204102</v>
       </c>
       <c r="D440" s="30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E440" s="6">
         <v>2</v>
@@ -36444,7 +36445,7 @@
         <v>200</v>
       </c>
       <c r="U440" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V440" s="6">
         <v>0</v>
@@ -36459,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="Z440" s="8" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="441" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36467,7 +36468,7 @@
         <v>7204103</v>
       </c>
       <c r="D441" s="30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E441" s="6">
         <v>2</v>
@@ -36518,7 +36519,7 @@
         <v>200</v>
       </c>
       <c r="U441" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V441" s="6">
         <v>0</v>
@@ -36533,7 +36534,7 @@
         <v>0</v>
       </c>
       <c r="Z441" s="8" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="442" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36541,7 +36542,7 @@
         <v>7204201</v>
       </c>
       <c r="D442" s="30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E442" s="6">
         <v>2</v>
@@ -36592,7 +36593,7 @@
         <v>200</v>
       </c>
       <c r="U442" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V442" s="6">
         <v>0</v>
@@ -36607,7 +36608,7 @@
         <v>0</v>
       </c>
       <c r="Z442" s="8" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="443" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36615,7 +36616,7 @@
         <v>7204202</v>
       </c>
       <c r="D443" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E443" s="6">
         <v>2</v>
@@ -36666,7 +36667,7 @@
         <v>200</v>
       </c>
       <c r="U443" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V443" s="6">
         <v>0</v>
@@ -36681,7 +36682,7 @@
         <v>0</v>
       </c>
       <c r="Z443" s="8" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="444" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36689,7 +36690,7 @@
         <v>7204203</v>
       </c>
       <c r="D444" s="30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E444" s="6">
         <v>2</v>
@@ -36740,7 +36741,7 @@
         <v>200</v>
       </c>
       <c r="U444" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V444" s="6">
         <v>0</v>
@@ -36755,7 +36756,7 @@
         <v>0</v>
       </c>
       <c r="Z444" s="8" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="445" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36763,7 +36764,7 @@
         <v>7204301</v>
       </c>
       <c r="D445" s="30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E445" s="6">
         <v>2</v>
@@ -36814,7 +36815,7 @@
         <v>200</v>
       </c>
       <c r="U445" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V445" s="6">
         <v>0</v>
@@ -36829,7 +36830,7 @@
         <v>0</v>
       </c>
       <c r="Z445" s="8" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="446" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36837,7 +36838,7 @@
         <v>7204302</v>
       </c>
       <c r="D446" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E446" s="6">
         <v>2</v>
@@ -36888,7 +36889,7 @@
         <v>200</v>
       </c>
       <c r="U446" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V446" s="6">
         <v>0</v>
@@ -36903,7 +36904,7 @@
         <v>0</v>
       </c>
       <c r="Z446" s="8" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="447" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36911,7 +36912,7 @@
         <v>7204303</v>
       </c>
       <c r="D447" s="30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E447" s="6">
         <v>2</v>
@@ -36962,7 +36963,7 @@
         <v>200</v>
       </c>
       <c r="U447" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V447" s="6">
         <v>0</v>
@@ -36977,7 +36978,7 @@
         <v>0</v>
       </c>
       <c r="Z447" s="8" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="448" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36985,7 +36986,7 @@
         <v>7204401</v>
       </c>
       <c r="D448" s="30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E448" s="6">
         <v>2</v>
@@ -37036,7 +37037,7 @@
         <v>200</v>
       </c>
       <c r="U448" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V448" s="6">
         <v>0</v>
@@ -37051,7 +37052,7 @@
         <v>0</v>
       </c>
       <c r="Z448" s="8" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="449" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37059,7 +37060,7 @@
         <v>7204402</v>
       </c>
       <c r="D449" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E449" s="6">
         <v>2</v>
@@ -37110,7 +37111,7 @@
         <v>200</v>
       </c>
       <c r="U449" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V449" s="6">
         <v>0</v>
@@ -37125,7 +37126,7 @@
         <v>0</v>
       </c>
       <c r="Z449" s="8" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="450" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37133,7 +37134,7 @@
         <v>7204403</v>
       </c>
       <c r="D450" s="30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E450" s="6">
         <v>2</v>
@@ -37184,7 +37185,7 @@
         <v>200</v>
       </c>
       <c r="U450" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V450" s="6">
         <v>0</v>
@@ -37199,7 +37200,7 @@
         <v>0</v>
       </c>
       <c r="Z450" s="8" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="451" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37207,7 +37208,7 @@
         <v>7204501</v>
       </c>
       <c r="D451" s="30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E451" s="6">
         <v>2</v>
@@ -37258,7 +37259,7 @@
         <v>200</v>
       </c>
       <c r="U451" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V451" s="6">
         <v>0</v>
@@ -37273,7 +37274,7 @@
         <v>0</v>
       </c>
       <c r="Z451" s="8" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="452" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37281,7 +37282,7 @@
         <v>7204502</v>
       </c>
       <c r="D452" s="30" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E452" s="6">
         <v>2</v>
@@ -37332,7 +37333,7 @@
         <v>200</v>
       </c>
       <c r="U452" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V452" s="6">
         <v>0</v>
@@ -37347,7 +37348,7 @@
         <v>0</v>
       </c>
       <c r="Z452" s="8" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="453" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37355,7 +37356,7 @@
         <v>7204503</v>
       </c>
       <c r="D453" s="30" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E453" s="6">
         <v>2</v>
@@ -37406,7 +37407,7 @@
         <v>200</v>
       </c>
       <c r="U453" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V453" s="6">
         <v>0</v>
@@ -37421,7 +37422,7 @@
         <v>0</v>
       </c>
       <c r="Z453" s="8" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="454" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37429,7 +37430,7 @@
         <v>7301001</v>
       </c>
       <c r="D454" s="30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E454" s="6">
         <v>3</v>
@@ -37495,7 +37496,7 @@
         <v>0</v>
       </c>
       <c r="Z454" s="8" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="455" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37503,7 +37504,7 @@
         <v>7301002</v>
       </c>
       <c r="D455" s="30" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E455" s="6">
         <v>3</v>
@@ -37569,7 +37570,7 @@
         <v>0</v>
       </c>
       <c r="Z455" s="8" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="456" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37577,7 +37578,7 @@
         <v>7302001</v>
       </c>
       <c r="D456" s="30" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E456" s="6">
         <v>3</v>
@@ -37643,7 +37644,7 @@
         <v>0</v>
       </c>
       <c r="Z456" s="8" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="457" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37651,7 +37652,7 @@
         <v>7302002</v>
       </c>
       <c r="D457" s="30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E457" s="6">
         <v>3</v>
@@ -37717,7 +37718,7 @@
         <v>0</v>
       </c>
       <c r="Z457" s="8" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="458" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37725,7 +37726,7 @@
         <v>7303001</v>
       </c>
       <c r="D458" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E458" s="6">
         <v>3</v>
@@ -37791,7 +37792,7 @@
         <v>0</v>
       </c>
       <c r="Z458" s="8" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="459" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37799,7 +37800,7 @@
         <v>7303002</v>
       </c>
       <c r="D459" s="30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E459" s="6">
         <v>3</v>
@@ -37865,7 +37866,7 @@
         <v>0</v>
       </c>
       <c r="Z459" s="8" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="460" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -37873,7 +37874,7 @@
         <v>8000001</v>
       </c>
       <c r="D460" s="30" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E460" s="6">
         <v>8</v>
@@ -37939,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="Z460" s="43" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="461" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -37947,7 +37948,7 @@
         <v>8000002</v>
       </c>
       <c r="D461" s="30" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E461" s="6">
         <v>8</v>
@@ -38013,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="Z461" s="43" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="462" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38021,7 +38022,7 @@
         <v>8000003</v>
       </c>
       <c r="D462" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E462" s="6">
         <v>8</v>
@@ -38087,7 +38088,7 @@
         <v>0</v>
       </c>
       <c r="Z462" s="43" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="463" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38095,7 +38096,7 @@
         <v>8000004</v>
       </c>
       <c r="D463" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E463" s="6">
         <v>8</v>
@@ -38161,7 +38162,7 @@
         <v>0</v>
       </c>
       <c r="Z463" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="464" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38169,7 +38170,7 @@
         <v>8000005</v>
       </c>
       <c r="D464" s="30" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E464" s="6">
         <v>8</v>
@@ -38235,7 +38236,7 @@
         <v>0</v>
       </c>
       <c r="Z464" s="43" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="465" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38243,7 +38244,7 @@
         <v>8000006</v>
       </c>
       <c r="D465" s="30" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E465" s="6">
         <v>8</v>
@@ -38309,7 +38310,7 @@
         <v>0</v>
       </c>
       <c r="Z465" s="43" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="466" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38317,7 +38318,7 @@
         <v>8000007</v>
       </c>
       <c r="D466" s="30" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E466" s="6">
         <v>8</v>
@@ -38383,7 +38384,7 @@
         <v>0</v>
       </c>
       <c r="Z466" s="43" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="467" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38391,7 +38392,7 @@
         <v>8000008</v>
       </c>
       <c r="D467" s="30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E467" s="6">
         <v>8</v>
@@ -38457,7 +38458,7 @@
         <v>0</v>
       </c>
       <c r="Z467" s="43" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="468" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38465,7 +38466,7 @@
         <v>8000009</v>
       </c>
       <c r="D468" s="30" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E468" s="6">
         <v>8</v>
@@ -38531,7 +38532,7 @@
         <v>0</v>
       </c>
       <c r="Z468" s="43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="469" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38539,7 +38540,7 @@
         <v>8000010</v>
       </c>
       <c r="D469" s="30" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E469" s="6">
         <v>8</v>
@@ -38605,7 +38606,7 @@
         <v>0</v>
       </c>
       <c r="Z469" s="43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="470" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38613,7 +38614,7 @@
         <v>8000011</v>
       </c>
       <c r="D470" s="30" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E470" s="6">
         <v>8</v>
@@ -38679,7 +38680,7 @@
         <v>0</v>
       </c>
       <c r="Z470" s="43" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="471" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38687,7 +38688,7 @@
         <v>8000012</v>
       </c>
       <c r="D471" s="30" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E471" s="6">
         <v>8</v>
@@ -38753,7 +38754,7 @@
         <v>0</v>
       </c>
       <c r="Z471" s="43" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="472" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38761,7 +38762,7 @@
         <v>8000013</v>
       </c>
       <c r="D472" s="30" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E472" s="6">
         <v>8</v>
@@ -38827,7 +38828,7 @@
         <v>0</v>
       </c>
       <c r="Z472" s="43" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="473" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38835,7 +38836,7 @@
         <v>8000014</v>
       </c>
       <c r="D473" s="30" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E473" s="6">
         <v>8</v>
@@ -38901,7 +38902,7 @@
         <v>0</v>
       </c>
       <c r="Z473" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="474" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38909,7 +38910,7 @@
         <v>8000015</v>
       </c>
       <c r="D474" s="30" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E474" s="6">
         <v>8</v>
@@ -38975,7 +38976,7 @@
         <v>0</v>
       </c>
       <c r="Z474" s="43" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="475" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38983,7 +38984,7 @@
         <v>8000016</v>
       </c>
       <c r="D475" s="30" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E475" s="6">
         <v>8</v>
@@ -39049,7 +39050,7 @@
         <v>0</v>
       </c>
       <c r="Z475" s="43" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="476" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39057,7 +39058,7 @@
         <v>8000017</v>
       </c>
       <c r="D476" s="30" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E476" s="6">
         <v>8</v>
@@ -39123,7 +39124,7 @@
         <v>0</v>
       </c>
       <c r="Z476" s="43" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="477" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39131,7 +39132,7 @@
         <v>8000018</v>
       </c>
       <c r="D477" s="30" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E477" s="6">
         <v>8</v>
@@ -39197,7 +39198,7 @@
         <v>0</v>
       </c>
       <c r="Z477" s="43" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="478" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39205,7 +39206,7 @@
         <v>8000019</v>
       </c>
       <c r="D478" s="30" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E478" s="6">
         <v>8</v>
@@ -39271,7 +39272,7 @@
         <v>0</v>
       </c>
       <c r="Z478" s="43" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="479" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39279,7 +39280,7 @@
         <v>8000020</v>
       </c>
       <c r="D479" s="30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E479" s="6">
         <v>8</v>
@@ -39345,7 +39346,7 @@
         <v>0</v>
       </c>
       <c r="Z479" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="480" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39353,7 +39354,7 @@
         <v>8000021</v>
       </c>
       <c r="D480" s="30" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E480" s="6">
         <v>8</v>
@@ -39419,7 +39420,7 @@
         <v>0</v>
       </c>
       <c r="Z480" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="481" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39427,7 +39428,7 @@
         <v>8000022</v>
       </c>
       <c r="D481" s="30" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E481" s="6">
         <v>8</v>
@@ -39493,7 +39494,7 @@
         <v>0</v>
       </c>
       <c r="Z481" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="482" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39501,7 +39502,7 @@
         <v>8000023</v>
       </c>
       <c r="D482" s="30" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E482" s="6">
         <v>8</v>
@@ -39567,7 +39568,7 @@
         <v>0</v>
       </c>
       <c r="Z482" s="43" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="483" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39575,7 +39576,7 @@
         <v>8000024</v>
       </c>
       <c r="D483" s="30" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E483" s="6">
         <v>8</v>
@@ -39641,7 +39642,7 @@
         <v>0</v>
       </c>
       <c r="Z483" s="43" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="484" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39649,7 +39650,7 @@
         <v>8000025</v>
       </c>
       <c r="D484" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E484" s="6">
         <v>8</v>
@@ -39715,7 +39716,7 @@
         <v>0</v>
       </c>
       <c r="Z484" s="43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="485" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39723,7 +39724,7 @@
         <v>8000026</v>
       </c>
       <c r="D485" s="30" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E485" s="6">
         <v>8</v>
@@ -39789,7 +39790,7 @@
         <v>0</v>
       </c>
       <c r="Z485" s="43" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="486" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39797,7 +39798,7 @@
         <v>8000027</v>
       </c>
       <c r="D486" s="30" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E486" s="6">
         <v>8</v>
@@ -39863,7 +39864,7 @@
         <v>0</v>
       </c>
       <c r="Z486" s="43" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="487" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39871,7 +39872,7 @@
         <v>8000028</v>
       </c>
       <c r="D487" s="30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E487" s="6">
         <v>8</v>
@@ -39937,7 +39938,7 @@
         <v>0</v>
       </c>
       <c r="Z487" s="43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="488" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39945,7 +39946,7 @@
         <v>8000029</v>
       </c>
       <c r="D488" s="30" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E488" s="6">
         <v>8</v>
@@ -40011,7 +40012,7 @@
         <v>0</v>
       </c>
       <c r="Z488" s="43" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="489" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40019,7 +40020,7 @@
         <v>8000030</v>
       </c>
       <c r="D489" s="30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E489" s="6">
         <v>8</v>
@@ -40085,7 +40086,7 @@
         <v>0</v>
       </c>
       <c r="Z489" s="43" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="490" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40093,7 +40094,7 @@
         <v>8000031</v>
       </c>
       <c r="D490" s="30" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E490" s="6">
         <v>8</v>
@@ -40159,7 +40160,7 @@
         <v>0</v>
       </c>
       <c r="Z490" s="43" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="491" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40167,7 +40168,7 @@
         <v>8000032</v>
       </c>
       <c r="D491" s="30" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E491" s="6">
         <v>8</v>
@@ -40233,7 +40234,7 @@
         <v>0</v>
       </c>
       <c r="Z491" s="43" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="492" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40241,7 +40242,7 @@
         <v>8000033</v>
       </c>
       <c r="D492" s="30" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E492" s="6">
         <v>8</v>
@@ -40307,7 +40308,7 @@
         <v>0</v>
       </c>
       <c r="Z492" s="43" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="493" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40315,7 +40316,7 @@
         <v>8000034</v>
       </c>
       <c r="D493" s="30" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E493" s="6">
         <v>8</v>
@@ -40381,7 +40382,7 @@
         <v>0</v>
       </c>
       <c r="Z493" s="43" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="494" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40389,7 +40390,7 @@
         <v>8000035</v>
       </c>
       <c r="D494" s="30" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E494" s="6">
         <v>8</v>
@@ -40455,7 +40456,7 @@
         <v>0</v>
       </c>
       <c r="Z494" s="43" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="495" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Unity/Assets/Config/Excel/EquipMakeConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EquipMakeConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222B8103-B832-4AB9-836A-BB1F24000C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462386EA-5C71-4BAB-9FE9-E22E5584F0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1748,19 +1748,10 @@
     <t>初级生肖袋子</t>
   </si>
   <si>
-    <t>10010037;10</t>
-  </si>
-  <si>
     <t>中级生肖袋子</t>
   </si>
   <si>
-    <t>10010037;30</t>
-  </si>
-  <si>
     <t>高级生肖袋子</t>
-  </si>
-  <si>
-    <t>10010037;100</t>
   </si>
   <si>
     <t>附魔头盔:初级攻击</t>
@@ -2300,10 +2291,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>10010037;200</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>森灵之弓</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -2394,33 +2381,6 @@
     <t>1020001;20@1021010;20@1021007;20@1021008;4@1021009;2</t>
   </si>
   <si>
-    <t>1020001;200@1021010;200@14060004;1@1021008;20@1021009;10@10000143;6</t>
-  </si>
-  <si>
-    <t>1020001;200@1021010;200@14100004;1@1021008;20@1021009;10@10000143;6</t>
-  </si>
-  <si>
-    <t>1020001;200@1021010;200@14100008;1@1021008;20@1021009;10@10000143;6</t>
-  </si>
-  <si>
-    <t>1020001;200@1021010;200@14100104;1@1021008;20@1021009;10@10000143;6</t>
-  </si>
-  <si>
-    <t>1020001;200@1021010;200@14100108;1@1021008;20@1021009;10@10000143;6</t>
-  </si>
-  <si>
-    <t>1020001;200@1021010;200@14110004;1@1021008;30@1021009;15@10000143;10</t>
-  </si>
-  <si>
-    <t>1020001;200@1021010;200@14110008;1@1021008;30@1021009;15@10000143;10</t>
-  </si>
-  <si>
-    <t>1020001;200@1021010;200@14110012;1@1021008;30@1021009;15@10000143;10</t>
-  </si>
-  <si>
-    <t>1020001;200@1021010;200@1410204;1@1021008;20@1021009;10@10000143;6</t>
-  </si>
-  <si>
     <t>1020001;10@1022010;10@1022001;10@1022008;2@1022009;1</t>
   </si>
   <si>
@@ -2469,33 +2429,6 @@
     <t>1020001;20@1022010;20@1022007;20@1022008;4@1022009;2</t>
   </si>
   <si>
-    <t>1020001;200@1022010;200@15206002;1@1022008;20@1022009;10@10000143;8</t>
-  </si>
-  <si>
-    <t>1020001;200@1022010;200@15210002;1@1022008;20@1022009;10@10000143;8</t>
-  </si>
-  <si>
-    <t>1020001;200@1022010;200@15210004;1@1022008;20@1022009;10@10000143;8</t>
-  </si>
-  <si>
-    <t>1020001;200@1022010;200@15210102;1@1022008;20@1022009;10@10000143;8</t>
-  </si>
-  <si>
-    <t>1020001;200@1022010;200@15210104;1@1022008;20@1022009;10@10000143;8</t>
-  </si>
-  <si>
-    <t>1020001;200@1022010;200@1521102;1@1022008;30@1022009;15@10000143;12</t>
-  </si>
-  <si>
-    <t>1020001;200@1022010;200@15211004;1@1022008;30@1022009;15@10000143;12</t>
-  </si>
-  <si>
-    <t>1020001;200@1022010;200@15211006;1@1022008;30@1022009;15@10000143;12</t>
-  </si>
-  <si>
-    <t>1020001;200@1022010;200@15210202;1@1022008;20@1022009;10@10000143;8</t>
-  </si>
-  <si>
     <t>1020001;10@1023010;10@1023001;10@1023008;2@1023009;1</t>
   </si>
   <si>
@@ -2544,33 +2477,6 @@
     <t>1020001;20@1023010;20@1023007;20@1023008;4@1023009;2</t>
   </si>
   <si>
-    <t>1020001;200@1023010;200@15306002;1@1023008;20@1023009;10@10000143;12</t>
-  </si>
-  <si>
-    <t>1020001;200@1023010;200@15310002;1@1023008;20@1023009;10@10000143;12</t>
-  </si>
-  <si>
-    <t>1020001;200@1023010;200@15310004;1@1023008;20@1023009;10@10000143;12</t>
-  </si>
-  <si>
-    <t>1020001;200@1023010;200@15310102;1@1023008;20@1023009;10@10000143;12</t>
-  </si>
-  <si>
-    <t>1020001;200@1023010;200@15310104;1@1023008;20@1023009;10@10000143;12</t>
-  </si>
-  <si>
-    <t>1020001;200@1023010;200@1531102;1@1023008;30@1023009;15@10000143;16</t>
-  </si>
-  <si>
-    <t>1020001;200@1023010;200@15311004;1@1023008;30@1023009;15@10000143;16</t>
-  </si>
-  <si>
-    <t>1020001;200@1023010;200@15311006;1@1023008;30@1023009;15@10000143;16</t>
-  </si>
-  <si>
-    <t>1020001;200@1023010;200@15310202;1@1023008;20@1023009;10@10000143;12</t>
-  </si>
-  <si>
     <t>1020001;10@1024010;10@1024001;10@1024008;2@1024009;1</t>
   </si>
   <si>
@@ -2619,33 +2525,6 @@
     <t>1020001;20@1024010;20@1024007;20@1024008;4@1024009;2</t>
   </si>
   <si>
-    <t>1020001;200@1024010;200@15406002;1@1024008;20@1024009;10@10000143;15</t>
-  </si>
-  <si>
-    <t>1020001;200@1024010;200@15410002;1@1024008;20@1024009;10@10000143;15</t>
-  </si>
-  <si>
-    <t>1020001;200@1024010;200@15410004;1@1024008;20@1024009;10@10000143;15</t>
-  </si>
-  <si>
-    <t>1020001;200@1024010;200@15410102;1@1024008;20@1024009;10@10000143;15</t>
-  </si>
-  <si>
-    <t>1020001;200@1024010;200@15410104;1@1024008;20@1024009;10@10000143;15</t>
-  </si>
-  <si>
-    <t>1020001;200@1024010;200@1541102;1@1024008;30@1024009;15@10000143;20</t>
-  </si>
-  <si>
-    <t>1020001;200@1024010;200@15411004;1@1024008;30@1024009;15@10000143;20</t>
-  </si>
-  <si>
-    <t>1020001;200@1024010;200@15411006;1@1024008;30@1024009;15@10000143;20</t>
-  </si>
-  <si>
-    <t>1020001;200@1024010;200@15410202;1@1024008;20@1024009;10@10000143;15</t>
-  </si>
-  <si>
     <t>1020001;10@1025010;10@1025001;10@1025008;2@1025009;1</t>
   </si>
   <si>
@@ -2694,33 +2573,6 @@
     <t>1020001;20@1025010;20@1025007;20@1025008;4@1025009;2</t>
   </si>
   <si>
-    <t>1020001;200@1025010;200@15506002;1@1025008;20@1025009;10@10000143;20</t>
-  </si>
-  <si>
-    <t>1020001;200@1025010;200@15510002;1@1025008;20@1025009;10@10000143;20</t>
-  </si>
-  <si>
-    <t>1020001;200@1025010;200@15510004;1@1025008;20@1025009;10@10000143;20</t>
-  </si>
-  <si>
-    <t>1020001;200@1025010;200@15510102;1@1025008;20@1025009;10@10000143;20</t>
-  </si>
-  <si>
-    <t>1020001;200@1025010;200@15510104;1@1025008;20@1025009;10@10000143;20</t>
-  </si>
-  <si>
-    <t>1020001;200@1025010;200@1551102;1@1025008;30@1025009;15@10000143;25</t>
-  </si>
-  <si>
-    <t>1020001;200@1025010;200@15511004;1@1025008;30@1025009;15@10000143;25</t>
-  </si>
-  <si>
-    <t>1020001;200@1025010;200@15511006;1@1025008;30@1025009;15@10000143;25</t>
-  </si>
-  <si>
-    <t>1020001;200@1025010;200@15510202;1@1025008;20@1025009;10@10000143;20</t>
-  </si>
-  <si>
     <t>1020001;1@1021010;2</t>
   </si>
   <si>
@@ -2809,99 +2661,6 @@
   </si>
   <si>
     <t>1020001;10</t>
-  </si>
-  <si>
-    <t>1020001;200@1025010;200@10010085;1000@1025008;20@1025009;10@10000143;35</t>
-  </si>
-  <si>
-    <t>1020001;350@1025010;350@10010085;2000@1025008;20@1025009;10@10000143;50</t>
-  </si>
-  <si>
-    <t>1020001;500@1025010;500@10010085;5000@1025008;20@1025009;10@10000143;100</t>
-  </si>
-  <si>
-    <t>1020001;300@1025010;300@10010085;3000@1025008;20@1025009;10@10000143;70</t>
-  </si>
-  <si>
-    <t>1020001;1000@10000152;30@15601001;1@1025008;50@1025009;20@10000143;50</t>
-  </si>
-  <si>
-    <t>1020001;1000@10000152;30@1560102;1@1025008;50@1025009;20@10000143;50</t>
-  </si>
-  <si>
-    <t>1020001;1000@10000152;30@15601003;1@1025008;50@1025009;20@10000143;50</t>
-  </si>
-  <si>
-    <t>1020001;1000@10000152;30@15602001;1@1025008;50@1025009;20@10000143;50</t>
-  </si>
-  <si>
-    <t>1020001;1000@10000152;30@15602002;1@1025008;50@1025009;20@10000143;50</t>
-  </si>
-  <si>
-    <t>1020001;1000@10000152;30@15602003;1@1025008;50@1025009;20@10000143;50</t>
-  </si>
-  <si>
-    <t>1020001;1000@10000152;30@15603001;1@1025008;50@1025009;20@10000143;50</t>
-  </si>
-  <si>
-    <t>1020001;1000@10000152;30@15603002;1@1025008;50@1025009;20@10000143;50</t>
-  </si>
-  <si>
-    <t>1020001;1000@10000152;30@15603003;1@1025008;50@1025009;20@10000143;50</t>
-  </si>
-  <si>
-    <t>1020001;1000@10000152;30@15604001;1@1025008;50@1025009;20@10000143;50</t>
-  </si>
-  <si>
-    <t>1020001;1000@10000152;30@15604002;1@1025008;50@1025009;20@10000143;50</t>
-  </si>
-  <si>
-    <t>1020001;1000@10000152;30@15604003;1@1025008;50@1025009;20@10000143;50</t>
-  </si>
-  <si>
-    <t>1020001;1000@10000152;30@15605001;1@1025008;50@1025009;20@10000143;50</t>
-  </si>
-  <si>
-    <t>1020001;1000@10000152;30@15605002;1@1025008;50@1025009;20@10000143;50</t>
-  </si>
-  <si>
-    <t>1020001;1000@10000152;30@15605003;1@1025008;50@1025009;20@10000143;50</t>
-  </si>
-  <si>
-    <t>1020001;1750@10000152;40@15606001;1@1025008;50@1025009;20@10000143;75</t>
-  </si>
-  <si>
-    <t>1020001;1750@10000152;40@15607001;1@1025008;50@1025009;20@10000143;75</t>
-  </si>
-  <si>
-    <t>1020001;1750@10000152;40@15608001;1@1025008;50@1025009;20@10000143;75</t>
-  </si>
-  <si>
-    <t>1020001;1750@10000152;40@15609001;1@1025008;50@1025009;20@10000143;75</t>
-  </si>
-  <si>
-    <t>1020001;2500@10000152;80@15610001;1@1025008;50@1025009;20@10000143;150</t>
-  </si>
-  <si>
-    <t>1020001;2500@10000152;80@15610002;1@1025008;50@1025009;20@10000143;150</t>
-  </si>
-  <si>
-    <t>1020001;2500@10000152;80@15610101;1@1025008;50@1025009;20@10000143;150</t>
-  </si>
-  <si>
-    <t>1020001;2500@10000152;80@15610102;1@1025008;50@1025009;20@10000143;150</t>
-  </si>
-  <si>
-    <t>1020001;1500@10000152;60@15611001;1@1025008;50@1025009;20@10000143;100</t>
-  </si>
-  <si>
-    <t>1020001;1500@10000152;60@1561102;1@1025008;50@1025009;20@10000143;100</t>
-  </si>
-  <si>
-    <t>1020001;1500@10000152;60@15611003;1@1025008;50@1025009;20@10000143;100</t>
-  </si>
-  <si>
-    <t>1020001;2500@10000152;80@15610201;1@1025008;50@1025009;20@10000143;150</t>
   </si>
   <si>
     <t>1020001;10@1000029;1@10010085;10</t>
@@ -3103,6 +2862,284 @@
   <si>
     <t>传承:炽热燃烧权杖</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1022010;200@1521102;1@1022008;30@1022009;15@1000022;12</t>
+  </si>
+  <si>
+    <t>1020001;200@1023010;200@1531102;1@1023008;30@1023009;15@1000022;16</t>
+  </si>
+  <si>
+    <t>1020001;200@1024010;200@1541102;1@1024008;30@1024009;15@1000022;20</t>
+  </si>
+  <si>
+    <t>1020001;200@1025010;200@10010085;1000@1025008;20@1025009;10@1000022;35</t>
+  </si>
+  <si>
+    <t>1020001;350@1025010;350@10010085;2000@1025008;20@1025009;10@1000022;50</t>
+  </si>
+  <si>
+    <t>1020001;500@1025010;500@10010085;5000@1025008;20@1025009;10@1000022;100</t>
+  </si>
+  <si>
+    <t>1020001;300@1025010;300@10010085;3000@1025008;20@1025009;10@1000022;70</t>
+  </si>
+  <si>
+    <t>1020001;1000@10000152;30@15601001;1@1025008;50@1025009;20@1000022;50</t>
+  </si>
+  <si>
+    <t>1020001;1000@10000152;30@1560102;1@1025008;50@1025009;20@1000022;50</t>
+  </si>
+  <si>
+    <t>1020001;1000@10000152;30@15601003;1@1025008;50@1025009;20@1000022;50</t>
+  </si>
+  <si>
+    <t>1020001;1000@10000152;30@15602001;1@1025008;50@1025009;20@1000022;50</t>
+  </si>
+  <si>
+    <t>1020001;1000@10000152;30@15602002;1@1025008;50@1025009;20@1000022;50</t>
+  </si>
+  <si>
+    <t>1020001;1000@10000152;30@15602003;1@1025008;50@1025009;20@1000022;50</t>
+  </si>
+  <si>
+    <t>1020001;1000@10000152;30@15603001;1@1025008;50@1025009;20@1000022;50</t>
+  </si>
+  <si>
+    <t>1020001;1000@10000152;30@15603002;1@1025008;50@1025009;20@1000022;50</t>
+  </si>
+  <si>
+    <t>1020001;1000@10000152;30@15603003;1@1025008;50@1025009;20@1000022;50</t>
+  </si>
+  <si>
+    <t>1020001;1000@10000152;30@15604001;1@1025008;50@1025009;20@1000022;50</t>
+  </si>
+  <si>
+    <t>1020001;1000@10000152;30@15604002;1@1025008;50@1025009;20@1000022;50</t>
+  </si>
+  <si>
+    <t>1020001;1000@10000152;30@15604003;1@1025008;50@1025009;20@1000022;50</t>
+  </si>
+  <si>
+    <t>1020001;1000@10000152;30@15605001;1@1025008;50@1025009;20@1000022;50</t>
+  </si>
+  <si>
+    <t>1020001;1000@10000152;30@15605002;1@1025008;50@1025009;20@1000022;50</t>
+  </si>
+  <si>
+    <t>1020001;1000@10000152;30@15605003;1@1025008;50@1025009;20@1000022;50</t>
+  </si>
+  <si>
+    <t>1020001;1750@10000152;40@15606001;1@1025008;50@1025009;20@1000022;75</t>
+  </si>
+  <si>
+    <t>1020001;1750@10000152;40@15607001;1@1025008;50@1025009;20@1000022;75</t>
+  </si>
+  <si>
+    <t>1020001;1750@10000152;40@15608001;1@1025008;50@1025009;20@1000022;75</t>
+  </si>
+  <si>
+    <t>1020001;1750@10000152;40@15609001;1@1025008;50@1025009;20@1000022;75</t>
+  </si>
+  <si>
+    <t>1020001;2500@10000152;80@15610001;1@1025008;50@1025009;20@1000022;150</t>
+  </si>
+  <si>
+    <t>1020001;2500@10000152;80@15610002;1@1025008;50@1025009;20@1000022;150</t>
+  </si>
+  <si>
+    <t>1020001;2500@10000152;80@15610101;1@1025008;50@1025009;20@1000022;150</t>
+  </si>
+  <si>
+    <t>1020001;2500@10000152;80@15610102;1@1025008;50@1025009;20@1000022;150</t>
+  </si>
+  <si>
+    <t>1020001;1500@10000152;60@15611001;1@1025008;50@1025009;20@1000022;100</t>
+  </si>
+  <si>
+    <t>1020001;1500@10000152;60@1561102;1@1025008;50@1025009;20@1000022;100</t>
+  </si>
+  <si>
+    <t>1020001;1500@10000152;60@15611003;1@1025008;50@1025009;20@1000022;100</t>
+  </si>
+  <si>
+    <t>1020001;2500@10000152;80@15610201;1@1025008;50@1025009;20@1000022;150</t>
+  </si>
+  <si>
+    <t>1020001;200@1021010;200@1506004;1@1021008;20@1021009;10@1000022;6</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1021010;200@1510004;1@1021008;20@1021009;10@1000022;6</t>
+  </si>
+  <si>
+    <t>1020001;200@1021010;200@1510008;1@1021008;20@1021009;10@1000022;6</t>
+  </si>
+  <si>
+    <t>1020001;200@1021010;200@1510104;1@1021008;20@1021009;10@1000022;6</t>
+  </si>
+  <si>
+    <t>1020001;200@1021010;200@1510108;1@1021008;20@1021009;10@1000022;6</t>
+  </si>
+  <si>
+    <t>1020001;200@1021010;200@1511004;1@1021008;30@1021009;15@1000022;10</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1021010;200@1511008;1@1021008;30@1021009;15@1000022;10</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1021010;200@1511012;1@1021008;30@1021009;15@1000022;10</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1021010;200@1510204;1@1021008;20@1021009;10@1000022;6</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1022010;200@1520602;1@1022008;20@1022009;10@1000022;8</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1022010;200@1521002;1@1022008;20@1022009;10@1000022;8</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1022010;200@1521004;1@1022008;20@1022009;10@1000022;8</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1022010;200@1521012;1@1022008;20@1022009;10@1000022;8</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1022010;200@1521014;1@1022008;20@1022009;10@1000022;8</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1022010;200@1521104;1@1022008;30@1022009;15@1000022;12</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1022010;200@1521106;1@1022008;30@1022009;15@1000022;12</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1022010;200@1521022;1@1022008;20@1022009;10@1000022;8</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1023010;200@1530602;1@1023008;20@1023009;10@1000022;12</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1023010;200@1531002;1@1023008;20@1023009;10@1000022;12</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1023010;200@1531004;1@1023008;20@1023009;10@1000022;12</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1023010;200@1531012;1@1023008;20@1023009;10@1000022;12</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1023010;200@1531014;1@1023008;20@1023009;10@1000022;12</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1023010;200@1531104;1@1023008;30@1023009;15@1000022;16</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1023010;200@1531106;1@1023008;30@1023009;15@1000022;16</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1023010;200@1531022;1@1023008;20@1023009;10@1000022;12</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1024010;200@1540602;1@1024008;20@1024009;10@1000022;15</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1024010;200@1541002;1@1024008;20@1024009;10@1000022;15</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1024010;200@1541004;1@1024008;20@1024009;10@1000022;15</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1024010;200@1541012;1@1024008;20@1024009;10@1000022;15</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1024010;200@1541014;1@1024008;20@1024009;10@1000022;15</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1024010;200@1541104;1@1024008;30@1024009;15@1000022;20</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1024010;200@1541106;1@1024008;30@1024009;15@1000022;20</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1024010;200@1541022;1@1024008;20@1024009;10@1000022;15</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1025010;200@1550602;1@1025008;20@1025009;10@1000022;20</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1025010;200@1551002;1@1025008;20@1025009;10@1000022;20</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1025010;200@1551004;1@1025008;20@1025009;10@1000022;20</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1025010;200@1551012;1@1025008;20@1025009;10@1000022;20</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1025010;200@1551014;1@1025008;20@1025009;10@1000022;20</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1025010;200@155112;1@1025008;30@1025009;15@1000022;25</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1025010;200@1551104;1@1025008;30@1025009;15@1000022;25</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1025010;200@1551106;1@1025008;30@1025009;15@1000022;25</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020001;200@1025010;200@1551022;1@1025008;20@1025009;10@1000022;20</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000032;10</t>
+  </si>
+  <si>
+    <t>1000032;30</t>
+  </si>
+  <si>
+    <t>1000032;100</t>
+  </si>
+  <si>
+    <t>1000032;200</t>
   </si>
 </sst>
 </file>
@@ -3797,9 +3834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Z1107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F324" sqref="F324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3825,7 +3862,7 @@
     <col min="22" max="22" width="17.875" style="8" hidden="1" customWidth="1"/>
     <col min="23" max="24" width="21.375" style="8" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="21" style="8" customWidth="1"/>
-    <col min="26" max="26" width="48.25" style="8" customWidth="1"/>
+    <col min="26" max="26" width="99.625" style="8" customWidth="1"/>
     <col min="27" max="27" width="13.5" style="8" customWidth="1"/>
     <col min="28" max="16384" width="9" style="8"/>
   </cols>
@@ -4125,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="44" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4199,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="Z7" s="44" t="s">
-        <v>809</v>
+        <v>729</v>
       </c>
     </row>
     <row r="8" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4273,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="44" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4347,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="44" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4421,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="27" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4495,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="27" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4569,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="27" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4643,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="27" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4717,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="27" t="s">
-        <v>809</v>
+        <v>729</v>
       </c>
     </row>
     <row r="15" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4791,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="27" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4865,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="27" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4939,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="27" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5013,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="Z18" s="27" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5087,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="27" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5161,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="Z20" s="27" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5235,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="Z21" s="27" t="s">
-        <v>810</v>
+        <v>730</v>
       </c>
     </row>
     <row r="22" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5309,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="Z22" s="27" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5383,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="Z23" s="27" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="24" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5457,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="27" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5531,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="27" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5605,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="Z26" s="27" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5679,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="28" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="28" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5753,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="28" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="29" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5827,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="Z29" s="28" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5901,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="Z30" s="27" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5975,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="Z31" s="27" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5983,7 +6020,7 @@
         <v>100127</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E32" s="16">
         <v>1</v>
@@ -6049,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="27" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="33" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6123,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="29" t="s">
-        <v>584</v>
+        <v>774</v>
       </c>
     </row>
     <row r="34" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6197,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="29" t="s">
-        <v>585</v>
+        <v>775</v>
       </c>
     </row>
     <row r="35" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6271,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="Z35" s="29" t="s">
-        <v>586</v>
+        <v>776</v>
       </c>
     </row>
     <row r="36" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6345,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="Z36" s="29" t="s">
-        <v>587</v>
+        <v>777</v>
       </c>
     </row>
     <row r="37" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6419,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="Z37" s="29" t="s">
-        <v>588</v>
+        <v>778</v>
       </c>
     </row>
     <row r="38" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6493,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="Z38" s="29" t="s">
-        <v>589</v>
+        <v>779</v>
       </c>
     </row>
     <row r="39" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6567,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="Z39" s="29" t="s">
-        <v>590</v>
+        <v>780</v>
       </c>
     </row>
     <row r="40" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6641,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="Z40" s="29" t="s">
-        <v>591</v>
+        <v>781</v>
       </c>
     </row>
     <row r="41" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6649,7 +6686,7 @@
         <v>100159</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E41" s="22">
         <v>5</v>
@@ -6715,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="Z41" s="29" t="s">
-        <v>592</v>
+        <v>782</v>
       </c>
     </row>
     <row r="42" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6790,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="Z42" s="28" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
     </row>
     <row r="43" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6865,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="Z43" s="28" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
     </row>
     <row r="44" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6940,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="Z44" s="28" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
     </row>
     <row r="45" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7015,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="Z45" s="28" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
     </row>
     <row r="46" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7090,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="Z46" s="28" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
     </row>
     <row r="47" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7165,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="28" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
     </row>
     <row r="48" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7240,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="28" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
     </row>
     <row r="49" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7315,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="Z49" s="28" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
     </row>
     <row r="50" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7390,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Z50" s="28" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
     </row>
     <row r="51" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7465,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="Z51" s="28" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
     </row>
     <row r="52" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7540,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="Z52" s="28" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
     </row>
     <row r="53" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7615,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="Z53" s="28" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
     </row>
     <row r="54" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7690,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="Z54" s="28" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
     </row>
     <row r="55" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7765,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="Z55" s="28" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
     </row>
     <row r="56" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7840,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="Z56" s="28" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
     </row>
     <row r="57" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7915,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="Z57" s="28" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
     </row>
     <row r="58" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7990,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="Z58" s="28" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
     </row>
     <row r="59" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8065,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="Z59" s="28" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
     </row>
     <row r="60" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8140,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="Z60" s="28" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
     </row>
     <row r="61" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8215,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="28" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
     </row>
     <row r="62" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8290,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="Z62" s="28" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
     </row>
     <row r="63" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8365,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="Z63" s="28" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
     </row>
     <row r="64" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8440,7 +8477,7 @@
         <v>0</v>
       </c>
       <c r="Z64" s="28" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="65" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8515,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Z65" s="28" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
     </row>
     <row r="66" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8523,7 +8560,7 @@
         <v>100225</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>818</v>
+        <v>738</v>
       </c>
       <c r="E66" s="16">
         <v>1</v>
@@ -8590,7 +8627,7 @@
         <v>0</v>
       </c>
       <c r="Z66" s="28" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
     </row>
     <row r="67" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8665,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="Z67" s="28" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
     </row>
     <row r="68" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8673,7 +8710,7 @@
         <v>100227</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E68" s="16">
         <v>1</v>
@@ -8740,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="Z68" s="28" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
     </row>
     <row r="69" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8814,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="Z69" s="29" t="s">
-        <v>609</v>
+        <v>783</v>
       </c>
     </row>
     <row r="70" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8888,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="Z70" s="29" t="s">
-        <v>610</v>
+        <v>784</v>
       </c>
     </row>
     <row r="71" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8962,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="Z71" s="29" t="s">
-        <v>611</v>
+        <v>785</v>
       </c>
     </row>
     <row r="72" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8970,7 +9007,7 @@
         <v>100254</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>819</v>
+        <v>739</v>
       </c>
       <c r="E72" s="22">
         <v>5</v>
@@ -9036,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="Z72" s="29" t="s">
-        <v>612</v>
+        <v>786</v>
       </c>
     </row>
     <row r="73" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9110,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="Z73" s="29" t="s">
-        <v>613</v>
+        <v>787</v>
       </c>
     </row>
     <row r="74" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9184,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="Z74" s="29" t="s">
-        <v>614</v>
+        <v>740</v>
       </c>
     </row>
     <row r="75" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9258,7 +9295,7 @@
         <v>0</v>
       </c>
       <c r="Z75" s="29" t="s">
-        <v>615</v>
+        <v>788</v>
       </c>
     </row>
     <row r="76" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9332,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="Z76" s="29" t="s">
-        <v>616</v>
+        <v>789</v>
       </c>
     </row>
     <row r="77" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9340,7 +9377,7 @@
         <v>100259</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E77" s="22">
         <v>5</v>
@@ -9406,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="Z77" s="29" t="s">
-        <v>617</v>
+        <v>790</v>
       </c>
     </row>
     <row r="78" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9481,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="Z78" s="28" t="s">
-        <v>618</v>
+        <v>596</v>
       </c>
     </row>
     <row r="79" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9556,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="Z79" s="28" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
     </row>
     <row r="80" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9631,7 +9668,7 @@
         <v>0</v>
       </c>
       <c r="Z80" s="28" t="s">
-        <v>620</v>
+        <v>598</v>
       </c>
     </row>
     <row r="81" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9706,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="Z81" s="28" t="s">
-        <v>621</v>
+        <v>599</v>
       </c>
     </row>
     <row r="82" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9781,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="Z82" s="28" t="s">
-        <v>622</v>
+        <v>600</v>
       </c>
     </row>
     <row r="83" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9856,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Z83" s="28" t="s">
-        <v>623</v>
+        <v>601</v>
       </c>
     </row>
     <row r="84" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9931,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="Z84" s="28" t="s">
-        <v>624</v>
+        <v>602</v>
       </c>
     </row>
     <row r="85" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10006,7 +10043,7 @@
         <v>0</v>
       </c>
       <c r="Z85" s="28" t="s">
-        <v>618</v>
+        <v>596</v>
       </c>
     </row>
     <row r="86" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10081,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="Z86" s="28" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
     </row>
     <row r="87" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10156,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="Z87" s="28" t="s">
-        <v>620</v>
+        <v>598</v>
       </c>
     </row>
     <row r="88" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10231,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="Z88" s="28" t="s">
-        <v>621</v>
+        <v>599</v>
       </c>
     </row>
     <row r="89" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10306,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="Z89" s="28" t="s">
-        <v>622</v>
+        <v>600</v>
       </c>
     </row>
     <row r="90" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10381,7 +10418,7 @@
         <v>0</v>
       </c>
       <c r="Z90" s="28" t="s">
-        <v>623</v>
+        <v>601</v>
       </c>
     </row>
     <row r="91" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10456,7 +10493,7 @@
         <v>0</v>
       </c>
       <c r="Z91" s="28" t="s">
-        <v>624</v>
+        <v>602</v>
       </c>
     </row>
     <row r="92" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10531,7 +10568,7 @@
         <v>0</v>
       </c>
       <c r="Z92" s="28" t="s">
-        <v>618</v>
+        <v>596</v>
       </c>
     </row>
     <row r="93" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10606,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="Z93" s="28" t="s">
-        <v>625</v>
+        <v>603</v>
       </c>
     </row>
     <row r="94" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10681,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="Z94" s="28" t="s">
-        <v>626</v>
+        <v>604</v>
       </c>
     </row>
     <row r="95" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10756,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="Z95" s="28" t="s">
-        <v>627</v>
+        <v>605</v>
       </c>
     </row>
     <row r="96" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10831,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="Z96" s="28" t="s">
-        <v>628</v>
+        <v>606</v>
       </c>
     </row>
     <row r="97" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10906,7 +10943,7 @@
         <v>0</v>
       </c>
       <c r="Z97" s="28" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
     </row>
     <row r="98" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10981,7 +11018,7 @@
         <v>0</v>
       </c>
       <c r="Z98" s="28" t="s">
-        <v>630</v>
+        <v>608</v>
       </c>
     </row>
     <row r="99" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11056,7 +11093,7 @@
         <v>0</v>
       </c>
       <c r="Z99" s="28" t="s">
-        <v>631</v>
+        <v>609</v>
       </c>
     </row>
     <row r="100" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11131,7 +11168,7 @@
         <v>0</v>
       </c>
       <c r="Z100" s="28" t="s">
-        <v>632</v>
+        <v>610</v>
       </c>
     </row>
     <row r="101" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11206,7 +11243,7 @@
         <v>0</v>
       </c>
       <c r="Z101" s="28" t="s">
-        <v>633</v>
+        <v>611</v>
       </c>
     </row>
     <row r="102" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11281,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="Z102" s="28" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
     </row>
     <row r="103" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11356,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="Z103" s="28" t="s">
-        <v>630</v>
+        <v>608</v>
       </c>
     </row>
     <row r="104" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11364,7 +11401,7 @@
         <v>100327</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E104" s="16">
         <v>1</v>
@@ -11431,7 +11468,7 @@
         <v>0</v>
       </c>
       <c r="Z104" s="28" t="s">
-        <v>630</v>
+        <v>608</v>
       </c>
     </row>
     <row r="105" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11505,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="Z105" s="29" t="s">
-        <v>634</v>
+        <v>791</v>
       </c>
     </row>
     <row r="106" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11579,7 +11616,7 @@
         <v>0</v>
       </c>
       <c r="Z106" s="29" t="s">
-        <v>635</v>
+        <v>792</v>
       </c>
     </row>
     <row r="107" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11653,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="Z107" s="29" t="s">
-        <v>636</v>
+        <v>793</v>
       </c>
     </row>
     <row r="108" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11727,7 +11764,7 @@
         <v>0</v>
       </c>
       <c r="Z108" s="29" t="s">
-        <v>637</v>
+        <v>794</v>
       </c>
     </row>
     <row r="109" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11801,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="Z109" s="29" t="s">
-        <v>638</v>
+        <v>795</v>
       </c>
     </row>
     <row r="110" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11875,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="Z110" s="29" t="s">
-        <v>639</v>
+        <v>741</v>
       </c>
     </row>
     <row r="111" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11949,7 +11986,7 @@
         <v>0</v>
       </c>
       <c r="Z111" s="29" t="s">
-        <v>640</v>
+        <v>796</v>
       </c>
     </row>
     <row r="112" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12023,7 +12060,7 @@
         <v>0</v>
       </c>
       <c r="Z112" s="29" t="s">
-        <v>641</v>
+        <v>797</v>
       </c>
     </row>
     <row r="113" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12031,7 +12068,7 @@
         <v>100359</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E113" s="22">
         <v>5</v>
@@ -12097,7 +12134,7 @@
         <v>0</v>
       </c>
       <c r="Z113" s="29" t="s">
-        <v>642</v>
+        <v>798</v>
       </c>
     </row>
     <row r="114" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12172,7 +12209,7 @@
         <v>0</v>
       </c>
       <c r="Z114" s="28" t="s">
-        <v>643</v>
+        <v>612</v>
       </c>
     </row>
     <row r="115" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12247,7 +12284,7 @@
         <v>0</v>
       </c>
       <c r="Z115" s="28" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
     </row>
     <row r="116" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12322,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="Z116" s="28" t="s">
-        <v>645</v>
+        <v>614</v>
       </c>
     </row>
     <row r="117" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12397,7 +12434,7 @@
         <v>0</v>
       </c>
       <c r="Z117" s="28" t="s">
-        <v>646</v>
+        <v>615</v>
       </c>
     </row>
     <row r="118" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12472,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="Z118" s="28" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
     </row>
     <row r="119" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12547,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="Z119" s="28" t="s">
-        <v>648</v>
+        <v>617</v>
       </c>
     </row>
     <row r="120" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12622,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="Z120" s="28" t="s">
-        <v>649</v>
+        <v>618</v>
       </c>
     </row>
     <row r="121" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12697,7 +12734,7 @@
         <v>0</v>
       </c>
       <c r="Z121" s="28" t="s">
-        <v>643</v>
+        <v>612</v>
       </c>
     </row>
     <row r="122" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12772,7 +12809,7 @@
         <v>0</v>
       </c>
       <c r="Z122" s="28" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
     </row>
     <row r="123" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12847,7 +12884,7 @@
         <v>0</v>
       </c>
       <c r="Z123" s="28" t="s">
-        <v>645</v>
+        <v>614</v>
       </c>
     </row>
     <row r="124" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12922,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="Z124" s="28" t="s">
-        <v>646</v>
+        <v>615</v>
       </c>
     </row>
     <row r="125" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12997,7 +13034,7 @@
         <v>0</v>
       </c>
       <c r="Z125" s="28" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
     </row>
     <row r="126" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13072,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="Z126" s="28" t="s">
-        <v>648</v>
+        <v>617</v>
       </c>
     </row>
     <row r="127" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13147,7 +13184,7 @@
         <v>0</v>
       </c>
       <c r="Z127" s="28" t="s">
-        <v>649</v>
+        <v>618</v>
       </c>
     </row>
     <row r="128" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13222,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="Z128" s="28" t="s">
-        <v>643</v>
+        <v>612</v>
       </c>
     </row>
     <row r="129" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13297,7 +13334,7 @@
         <v>0</v>
       </c>
       <c r="Z129" s="28" t="s">
-        <v>650</v>
+        <v>619</v>
       </c>
     </row>
     <row r="130" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13372,7 +13409,7 @@
         <v>0</v>
       </c>
       <c r="Z130" s="28" t="s">
-        <v>651</v>
+        <v>620</v>
       </c>
     </row>
     <row r="131" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13447,7 +13484,7 @@
         <v>0</v>
       </c>
       <c r="Z131" s="28" t="s">
-        <v>652</v>
+        <v>621</v>
       </c>
     </row>
     <row r="132" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13522,7 +13559,7 @@
         <v>0</v>
       </c>
       <c r="Z132" s="28" t="s">
-        <v>653</v>
+        <v>622</v>
       </c>
     </row>
     <row r="133" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13597,7 +13634,7 @@
         <v>0</v>
       </c>
       <c r="Z133" s="28" t="s">
-        <v>654</v>
+        <v>623</v>
       </c>
     </row>
     <row r="134" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13672,7 +13709,7 @@
         <v>0</v>
       </c>
       <c r="Z134" s="28" t="s">
-        <v>655</v>
+        <v>624</v>
       </c>
     </row>
     <row r="135" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13747,7 +13784,7 @@
         <v>0</v>
       </c>
       <c r="Z135" s="28" t="s">
-        <v>656</v>
+        <v>625</v>
       </c>
     </row>
     <row r="136" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13822,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="Z136" s="28" t="s">
-        <v>657</v>
+        <v>626</v>
       </c>
     </row>
     <row r="137" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13897,7 +13934,7 @@
         <v>0</v>
       </c>
       <c r="Z137" s="28" t="s">
-        <v>658</v>
+        <v>627</v>
       </c>
     </row>
     <row r="138" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13972,7 +14009,7 @@
         <v>0</v>
       </c>
       <c r="Z138" s="28" t="s">
-        <v>654</v>
+        <v>623</v>
       </c>
     </row>
     <row r="139" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14047,7 +14084,7 @@
         <v>0</v>
       </c>
       <c r="Z139" s="28" t="s">
-        <v>655</v>
+        <v>624</v>
       </c>
     </row>
     <row r="140" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14055,7 +14092,7 @@
         <v>100427</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E140" s="16">
         <v>1</v>
@@ -14122,7 +14159,7 @@
         <v>0</v>
       </c>
       <c r="Z140" s="28" t="s">
-        <v>654</v>
+        <v>623</v>
       </c>
     </row>
     <row r="141" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14196,7 +14233,7 @@
         <v>0</v>
       </c>
       <c r="Z141" s="29" t="s">
-        <v>659</v>
+        <v>799</v>
       </c>
     </row>
     <row r="142" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14270,7 +14307,7 @@
         <v>0</v>
       </c>
       <c r="Z142" s="29" t="s">
-        <v>660</v>
+        <v>800</v>
       </c>
     </row>
     <row r="143" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14344,7 +14381,7 @@
         <v>0</v>
       </c>
       <c r="Z143" s="29" t="s">
-        <v>661</v>
+        <v>801</v>
       </c>
     </row>
     <row r="144" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14418,7 +14455,7 @@
         <v>0</v>
       </c>
       <c r="Z144" s="29" t="s">
-        <v>662</v>
+        <v>802</v>
       </c>
     </row>
     <row r="145" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14492,7 +14529,7 @@
         <v>0</v>
       </c>
       <c r="Z145" s="29" t="s">
-        <v>663</v>
+        <v>803</v>
       </c>
     </row>
     <row r="146" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14566,7 +14603,7 @@
         <v>0</v>
       </c>
       <c r="Z146" s="29" t="s">
-        <v>664</v>
+        <v>742</v>
       </c>
     </row>
     <row r="147" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14640,7 +14677,7 @@
         <v>0</v>
       </c>
       <c r="Z147" s="29" t="s">
-        <v>665</v>
+        <v>804</v>
       </c>
     </row>
     <row r="148" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14714,7 +14751,7 @@
         <v>0</v>
       </c>
       <c r="Z148" s="29" t="s">
-        <v>666</v>
+        <v>805</v>
       </c>
     </row>
     <row r="149" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14722,7 +14759,7 @@
         <v>100459</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E149" s="22">
         <v>5</v>
@@ -14788,7 +14825,7 @@
         <v>0</v>
       </c>
       <c r="Z149" s="29" t="s">
-        <v>667</v>
+        <v>806</v>
       </c>
     </row>
     <row r="150" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14864,7 +14901,7 @@
         <v>0</v>
       </c>
       <c r="Z150" s="28" t="s">
-        <v>668</v>
+        <v>628</v>
       </c>
     </row>
     <row r="151" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14940,7 +14977,7 @@
         <v>0</v>
       </c>
       <c r="Z151" s="28" t="s">
-        <v>669</v>
+        <v>629</v>
       </c>
     </row>
     <row r="152" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15016,7 +15053,7 @@
         <v>0</v>
       </c>
       <c r="Z152" s="28" t="s">
-        <v>670</v>
+        <v>630</v>
       </c>
     </row>
     <row r="153" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15092,7 +15129,7 @@
         <v>0</v>
       </c>
       <c r="Z153" s="28" t="s">
-        <v>671</v>
+        <v>631</v>
       </c>
     </row>
     <row r="154" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15168,7 +15205,7 @@
         <v>0</v>
       </c>
       <c r="Z154" s="28" t="s">
-        <v>672</v>
+        <v>632</v>
       </c>
     </row>
     <row r="155" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15244,7 +15281,7 @@
         <v>0</v>
       </c>
       <c r="Z155" s="28" t="s">
-        <v>673</v>
+        <v>633</v>
       </c>
     </row>
     <row r="156" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15320,7 +15357,7 @@
         <v>0</v>
       </c>
       <c r="Z156" s="28" t="s">
-        <v>674</v>
+        <v>634</v>
       </c>
     </row>
     <row r="157" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15396,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="Z157" s="28" t="s">
-        <v>668</v>
+        <v>628</v>
       </c>
     </row>
     <row r="158" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15472,7 +15509,7 @@
         <v>0</v>
       </c>
       <c r="Z158" s="28" t="s">
-        <v>669</v>
+        <v>629</v>
       </c>
     </row>
     <row r="159" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15548,7 +15585,7 @@
         <v>0</v>
       </c>
       <c r="Z159" s="28" t="s">
-        <v>670</v>
+        <v>630</v>
       </c>
     </row>
     <row r="160" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15624,7 +15661,7 @@
         <v>0</v>
       </c>
       <c r="Z160" s="28" t="s">
-        <v>671</v>
+        <v>631</v>
       </c>
     </row>
     <row r="161" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15700,7 +15737,7 @@
         <v>0</v>
       </c>
       <c r="Z161" s="28" t="s">
-        <v>672</v>
+        <v>632</v>
       </c>
     </row>
     <row r="162" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15776,7 +15813,7 @@
         <v>0</v>
       </c>
       <c r="Z162" s="28" t="s">
-        <v>673</v>
+        <v>633</v>
       </c>
     </row>
     <row r="163" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15852,7 +15889,7 @@
         <v>0</v>
       </c>
       <c r="Z163" s="28" t="s">
-        <v>674</v>
+        <v>634</v>
       </c>
     </row>
     <row r="164" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15928,7 +15965,7 @@
         <v>0</v>
       </c>
       <c r="Z164" s="28" t="s">
-        <v>668</v>
+        <v>628</v>
       </c>
     </row>
     <row r="165" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16004,7 +16041,7 @@
         <v>0</v>
       </c>
       <c r="Z165" s="28" t="s">
-        <v>675</v>
+        <v>635</v>
       </c>
     </row>
     <row r="166" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16080,7 +16117,7 @@
         <v>0</v>
       </c>
       <c r="Z166" s="28" t="s">
-        <v>676</v>
+        <v>636</v>
       </c>
     </row>
     <row r="167" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16156,7 +16193,7 @@
         <v>0</v>
       </c>
       <c r="Z167" s="28" t="s">
-        <v>677</v>
+        <v>637</v>
       </c>
     </row>
     <row r="168" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16232,7 +16269,7 @@
         <v>0</v>
       </c>
       <c r="Z168" s="28" t="s">
-        <v>678</v>
+        <v>638</v>
       </c>
     </row>
     <row r="169" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16308,7 +16345,7 @@
         <v>0</v>
       </c>
       <c r="Z169" s="28" t="s">
-        <v>679</v>
+        <v>639</v>
       </c>
     </row>
     <row r="170" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16384,7 +16421,7 @@
         <v>0</v>
       </c>
       <c r="Z170" s="28" t="s">
-        <v>680</v>
+        <v>640</v>
       </c>
     </row>
     <row r="171" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16460,7 +16497,7 @@
         <v>0</v>
       </c>
       <c r="Z171" s="28" t="s">
-        <v>681</v>
+        <v>641</v>
       </c>
     </row>
     <row r="172" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16536,7 +16573,7 @@
         <v>0</v>
       </c>
       <c r="Z172" s="28" t="s">
-        <v>682</v>
+        <v>642</v>
       </c>
     </row>
     <row r="173" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16612,7 +16649,7 @@
         <v>0</v>
       </c>
       <c r="Z173" s="28" t="s">
-        <v>683</v>
+        <v>643</v>
       </c>
     </row>
     <row r="174" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16688,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="Z174" s="28" t="s">
-        <v>679</v>
+        <v>639</v>
       </c>
     </row>
     <row r="175" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16764,7 +16801,7 @@
         <v>0</v>
       </c>
       <c r="Z175" s="28" t="s">
-        <v>680</v>
+        <v>640</v>
       </c>
     </row>
     <row r="176" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16772,7 +16809,7 @@
         <v>100527</v>
       </c>
       <c r="D176" s="23" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E176" s="16">
         <v>1</v>
@@ -16840,7 +16877,7 @@
         <v>0</v>
       </c>
       <c r="Z176" s="28" t="s">
-        <v>680</v>
+        <v>640</v>
       </c>
     </row>
     <row r="177" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16915,7 +16952,7 @@
         <v>0</v>
       </c>
       <c r="Z177" s="28" t="s">
-        <v>684</v>
+        <v>807</v>
       </c>
     </row>
     <row r="178" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16990,7 +17027,7 @@
         <v>0</v>
       </c>
       <c r="Z178" s="28" t="s">
-        <v>685</v>
+        <v>808</v>
       </c>
     </row>
     <row r="179" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17065,7 +17102,7 @@
         <v>0</v>
       </c>
       <c r="Z179" s="29" t="s">
-        <v>686</v>
+        <v>809</v>
       </c>
     </row>
     <row r="180" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17140,7 +17177,7 @@
         <v>0</v>
       </c>
       <c r="Z180" s="29" t="s">
-        <v>687</v>
+        <v>810</v>
       </c>
     </row>
     <row r="181" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17215,7 +17252,7 @@
         <v>0</v>
       </c>
       <c r="Z181" s="29" t="s">
-        <v>688</v>
+        <v>811</v>
       </c>
     </row>
     <row r="182" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17290,7 +17327,7 @@
         <v>0</v>
       </c>
       <c r="Z182" s="29" t="s">
-        <v>689</v>
+        <v>812</v>
       </c>
     </row>
     <row r="183" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17365,7 +17402,7 @@
         <v>0</v>
       </c>
       <c r="Z183" s="29" t="s">
-        <v>690</v>
+        <v>813</v>
       </c>
     </row>
     <row r="184" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17440,7 +17477,7 @@
         <v>0</v>
       </c>
       <c r="Z184" s="29" t="s">
-        <v>691</v>
+        <v>814</v>
       </c>
     </row>
     <row r="185" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17448,7 +17485,7 @@
         <v>100559</v>
       </c>
       <c r="D185" s="21" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E185" s="22">
         <v>5</v>
@@ -17515,7 +17552,7 @@
         <v>0</v>
       </c>
       <c r="Z185" s="29" t="s">
-        <v>692</v>
+        <v>815</v>
       </c>
     </row>
     <row r="186" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17523,7 +17560,7 @@
         <v>200001</v>
       </c>
       <c r="D186" s="23" t="s">
-        <v>808</v>
+        <v>728</v>
       </c>
       <c r="E186" s="16">
         <v>3</v>
@@ -17589,7 +17626,7 @@
         <v>0</v>
       </c>
       <c r="Z186" s="28" t="s">
-        <v>693</v>
+        <v>644</v>
       </c>
     </row>
     <row r="187" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17663,7 +17700,7 @@
         <v>0</v>
       </c>
       <c r="Z187" s="28" t="s">
-        <v>694</v>
+        <v>645</v>
       </c>
     </row>
     <row r="188" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17737,7 +17774,7 @@
         <v>0</v>
       </c>
       <c r="Z188" s="28" t="s">
-        <v>811</v>
+        <v>731</v>
       </c>
     </row>
     <row r="189" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17811,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="Z189" s="28" t="s">
-        <v>695</v>
+        <v>646</v>
       </c>
     </row>
     <row r="190" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17885,7 +17922,7 @@
         <v>0</v>
       </c>
       <c r="Z190" s="28" t="s">
-        <v>696</v>
+        <v>647</v>
       </c>
     </row>
     <row r="191" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17959,7 +17996,7 @@
         <v>0</v>
       </c>
       <c r="Z191" s="28" t="s">
-        <v>697</v>
+        <v>648</v>
       </c>
     </row>
     <row r="192" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18033,7 +18070,7 @@
         <v>0</v>
       </c>
       <c r="Z192" s="28" t="s">
-        <v>693</v>
+        <v>644</v>
       </c>
     </row>
     <row r="193" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18107,7 +18144,7 @@
         <v>0</v>
       </c>
       <c r="Z193" s="28" t="s">
-        <v>698</v>
+        <v>649</v>
       </c>
     </row>
     <row r="194" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18181,7 +18218,7 @@
         <v>0</v>
       </c>
       <c r="Z194" s="28" t="s">
-        <v>699</v>
+        <v>650</v>
       </c>
     </row>
     <row r="195" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18255,7 +18292,7 @@
         <v>0</v>
       </c>
       <c r="Z195" s="28" t="s">
-        <v>700</v>
+        <v>651</v>
       </c>
     </row>
     <row r="196" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18329,7 +18366,7 @@
         <v>0</v>
       </c>
       <c r="Z196" s="28" t="s">
-        <v>701</v>
+        <v>652</v>
       </c>
     </row>
     <row r="197" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18403,7 +18440,7 @@
         <v>0</v>
       </c>
       <c r="Z197" s="28" t="s">
-        <v>702</v>
+        <v>653</v>
       </c>
     </row>
     <row r="198" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18477,7 +18514,7 @@
         <v>0</v>
       </c>
       <c r="Z198" s="28" t="s">
-        <v>703</v>
+        <v>654</v>
       </c>
     </row>
     <row r="199" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18552,7 +18589,7 @@
         <v>0</v>
       </c>
       <c r="Z199" s="28" t="s">
-        <v>704</v>
+        <v>655</v>
       </c>
     </row>
     <row r="200" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18627,7 +18664,7 @@
         <v>0</v>
       </c>
       <c r="Z200" s="28" t="s">
-        <v>705</v>
+        <v>656</v>
       </c>
     </row>
     <row r="201" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18702,7 +18739,7 @@
         <v>0</v>
       </c>
       <c r="Z201" s="28" t="s">
-        <v>706</v>
+        <v>657</v>
       </c>
     </row>
     <row r="202" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18777,7 +18814,7 @@
         <v>0</v>
       </c>
       <c r="Z202" s="28" t="s">
-        <v>707</v>
+        <v>658</v>
       </c>
     </row>
     <row r="203" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18852,7 +18889,7 @@
         <v>0</v>
       </c>
       <c r="Z203" s="28" t="s">
-        <v>708</v>
+        <v>659</v>
       </c>
     </row>
     <row r="204" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18927,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="Z204" s="28" t="s">
-        <v>709</v>
+        <v>660</v>
       </c>
     </row>
     <row r="205" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19002,7 +19039,7 @@
         <v>0</v>
       </c>
       <c r="Z205" s="28" t="s">
-        <v>710</v>
+        <v>661</v>
       </c>
     </row>
     <row r="206" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19077,7 +19114,7 @@
         <v>0</v>
       </c>
       <c r="Z206" s="28" t="s">
-        <v>711</v>
+        <v>662</v>
       </c>
     </row>
     <row r="207" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19152,7 +19189,7 @@
         <v>0</v>
       </c>
       <c r="Z207" s="28" t="s">
-        <v>712</v>
+        <v>663</v>
       </c>
     </row>
     <row r="208" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19227,7 +19264,7 @@
         <v>0</v>
       </c>
       <c r="Z208" s="28" t="s">
-        <v>713</v>
+        <v>664</v>
       </c>
     </row>
     <row r="209" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19302,7 +19339,7 @@
         <v>0</v>
       </c>
       <c r="Z209" s="28" t="s">
-        <v>714</v>
+        <v>665</v>
       </c>
     </row>
     <row r="210" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19377,7 +19414,7 @@
         <v>0</v>
       </c>
       <c r="Z210" s="28" t="s">
-        <v>715</v>
+        <v>666</v>
       </c>
     </row>
     <row r="211" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19452,7 +19489,7 @@
         <v>0</v>
       </c>
       <c r="Z211" s="28" t="s">
-        <v>716</v>
+        <v>667</v>
       </c>
     </row>
     <row r="212" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19527,7 +19564,7 @@
         <v>0</v>
       </c>
       <c r="Z212" s="28" t="s">
-        <v>717</v>
+        <v>668</v>
       </c>
     </row>
     <row r="213" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19602,7 +19639,7 @@
         <v>0</v>
       </c>
       <c r="Z213" s="28" t="s">
-        <v>718</v>
+        <v>669</v>
       </c>
     </row>
     <row r="214" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19677,7 +19714,7 @@
         <v>0</v>
       </c>
       <c r="Z214" s="28" t="s">
-        <v>719</v>
+        <v>670</v>
       </c>
     </row>
     <row r="215" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19752,7 +19789,7 @@
         <v>0</v>
       </c>
       <c r="Z215" s="28" t="s">
-        <v>720</v>
+        <v>671</v>
       </c>
     </row>
     <row r="216" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19827,7 +19864,7 @@
         <v>0</v>
       </c>
       <c r="Z216" s="28" t="s">
-        <v>721</v>
+        <v>672</v>
       </c>
     </row>
     <row r="217" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19901,7 +19938,7 @@
         <v>0</v>
       </c>
       <c r="Z217" s="28" t="s">
-        <v>764</v>
+        <v>684</v>
       </c>
     </row>
     <row r="218" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19975,7 +20012,7 @@
         <v>0</v>
       </c>
       <c r="Z218" s="28" t="s">
-        <v>764</v>
+        <v>684</v>
       </c>
     </row>
     <row r="219" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20049,7 +20086,7 @@
         <v>0</v>
       </c>
       <c r="Z219" s="28" t="s">
-        <v>764</v>
+        <v>684</v>
       </c>
     </row>
     <row r="220" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20123,7 +20160,7 @@
         <v>0</v>
       </c>
       <c r="Z220" s="28" t="s">
-        <v>764</v>
+        <v>684</v>
       </c>
     </row>
     <row r="221" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20197,7 +20234,7 @@
         <v>0</v>
       </c>
       <c r="Z221" s="28" t="s">
-        <v>765</v>
+        <v>685</v>
       </c>
     </row>
     <row r="222" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20272,7 +20309,7 @@
         <v>0</v>
       </c>
       <c r="Z222" s="28" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="223" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20347,7 +20384,7 @@
         <v>0</v>
       </c>
       <c r="Z223" s="28" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="224" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20422,7 +20459,7 @@
         <v>0</v>
       </c>
       <c r="Z224" s="28" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="225" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20497,7 +20534,7 @@
         <v>0</v>
       </c>
       <c r="Z225" s="28" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="226" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20572,7 +20609,7 @@
         <v>0</v>
       </c>
       <c r="Z226" s="28" t="s">
-        <v>767</v>
+        <v>687</v>
       </c>
     </row>
     <row r="227" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20647,7 +20684,7 @@
         <v>0</v>
       </c>
       <c r="Z227" s="28" t="s">
-        <v>768</v>
+        <v>688</v>
       </c>
     </row>
     <row r="228" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20722,7 +20759,7 @@
         <v>0</v>
       </c>
       <c r="Z228" s="28" t="s">
-        <v>768</v>
+        <v>688</v>
       </c>
     </row>
     <row r="229" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20797,7 +20834,7 @@
         <v>0</v>
       </c>
       <c r="Z229" s="28" t="s">
-        <v>768</v>
+        <v>688</v>
       </c>
     </row>
     <row r="230" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20872,7 +20909,7 @@
         <v>0</v>
       </c>
       <c r="Z230" s="28" t="s">
-        <v>768</v>
+        <v>688</v>
       </c>
     </row>
     <row r="231" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20947,7 +20984,7 @@
         <v>0</v>
       </c>
       <c r="Z231" s="28" t="s">
-        <v>769</v>
+        <v>689</v>
       </c>
     </row>
     <row r="232" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21022,7 +21059,7 @@
         <v>0</v>
       </c>
       <c r="Z232" s="28" t="s">
-        <v>770</v>
+        <v>690</v>
       </c>
     </row>
     <row r="233" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21097,7 +21134,7 @@
         <v>0</v>
       </c>
       <c r="Z233" s="28" t="s">
-        <v>770</v>
+        <v>690</v>
       </c>
     </row>
     <row r="234" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21172,7 +21209,7 @@
         <v>0</v>
       </c>
       <c r="Z234" s="28" t="s">
-        <v>770</v>
+        <v>690</v>
       </c>
     </row>
     <row r="235" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21247,7 +21284,7 @@
         <v>0</v>
       </c>
       <c r="Z235" s="28" t="s">
-        <v>770</v>
+        <v>690</v>
       </c>
     </row>
     <row r="236" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21322,7 +21359,7 @@
         <v>0</v>
       </c>
       <c r="Z236" s="28" t="s">
-        <v>771</v>
+        <v>691</v>
       </c>
     </row>
     <row r="237" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21397,7 +21434,7 @@
         <v>0</v>
       </c>
       <c r="Z237" s="28" t="s">
-        <v>772</v>
+        <v>692</v>
       </c>
     </row>
     <row r="238" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21472,7 +21509,7 @@
         <v>0</v>
       </c>
       <c r="Z238" s="28" t="s">
-        <v>772</v>
+        <v>692</v>
       </c>
     </row>
     <row r="239" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21547,7 +21584,7 @@
         <v>0</v>
       </c>
       <c r="Z239" s="28" t="s">
-        <v>772</v>
+        <v>692</v>
       </c>
     </row>
     <row r="240" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21622,7 +21659,7 @@
         <v>0</v>
       </c>
       <c r="Z240" s="28" t="s">
-        <v>772</v>
+        <v>692</v>
       </c>
     </row>
     <row r="241" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21697,7 +21734,7 @@
         <v>0</v>
       </c>
       <c r="Z241" s="28" t="s">
-        <v>773</v>
+        <v>693</v>
       </c>
     </row>
     <row r="242" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21705,7 +21742,7 @@
         <v>200602</v>
       </c>
       <c r="D242" s="45" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E242" s="16">
         <v>3</v>
@@ -21771,7 +21808,7 @@
         <v>0</v>
       </c>
       <c r="Z242" s="28" t="s">
-        <v>774</v>
+        <v>694</v>
       </c>
     </row>
     <row r="243" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21779,7 +21816,7 @@
         <v>200603</v>
       </c>
       <c r="D243" s="46" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E243" s="16">
         <v>3</v>
@@ -21845,7 +21882,7 @@
         <v>0</v>
       </c>
       <c r="Z243" s="28" t="s">
-        <v>722</v>
+        <v>673</v>
       </c>
     </row>
     <row r="244" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21853,7 +21890,7 @@
         <v>200604</v>
       </c>
       <c r="D244" s="46" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E244" s="16">
         <v>3</v>
@@ -21919,7 +21956,7 @@
         <v>0</v>
       </c>
       <c r="Z244" s="28" t="s">
-        <v>722</v>
+        <v>673</v>
       </c>
     </row>
     <row r="245" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21993,7 +22030,7 @@
         <v>0</v>
       </c>
       <c r="Z245" s="28" t="s">
-        <v>775</v>
+        <v>695</v>
       </c>
     </row>
     <row r="246" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22067,7 +22104,7 @@
         <v>0</v>
       </c>
       <c r="Z246" s="28" t="s">
-        <v>776</v>
+        <v>696</v>
       </c>
     </row>
     <row r="247" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22141,7 +22178,7 @@
         <v>0</v>
       </c>
       <c r="Z247" s="28" t="s">
-        <v>777</v>
+        <v>697</v>
       </c>
     </row>
     <row r="248" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22215,7 +22252,7 @@
         <v>0</v>
       </c>
       <c r="Z248" s="28" t="s">
-        <v>777</v>
+        <v>697</v>
       </c>
     </row>
     <row r="249" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22289,7 +22326,7 @@
         <v>0</v>
       </c>
       <c r="Z249" s="28" t="s">
-        <v>777</v>
+        <v>697</v>
       </c>
     </row>
     <row r="250" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22363,7 +22400,7 @@
         <v>0</v>
       </c>
       <c r="Z250" s="28" t="s">
-        <v>754</v>
+        <v>674</v>
       </c>
     </row>
     <row r="251" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22437,7 +22474,7 @@
         <v>0</v>
       </c>
       <c r="Z251" s="28" t="s">
-        <v>754</v>
+        <v>674</v>
       </c>
     </row>
     <row r="252" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22511,7 +22548,7 @@
         <v>0</v>
       </c>
       <c r="Z252" s="28" t="s">
-        <v>754</v>
+        <v>674</v>
       </c>
     </row>
     <row r="253" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25778,7 +25815,7 @@
         <v>347</v>
       </c>
       <c r="E297" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F297" s="37">
         <v>15601001</v>
@@ -25841,7 +25878,7 @@
         <v>1000000</v>
       </c>
       <c r="Z297" s="6" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
     </row>
     <row r="298" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25852,7 +25889,7 @@
         <v>348</v>
       </c>
       <c r="E298" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F298" s="37">
         <v>15601002</v>
@@ -25915,7 +25952,7 @@
         <v>1000000</v>
       </c>
       <c r="Z298" s="6" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
     </row>
     <row r="299" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25926,7 +25963,7 @@
         <v>349</v>
       </c>
       <c r="E299" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F299" s="37">
         <v>15601003</v>
@@ -25989,7 +26026,7 @@
         <v>1000000</v>
       </c>
       <c r="Z299" s="6" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
     </row>
     <row r="300" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26000,7 +26037,7 @@
         <v>350</v>
       </c>
       <c r="E300" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F300" s="37">
         <v>15602001</v>
@@ -26063,7 +26100,7 @@
         <v>1000000</v>
       </c>
       <c r="Z300" s="6" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
     </row>
     <row r="301" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26074,7 +26111,7 @@
         <v>351</v>
       </c>
       <c r="E301" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F301" s="37">
         <v>15602002</v>
@@ -26137,7 +26174,7 @@
         <v>1000000</v>
       </c>
       <c r="Z301" s="6" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
     </row>
     <row r="302" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26148,7 +26185,7 @@
         <v>352</v>
       </c>
       <c r="E302" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F302" s="37">
         <v>15602003</v>
@@ -26211,7 +26248,7 @@
         <v>1000000</v>
       </c>
       <c r="Z302" s="6" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
     </row>
     <row r="303" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26222,7 +26259,7 @@
         <v>353</v>
       </c>
       <c r="E303" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F303" s="37">
         <v>15603001</v>
@@ -26285,7 +26322,7 @@
         <v>1000000</v>
       </c>
       <c r="Z303" s="6" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
     </row>
     <row r="304" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26296,7 +26333,7 @@
         <v>354</v>
       </c>
       <c r="E304" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F304" s="37">
         <v>15603002</v>
@@ -26359,7 +26396,7 @@
         <v>1000000</v>
       </c>
       <c r="Z304" s="6" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
     </row>
     <row r="305" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26370,7 +26407,7 @@
         <v>355</v>
       </c>
       <c r="E305" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F305" s="37">
         <v>15603003</v>
@@ -26433,7 +26470,7 @@
         <v>1000000</v>
       </c>
       <c r="Z305" s="6" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
     </row>
     <row r="306" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26444,7 +26481,7 @@
         <v>356</v>
       </c>
       <c r="E306" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F306" s="37">
         <v>15604001</v>
@@ -26507,7 +26544,7 @@
         <v>1000000</v>
       </c>
       <c r="Z306" s="6" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
     </row>
     <row r="307" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26518,7 +26555,7 @@
         <v>357</v>
       </c>
       <c r="E307" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F307" s="37">
         <v>15604002</v>
@@ -26581,7 +26618,7 @@
         <v>1000000</v>
       </c>
       <c r="Z307" s="6" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
     </row>
     <row r="308" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26592,7 +26629,7 @@
         <v>358</v>
       </c>
       <c r="E308" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F308" s="37">
         <v>15604003</v>
@@ -26655,7 +26692,7 @@
         <v>1000000</v>
       </c>
       <c r="Z308" s="6" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
     </row>
     <row r="309" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26666,7 +26703,7 @@
         <v>359</v>
       </c>
       <c r="E309" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F309" s="37">
         <v>15605001</v>
@@ -26729,7 +26766,7 @@
         <v>1000000</v>
       </c>
       <c r="Z309" s="6" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
     </row>
     <row r="310" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26740,7 +26777,7 @@
         <v>360</v>
       </c>
       <c r="E310" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F310" s="37">
         <v>15605002</v>
@@ -26803,7 +26840,7 @@
         <v>1000000</v>
       </c>
       <c r="Z310" s="6" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
     </row>
     <row r="311" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26814,7 +26851,7 @@
         <v>361</v>
       </c>
       <c r="E311" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F311" s="37">
         <v>15605003</v>
@@ -26877,7 +26914,7 @@
         <v>1000000</v>
       </c>
       <c r="Z311" s="6" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
     </row>
     <row r="312" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26888,7 +26925,7 @@
         <v>362</v>
       </c>
       <c r="E312" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F312" s="37">
         <v>15606001</v>
@@ -26951,7 +26988,7 @@
         <v>1000000</v>
       </c>
       <c r="Z312" s="6" t="s">
-        <v>724</v>
+        <v>744</v>
       </c>
     </row>
     <row r="313" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26962,7 +26999,7 @@
         <v>363</v>
       </c>
       <c r="E313" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F313" s="37">
         <v>15607001</v>
@@ -27025,7 +27062,7 @@
         <v>1000000</v>
       </c>
       <c r="Z313" s="6" t="s">
-        <v>724</v>
+        <v>744</v>
       </c>
     </row>
     <row r="314" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27036,7 +27073,7 @@
         <v>364</v>
       </c>
       <c r="E314" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F314" s="37">
         <v>15608001</v>
@@ -27099,7 +27136,7 @@
         <v>1000000</v>
       </c>
       <c r="Z314" s="6" t="s">
-        <v>724</v>
+        <v>744</v>
       </c>
     </row>
     <row r="315" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27110,7 +27147,7 @@
         <v>365</v>
       </c>
       <c r="E315" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F315" s="37">
         <v>15609001</v>
@@ -27173,7 +27210,7 @@
         <v>1000000</v>
       </c>
       <c r="Z315" s="6" t="s">
-        <v>724</v>
+        <v>744</v>
       </c>
     </row>
     <row r="316" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27184,7 +27221,7 @@
         <v>366</v>
       </c>
       <c r="E316" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F316" s="37">
         <v>15610001</v>
@@ -27247,7 +27284,7 @@
         <v>1000000</v>
       </c>
       <c r="Z316" s="6" t="s">
-        <v>725</v>
+        <v>745</v>
       </c>
     </row>
     <row r="317" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27258,7 +27295,7 @@
         <v>367</v>
       </c>
       <c r="E317" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F317" s="37">
         <v>15610002</v>
@@ -27321,7 +27358,7 @@
         <v>1000000</v>
       </c>
       <c r="Z317" s="6" t="s">
-        <v>725</v>
+        <v>745</v>
       </c>
     </row>
     <row r="318" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27332,7 +27369,7 @@
         <v>368</v>
       </c>
       <c r="E318" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F318" s="18">
         <v>15610101</v>
@@ -27395,7 +27432,7 @@
         <v>1000000</v>
       </c>
       <c r="Z318" s="6" t="s">
-        <v>725</v>
+        <v>745</v>
       </c>
     </row>
     <row r="319" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27406,7 +27443,7 @@
         <v>369</v>
       </c>
       <c r="E319" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F319" s="18">
         <v>15610102</v>
@@ -27469,7 +27506,7 @@
         <v>1000000</v>
       </c>
       <c r="Z319" s="6" t="s">
-        <v>725</v>
+        <v>745</v>
       </c>
     </row>
     <row r="320" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27480,7 +27517,7 @@
         <v>370</v>
       </c>
       <c r="E320" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F320" s="37">
         <v>15611001</v>
@@ -27543,7 +27580,7 @@
         <v>1000000</v>
       </c>
       <c r="Z320" s="6" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
     </row>
     <row r="321" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27554,7 +27591,7 @@
         <v>371</v>
       </c>
       <c r="E321" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F321" s="37">
         <v>15611002</v>
@@ -27617,7 +27654,7 @@
         <v>1000000</v>
       </c>
       <c r="Z321" s="6" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
     </row>
     <row r="322" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27628,7 +27665,7 @@
         <v>372</v>
       </c>
       <c r="E322" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F322" s="37">
         <v>15611003</v>
@@ -27691,7 +27728,7 @@
         <v>1000000</v>
       </c>
       <c r="Z322" s="6" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
     </row>
     <row r="323" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27699,10 +27736,10 @@
         <v>5000101</v>
       </c>
       <c r="D323" s="37" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E323" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F323" s="37">
         <v>15610201</v>
@@ -27765,7 +27802,7 @@
         <v>1000000</v>
       </c>
       <c r="Z323" s="6" t="s">
-        <v>725</v>
+        <v>745</v>
       </c>
     </row>
     <row r="324" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27839,7 +27876,7 @@
         <v>50000</v>
       </c>
       <c r="Z324" s="6" t="s">
-        <v>374</v>
+        <v>816</v>
       </c>
     </row>
     <row r="325" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27847,7 +27884,7 @@
         <v>5001002</v>
       </c>
       <c r="D325" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E325" s="6">
         <v>5</v>
@@ -27913,7 +27950,7 @@
         <v>100000</v>
       </c>
       <c r="Z325" s="6" t="s">
-        <v>376</v>
+        <v>817</v>
       </c>
     </row>
     <row r="326" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27921,7 +27958,7 @@
         <v>5001003</v>
       </c>
       <c r="D326" s="38" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E326" s="6">
         <v>5</v>
@@ -27987,7 +28024,7 @@
         <v>300000</v>
       </c>
       <c r="Z326" s="6" t="s">
-        <v>378</v>
+        <v>818</v>
       </c>
     </row>
     <row r="327" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27995,10 +28032,10 @@
         <v>5001004</v>
       </c>
       <c r="D327" s="38" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E327" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F327" s="13">
         <v>1140010</v>
@@ -28061,7 +28098,7 @@
         <v>300000</v>
       </c>
       <c r="Z327" s="6" t="s">
-        <v>557</v>
+        <v>819</v>
       </c>
     </row>
     <row r="328" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28135,7 +28172,7 @@
         <v>0</v>
       </c>
       <c r="Z328" s="39" t="s">
-        <v>727</v>
+        <v>747</v>
       </c>
     </row>
     <row r="329" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28209,7 +28246,7 @@
         <v>0</v>
       </c>
       <c r="Z329" s="39" t="s">
-        <v>728</v>
+        <v>748</v>
       </c>
     </row>
     <row r="330" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28283,7 +28320,7 @@
         <v>0</v>
       </c>
       <c r="Z330" s="39" t="s">
-        <v>729</v>
+        <v>749</v>
       </c>
     </row>
     <row r="331" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28357,7 +28394,7 @@
         <v>0</v>
       </c>
       <c r="Z331" s="39" t="s">
-        <v>730</v>
+        <v>750</v>
       </c>
     </row>
     <row r="332" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28431,7 +28468,7 @@
         <v>0</v>
       </c>
       <c r="Z332" s="39" t="s">
-        <v>731</v>
+        <v>751</v>
       </c>
     </row>
     <row r="333" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28505,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="Z333" s="39" t="s">
-        <v>732</v>
+        <v>752</v>
       </c>
     </row>
     <row r="334" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28579,7 +28616,7 @@
         <v>0</v>
       </c>
       <c r="Z334" s="39" t="s">
-        <v>733</v>
+        <v>753</v>
       </c>
     </row>
     <row r="335" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28653,7 +28690,7 @@
         <v>0</v>
       </c>
       <c r="Z335" s="39" t="s">
-        <v>734</v>
+        <v>754</v>
       </c>
     </row>
     <row r="336" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28727,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Z336" s="39" t="s">
-        <v>735</v>
+        <v>755</v>
       </c>
     </row>
     <row r="337" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28801,7 +28838,7 @@
         <v>0</v>
       </c>
       <c r="Z337" s="39" t="s">
-        <v>736</v>
+        <v>756</v>
       </c>
     </row>
     <row r="338" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28875,7 +28912,7 @@
         <v>0</v>
       </c>
       <c r="Z338" s="39" t="s">
-        <v>737</v>
+        <v>757</v>
       </c>
     </row>
     <row r="339" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28949,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="Z339" s="39" t="s">
-        <v>738</v>
+        <v>758</v>
       </c>
     </row>
     <row r="340" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29023,7 +29060,7 @@
         <v>0</v>
       </c>
       <c r="Z340" s="39" t="s">
-        <v>739</v>
+        <v>759</v>
       </c>
     </row>
     <row r="341" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29097,7 +29134,7 @@
         <v>0</v>
       </c>
       <c r="Z341" s="39" t="s">
-        <v>740</v>
+        <v>760</v>
       </c>
     </row>
     <row r="342" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29171,7 +29208,7 @@
         <v>0</v>
       </c>
       <c r="Z342" s="39" t="s">
-        <v>741</v>
+        <v>761</v>
       </c>
     </row>
     <row r="343" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29245,7 +29282,7 @@
         <v>0</v>
       </c>
       <c r="Z343" s="39" t="s">
-        <v>742</v>
+        <v>762</v>
       </c>
     </row>
     <row r="344" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29319,7 +29356,7 @@
         <v>0</v>
       </c>
       <c r="Z344" s="39" t="s">
-        <v>743</v>
+        <v>763</v>
       </c>
     </row>
     <row r="345" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29393,7 +29430,7 @@
         <v>0</v>
       </c>
       <c r="Z345" s="39" t="s">
-        <v>744</v>
+        <v>764</v>
       </c>
     </row>
     <row r="346" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29467,7 +29504,7 @@
         <v>0</v>
       </c>
       <c r="Z346" s="39" t="s">
-        <v>745</v>
+        <v>765</v>
       </c>
     </row>
     <row r="347" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29541,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Z347" s="39" t="s">
-        <v>746</v>
+        <v>766</v>
       </c>
     </row>
     <row r="348" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29615,7 +29652,7 @@
         <v>0</v>
       </c>
       <c r="Z348" s="39" t="s">
-        <v>747</v>
+        <v>767</v>
       </c>
     </row>
     <row r="349" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29689,7 +29726,7 @@
         <v>0</v>
       </c>
       <c r="Z349" s="39" t="s">
-        <v>748</v>
+        <v>768</v>
       </c>
     </row>
     <row r="350" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29763,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="Z350" s="39" t="s">
-        <v>749</v>
+        <v>769</v>
       </c>
     </row>
     <row r="351" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29837,7 +29874,7 @@
         <v>0</v>
       </c>
       <c r="Z351" s="39" t="s">
-        <v>750</v>
+        <v>770</v>
       </c>
     </row>
     <row r="352" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29911,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="Z352" s="39" t="s">
-        <v>751</v>
+        <v>771</v>
       </c>
     </row>
     <row r="353" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29985,7 +30022,7 @@
         <v>0</v>
       </c>
       <c r="Z353" s="39" t="s">
-        <v>752</v>
+        <v>772</v>
       </c>
     </row>
     <row r="354" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29993,7 +30030,7 @@
         <v>5002101</v>
       </c>
       <c r="D354" s="18" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E354" s="7">
         <v>0</v>
@@ -30059,7 +30096,7 @@
         <v>0</v>
       </c>
       <c r="Z354" s="39" t="s">
-        <v>753</v>
+        <v>773</v>
       </c>
     </row>
     <row r="355" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30067,7 +30104,7 @@
         <v>6101001</v>
       </c>
       <c r="D355" s="41" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E355" s="6">
         <v>6</v>
@@ -30134,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="Z355" s="42" t="s">
-        <v>781</v>
+        <v>701</v>
       </c>
     </row>
     <row r="356" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30142,7 +30179,7 @@
         <v>6101002</v>
       </c>
       <c r="D356" s="41" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E356" s="6">
         <v>6</v>
@@ -30209,7 +30246,7 @@
         <v>0</v>
       </c>
       <c r="Z356" s="42" t="s">
-        <v>812</v>
+        <v>732</v>
       </c>
     </row>
     <row r="357" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30217,7 +30254,7 @@
         <v>6101003</v>
       </c>
       <c r="D357" s="41" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E357" s="6">
         <v>6</v>
@@ -30283,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="Z357" s="42" t="s">
-        <v>782</v>
+        <v>702</v>
       </c>
     </row>
     <row r="358" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30292,7 +30329,7 @@
         <v>6102001</v>
       </c>
       <c r="D358" s="41" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E358" s="6">
         <v>6</v>
@@ -30359,7 +30396,7 @@
         <v>0</v>
       </c>
       <c r="Z358" s="42" t="s">
-        <v>781</v>
+        <v>701</v>
       </c>
     </row>
     <row r="359" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30368,7 +30405,7 @@
         <v>6102002</v>
       </c>
       <c r="D359" s="41" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E359" s="6">
         <v>6</v>
@@ -30435,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="Z359" s="42" t="s">
-        <v>783</v>
+        <v>703</v>
       </c>
     </row>
     <row r="360" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30444,7 +30481,7 @@
         <v>6102003</v>
       </c>
       <c r="D360" s="41" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E360" s="6">
         <v>6</v>
@@ -30510,7 +30547,7 @@
         <v>0</v>
       </c>
       <c r="Z360" s="42" t="s">
-        <v>784</v>
+        <v>704</v>
       </c>
     </row>
     <row r="361" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30519,7 +30556,7 @@
         <v>6103001</v>
       </c>
       <c r="D361" s="41" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E361" s="6">
         <v>6</v>
@@ -30586,7 +30623,7 @@
         <v>0</v>
       </c>
       <c r="Z361" s="42" t="s">
-        <v>813</v>
+        <v>733</v>
       </c>
     </row>
     <row r="362" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30595,7 +30632,7 @@
         <v>6103002</v>
       </c>
       <c r="D362" s="41" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E362" s="6">
         <v>6</v>
@@ -30662,7 +30699,7 @@
         <v>0</v>
       </c>
       <c r="Z362" s="42" t="s">
-        <v>785</v>
+        <v>705</v>
       </c>
     </row>
     <row r="363" spans="3:26" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -30671,7 +30708,7 @@
         <v>6103003</v>
       </c>
       <c r="D363" s="41" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E363" s="6">
         <v>6</v>
@@ -30737,7 +30774,7 @@
         <v>0</v>
       </c>
       <c r="Z363" s="42" t="s">
-        <v>786</v>
+        <v>706</v>
       </c>
     </row>
     <row r="364" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30745,7 +30782,7 @@
         <v>6104001</v>
       </c>
       <c r="D364" s="41" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E364" s="6">
         <v>6</v>
@@ -30812,7 +30849,7 @@
         <v>0</v>
       </c>
       <c r="Z364" s="42" t="s">
-        <v>787</v>
+        <v>707</v>
       </c>
     </row>
     <row r="365" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30820,7 +30857,7 @@
         <v>6104002</v>
       </c>
       <c r="D365" s="41" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E365" s="6">
         <v>6</v>
@@ -30887,7 +30924,7 @@
         <v>0</v>
       </c>
       <c r="Z365" s="42" t="s">
-        <v>783</v>
+        <v>703</v>
       </c>
     </row>
     <row r="366" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30895,7 +30932,7 @@
         <v>6104003</v>
       </c>
       <c r="D366" s="41" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E366" s="6">
         <v>6</v>
@@ -30962,7 +30999,7 @@
         <v>0</v>
       </c>
       <c r="Z366" s="42" t="s">
-        <v>788</v>
+        <v>708</v>
       </c>
     </row>
     <row r="367" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30970,7 +31007,7 @@
         <v>6104004</v>
       </c>
       <c r="D367" s="41" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E367" s="6">
         <v>6</v>
@@ -31036,7 +31073,7 @@
         <v>0</v>
       </c>
       <c r="Z367" s="42" t="s">
-        <v>786</v>
+        <v>706</v>
       </c>
     </row>
     <row r="368" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31044,7 +31081,7 @@
         <v>6105001</v>
       </c>
       <c r="D368" s="41" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E368" s="6">
         <v>6</v>
@@ -31111,7 +31148,7 @@
         <v>0</v>
       </c>
       <c r="Z368" s="42" t="s">
-        <v>787</v>
+        <v>707</v>
       </c>
     </row>
     <row r="369" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31119,7 +31156,7 @@
         <v>6105002</v>
       </c>
       <c r="D369" s="41" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E369" s="6">
         <v>6</v>
@@ -31186,7 +31223,7 @@
         <v>0</v>
       </c>
       <c r="Z369" s="42" t="s">
-        <v>783</v>
+        <v>703</v>
       </c>
     </row>
     <row r="370" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31194,7 +31231,7 @@
         <v>6105003</v>
       </c>
       <c r="D370" s="41" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E370" s="6">
         <v>6</v>
@@ -31261,7 +31298,7 @@
         <v>0</v>
       </c>
       <c r="Z370" s="42" t="s">
-        <v>788</v>
+        <v>708</v>
       </c>
     </row>
     <row r="371" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31269,7 +31306,7 @@
         <v>6105004</v>
       </c>
       <c r="D371" s="41" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E371" s="6">
         <v>6</v>
@@ -31335,7 +31372,7 @@
         <v>0</v>
       </c>
       <c r="Z371" s="42" t="s">
-        <v>786</v>
+        <v>706</v>
       </c>
     </row>
     <row r="372" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31343,7 +31380,7 @@
         <v>6106001</v>
       </c>
       <c r="D372" s="41" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E372" s="6">
         <v>6</v>
@@ -31410,7 +31447,7 @@
         <v>0</v>
       </c>
       <c r="Z372" s="42" t="s">
-        <v>789</v>
+        <v>709</v>
       </c>
     </row>
     <row r="373" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31418,7 +31455,7 @@
         <v>6106002</v>
       </c>
       <c r="D373" s="41" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E373" s="6">
         <v>6</v>
@@ -31485,7 +31522,7 @@
         <v>0</v>
       </c>
       <c r="Z373" s="42" t="s">
-        <v>785</v>
+        <v>705</v>
       </c>
     </row>
     <row r="374" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31493,7 +31530,7 @@
         <v>6106003</v>
       </c>
       <c r="D374" s="41" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E374" s="6">
         <v>6</v>
@@ -31559,7 +31596,7 @@
         <v>0</v>
       </c>
       <c r="Z374" s="42" t="s">
-        <v>786</v>
+        <v>706</v>
       </c>
     </row>
     <row r="375" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31567,7 +31604,7 @@
         <v>6201001</v>
       </c>
       <c r="D375" s="41" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E375" s="6">
         <v>6</v>
@@ -31633,7 +31670,7 @@
         <v>0</v>
       </c>
       <c r="Z375" s="42" t="s">
-        <v>790</v>
+        <v>710</v>
       </c>
     </row>
     <row r="376" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31641,7 +31678,7 @@
         <v>6201002</v>
       </c>
       <c r="D376" s="41" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E376" s="6">
         <v>6</v>
@@ -31707,7 +31744,7 @@
         <v>0</v>
       </c>
       <c r="Z376" s="42" t="s">
-        <v>814</v>
+        <v>734</v>
       </c>
     </row>
     <row r="377" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31715,7 +31752,7 @@
         <v>6201003</v>
       </c>
       <c r="D377" s="41" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E377" s="6">
         <v>6</v>
@@ -31781,7 +31818,7 @@
         <v>0</v>
       </c>
       <c r="Z377" s="42" t="s">
-        <v>791</v>
+        <v>711</v>
       </c>
     </row>
     <row r="378" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31789,7 +31826,7 @@
         <v>6202001</v>
       </c>
       <c r="D378" s="41" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E378" s="6">
         <v>6</v>
@@ -31855,7 +31892,7 @@
         <v>0</v>
       </c>
       <c r="Z378" s="42" t="s">
-        <v>790</v>
+        <v>710</v>
       </c>
     </row>
     <row r="379" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31863,7 +31900,7 @@
         <v>6202002</v>
       </c>
       <c r="D379" s="41" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E379" s="6">
         <v>6</v>
@@ -31929,7 +31966,7 @@
         <v>0</v>
       </c>
       <c r="Z379" s="42" t="s">
-        <v>792</v>
+        <v>712</v>
       </c>
     </row>
     <row r="380" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31937,7 +31974,7 @@
         <v>6202003</v>
       </c>
       <c r="D380" s="41" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E380" s="6">
         <v>6</v>
@@ -32003,7 +32040,7 @@
         <v>0</v>
       </c>
       <c r="Z380" s="42" t="s">
-        <v>793</v>
+        <v>713</v>
       </c>
     </row>
     <row r="381" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32011,7 +32048,7 @@
         <v>6203001</v>
       </c>
       <c r="D381" s="41" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E381" s="6">
         <v>6</v>
@@ -32077,7 +32114,7 @@
         <v>0</v>
       </c>
       <c r="Z381" s="42" t="s">
-        <v>815</v>
+        <v>735</v>
       </c>
     </row>
     <row r="382" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32085,7 +32122,7 @@
         <v>6203002</v>
       </c>
       <c r="D382" s="41" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E382" s="6">
         <v>6</v>
@@ -32151,7 +32188,7 @@
         <v>0</v>
       </c>
       <c r="Z382" s="42" t="s">
-        <v>794</v>
+        <v>714</v>
       </c>
     </row>
     <row r="383" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32159,7 +32196,7 @@
         <v>6203003</v>
       </c>
       <c r="D383" s="41" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E383" s="6">
         <v>6</v>
@@ -32225,7 +32262,7 @@
         <v>0</v>
       </c>
       <c r="Z383" s="42" t="s">
-        <v>795</v>
+        <v>715</v>
       </c>
     </row>
     <row r="384" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32233,7 +32270,7 @@
         <v>6204001</v>
       </c>
       <c r="D384" s="41" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E384" s="6">
         <v>6</v>
@@ -32299,7 +32336,7 @@
         <v>0</v>
       </c>
       <c r="Z384" s="42" t="s">
-        <v>796</v>
+        <v>716</v>
       </c>
     </row>
     <row r="385" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32307,7 +32344,7 @@
         <v>6204002</v>
       </c>
       <c r="D385" s="41" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E385" s="6">
         <v>6</v>
@@ -32373,7 +32410,7 @@
         <v>0</v>
       </c>
       <c r="Z385" s="42" t="s">
-        <v>792</v>
+        <v>712</v>
       </c>
     </row>
     <row r="386" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32381,7 +32418,7 @@
         <v>6204003</v>
       </c>
       <c r="D386" s="41" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E386" s="6">
         <v>6</v>
@@ -32447,7 +32484,7 @@
         <v>0</v>
       </c>
       <c r="Z386" s="42" t="s">
-        <v>797</v>
+        <v>717</v>
       </c>
     </row>
     <row r="387" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32455,7 +32492,7 @@
         <v>6204004</v>
       </c>
       <c r="D387" s="41" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E387" s="6">
         <v>6</v>
@@ -32521,7 +32558,7 @@
         <v>0</v>
       </c>
       <c r="Z387" s="42" t="s">
-        <v>795</v>
+        <v>715</v>
       </c>
     </row>
     <row r="388" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32529,7 +32566,7 @@
         <v>6205001</v>
       </c>
       <c r="D388" s="41" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E388" s="6">
         <v>6</v>
@@ -32595,7 +32632,7 @@
         <v>0</v>
       </c>
       <c r="Z388" s="42" t="s">
-        <v>796</v>
+        <v>716</v>
       </c>
     </row>
     <row r="389" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32603,7 +32640,7 @@
         <v>6205002</v>
       </c>
       <c r="D389" s="41" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E389" s="6">
         <v>6</v>
@@ -32669,7 +32706,7 @@
         <v>0</v>
       </c>
       <c r="Z389" s="42" t="s">
-        <v>792</v>
+        <v>712</v>
       </c>
     </row>
     <row r="390" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32677,7 +32714,7 @@
         <v>6205003</v>
       </c>
       <c r="D390" s="41" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E390" s="6">
         <v>6</v>
@@ -32743,7 +32780,7 @@
         <v>0</v>
       </c>
       <c r="Z390" s="42" t="s">
-        <v>797</v>
+        <v>717</v>
       </c>
     </row>
     <row r="391" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32751,7 +32788,7 @@
         <v>6205004</v>
       </c>
       <c r="D391" s="41" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E391" s="6">
         <v>6</v>
@@ -32817,7 +32854,7 @@
         <v>0</v>
       </c>
       <c r="Z391" s="42" t="s">
-        <v>795</v>
+        <v>715</v>
       </c>
     </row>
     <row r="392" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32825,7 +32862,7 @@
         <v>6206001</v>
       </c>
       <c r="D392" s="41" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E392" s="6">
         <v>6</v>
@@ -32891,7 +32928,7 @@
         <v>0</v>
       </c>
       <c r="Z392" s="42" t="s">
-        <v>798</v>
+        <v>718</v>
       </c>
     </row>
     <row r="393" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32899,7 +32936,7 @@
         <v>6206002</v>
       </c>
       <c r="D393" s="41" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E393" s="6">
         <v>6</v>
@@ -32965,7 +33002,7 @@
         <v>0</v>
       </c>
       <c r="Z393" s="42" t="s">
-        <v>797</v>
+        <v>717</v>
       </c>
     </row>
     <row r="394" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32973,7 +33010,7 @@
         <v>6206003</v>
       </c>
       <c r="D394" s="41" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E394" s="6">
         <v>6</v>
@@ -33039,7 +33076,7 @@
         <v>0</v>
       </c>
       <c r="Z394" s="42" t="s">
-        <v>795</v>
+        <v>715</v>
       </c>
     </row>
     <row r="395" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33047,7 +33084,7 @@
         <v>6301001</v>
       </c>
       <c r="D395" s="41" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E395" s="6">
         <v>6</v>
@@ -33114,7 +33151,7 @@
         <v>0</v>
       </c>
       <c r="Z395" s="42" t="s">
-        <v>799</v>
+        <v>719</v>
       </c>
     </row>
     <row r="396" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33122,7 +33159,7 @@
         <v>6301002</v>
       </c>
       <c r="D396" s="41" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E396" s="6">
         <v>6</v>
@@ -33189,7 +33226,7 @@
         <v>0</v>
       </c>
       <c r="Z396" s="42" t="s">
-        <v>816</v>
+        <v>736</v>
       </c>
     </row>
     <row r="397" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33197,7 +33234,7 @@
         <v>6301003</v>
       </c>
       <c r="D397" s="41" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E397" s="6">
         <v>6</v>
@@ -33264,7 +33301,7 @@
         <v>0</v>
       </c>
       <c r="Z397" s="42" t="s">
-        <v>800</v>
+        <v>720</v>
       </c>
     </row>
     <row r="398" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33272,7 +33309,7 @@
         <v>6302001</v>
       </c>
       <c r="D398" s="41" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E398" s="6">
         <v>6</v>
@@ -33339,7 +33376,7 @@
         <v>0</v>
       </c>
       <c r="Z398" s="42" t="s">
-        <v>799</v>
+        <v>719</v>
       </c>
     </row>
     <row r="399" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33347,7 +33384,7 @@
         <v>6302002</v>
       </c>
       <c r="D399" s="41" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E399" s="6">
         <v>6</v>
@@ -33413,7 +33450,7 @@
         <v>0</v>
       </c>
       <c r="Z399" s="42" t="s">
-        <v>801</v>
+        <v>721</v>
       </c>
     </row>
     <row r="400" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33421,7 +33458,7 @@
         <v>6302003</v>
       </c>
       <c r="D400" s="41" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E400" s="6">
         <v>6</v>
@@ -33488,7 +33525,7 @@
         <v>0</v>
       </c>
       <c r="Z400" s="42" t="s">
-        <v>802</v>
+        <v>722</v>
       </c>
     </row>
     <row r="401" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33496,7 +33533,7 @@
         <v>6303001</v>
       </c>
       <c r="D401" s="41" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E401" s="6">
         <v>6</v>
@@ -33563,7 +33600,7 @@
         <v>0</v>
       </c>
       <c r="Z401" s="42" t="s">
-        <v>817</v>
+        <v>737</v>
       </c>
     </row>
     <row r="402" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33571,7 +33608,7 @@
         <v>6303002</v>
       </c>
       <c r="D402" s="41" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E402" s="6">
         <v>6</v>
@@ -33637,7 +33674,7 @@
         <v>0</v>
       </c>
       <c r="Z402" s="42" t="s">
-        <v>803</v>
+        <v>723</v>
       </c>
     </row>
     <row r="403" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33645,7 +33682,7 @@
         <v>6303003</v>
       </c>
       <c r="D403" s="41" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E403" s="6">
         <v>6</v>
@@ -33712,7 +33749,7 @@
         <v>0</v>
       </c>
       <c r="Z403" s="42" t="s">
-        <v>804</v>
+        <v>724</v>
       </c>
     </row>
     <row r="404" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33720,7 +33757,7 @@
         <v>6304001</v>
       </c>
       <c r="D404" s="41" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E404" s="6">
         <v>6</v>
@@ -33787,7 +33824,7 @@
         <v>0</v>
       </c>
       <c r="Z404" s="42" t="s">
-        <v>805</v>
+        <v>725</v>
       </c>
     </row>
     <row r="405" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33795,7 +33832,7 @@
         <v>6304002</v>
       </c>
       <c r="D405" s="41" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E405" s="6">
         <v>6</v>
@@ -33861,7 +33898,7 @@
         <v>0</v>
       </c>
       <c r="Z405" s="42" t="s">
-        <v>801</v>
+        <v>721</v>
       </c>
     </row>
     <row r="406" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33869,7 +33906,7 @@
         <v>6304003</v>
       </c>
       <c r="D406" s="41" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E406" s="6">
         <v>6</v>
@@ -33935,7 +33972,7 @@
         <v>0</v>
       </c>
       <c r="Z406" s="42" t="s">
-        <v>806</v>
+        <v>726</v>
       </c>
     </row>
     <row r="407" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33943,7 +33980,7 @@
         <v>6304004</v>
       </c>
       <c r="D407" s="41" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E407" s="6">
         <v>6</v>
@@ -34010,7 +34047,7 @@
         <v>0</v>
       </c>
       <c r="Z407" s="42" t="s">
-        <v>804</v>
+        <v>724</v>
       </c>
     </row>
     <row r="408" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34018,7 +34055,7 @@
         <v>6305001</v>
       </c>
       <c r="D408" s="41" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E408" s="6">
         <v>6</v>
@@ -34085,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="Z408" s="42" t="s">
-        <v>805</v>
+        <v>725</v>
       </c>
     </row>
     <row r="409" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34093,7 +34130,7 @@
         <v>6305002</v>
       </c>
       <c r="D409" s="41" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E409" s="6">
         <v>6</v>
@@ -34159,7 +34196,7 @@
         <v>0</v>
       </c>
       <c r="Z409" s="42" t="s">
-        <v>801</v>
+        <v>721</v>
       </c>
     </row>
     <row r="410" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34167,7 +34204,7 @@
         <v>6305003</v>
       </c>
       <c r="D410" s="41" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E410" s="6">
         <v>6</v>
@@ -34233,7 +34270,7 @@
         <v>0</v>
       </c>
       <c r="Z410" s="42" t="s">
-        <v>806</v>
+        <v>726</v>
       </c>
     </row>
     <row r="411" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34241,7 +34278,7 @@
         <v>6305004</v>
       </c>
       <c r="D411" s="41" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E411" s="6">
         <v>6</v>
@@ -34308,7 +34345,7 @@
         <v>0</v>
       </c>
       <c r="Z411" s="42" t="s">
-        <v>804</v>
+        <v>724</v>
       </c>
     </row>
     <row r="412" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34316,7 +34353,7 @@
         <v>6306001</v>
       </c>
       <c r="D412" s="41" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E412" s="6">
         <v>6</v>
@@ -34383,7 +34420,7 @@
         <v>0</v>
       </c>
       <c r="Z412" s="42" t="s">
-        <v>807</v>
+        <v>727</v>
       </c>
     </row>
     <row r="413" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34391,7 +34428,7 @@
         <v>6306002</v>
       </c>
       <c r="D413" s="41" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E413" s="6">
         <v>6</v>
@@ -34457,7 +34494,7 @@
         <v>0</v>
       </c>
       <c r="Z413" s="42" t="s">
-        <v>803</v>
+        <v>723</v>
       </c>
     </row>
     <row r="414" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34465,7 +34502,7 @@
         <v>6306003</v>
       </c>
       <c r="D414" s="41" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E414" s="6">
         <v>6</v>
@@ -34531,7 +34568,7 @@
         <v>0</v>
       </c>
       <c r="Z414" s="42" t="s">
-        <v>804</v>
+        <v>724</v>
       </c>
     </row>
     <row r="415" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34539,7 +34576,7 @@
         <v>7101001</v>
       </c>
       <c r="D415" s="41" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E415" s="6">
         <v>1</v>
@@ -34605,7 +34642,7 @@
         <v>0</v>
       </c>
       <c r="Z415" s="42" t="s">
-        <v>755</v>
+        <v>675</v>
       </c>
     </row>
     <row r="416" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34613,7 +34650,7 @@
         <v>7101002</v>
       </c>
       <c r="D416" s="41" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E416" s="6">
         <v>1</v>
@@ -34679,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="Z416" s="8" t="s">
-        <v>755</v>
+        <v>675</v>
       </c>
     </row>
     <row r="417" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34687,7 +34724,7 @@
         <v>7101003</v>
       </c>
       <c r="D417" s="41" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E417" s="6">
         <v>1</v>
@@ -34753,7 +34790,7 @@
         <v>0</v>
       </c>
       <c r="Z417" s="8" t="s">
-        <v>755</v>
+        <v>675</v>
       </c>
     </row>
     <row r="418" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34761,7 +34798,7 @@
         <v>7101004</v>
       </c>
       <c r="D418" s="41" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E418" s="6">
         <v>1</v>
@@ -34827,7 +34864,7 @@
         <v>0</v>
       </c>
       <c r="Z418" s="8" t="s">
-        <v>755</v>
+        <v>675</v>
       </c>
     </row>
     <row r="419" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34835,7 +34872,7 @@
         <v>7102001</v>
       </c>
       <c r="D419" s="41" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E419" s="6">
         <v>1</v>
@@ -34902,7 +34939,7 @@
         <v>0</v>
       </c>
       <c r="Z419" s="8" t="s">
-        <v>756</v>
+        <v>676</v>
       </c>
     </row>
     <row r="420" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34910,7 +34947,7 @@
         <v>7102002</v>
       </c>
       <c r="D420" s="41" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E420" s="6">
         <v>1</v>
@@ -34977,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="Z420" s="8" t="s">
-        <v>756</v>
+        <v>676</v>
       </c>
     </row>
     <row r="421" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34985,7 +35022,7 @@
         <v>7102003</v>
       </c>
       <c r="D421" s="41" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E421" s="6">
         <v>1</v>
@@ -35052,7 +35089,7 @@
         <v>0</v>
       </c>
       <c r="Z421" s="8" t="s">
-        <v>756</v>
+        <v>676</v>
       </c>
     </row>
     <row r="422" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35060,7 +35097,7 @@
         <v>7102004</v>
       </c>
       <c r="D422" s="41" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E422" s="6">
         <v>1</v>
@@ -35127,7 +35164,7 @@
         <v>0</v>
       </c>
       <c r="Z422" s="8" t="s">
-        <v>756</v>
+        <v>676</v>
       </c>
     </row>
     <row r="423" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35135,7 +35172,7 @@
         <v>7103001</v>
       </c>
       <c r="D423" s="41" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E423" s="6">
         <v>1</v>
@@ -35202,7 +35239,7 @@
         <v>0</v>
       </c>
       <c r="Z423" s="8" t="s">
-        <v>757</v>
+        <v>677</v>
       </c>
     </row>
     <row r="424" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35210,7 +35247,7 @@
         <v>7103002</v>
       </c>
       <c r="D424" s="41" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E424" s="6">
         <v>1</v>
@@ -35277,7 +35314,7 @@
         <v>0</v>
       </c>
       <c r="Z424" s="8" t="s">
-        <v>757</v>
+        <v>677</v>
       </c>
     </row>
     <row r="425" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35285,7 +35322,7 @@
         <v>7103003</v>
       </c>
       <c r="D425" s="41" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E425" s="6">
         <v>1</v>
@@ -35352,7 +35389,7 @@
         <v>0</v>
       </c>
       <c r="Z425" s="8" t="s">
-        <v>757</v>
+        <v>677</v>
       </c>
     </row>
     <row r="426" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35360,7 +35397,7 @@
         <v>7103004</v>
       </c>
       <c r="D426" s="41" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E426" s="6">
         <v>1</v>
@@ -35427,7 +35464,7 @@
         <v>0</v>
       </c>
       <c r="Z426" s="8" t="s">
-        <v>757</v>
+        <v>677</v>
       </c>
     </row>
     <row r="427" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35435,7 +35472,7 @@
         <v>7201001</v>
       </c>
       <c r="D427" s="30" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E427" s="6">
         <v>2</v>
@@ -35501,7 +35538,7 @@
         <v>0</v>
       </c>
       <c r="Z427" s="8" t="s">
-        <v>758</v>
+        <v>678</v>
       </c>
     </row>
     <row r="428" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35509,7 +35546,7 @@
         <v>7201002</v>
       </c>
       <c r="D428" s="30" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E428" s="6">
         <v>2</v>
@@ -35575,7 +35612,7 @@
         <v>0</v>
       </c>
       <c r="Z428" s="8" t="s">
-        <v>758</v>
+        <v>678</v>
       </c>
     </row>
     <row r="429" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35583,7 +35620,7 @@
         <v>7201003</v>
       </c>
       <c r="D429" s="30" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E429" s="6">
         <v>2</v>
@@ -35649,7 +35686,7 @@
         <v>0</v>
       </c>
       <c r="Z429" s="8" t="s">
-        <v>758</v>
+        <v>678</v>
       </c>
     </row>
     <row r="430" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35657,7 +35694,7 @@
         <v>7201004</v>
       </c>
       <c r="D430" s="30" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E430" s="6">
         <v>2</v>
@@ -35723,7 +35760,7 @@
         <v>0</v>
       </c>
       <c r="Z430" s="8" t="s">
-        <v>758</v>
+        <v>678</v>
       </c>
     </row>
     <row r="431" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35731,7 +35768,7 @@
         <v>7202001</v>
       </c>
       <c r="D431" s="30" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E431" s="6">
         <v>2</v>
@@ -35798,7 +35835,7 @@
         <v>0</v>
       </c>
       <c r="Z431" s="8" t="s">
-        <v>759</v>
+        <v>679</v>
       </c>
     </row>
     <row r="432" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35806,7 +35843,7 @@
         <v>7202002</v>
       </c>
       <c r="D432" s="30" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E432" s="6">
         <v>2</v>
@@ -35873,7 +35910,7 @@
         <v>0</v>
       </c>
       <c r="Z432" s="8" t="s">
-        <v>759</v>
+        <v>679</v>
       </c>
     </row>
     <row r="433" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35881,7 +35918,7 @@
         <v>7202003</v>
       </c>
       <c r="D433" s="30" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E433" s="6">
         <v>2</v>
@@ -35948,7 +35985,7 @@
         <v>0</v>
       </c>
       <c r="Z433" s="8" t="s">
-        <v>759</v>
+        <v>679</v>
       </c>
     </row>
     <row r="434" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35956,7 +35993,7 @@
         <v>7202004</v>
       </c>
       <c r="D434" s="30" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E434" s="6">
         <v>2</v>
@@ -36023,7 +36060,7 @@
         <v>0</v>
       </c>
       <c r="Z434" s="8" t="s">
-        <v>759</v>
+        <v>679</v>
       </c>
     </row>
     <row r="435" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36031,7 +36068,7 @@
         <v>7203001</v>
       </c>
       <c r="D435" s="30" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E435" s="6">
         <v>2</v>
@@ -36098,7 +36135,7 @@
         <v>0</v>
       </c>
       <c r="Z435" s="8" t="s">
-        <v>760</v>
+        <v>680</v>
       </c>
     </row>
     <row r="436" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36106,7 +36143,7 @@
         <v>7203002</v>
       </c>
       <c r="D436" s="30" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E436" s="6">
         <v>2</v>
@@ -36173,7 +36210,7 @@
         <v>0</v>
       </c>
       <c r="Z436" s="8" t="s">
-        <v>760</v>
+        <v>680</v>
       </c>
     </row>
     <row r="437" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36181,7 +36218,7 @@
         <v>7203003</v>
       </c>
       <c r="D437" s="30" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E437" s="6">
         <v>2</v>
@@ -36248,7 +36285,7 @@
         <v>0</v>
       </c>
       <c r="Z437" s="8" t="s">
-        <v>760</v>
+        <v>680</v>
       </c>
     </row>
     <row r="438" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36256,7 +36293,7 @@
         <v>7203004</v>
       </c>
       <c r="D438" s="30" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E438" s="6">
         <v>2</v>
@@ -36323,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="Z438" s="8" t="s">
-        <v>760</v>
+        <v>680</v>
       </c>
     </row>
     <row r="439" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36331,7 +36368,7 @@
         <v>7204101</v>
       </c>
       <c r="D439" s="30" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E439" s="6">
         <v>2</v>
@@ -36397,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="Z439" s="8" t="s">
-        <v>761</v>
+        <v>681</v>
       </c>
     </row>
     <row r="440" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36405,7 +36442,7 @@
         <v>7204102</v>
       </c>
       <c r="D440" s="30" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E440" s="6">
         <v>2</v>
@@ -36471,7 +36508,7 @@
         <v>0</v>
       </c>
       <c r="Z440" s="8" t="s">
-        <v>762</v>
+        <v>682</v>
       </c>
     </row>
     <row r="441" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36479,7 +36516,7 @@
         <v>7204103</v>
       </c>
       <c r="D441" s="30" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E441" s="6">
         <v>2</v>
@@ -36545,7 +36582,7 @@
         <v>0</v>
       </c>
       <c r="Z441" s="8" t="s">
-        <v>763</v>
+        <v>683</v>
       </c>
     </row>
     <row r="442" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36553,7 +36590,7 @@
         <v>7204201</v>
       </c>
       <c r="D442" s="30" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E442" s="6">
         <v>2</v>
@@ -36619,7 +36656,7 @@
         <v>0</v>
       </c>
       <c r="Z442" s="8" t="s">
-        <v>761</v>
+        <v>681</v>
       </c>
     </row>
     <row r="443" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36627,7 +36664,7 @@
         <v>7204202</v>
       </c>
       <c r="D443" s="30" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E443" s="6">
         <v>2</v>
@@ -36693,7 +36730,7 @@
         <v>0</v>
       </c>
       <c r="Z443" s="8" t="s">
-        <v>762</v>
+        <v>682</v>
       </c>
     </row>
     <row r="444" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36701,7 +36738,7 @@
         <v>7204203</v>
       </c>
       <c r="D444" s="30" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E444" s="6">
         <v>2</v>
@@ -36767,7 +36804,7 @@
         <v>0</v>
       </c>
       <c r="Z444" s="8" t="s">
-        <v>763</v>
+        <v>683</v>
       </c>
     </row>
     <row r="445" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36775,7 +36812,7 @@
         <v>7204301</v>
       </c>
       <c r="D445" s="30" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E445" s="6">
         <v>2</v>
@@ -36841,7 +36878,7 @@
         <v>0</v>
       </c>
       <c r="Z445" s="8" t="s">
-        <v>761</v>
+        <v>681</v>
       </c>
     </row>
     <row r="446" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36849,7 +36886,7 @@
         <v>7204302</v>
       </c>
       <c r="D446" s="30" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E446" s="6">
         <v>2</v>
@@ -36915,7 +36952,7 @@
         <v>0</v>
       </c>
       <c r="Z446" s="8" t="s">
-        <v>762</v>
+        <v>682</v>
       </c>
     </row>
     <row r="447" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36923,7 +36960,7 @@
         <v>7204303</v>
       </c>
       <c r="D447" s="30" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E447" s="6">
         <v>2</v>
@@ -36989,7 +37026,7 @@
         <v>0</v>
       </c>
       <c r="Z447" s="8" t="s">
-        <v>763</v>
+        <v>683</v>
       </c>
     </row>
     <row r="448" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36997,7 +37034,7 @@
         <v>7204401</v>
       </c>
       <c r="D448" s="30" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E448" s="6">
         <v>2</v>
@@ -37063,7 +37100,7 @@
         <v>0</v>
       </c>
       <c r="Z448" s="8" t="s">
-        <v>761</v>
+        <v>681</v>
       </c>
     </row>
     <row r="449" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37071,7 +37108,7 @@
         <v>7204402</v>
       </c>
       <c r="D449" s="30" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E449" s="6">
         <v>2</v>
@@ -37137,7 +37174,7 @@
         <v>0</v>
       </c>
       <c r="Z449" s="8" t="s">
-        <v>762</v>
+        <v>682</v>
       </c>
     </row>
     <row r="450" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37145,7 +37182,7 @@
         <v>7204403</v>
       </c>
       <c r="D450" s="30" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E450" s="6">
         <v>2</v>
@@ -37211,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="Z450" s="8" t="s">
-        <v>763</v>
+        <v>683</v>
       </c>
     </row>
     <row r="451" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37219,7 +37256,7 @@
         <v>7204501</v>
       </c>
       <c r="D451" s="30" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E451" s="6">
         <v>2</v>
@@ -37285,7 +37322,7 @@
         <v>0</v>
       </c>
       <c r="Z451" s="8" t="s">
-        <v>761</v>
+        <v>681</v>
       </c>
     </row>
     <row r="452" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37293,7 +37330,7 @@
         <v>7204502</v>
       </c>
       <c r="D452" s="30" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E452" s="6">
         <v>2</v>
@@ -37359,7 +37396,7 @@
         <v>0</v>
       </c>
       <c r="Z452" s="8" t="s">
-        <v>762</v>
+        <v>682</v>
       </c>
     </row>
     <row r="453" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37367,7 +37404,7 @@
         <v>7204503</v>
       </c>
       <c r="D453" s="30" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E453" s="6">
         <v>2</v>
@@ -37433,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="Z453" s="8" t="s">
-        <v>763</v>
+        <v>683</v>
       </c>
     </row>
     <row r="454" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37441,7 +37478,7 @@
         <v>7301001</v>
       </c>
       <c r="D454" s="30" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E454" s="6">
         <v>3</v>
@@ -37507,7 +37544,7 @@
         <v>0</v>
       </c>
       <c r="Z454" s="8" t="s">
-        <v>778</v>
+        <v>698</v>
       </c>
     </row>
     <row r="455" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37515,7 +37552,7 @@
         <v>7301002</v>
       </c>
       <c r="D455" s="30" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E455" s="6">
         <v>3</v>
@@ -37581,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="Z455" s="8" t="s">
-        <v>778</v>
+        <v>698</v>
       </c>
     </row>
     <row r="456" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37589,7 +37626,7 @@
         <v>7302001</v>
       </c>
       <c r="D456" s="30" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E456" s="6">
         <v>3</v>
@@ -37655,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="Z456" s="8" t="s">
-        <v>779</v>
+        <v>699</v>
       </c>
     </row>
     <row r="457" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37663,7 +37700,7 @@
         <v>7302002</v>
       </c>
       <c r="D457" s="30" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E457" s="6">
         <v>3</v>
@@ -37729,7 +37766,7 @@
         <v>0</v>
       </c>
       <c r="Z457" s="8" t="s">
-        <v>779</v>
+        <v>699</v>
       </c>
     </row>
     <row r="458" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37737,7 +37774,7 @@
         <v>7303001</v>
       </c>
       <c r="D458" s="30" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E458" s="6">
         <v>3</v>
@@ -37803,7 +37840,7 @@
         <v>0</v>
       </c>
       <c r="Z458" s="8" t="s">
-        <v>780</v>
+        <v>700</v>
       </c>
     </row>
     <row r="459" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37811,7 +37848,7 @@
         <v>7303002</v>
       </c>
       <c r="D459" s="30" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E459" s="6">
         <v>3</v>
@@ -37877,7 +37914,7 @@
         <v>0</v>
       </c>
       <c r="Z459" s="8" t="s">
-        <v>780</v>
+        <v>700</v>
       </c>
     </row>
     <row r="460" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -37885,7 +37922,7 @@
         <v>8000001</v>
       </c>
       <c r="D460" s="30" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E460" s="6">
         <v>8</v>
@@ -37951,7 +37988,7 @@
         <v>0</v>
       </c>
       <c r="Z460" s="43" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="461" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -37959,7 +37996,7 @@
         <v>8000002</v>
       </c>
       <c r="D461" s="30" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E461" s="6">
         <v>8</v>
@@ -38025,7 +38062,7 @@
         <v>0</v>
       </c>
       <c r="Z461" s="43" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="462" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38033,7 +38070,7 @@
         <v>8000003</v>
       </c>
       <c r="D462" s="30" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E462" s="6">
         <v>8</v>
@@ -38099,7 +38136,7 @@
         <v>0</v>
       </c>
       <c r="Z462" s="43" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="463" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38107,7 +38144,7 @@
         <v>8000004</v>
       </c>
       <c r="D463" s="30" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E463" s="6">
         <v>8</v>
@@ -38173,7 +38210,7 @@
         <v>0</v>
       </c>
       <c r="Z463" s="43" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="464" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38181,7 +38218,7 @@
         <v>8000005</v>
       </c>
       <c r="D464" s="30" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E464" s="6">
         <v>8</v>
@@ -38247,7 +38284,7 @@
         <v>0</v>
       </c>
       <c r="Z464" s="43" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="465" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38255,7 +38292,7 @@
         <v>8000006</v>
       </c>
       <c r="D465" s="30" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E465" s="6">
         <v>8</v>
@@ -38321,7 +38358,7 @@
         <v>0</v>
       </c>
       <c r="Z465" s="43" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="466" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38329,7 +38366,7 @@
         <v>8000007</v>
       </c>
       <c r="D466" s="30" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E466" s="6">
         <v>8</v>
@@ -38395,7 +38432,7 @@
         <v>0</v>
       </c>
       <c r="Z466" s="43" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="467" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38403,7 +38440,7 @@
         <v>8000008</v>
       </c>
       <c r="D467" s="30" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E467" s="6">
         <v>8</v>
@@ -38469,7 +38506,7 @@
         <v>0</v>
       </c>
       <c r="Z467" s="43" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="468" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38477,7 +38514,7 @@
         <v>8000009</v>
       </c>
       <c r="D468" s="30" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E468" s="6">
         <v>8</v>
@@ -38543,7 +38580,7 @@
         <v>0</v>
       </c>
       <c r="Z468" s="43" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="469" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38551,7 +38588,7 @@
         <v>8000010</v>
       </c>
       <c r="D469" s="30" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E469" s="6">
         <v>8</v>
@@ -38617,7 +38654,7 @@
         <v>0</v>
       </c>
       <c r="Z469" s="43" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="470" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38625,7 +38662,7 @@
         <v>8000011</v>
       </c>
       <c r="D470" s="30" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E470" s="6">
         <v>8</v>
@@ -38691,7 +38728,7 @@
         <v>0</v>
       </c>
       <c r="Z470" s="43" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="471" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38699,7 +38736,7 @@
         <v>8000012</v>
       </c>
       <c r="D471" s="30" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E471" s="6">
         <v>8</v>
@@ -38765,7 +38802,7 @@
         <v>0</v>
       </c>
       <c r="Z471" s="43" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="472" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38773,7 +38810,7 @@
         <v>8000013</v>
       </c>
       <c r="D472" s="30" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E472" s="6">
         <v>8</v>
@@ -38839,7 +38876,7 @@
         <v>0</v>
       </c>
       <c r="Z472" s="43" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="473" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38847,7 +38884,7 @@
         <v>8000014</v>
       </c>
       <c r="D473" s="30" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E473" s="6">
         <v>8</v>
@@ -38913,7 +38950,7 @@
         <v>0</v>
       </c>
       <c r="Z473" s="43" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="474" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38921,7 +38958,7 @@
         <v>8000015</v>
       </c>
       <c r="D474" s="30" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E474" s="6">
         <v>8</v>
@@ -38987,7 +39024,7 @@
         <v>0</v>
       </c>
       <c r="Z474" s="43" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="475" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38995,7 +39032,7 @@
         <v>8000016</v>
       </c>
       <c r="D475" s="30" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E475" s="6">
         <v>8</v>
@@ -39061,7 +39098,7 @@
         <v>0</v>
       </c>
       <c r="Z475" s="43" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="476" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39069,7 +39106,7 @@
         <v>8000017</v>
       </c>
       <c r="D476" s="30" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E476" s="6">
         <v>8</v>
@@ -39135,7 +39172,7 @@
         <v>0</v>
       </c>
       <c r="Z476" s="43" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="477" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39143,7 +39180,7 @@
         <v>8000018</v>
       </c>
       <c r="D477" s="30" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E477" s="6">
         <v>8</v>
@@ -39209,7 +39246,7 @@
         <v>0</v>
       </c>
       <c r="Z477" s="43" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="478" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39217,7 +39254,7 @@
         <v>8000019</v>
       </c>
       <c r="D478" s="30" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E478" s="6">
         <v>8</v>
@@ -39283,7 +39320,7 @@
         <v>0</v>
       </c>
       <c r="Z478" s="43" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="479" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39291,7 +39328,7 @@
         <v>8000020</v>
       </c>
       <c r="D479" s="30" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E479" s="6">
         <v>8</v>
@@ -39357,7 +39394,7 @@
         <v>0</v>
       </c>
       <c r="Z479" s="43" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="480" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39365,7 +39402,7 @@
         <v>8000021</v>
       </c>
       <c r="D480" s="30" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E480" s="6">
         <v>8</v>
@@ -39431,7 +39468,7 @@
         <v>0</v>
       </c>
       <c r="Z480" s="43" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="481" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39439,7 +39476,7 @@
         <v>8000022</v>
       </c>
       <c r="D481" s="30" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E481" s="6">
         <v>8</v>
@@ -39505,7 +39542,7 @@
         <v>0</v>
       </c>
       <c r="Z481" s="43" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="482" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39513,7 +39550,7 @@
         <v>8000023</v>
       </c>
       <c r="D482" s="30" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E482" s="6">
         <v>8</v>
@@ -39579,7 +39616,7 @@
         <v>0</v>
       </c>
       <c r="Z482" s="43" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="483" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39587,7 +39624,7 @@
         <v>8000024</v>
       </c>
       <c r="D483" s="30" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E483" s="6">
         <v>8</v>
@@ -39653,7 +39690,7 @@
         <v>0</v>
       </c>
       <c r="Z483" s="43" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="484" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39661,7 +39698,7 @@
         <v>8000025</v>
       </c>
       <c r="D484" s="30" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E484" s="6">
         <v>8</v>
@@ -39727,7 +39764,7 @@
         <v>0</v>
       </c>
       <c r="Z484" s="43" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="485" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39735,7 +39772,7 @@
         <v>8000026</v>
       </c>
       <c r="D485" s="30" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E485" s="6">
         <v>8</v>
@@ -39801,7 +39838,7 @@
         <v>0</v>
       </c>
       <c r="Z485" s="43" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="486" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39809,7 +39846,7 @@
         <v>8000027</v>
       </c>
       <c r="D486" s="30" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E486" s="6">
         <v>8</v>
@@ -39875,7 +39912,7 @@
         <v>0</v>
       </c>
       <c r="Z486" s="43" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="487" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39883,7 +39920,7 @@
         <v>8000028</v>
       </c>
       <c r="D487" s="30" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E487" s="6">
         <v>8</v>
@@ -39949,7 +39986,7 @@
         <v>0</v>
       </c>
       <c r="Z487" s="43" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="488" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39957,7 +39994,7 @@
         <v>8000029</v>
       </c>
       <c r="D488" s="30" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E488" s="6">
         <v>8</v>
@@ -40023,7 +40060,7 @@
         <v>0</v>
       </c>
       <c r="Z488" s="43" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="489" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40031,7 +40068,7 @@
         <v>8000030</v>
       </c>
       <c r="D489" s="30" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E489" s="6">
         <v>8</v>
@@ -40097,7 +40134,7 @@
         <v>0</v>
       </c>
       <c r="Z489" s="43" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="490" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40105,7 +40142,7 @@
         <v>8000031</v>
       </c>
       <c r="D490" s="30" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E490" s="6">
         <v>8</v>
@@ -40171,7 +40208,7 @@
         <v>0</v>
       </c>
       <c r="Z490" s="43" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="491" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40179,7 +40216,7 @@
         <v>8000032</v>
       </c>
       <c r="D491" s="30" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E491" s="6">
         <v>8</v>
@@ -40245,7 +40282,7 @@
         <v>0</v>
       </c>
       <c r="Z491" s="43" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="492" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40253,7 +40290,7 @@
         <v>8000033</v>
       </c>
       <c r="D492" s="30" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E492" s="6">
         <v>8</v>
@@ -40319,7 +40356,7 @@
         <v>0</v>
       </c>
       <c r="Z492" s="43" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="493" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40327,7 +40364,7 @@
         <v>8000034</v>
       </c>
       <c r="D493" s="30" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E493" s="6">
         <v>8</v>
@@ -40393,7 +40430,7 @@
         <v>0</v>
       </c>
       <c r="Z493" s="43" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="494" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40401,7 +40438,7 @@
         <v>8000035</v>
       </c>
       <c r="D494" s="30" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E494" s="6">
         <v>8</v>
@@ -40467,7 +40504,7 @@
         <v>0</v>
       </c>
       <c r="Z494" s="43" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="495" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Unity/Assets/Config/Excel/EquipMakeConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EquipMakeConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462386EA-5C71-4BAB-9FE9-E22E5584F0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B970FBC-6111-449A-9383-9CEAA0A5EB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1406,265 +1406,133 @@
     <t>2级攻击石</t>
   </si>
   <si>
-    <t>10045101;2</t>
-  </si>
-  <si>
     <t>3级攻击石</t>
   </si>
   <si>
-    <t>10045102;2</t>
-  </si>
-  <si>
     <t>4级攻击石</t>
   </si>
   <si>
-    <t>10045103;2</t>
-  </si>
-  <si>
     <t>5级攻击石</t>
   </si>
   <si>
-    <t>10045104;2</t>
-  </si>
-  <si>
     <t>6级攻击石</t>
   </si>
   <si>
-    <t>10045105;2</t>
-  </si>
-  <si>
     <t>7级攻击石</t>
   </si>
   <si>
-    <t>10045106;2</t>
-  </si>
-  <si>
     <t>8级攻击石</t>
   </si>
   <si>
-    <t>10045107;2</t>
-  </si>
-  <si>
     <t>9级攻击石</t>
   </si>
   <si>
-    <t>10045108;2</t>
-  </si>
-  <si>
     <t>10级攻击石</t>
   </si>
   <si>
-    <t>10045109;2</t>
-  </si>
-  <si>
     <t>11级攻击石</t>
   </si>
   <si>
-    <t>10045110;2</t>
-  </si>
-  <si>
     <t>12级攻击石</t>
   </si>
   <si>
-    <t>10045111;2</t>
-  </si>
-  <si>
     <t>2级生命石</t>
   </si>
   <si>
-    <t>10045201;2</t>
-  </si>
-  <si>
     <t>3级生命石</t>
   </si>
   <si>
-    <t>10045202;2</t>
-  </si>
-  <si>
     <t>4级生命石</t>
   </si>
   <si>
-    <t>10045203;2</t>
-  </si>
-  <si>
     <t>5级生命石</t>
   </si>
   <si>
-    <t>10045204;2</t>
-  </si>
-  <si>
     <t>6级生命石</t>
   </si>
   <si>
-    <t>10045205;2</t>
-  </si>
-  <si>
     <t>7级生命石</t>
   </si>
   <si>
-    <t>10045206;2</t>
-  </si>
-  <si>
     <t>8级生命石</t>
   </si>
   <si>
-    <t>10045207;2</t>
-  </si>
-  <si>
     <t>9级生命石</t>
   </si>
   <si>
-    <t>10045208;2</t>
-  </si>
-  <si>
     <t>10级生命石</t>
   </si>
   <si>
-    <t>10045209;2</t>
-  </si>
-  <si>
     <t>11级生命石</t>
   </si>
   <si>
-    <t>10045210;2</t>
-  </si>
-  <si>
     <t>12级生命石</t>
   </si>
   <si>
-    <t>10045211;2</t>
-  </si>
-  <si>
     <t>2级物防石</t>
   </si>
   <si>
-    <t>10045301;2</t>
-  </si>
-  <si>
     <t>3级物防石</t>
   </si>
   <si>
-    <t>10045302;2</t>
-  </si>
-  <si>
     <t>4级物防石</t>
   </si>
   <si>
-    <t>10045303;2</t>
-  </si>
-  <si>
     <t>5级物防石</t>
   </si>
   <si>
-    <t>10045304;2</t>
-  </si>
-  <si>
     <t>6级物防石</t>
   </si>
   <si>
-    <t>10045305;2</t>
-  </si>
-  <si>
     <t>7级物防石</t>
   </si>
   <si>
-    <t>10045306;2</t>
-  </si>
-  <si>
     <t>8级物防石</t>
   </si>
   <si>
-    <t>10045307;2</t>
-  </si>
-  <si>
     <t>9级物防石</t>
   </si>
   <si>
-    <t>10045308;2</t>
-  </si>
-  <si>
     <t>10级物防石</t>
   </si>
   <si>
-    <t>10045309;2</t>
-  </si>
-  <si>
     <t>11级物防石</t>
   </si>
   <si>
-    <t>10045310;2</t>
-  </si>
-  <si>
     <t>12级物防石</t>
   </si>
   <si>
-    <t>10045311;2</t>
-  </si>
-  <si>
     <t>2级魔防石</t>
   </si>
   <si>
-    <t>10045401;2</t>
-  </si>
-  <si>
     <t>3级魔防石</t>
   </si>
   <si>
-    <t>10045402;2</t>
-  </si>
-  <si>
     <t>4级魔防石</t>
   </si>
   <si>
-    <t>10045403;2</t>
-  </si>
-  <si>
     <t>5级魔防石</t>
   </si>
   <si>
-    <t>10045404;2</t>
-  </si>
-  <si>
     <t>6级魔防石</t>
   </si>
   <si>
-    <t>10045405;2</t>
-  </si>
-  <si>
     <t>7级魔防石</t>
   </si>
   <si>
-    <t>10045406;2</t>
-  </si>
-  <si>
     <t>8级魔防石</t>
   </si>
   <si>
-    <t>10045407;2</t>
-  </si>
-  <si>
     <t>9级魔防石</t>
   </si>
   <si>
-    <t>10045408;2</t>
-  </si>
-  <si>
     <t>10级魔防石</t>
   </si>
   <si>
-    <t>10045409;2</t>
-  </si>
-  <si>
     <t>11级魔防石</t>
   </si>
   <si>
-    <t>10045410;2</t>
-  </si>
-  <si>
     <t>12级魔防石</t>
-  </si>
-  <si>
-    <t>10045411;2</t>
   </si>
   <si>
     <t>史诗:风灵之盔</t>
@@ -3140,6 +3008,138 @@
   </si>
   <si>
     <t>1000032;200</t>
+  </si>
+  <si>
+    <t>1045101;2</t>
+  </si>
+  <si>
+    <t>1045102;2</t>
+  </si>
+  <si>
+    <t>1045103;2</t>
+  </si>
+  <si>
+    <t>1045104;2</t>
+  </si>
+  <si>
+    <t>1045105;2</t>
+  </si>
+  <si>
+    <t>1045106;2</t>
+  </si>
+  <si>
+    <t>1045107;2</t>
+  </si>
+  <si>
+    <t>1045108;2</t>
+  </si>
+  <si>
+    <t>1045109;2</t>
+  </si>
+  <si>
+    <t>1045110;2</t>
+  </si>
+  <si>
+    <t>1045111;2</t>
+  </si>
+  <si>
+    <t>1045201;2</t>
+  </si>
+  <si>
+    <t>1045202;2</t>
+  </si>
+  <si>
+    <t>1045203;2</t>
+  </si>
+  <si>
+    <t>1045204;2</t>
+  </si>
+  <si>
+    <t>1045205;2</t>
+  </si>
+  <si>
+    <t>1045206;2</t>
+  </si>
+  <si>
+    <t>1045207;2</t>
+  </si>
+  <si>
+    <t>1045208;2</t>
+  </si>
+  <si>
+    <t>1045209;2</t>
+  </si>
+  <si>
+    <t>1045210;2</t>
+  </si>
+  <si>
+    <t>1045211;2</t>
+  </si>
+  <si>
+    <t>1045301;2</t>
+  </si>
+  <si>
+    <t>1045302;2</t>
+  </si>
+  <si>
+    <t>1045303;2</t>
+  </si>
+  <si>
+    <t>1045304;2</t>
+  </si>
+  <si>
+    <t>1045305;2</t>
+  </si>
+  <si>
+    <t>1045306;2</t>
+  </si>
+  <si>
+    <t>1045307;2</t>
+  </si>
+  <si>
+    <t>1045308;2</t>
+  </si>
+  <si>
+    <t>1045309;2</t>
+  </si>
+  <si>
+    <t>1045310;2</t>
+  </si>
+  <si>
+    <t>1045311;2</t>
+  </si>
+  <si>
+    <t>1045401;2</t>
+  </si>
+  <si>
+    <t>1045402;2</t>
+  </si>
+  <si>
+    <t>1045403;2</t>
+  </si>
+  <si>
+    <t>1045404;2</t>
+  </si>
+  <si>
+    <t>1045405;2</t>
+  </si>
+  <si>
+    <t>1045406;2</t>
+  </si>
+  <si>
+    <t>1045407;2</t>
+  </si>
+  <si>
+    <t>1045408;2</t>
+  </si>
+  <si>
+    <t>1045409;2</t>
+  </si>
+  <si>
+    <t>1045410;2</t>
+  </si>
+  <si>
+    <t>1045411;2</t>
   </si>
 </sst>
 </file>
@@ -3835,8 +3835,8 @@
   <dimension ref="C1:Z1107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F324" sqref="F324"/>
+      <pane ySplit="5" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J288" sqref="J288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="44" t="s">
-        <v>566</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="Z7" s="44" t="s">
-        <v>729</v>
+        <v>685</v>
       </c>
     </row>
     <row r="8" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="44" t="s">
-        <v>567</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="44" t="s">
-        <v>568</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="27" t="s">
-        <v>569</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="27" t="s">
-        <v>570</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="27" t="s">
-        <v>571</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="27" t="s">
-        <v>566</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="27" t="s">
-        <v>729</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4828,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="27" t="s">
-        <v>567</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="27" t="s">
-        <v>568</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -4976,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="27" t="s">
-        <v>569</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="Z18" s="27" t="s">
-        <v>570</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="27" t="s">
-        <v>571</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="Z20" s="27" t="s">
-        <v>566</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="Z21" s="27" t="s">
-        <v>730</v>
+        <v>686</v>
       </c>
     </row>
     <row r="22" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="Z22" s="27" t="s">
-        <v>572</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="Z23" s="27" t="s">
-        <v>573</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="27" t="s">
-        <v>574</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="27" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="Z26" s="27" t="s">
-        <v>576</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5716,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="28" t="s">
-        <v>577</v>
+        <v>533</v>
       </c>
     </row>
     <row r="28" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="28" t="s">
-        <v>578</v>
+        <v>534</v>
       </c>
     </row>
     <row r="29" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="Z29" s="28" t="s">
-        <v>579</v>
+        <v>535</v>
       </c>
     </row>
     <row r="30" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="Z30" s="27" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6012,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="Z31" s="27" t="s">
-        <v>576</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6020,7 +6020,7 @@
         <v>100127</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>554</v>
+        <v>510</v>
       </c>
       <c r="E32" s="16">
         <v>1</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="27" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="29" t="s">
-        <v>774</v>
+        <v>730</v>
       </c>
     </row>
     <row r="34" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="29" t="s">
-        <v>775</v>
+        <v>731</v>
       </c>
     </row>
     <row r="35" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="Z35" s="29" t="s">
-        <v>776</v>
+        <v>732</v>
       </c>
     </row>
     <row r="36" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6382,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="Z36" s="29" t="s">
-        <v>777</v>
+        <v>733</v>
       </c>
     </row>
     <row r="37" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6456,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="Z37" s="29" t="s">
-        <v>778</v>
+        <v>734</v>
       </c>
     </row>
     <row r="38" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6530,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="Z38" s="29" t="s">
-        <v>779</v>
+        <v>735</v>
       </c>
     </row>
     <row r="39" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="Z39" s="29" t="s">
-        <v>780</v>
+        <v>736</v>
       </c>
     </row>
     <row r="40" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6678,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="Z40" s="29" t="s">
-        <v>781</v>
+        <v>737</v>
       </c>
     </row>
     <row r="41" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6686,7 +6686,7 @@
         <v>100159</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>555</v>
+        <v>511</v>
       </c>
       <c r="E41" s="22">
         <v>5</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="Z41" s="29" t="s">
-        <v>782</v>
+        <v>738</v>
       </c>
     </row>
     <row r="42" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6827,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="Z42" s="28" t="s">
-        <v>580</v>
+        <v>536</v>
       </c>
     </row>
     <row r="43" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="Z43" s="28" t="s">
-        <v>581</v>
+        <v>537</v>
       </c>
     </row>
     <row r="44" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="Z44" s="28" t="s">
-        <v>582</v>
+        <v>538</v>
       </c>
     </row>
     <row r="45" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7052,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="Z45" s="28" t="s">
-        <v>583</v>
+        <v>539</v>
       </c>
     </row>
     <row r="46" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7127,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="Z46" s="28" t="s">
-        <v>584</v>
+        <v>540</v>
       </c>
     </row>
     <row r="47" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7202,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="28" t="s">
-        <v>585</v>
+        <v>541</v>
       </c>
     </row>
     <row r="48" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7277,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="28" t="s">
-        <v>586</v>
+        <v>542</v>
       </c>
     </row>
     <row r="49" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7352,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="Z49" s="28" t="s">
-        <v>580</v>
+        <v>536</v>
       </c>
     </row>
     <row r="50" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Z50" s="28" t="s">
-        <v>581</v>
+        <v>537</v>
       </c>
     </row>
     <row r="51" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="Z51" s="28" t="s">
-        <v>582</v>
+        <v>538</v>
       </c>
     </row>
     <row r="52" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="Z52" s="28" t="s">
-        <v>583</v>
+        <v>539</v>
       </c>
     </row>
     <row r="53" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7652,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="Z53" s="28" t="s">
-        <v>584</v>
+        <v>540</v>
       </c>
     </row>
     <row r="54" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7727,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="Z54" s="28" t="s">
-        <v>585</v>
+        <v>541</v>
       </c>
     </row>
     <row r="55" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="Z55" s="28" t="s">
-        <v>586</v>
+        <v>542</v>
       </c>
     </row>
     <row r="56" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7877,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="Z56" s="28" t="s">
-        <v>580</v>
+        <v>536</v>
       </c>
     </row>
     <row r="57" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="Z57" s="28" t="s">
-        <v>587</v>
+        <v>543</v>
       </c>
     </row>
     <row r="58" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="Z58" s="28" t="s">
-        <v>588</v>
+        <v>544</v>
       </c>
     </row>
     <row r="59" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="Z59" s="28" t="s">
-        <v>589</v>
+        <v>545</v>
       </c>
     </row>
     <row r="60" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="Z60" s="28" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
     </row>
     <row r="61" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="28" t="s">
-        <v>591</v>
+        <v>547</v>
       </c>
     </row>
     <row r="62" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="Z62" s="28" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
     </row>
     <row r="63" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8402,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="Z63" s="28" t="s">
-        <v>593</v>
+        <v>549</v>
       </c>
     </row>
     <row r="64" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8477,7 +8477,7 @@
         <v>0</v>
       </c>
       <c r="Z64" s="28" t="s">
-        <v>594</v>
+        <v>550</v>
       </c>
     </row>
     <row r="65" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Z65" s="28" t="s">
-        <v>595</v>
+        <v>551</v>
       </c>
     </row>
     <row r="66" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8560,7 +8560,7 @@
         <v>100225</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>738</v>
+        <v>694</v>
       </c>
       <c r="E66" s="16">
         <v>1</v>
@@ -8627,7 +8627,7 @@
         <v>0</v>
       </c>
       <c r="Z66" s="28" t="s">
-        <v>591</v>
+        <v>547</v>
       </c>
     </row>
     <row r="67" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="Z67" s="28" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
     </row>
     <row r="68" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8710,7 +8710,7 @@
         <v>100227</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>556</v>
+        <v>512</v>
       </c>
       <c r="E68" s="16">
         <v>1</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="Z68" s="28" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
     </row>
     <row r="69" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="Z69" s="29" t="s">
-        <v>783</v>
+        <v>739</v>
       </c>
     </row>
     <row r="70" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8925,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="Z70" s="29" t="s">
-        <v>784</v>
+        <v>740</v>
       </c>
     </row>
     <row r="71" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8999,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="Z71" s="29" t="s">
-        <v>785</v>
+        <v>741</v>
       </c>
     </row>
     <row r="72" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9007,7 +9007,7 @@
         <v>100254</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>739</v>
+        <v>695</v>
       </c>
       <c r="E72" s="22">
         <v>5</v>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="Z72" s="29" t="s">
-        <v>786</v>
+        <v>742</v>
       </c>
     </row>
     <row r="73" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="Z73" s="29" t="s">
-        <v>787</v>
+        <v>743</v>
       </c>
     </row>
     <row r="74" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9221,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="Z74" s="29" t="s">
-        <v>740</v>
+        <v>696</v>
       </c>
     </row>
     <row r="75" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9295,7 +9295,7 @@
         <v>0</v>
       </c>
       <c r="Z75" s="29" t="s">
-        <v>788</v>
+        <v>744</v>
       </c>
     </row>
     <row r="76" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="Z76" s="29" t="s">
-        <v>789</v>
+        <v>745</v>
       </c>
     </row>
     <row r="77" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9377,7 +9377,7 @@
         <v>100259</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>557</v>
+        <v>513</v>
       </c>
       <c r="E77" s="22">
         <v>5</v>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="Z77" s="29" t="s">
-        <v>790</v>
+        <v>746</v>
       </c>
     </row>
     <row r="78" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="Z78" s="28" t="s">
-        <v>596</v>
+        <v>552</v>
       </c>
     </row>
     <row r="79" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="Z79" s="28" t="s">
-        <v>597</v>
+        <v>553</v>
       </c>
     </row>
     <row r="80" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9668,7 +9668,7 @@
         <v>0</v>
       </c>
       <c r="Z80" s="28" t="s">
-        <v>598</v>
+        <v>554</v>
       </c>
     </row>
     <row r="81" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9743,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="Z81" s="28" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
     </row>
     <row r="82" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9818,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="Z82" s="28" t="s">
-        <v>600</v>
+        <v>556</v>
       </c>
     </row>
     <row r="83" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Z83" s="28" t="s">
-        <v>601</v>
+        <v>557</v>
       </c>
     </row>
     <row r="84" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="Z84" s="28" t="s">
-        <v>602</v>
+        <v>558</v>
       </c>
     </row>
     <row r="85" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10043,7 +10043,7 @@
         <v>0</v>
       </c>
       <c r="Z85" s="28" t="s">
-        <v>596</v>
+        <v>552</v>
       </c>
     </row>
     <row r="86" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="Z86" s="28" t="s">
-        <v>597</v>
+        <v>553</v>
       </c>
     </row>
     <row r="87" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="Z87" s="28" t="s">
-        <v>598</v>
+        <v>554</v>
       </c>
     </row>
     <row r="88" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10268,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="Z88" s="28" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
     </row>
     <row r="89" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="Z89" s="28" t="s">
-        <v>600</v>
+        <v>556</v>
       </c>
     </row>
     <row r="90" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10418,7 +10418,7 @@
         <v>0</v>
       </c>
       <c r="Z90" s="28" t="s">
-        <v>601</v>
+        <v>557</v>
       </c>
     </row>
     <row r="91" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10493,7 +10493,7 @@
         <v>0</v>
       </c>
       <c r="Z91" s="28" t="s">
-        <v>602</v>
+        <v>558</v>
       </c>
     </row>
     <row r="92" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10568,7 +10568,7 @@
         <v>0</v>
       </c>
       <c r="Z92" s="28" t="s">
-        <v>596</v>
+        <v>552</v>
       </c>
     </row>
     <row r="93" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="Z93" s="28" t="s">
-        <v>603</v>
+        <v>559</v>
       </c>
     </row>
     <row r="94" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10718,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="Z94" s="28" t="s">
-        <v>604</v>
+        <v>560</v>
       </c>
     </row>
     <row r="95" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="Z95" s="28" t="s">
-        <v>605</v>
+        <v>561</v>
       </c>
     </row>
     <row r="96" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10868,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="Z96" s="28" t="s">
-        <v>606</v>
+        <v>562</v>
       </c>
     </row>
     <row r="97" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10943,7 +10943,7 @@
         <v>0</v>
       </c>
       <c r="Z97" s="28" t="s">
-        <v>607</v>
+        <v>563</v>
       </c>
     </row>
     <row r="98" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11018,7 +11018,7 @@
         <v>0</v>
       </c>
       <c r="Z98" s="28" t="s">
-        <v>608</v>
+        <v>564</v>
       </c>
     </row>
     <row r="99" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11093,7 +11093,7 @@
         <v>0</v>
       </c>
       <c r="Z99" s="28" t="s">
-        <v>609</v>
+        <v>565</v>
       </c>
     </row>
     <row r="100" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11168,7 +11168,7 @@
         <v>0</v>
       </c>
       <c r="Z100" s="28" t="s">
-        <v>610</v>
+        <v>566</v>
       </c>
     </row>
     <row r="101" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11243,7 +11243,7 @@
         <v>0</v>
       </c>
       <c r="Z101" s="28" t="s">
-        <v>611</v>
+        <v>567</v>
       </c>
     </row>
     <row r="102" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="Z102" s="28" t="s">
-        <v>607</v>
+        <v>563</v>
       </c>
     </row>
     <row r="103" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="Z103" s="28" t="s">
-        <v>608</v>
+        <v>564</v>
       </c>
     </row>
     <row r="104" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11401,7 +11401,7 @@
         <v>100327</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>558</v>
+        <v>514</v>
       </c>
       <c r="E104" s="16">
         <v>1</v>
@@ -11468,7 +11468,7 @@
         <v>0</v>
       </c>
       <c r="Z104" s="28" t="s">
-        <v>608</v>
+        <v>564</v>
       </c>
     </row>
     <row r="105" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="Z105" s="29" t="s">
-        <v>791</v>
+        <v>747</v>
       </c>
     </row>
     <row r="106" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11616,7 +11616,7 @@
         <v>0</v>
       </c>
       <c r="Z106" s="29" t="s">
-        <v>792</v>
+        <v>748</v>
       </c>
     </row>
     <row r="107" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="Z107" s="29" t="s">
-        <v>793</v>
+        <v>749</v>
       </c>
     </row>
     <row r="108" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11764,7 +11764,7 @@
         <v>0</v>
       </c>
       <c r="Z108" s="29" t="s">
-        <v>794</v>
+        <v>750</v>
       </c>
     </row>
     <row r="109" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="Z109" s="29" t="s">
-        <v>795</v>
+        <v>751</v>
       </c>
     </row>
     <row r="110" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11912,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="Z110" s="29" t="s">
-        <v>741</v>
+        <v>697</v>
       </c>
     </row>
     <row r="111" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11986,7 +11986,7 @@
         <v>0</v>
       </c>
       <c r="Z111" s="29" t="s">
-        <v>796</v>
+        <v>752</v>
       </c>
     </row>
     <row r="112" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12060,7 +12060,7 @@
         <v>0</v>
       </c>
       <c r="Z112" s="29" t="s">
-        <v>797</v>
+        <v>753</v>
       </c>
     </row>
     <row r="113" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12068,7 +12068,7 @@
         <v>100359</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>559</v>
+        <v>515</v>
       </c>
       <c r="E113" s="22">
         <v>5</v>
@@ -12134,7 +12134,7 @@
         <v>0</v>
       </c>
       <c r="Z113" s="29" t="s">
-        <v>798</v>
+        <v>754</v>
       </c>
     </row>
     <row r="114" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12209,7 +12209,7 @@
         <v>0</v>
       </c>
       <c r="Z114" s="28" t="s">
-        <v>612</v>
+        <v>568</v>
       </c>
     </row>
     <row r="115" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12284,7 +12284,7 @@
         <v>0</v>
       </c>
       <c r="Z115" s="28" t="s">
-        <v>613</v>
+        <v>569</v>
       </c>
     </row>
     <row r="116" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="Z116" s="28" t="s">
-        <v>614</v>
+        <v>570</v>
       </c>
     </row>
     <row r="117" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12434,7 +12434,7 @@
         <v>0</v>
       </c>
       <c r="Z117" s="28" t="s">
-        <v>615</v>
+        <v>571</v>
       </c>
     </row>
     <row r="118" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="Z118" s="28" t="s">
-        <v>616</v>
+        <v>572</v>
       </c>
     </row>
     <row r="119" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12584,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="Z119" s="28" t="s">
-        <v>617</v>
+        <v>573</v>
       </c>
     </row>
     <row r="120" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12659,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="Z120" s="28" t="s">
-        <v>618</v>
+        <v>574</v>
       </c>
     </row>
     <row r="121" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12734,7 +12734,7 @@
         <v>0</v>
       </c>
       <c r="Z121" s="28" t="s">
-        <v>612</v>
+        <v>568</v>
       </c>
     </row>
     <row r="122" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12809,7 +12809,7 @@
         <v>0</v>
       </c>
       <c r="Z122" s="28" t="s">
-        <v>613</v>
+        <v>569</v>
       </c>
     </row>
     <row r="123" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12884,7 +12884,7 @@
         <v>0</v>
       </c>
       <c r="Z123" s="28" t="s">
-        <v>614</v>
+        <v>570</v>
       </c>
     </row>
     <row r="124" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12959,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="Z124" s="28" t="s">
-        <v>615</v>
+        <v>571</v>
       </c>
     </row>
     <row r="125" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13034,7 +13034,7 @@
         <v>0</v>
       </c>
       <c r="Z125" s="28" t="s">
-        <v>616</v>
+        <v>572</v>
       </c>
     </row>
     <row r="126" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="Z126" s="28" t="s">
-        <v>617</v>
+        <v>573</v>
       </c>
     </row>
     <row r="127" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13184,7 +13184,7 @@
         <v>0</v>
       </c>
       <c r="Z127" s="28" t="s">
-        <v>618</v>
+        <v>574</v>
       </c>
     </row>
     <row r="128" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13259,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="Z128" s="28" t="s">
-        <v>612</v>
+        <v>568</v>
       </c>
     </row>
     <row r="129" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13334,7 +13334,7 @@
         <v>0</v>
       </c>
       <c r="Z129" s="28" t="s">
-        <v>619</v>
+        <v>575</v>
       </c>
     </row>
     <row r="130" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13409,7 +13409,7 @@
         <v>0</v>
       </c>
       <c r="Z130" s="28" t="s">
-        <v>620</v>
+        <v>576</v>
       </c>
     </row>
     <row r="131" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13484,7 +13484,7 @@
         <v>0</v>
       </c>
       <c r="Z131" s="28" t="s">
-        <v>621</v>
+        <v>577</v>
       </c>
     </row>
     <row r="132" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13559,7 +13559,7 @@
         <v>0</v>
       </c>
       <c r="Z132" s="28" t="s">
-        <v>622</v>
+        <v>578</v>
       </c>
     </row>
     <row r="133" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13634,7 +13634,7 @@
         <v>0</v>
       </c>
       <c r="Z133" s="28" t="s">
-        <v>623</v>
+        <v>579</v>
       </c>
     </row>
     <row r="134" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13709,7 +13709,7 @@
         <v>0</v>
       </c>
       <c r="Z134" s="28" t="s">
-        <v>624</v>
+        <v>580</v>
       </c>
     </row>
     <row r="135" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13784,7 +13784,7 @@
         <v>0</v>
       </c>
       <c r="Z135" s="28" t="s">
-        <v>625</v>
+        <v>581</v>
       </c>
     </row>
     <row r="136" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13859,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="Z136" s="28" t="s">
-        <v>626</v>
+        <v>582</v>
       </c>
     </row>
     <row r="137" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13934,7 +13934,7 @@
         <v>0</v>
       </c>
       <c r="Z137" s="28" t="s">
-        <v>627</v>
+        <v>583</v>
       </c>
     </row>
     <row r="138" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14009,7 +14009,7 @@
         <v>0</v>
       </c>
       <c r="Z138" s="28" t="s">
-        <v>623</v>
+        <v>579</v>
       </c>
     </row>
     <row r="139" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14084,7 +14084,7 @@
         <v>0</v>
       </c>
       <c r="Z139" s="28" t="s">
-        <v>624</v>
+        <v>580</v>
       </c>
     </row>
     <row r="140" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14092,7 +14092,7 @@
         <v>100427</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>560</v>
+        <v>516</v>
       </c>
       <c r="E140" s="16">
         <v>1</v>
@@ -14159,7 +14159,7 @@
         <v>0</v>
       </c>
       <c r="Z140" s="28" t="s">
-        <v>623</v>
+        <v>579</v>
       </c>
     </row>
     <row r="141" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14233,7 +14233,7 @@
         <v>0</v>
       </c>
       <c r="Z141" s="29" t="s">
-        <v>799</v>
+        <v>755</v>
       </c>
     </row>
     <row r="142" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14307,7 +14307,7 @@
         <v>0</v>
       </c>
       <c r="Z142" s="29" t="s">
-        <v>800</v>
+        <v>756</v>
       </c>
     </row>
     <row r="143" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14381,7 +14381,7 @@
         <v>0</v>
       </c>
       <c r="Z143" s="29" t="s">
-        <v>801</v>
+        <v>757</v>
       </c>
     </row>
     <row r="144" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14455,7 +14455,7 @@
         <v>0</v>
       </c>
       <c r="Z144" s="29" t="s">
-        <v>802</v>
+        <v>758</v>
       </c>
     </row>
     <row r="145" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14529,7 +14529,7 @@
         <v>0</v>
       </c>
       <c r="Z145" s="29" t="s">
-        <v>803</v>
+        <v>759</v>
       </c>
     </row>
     <row r="146" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14603,7 +14603,7 @@
         <v>0</v>
       </c>
       <c r="Z146" s="29" t="s">
-        <v>742</v>
+        <v>698</v>
       </c>
     </row>
     <row r="147" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14677,7 +14677,7 @@
         <v>0</v>
       </c>
       <c r="Z147" s="29" t="s">
-        <v>804</v>
+        <v>760</v>
       </c>
     </row>
     <row r="148" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14751,7 +14751,7 @@
         <v>0</v>
       </c>
       <c r="Z148" s="29" t="s">
-        <v>805</v>
+        <v>761</v>
       </c>
     </row>
     <row r="149" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14759,7 +14759,7 @@
         <v>100459</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>561</v>
+        <v>517</v>
       </c>
       <c r="E149" s="22">
         <v>5</v>
@@ -14825,7 +14825,7 @@
         <v>0</v>
       </c>
       <c r="Z149" s="29" t="s">
-        <v>806</v>
+        <v>762</v>
       </c>
     </row>
     <row r="150" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14901,7 +14901,7 @@
         <v>0</v>
       </c>
       <c r="Z150" s="28" t="s">
-        <v>628</v>
+        <v>584</v>
       </c>
     </row>
     <row r="151" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14977,7 +14977,7 @@
         <v>0</v>
       </c>
       <c r="Z151" s="28" t="s">
-        <v>629</v>
+        <v>585</v>
       </c>
     </row>
     <row r="152" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15053,7 +15053,7 @@
         <v>0</v>
       </c>
       <c r="Z152" s="28" t="s">
-        <v>630</v>
+        <v>586</v>
       </c>
     </row>
     <row r="153" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15129,7 +15129,7 @@
         <v>0</v>
       </c>
       <c r="Z153" s="28" t="s">
-        <v>631</v>
+        <v>587</v>
       </c>
     </row>
     <row r="154" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15205,7 +15205,7 @@
         <v>0</v>
       </c>
       <c r="Z154" s="28" t="s">
-        <v>632</v>
+        <v>588</v>
       </c>
     </row>
     <row r="155" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15281,7 +15281,7 @@
         <v>0</v>
       </c>
       <c r="Z155" s="28" t="s">
-        <v>633</v>
+        <v>589</v>
       </c>
     </row>
     <row r="156" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15357,7 +15357,7 @@
         <v>0</v>
       </c>
       <c r="Z156" s="28" t="s">
-        <v>634</v>
+        <v>590</v>
       </c>
     </row>
     <row r="157" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="Z157" s="28" t="s">
-        <v>628</v>
+        <v>584</v>
       </c>
     </row>
     <row r="158" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15509,7 +15509,7 @@
         <v>0</v>
       </c>
       <c r="Z158" s="28" t="s">
-        <v>629</v>
+        <v>585</v>
       </c>
     </row>
     <row r="159" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15585,7 +15585,7 @@
         <v>0</v>
       </c>
       <c r="Z159" s="28" t="s">
-        <v>630</v>
+        <v>586</v>
       </c>
     </row>
     <row r="160" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15661,7 +15661,7 @@
         <v>0</v>
       </c>
       <c r="Z160" s="28" t="s">
-        <v>631</v>
+        <v>587</v>
       </c>
     </row>
     <row r="161" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15737,7 +15737,7 @@
         <v>0</v>
       </c>
       <c r="Z161" s="28" t="s">
-        <v>632</v>
+        <v>588</v>
       </c>
     </row>
     <row r="162" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15813,7 +15813,7 @@
         <v>0</v>
       </c>
       <c r="Z162" s="28" t="s">
-        <v>633</v>
+        <v>589</v>
       </c>
     </row>
     <row r="163" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15889,7 +15889,7 @@
         <v>0</v>
       </c>
       <c r="Z163" s="28" t="s">
-        <v>634</v>
+        <v>590</v>
       </c>
     </row>
     <row r="164" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15965,7 +15965,7 @@
         <v>0</v>
       </c>
       <c r="Z164" s="28" t="s">
-        <v>628</v>
+        <v>584</v>
       </c>
     </row>
     <row r="165" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16041,7 +16041,7 @@
         <v>0</v>
       </c>
       <c r="Z165" s="28" t="s">
-        <v>635</v>
+        <v>591</v>
       </c>
     </row>
     <row r="166" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16117,7 +16117,7 @@
         <v>0</v>
       </c>
       <c r="Z166" s="28" t="s">
-        <v>636</v>
+        <v>592</v>
       </c>
     </row>
     <row r="167" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16193,7 +16193,7 @@
         <v>0</v>
       </c>
       <c r="Z167" s="28" t="s">
-        <v>637</v>
+        <v>593</v>
       </c>
     </row>
     <row r="168" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16269,7 +16269,7 @@
         <v>0</v>
       </c>
       <c r="Z168" s="28" t="s">
-        <v>638</v>
+        <v>594</v>
       </c>
     </row>
     <row r="169" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16345,7 +16345,7 @@
         <v>0</v>
       </c>
       <c r="Z169" s="28" t="s">
-        <v>639</v>
+        <v>595</v>
       </c>
     </row>
     <row r="170" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16421,7 +16421,7 @@
         <v>0</v>
       </c>
       <c r="Z170" s="28" t="s">
-        <v>640</v>
+        <v>596</v>
       </c>
     </row>
     <row r="171" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16497,7 +16497,7 @@
         <v>0</v>
       </c>
       <c r="Z171" s="28" t="s">
-        <v>641</v>
+        <v>597</v>
       </c>
     </row>
     <row r="172" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16573,7 +16573,7 @@
         <v>0</v>
       </c>
       <c r="Z172" s="28" t="s">
-        <v>642</v>
+        <v>598</v>
       </c>
     </row>
     <row r="173" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16649,7 +16649,7 @@
         <v>0</v>
       </c>
       <c r="Z173" s="28" t="s">
-        <v>643</v>
+        <v>599</v>
       </c>
     </row>
     <row r="174" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="Z174" s="28" t="s">
-        <v>639</v>
+        <v>595</v>
       </c>
     </row>
     <row r="175" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16801,7 +16801,7 @@
         <v>0</v>
       </c>
       <c r="Z175" s="28" t="s">
-        <v>640</v>
+        <v>596</v>
       </c>
     </row>
     <row r="176" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16809,7 +16809,7 @@
         <v>100527</v>
       </c>
       <c r="D176" s="23" t="s">
-        <v>562</v>
+        <v>518</v>
       </c>
       <c r="E176" s="16">
         <v>1</v>
@@ -16877,7 +16877,7 @@
         <v>0</v>
       </c>
       <c r="Z176" s="28" t="s">
-        <v>640</v>
+        <v>596</v>
       </c>
     </row>
     <row r="177" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16952,7 +16952,7 @@
         <v>0</v>
       </c>
       <c r="Z177" s="28" t="s">
-        <v>807</v>
+        <v>763</v>
       </c>
     </row>
     <row r="178" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17027,7 +17027,7 @@
         <v>0</v>
       </c>
       <c r="Z178" s="28" t="s">
-        <v>808</v>
+        <v>764</v>
       </c>
     </row>
     <row r="179" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17102,7 +17102,7 @@
         <v>0</v>
       </c>
       <c r="Z179" s="29" t="s">
-        <v>809</v>
+        <v>765</v>
       </c>
     </row>
     <row r="180" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17177,7 +17177,7 @@
         <v>0</v>
       </c>
       <c r="Z180" s="29" t="s">
-        <v>810</v>
+        <v>766</v>
       </c>
     </row>
     <row r="181" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17252,7 +17252,7 @@
         <v>0</v>
       </c>
       <c r="Z181" s="29" t="s">
-        <v>811</v>
+        <v>767</v>
       </c>
     </row>
     <row r="182" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17327,7 +17327,7 @@
         <v>0</v>
       </c>
       <c r="Z182" s="29" t="s">
-        <v>812</v>
+        <v>768</v>
       </c>
     </row>
     <row r="183" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17402,7 +17402,7 @@
         <v>0</v>
       </c>
       <c r="Z183" s="29" t="s">
-        <v>813</v>
+        <v>769</v>
       </c>
     </row>
     <row r="184" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17477,7 +17477,7 @@
         <v>0</v>
       </c>
       <c r="Z184" s="29" t="s">
-        <v>814</v>
+        <v>770</v>
       </c>
     </row>
     <row r="185" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17485,7 +17485,7 @@
         <v>100559</v>
       </c>
       <c r="D185" s="21" t="s">
-        <v>563</v>
+        <v>519</v>
       </c>
       <c r="E185" s="22">
         <v>5</v>
@@ -17552,7 +17552,7 @@
         <v>0</v>
       </c>
       <c r="Z185" s="29" t="s">
-        <v>815</v>
+        <v>771</v>
       </c>
     </row>
     <row r="186" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17560,7 +17560,7 @@
         <v>200001</v>
       </c>
       <c r="D186" s="23" t="s">
-        <v>728</v>
+        <v>684</v>
       </c>
       <c r="E186" s="16">
         <v>3</v>
@@ -17626,7 +17626,7 @@
         <v>0</v>
       </c>
       <c r="Z186" s="28" t="s">
-        <v>644</v>
+        <v>600</v>
       </c>
     </row>
     <row r="187" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17700,7 +17700,7 @@
         <v>0</v>
       </c>
       <c r="Z187" s="28" t="s">
-        <v>645</v>
+        <v>601</v>
       </c>
     </row>
     <row r="188" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17774,7 +17774,7 @@
         <v>0</v>
       </c>
       <c r="Z188" s="28" t="s">
-        <v>731</v>
+        <v>687</v>
       </c>
     </row>
     <row r="189" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="Z189" s="28" t="s">
-        <v>646</v>
+        <v>602</v>
       </c>
     </row>
     <row r="190" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17922,7 +17922,7 @@
         <v>0</v>
       </c>
       <c r="Z190" s="28" t="s">
-        <v>647</v>
+        <v>603</v>
       </c>
     </row>
     <row r="191" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17996,7 +17996,7 @@
         <v>0</v>
       </c>
       <c r="Z191" s="28" t="s">
-        <v>648</v>
+        <v>604</v>
       </c>
     </row>
     <row r="192" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18070,7 +18070,7 @@
         <v>0</v>
       </c>
       <c r="Z192" s="28" t="s">
-        <v>644</v>
+        <v>600</v>
       </c>
     </row>
     <row r="193" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18144,7 +18144,7 @@
         <v>0</v>
       </c>
       <c r="Z193" s="28" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
     </row>
     <row r="194" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18218,7 +18218,7 @@
         <v>0</v>
       </c>
       <c r="Z194" s="28" t="s">
-        <v>650</v>
+        <v>606</v>
       </c>
     </row>
     <row r="195" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18292,7 +18292,7 @@
         <v>0</v>
       </c>
       <c r="Z195" s="28" t="s">
-        <v>651</v>
+        <v>607</v>
       </c>
     </row>
     <row r="196" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18366,7 +18366,7 @@
         <v>0</v>
       </c>
       <c r="Z196" s="28" t="s">
-        <v>652</v>
+        <v>608</v>
       </c>
     </row>
     <row r="197" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18440,7 +18440,7 @@
         <v>0</v>
       </c>
       <c r="Z197" s="28" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
     </row>
     <row r="198" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18514,7 +18514,7 @@
         <v>0</v>
       </c>
       <c r="Z198" s="28" t="s">
-        <v>654</v>
+        <v>610</v>
       </c>
     </row>
     <row r="199" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18589,7 +18589,7 @@
         <v>0</v>
       </c>
       <c r="Z199" s="28" t="s">
-        <v>655</v>
+        <v>611</v>
       </c>
     </row>
     <row r="200" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18664,7 +18664,7 @@
         <v>0</v>
       </c>
       <c r="Z200" s="28" t="s">
-        <v>656</v>
+        <v>612</v>
       </c>
     </row>
     <row r="201" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18739,7 +18739,7 @@
         <v>0</v>
       </c>
       <c r="Z201" s="28" t="s">
-        <v>657</v>
+        <v>613</v>
       </c>
     </row>
     <row r="202" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18814,7 +18814,7 @@
         <v>0</v>
       </c>
       <c r="Z202" s="28" t="s">
-        <v>658</v>
+        <v>614</v>
       </c>
     </row>
     <row r="203" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18889,7 +18889,7 @@
         <v>0</v>
       </c>
       <c r="Z203" s="28" t="s">
-        <v>659</v>
+        <v>615</v>
       </c>
     </row>
     <row r="204" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18964,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="Z204" s="28" t="s">
-        <v>660</v>
+        <v>616</v>
       </c>
     </row>
     <row r="205" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19039,7 +19039,7 @@
         <v>0</v>
       </c>
       <c r="Z205" s="28" t="s">
-        <v>661</v>
+        <v>617</v>
       </c>
     </row>
     <row r="206" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19114,7 +19114,7 @@
         <v>0</v>
       </c>
       <c r="Z206" s="28" t="s">
-        <v>662</v>
+        <v>618</v>
       </c>
     </row>
     <row r="207" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19189,7 +19189,7 @@
         <v>0</v>
       </c>
       <c r="Z207" s="28" t="s">
-        <v>663</v>
+        <v>619</v>
       </c>
     </row>
     <row r="208" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19264,7 +19264,7 @@
         <v>0</v>
       </c>
       <c r="Z208" s="28" t="s">
-        <v>664</v>
+        <v>620</v>
       </c>
     </row>
     <row r="209" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19339,7 +19339,7 @@
         <v>0</v>
       </c>
       <c r="Z209" s="28" t="s">
-        <v>665</v>
+        <v>621</v>
       </c>
     </row>
     <row r="210" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19414,7 +19414,7 @@
         <v>0</v>
       </c>
       <c r="Z210" s="28" t="s">
-        <v>666</v>
+        <v>622</v>
       </c>
     </row>
     <row r="211" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19489,7 +19489,7 @@
         <v>0</v>
       </c>
       <c r="Z211" s="28" t="s">
-        <v>667</v>
+        <v>623</v>
       </c>
     </row>
     <row r="212" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19564,7 +19564,7 @@
         <v>0</v>
       </c>
       <c r="Z212" s="28" t="s">
-        <v>668</v>
+        <v>624</v>
       </c>
     </row>
     <row r="213" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19639,7 +19639,7 @@
         <v>0</v>
       </c>
       <c r="Z213" s="28" t="s">
-        <v>669</v>
+        <v>625</v>
       </c>
     </row>
     <row r="214" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19714,7 +19714,7 @@
         <v>0</v>
       </c>
       <c r="Z214" s="28" t="s">
-        <v>670</v>
+        <v>626</v>
       </c>
     </row>
     <row r="215" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19789,7 +19789,7 @@
         <v>0</v>
       </c>
       <c r="Z215" s="28" t="s">
-        <v>671</v>
+        <v>627</v>
       </c>
     </row>
     <row r="216" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19864,7 +19864,7 @@
         <v>0</v>
       </c>
       <c r="Z216" s="28" t="s">
-        <v>672</v>
+        <v>628</v>
       </c>
     </row>
     <row r="217" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19938,7 +19938,7 @@
         <v>0</v>
       </c>
       <c r="Z217" s="28" t="s">
-        <v>684</v>
+        <v>640</v>
       </c>
     </row>
     <row r="218" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20012,7 +20012,7 @@
         <v>0</v>
       </c>
       <c r="Z218" s="28" t="s">
-        <v>684</v>
+        <v>640</v>
       </c>
     </row>
     <row r="219" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20086,7 +20086,7 @@
         <v>0</v>
       </c>
       <c r="Z219" s="28" t="s">
-        <v>684</v>
+        <v>640</v>
       </c>
     </row>
     <row r="220" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20160,7 +20160,7 @@
         <v>0</v>
       </c>
       <c r="Z220" s="28" t="s">
-        <v>684</v>
+        <v>640</v>
       </c>
     </row>
     <row r="221" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20234,7 +20234,7 @@
         <v>0</v>
       </c>
       <c r="Z221" s="28" t="s">
-        <v>685</v>
+        <v>641</v>
       </c>
     </row>
     <row r="222" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20309,7 +20309,7 @@
         <v>0</v>
       </c>
       <c r="Z222" s="28" t="s">
-        <v>686</v>
+        <v>642</v>
       </c>
     </row>
     <row r="223" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20384,7 +20384,7 @@
         <v>0</v>
       </c>
       <c r="Z223" s="28" t="s">
-        <v>686</v>
+        <v>642</v>
       </c>
     </row>
     <row r="224" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20459,7 +20459,7 @@
         <v>0</v>
       </c>
       <c r="Z224" s="28" t="s">
-        <v>686</v>
+        <v>642</v>
       </c>
     </row>
     <row r="225" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20534,7 +20534,7 @@
         <v>0</v>
       </c>
       <c r="Z225" s="28" t="s">
-        <v>686</v>
+        <v>642</v>
       </c>
     </row>
     <row r="226" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20609,7 +20609,7 @@
         <v>0</v>
       </c>
       <c r="Z226" s="28" t="s">
-        <v>687</v>
+        <v>643</v>
       </c>
     </row>
     <row r="227" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20684,7 +20684,7 @@
         <v>0</v>
       </c>
       <c r="Z227" s="28" t="s">
-        <v>688</v>
+        <v>644</v>
       </c>
     </row>
     <row r="228" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20759,7 +20759,7 @@
         <v>0</v>
       </c>
       <c r="Z228" s="28" t="s">
-        <v>688</v>
+        <v>644</v>
       </c>
     </row>
     <row r="229" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20834,7 +20834,7 @@
         <v>0</v>
       </c>
       <c r="Z229" s="28" t="s">
-        <v>688</v>
+        <v>644</v>
       </c>
     </row>
     <row r="230" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20909,7 +20909,7 @@
         <v>0</v>
       </c>
       <c r="Z230" s="28" t="s">
-        <v>688</v>
+        <v>644</v>
       </c>
     </row>
     <row r="231" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20984,7 +20984,7 @@
         <v>0</v>
       </c>
       <c r="Z231" s="28" t="s">
-        <v>689</v>
+        <v>645</v>
       </c>
     </row>
     <row r="232" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21059,7 +21059,7 @@
         <v>0</v>
       </c>
       <c r="Z232" s="28" t="s">
-        <v>690</v>
+        <v>646</v>
       </c>
     </row>
     <row r="233" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21134,7 +21134,7 @@
         <v>0</v>
       </c>
       <c r="Z233" s="28" t="s">
-        <v>690</v>
+        <v>646</v>
       </c>
     </row>
     <row r="234" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21209,7 +21209,7 @@
         <v>0</v>
       </c>
       <c r="Z234" s="28" t="s">
-        <v>690</v>
+        <v>646</v>
       </c>
     </row>
     <row r="235" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21284,7 +21284,7 @@
         <v>0</v>
       </c>
       <c r="Z235" s="28" t="s">
-        <v>690</v>
+        <v>646</v>
       </c>
     </row>
     <row r="236" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21359,7 +21359,7 @@
         <v>0</v>
       </c>
       <c r="Z236" s="28" t="s">
-        <v>691</v>
+        <v>647</v>
       </c>
     </row>
     <row r="237" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21434,7 +21434,7 @@
         <v>0</v>
       </c>
       <c r="Z237" s="28" t="s">
-        <v>692</v>
+        <v>648</v>
       </c>
     </row>
     <row r="238" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21509,7 +21509,7 @@
         <v>0</v>
       </c>
       <c r="Z238" s="28" t="s">
-        <v>692</v>
+        <v>648</v>
       </c>
     </row>
     <row r="239" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21584,7 +21584,7 @@
         <v>0</v>
       </c>
       <c r="Z239" s="28" t="s">
-        <v>692</v>
+        <v>648</v>
       </c>
     </row>
     <row r="240" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21659,7 +21659,7 @@
         <v>0</v>
       </c>
       <c r="Z240" s="28" t="s">
-        <v>692</v>
+        <v>648</v>
       </c>
     </row>
     <row r="241" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21734,7 +21734,7 @@
         <v>0</v>
       </c>
       <c r="Z241" s="28" t="s">
-        <v>693</v>
+        <v>649</v>
       </c>
     </row>
     <row r="242" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21742,7 +21742,7 @@
         <v>200602</v>
       </c>
       <c r="D242" s="45" t="s">
-        <v>551</v>
+        <v>507</v>
       </c>
       <c r="E242" s="16">
         <v>3</v>
@@ -21808,7 +21808,7 @@
         <v>0</v>
       </c>
       <c r="Z242" s="28" t="s">
-        <v>694</v>
+        <v>650</v>
       </c>
     </row>
     <row r="243" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21816,7 +21816,7 @@
         <v>200603</v>
       </c>
       <c r="D243" s="46" t="s">
-        <v>552</v>
+        <v>508</v>
       </c>
       <c r="E243" s="16">
         <v>3</v>
@@ -21882,7 +21882,7 @@
         <v>0</v>
       </c>
       <c r="Z243" s="28" t="s">
-        <v>673</v>
+        <v>629</v>
       </c>
     </row>
     <row r="244" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21890,7 +21890,7 @@
         <v>200604</v>
       </c>
       <c r="D244" s="46" t="s">
-        <v>552</v>
+        <v>508</v>
       </c>
       <c r="E244" s="16">
         <v>3</v>
@@ -21956,7 +21956,7 @@
         <v>0</v>
       </c>
       <c r="Z244" s="28" t="s">
-        <v>673</v>
+        <v>629</v>
       </c>
     </row>
     <row r="245" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22030,7 +22030,7 @@
         <v>0</v>
       </c>
       <c r="Z245" s="28" t="s">
-        <v>695</v>
+        <v>651</v>
       </c>
     </row>
     <row r="246" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22104,7 +22104,7 @@
         <v>0</v>
       </c>
       <c r="Z246" s="28" t="s">
-        <v>696</v>
+        <v>652</v>
       </c>
     </row>
     <row r="247" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22178,7 +22178,7 @@
         <v>0</v>
       </c>
       <c r="Z247" s="28" t="s">
-        <v>697</v>
+        <v>653</v>
       </c>
     </row>
     <row r="248" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22252,7 +22252,7 @@
         <v>0</v>
       </c>
       <c r="Z248" s="28" t="s">
-        <v>697</v>
+        <v>653</v>
       </c>
     </row>
     <row r="249" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22326,7 +22326,7 @@
         <v>0</v>
       </c>
       <c r="Z249" s="28" t="s">
-        <v>697</v>
+        <v>653</v>
       </c>
     </row>
     <row r="250" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22400,7 +22400,7 @@
         <v>0</v>
       </c>
       <c r="Z250" s="28" t="s">
-        <v>674</v>
+        <v>630</v>
       </c>
     </row>
     <row r="251" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22474,7 +22474,7 @@
         <v>0</v>
       </c>
       <c r="Z251" s="28" t="s">
-        <v>674</v>
+        <v>630</v>
       </c>
     </row>
     <row r="252" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22548,7 +22548,7 @@
         <v>0</v>
       </c>
       <c r="Z252" s="28" t="s">
-        <v>674</v>
+        <v>630</v>
       </c>
     </row>
     <row r="253" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22561,8 +22561,8 @@
       <c r="E253" s="16">
         <v>4</v>
       </c>
-      <c r="F253" s="31">
-        <v>10045102</v>
+      <c r="F253" s="47">
+        <v>1045102</v>
       </c>
       <c r="G253" s="14">
         <v>0</v>
@@ -22622,7 +22622,7 @@
         <v>2500</v>
       </c>
       <c r="Z253" s="2" t="s">
-        <v>260</v>
+        <v>776</v>
       </c>
     </row>
     <row r="254" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22630,13 +22630,13 @@
         <v>4000102</v>
       </c>
       <c r="D254" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E254" s="16">
         <v>4</v>
       </c>
-      <c r="F254" s="31">
-        <v>10045103</v>
+      <c r="F254" s="47">
+        <v>1045103</v>
       </c>
       <c r="G254" s="14">
         <v>0</v>
@@ -22696,7 +22696,7 @@
         <v>3500</v>
       </c>
       <c r="Z254" s="2" t="s">
-        <v>262</v>
+        <v>777</v>
       </c>
     </row>
     <row r="255" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22704,13 +22704,13 @@
         <v>4000103</v>
       </c>
       <c r="D255" s="31" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E255" s="16">
         <v>4</v>
       </c>
-      <c r="F255" s="31">
-        <v>10045104</v>
+      <c r="F255" s="47">
+        <v>1045104</v>
       </c>
       <c r="G255" s="14">
         <v>0</v>
@@ -22770,7 +22770,7 @@
         <v>5000</v>
       </c>
       <c r="Z255" s="2" t="s">
-        <v>264</v>
+        <v>778</v>
       </c>
     </row>
     <row r="256" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22778,13 +22778,13 @@
         <v>4000104</v>
       </c>
       <c r="D256" s="31" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E256" s="16">
         <v>4</v>
       </c>
-      <c r="F256" s="31">
-        <v>10045105</v>
+      <c r="F256" s="47">
+        <v>1045105</v>
       </c>
       <c r="G256" s="14">
         <v>0</v>
@@ -22844,7 +22844,7 @@
         <v>7500</v>
       </c>
       <c r="Z256" s="2" t="s">
-        <v>266</v>
+        <v>779</v>
       </c>
     </row>
     <row r="257" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22852,13 +22852,13 @@
         <v>4000105</v>
       </c>
       <c r="D257" s="31" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E257" s="16">
         <v>4</v>
       </c>
-      <c r="F257" s="31">
-        <v>10045106</v>
+      <c r="F257" s="47">
+        <v>1045106</v>
       </c>
       <c r="G257" s="14">
         <v>0</v>
@@ -22918,7 +22918,7 @@
         <v>10000</v>
       </c>
       <c r="Z257" s="2" t="s">
-        <v>268</v>
+        <v>780</v>
       </c>
     </row>
     <row r="258" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22926,13 +22926,13 @@
         <v>4000106</v>
       </c>
       <c r="D258" s="31" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E258" s="16">
         <v>4</v>
       </c>
-      <c r="F258" s="31">
-        <v>10045107</v>
+      <c r="F258" s="47">
+        <v>1045107</v>
       </c>
       <c r="G258" s="14">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>20000</v>
       </c>
       <c r="Z258" s="2" t="s">
-        <v>270</v>
+        <v>781</v>
       </c>
     </row>
     <row r="259" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23000,13 +23000,13 @@
         <v>4000107</v>
       </c>
       <c r="D259" s="31" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E259" s="16">
         <v>4</v>
       </c>
-      <c r="F259" s="31">
-        <v>10045108</v>
+      <c r="F259" s="47">
+        <v>1045108</v>
       </c>
       <c r="G259" s="14">
         <v>0</v>
@@ -23066,7 +23066,7 @@
         <v>30000</v>
       </c>
       <c r="Z259" s="2" t="s">
-        <v>272</v>
+        <v>782</v>
       </c>
     </row>
     <row r="260" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23074,13 +23074,13 @@
         <v>4000108</v>
       </c>
       <c r="D260" s="31" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E260" s="16">
         <v>4</v>
       </c>
-      <c r="F260" s="31">
-        <v>10045109</v>
+      <c r="F260" s="47">
+        <v>1045109</v>
       </c>
       <c r="G260" s="14">
         <v>0</v>
@@ -23140,7 +23140,7 @@
         <v>40000</v>
       </c>
       <c r="Z260" s="2" t="s">
-        <v>274</v>
+        <v>783</v>
       </c>
     </row>
     <row r="261" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23148,13 +23148,13 @@
         <v>4000109</v>
       </c>
       <c r="D261" s="31" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E261" s="16">
         <v>4</v>
       </c>
-      <c r="F261" s="31">
-        <v>10045110</v>
+      <c r="F261" s="47">
+        <v>1045110</v>
       </c>
       <c r="G261" s="14">
         <v>0</v>
@@ -23214,7 +23214,7 @@
         <v>50000</v>
       </c>
       <c r="Z261" s="2" t="s">
-        <v>276</v>
+        <v>784</v>
       </c>
     </row>
     <row r="262" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23222,13 +23222,13 @@
         <v>4000110</v>
       </c>
       <c r="D262" s="32" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E262" s="33">
         <v>4</v>
       </c>
-      <c r="F262" s="31">
-        <v>10045111</v>
+      <c r="F262" s="47">
+        <v>1045111</v>
       </c>
       <c r="G262" s="34">
         <v>0</v>
@@ -23288,7 +23288,7 @@
         <v>100000</v>
       </c>
       <c r="Z262" s="4" t="s">
-        <v>278</v>
+        <v>785</v>
       </c>
     </row>
     <row r="263" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23296,13 +23296,13 @@
         <v>4000111</v>
       </c>
       <c r="D263" s="32" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E263" s="33">
         <v>4</v>
       </c>
-      <c r="F263" s="31">
-        <v>10045112</v>
+      <c r="F263" s="47">
+        <v>1045112</v>
       </c>
       <c r="G263" s="34">
         <v>0</v>
@@ -23362,7 +23362,7 @@
         <v>200000</v>
       </c>
       <c r="Z263" s="4" t="s">
-        <v>280</v>
+        <v>786</v>
       </c>
     </row>
     <row r="264" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23370,13 +23370,13 @@
         <v>4000201</v>
       </c>
       <c r="D264" s="31" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E264" s="16">
         <v>4</v>
       </c>
       <c r="F264" s="31">
-        <v>10045202</v>
+        <v>1045202</v>
       </c>
       <c r="G264" s="14">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>2500</v>
       </c>
       <c r="Z264" s="2" t="s">
-        <v>282</v>
+        <v>787</v>
       </c>
     </row>
     <row r="265" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23444,13 +23444,13 @@
         <v>4000202</v>
       </c>
       <c r="D265" s="31" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E265" s="16">
         <v>4</v>
       </c>
       <c r="F265" s="31">
-        <v>10045203</v>
+        <v>1045203</v>
       </c>
       <c r="G265" s="14">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>3500</v>
       </c>
       <c r="Z265" s="2" t="s">
-        <v>284</v>
+        <v>788</v>
       </c>
     </row>
     <row r="266" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23518,13 +23518,13 @@
         <v>4000203</v>
       </c>
       <c r="D266" s="31" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="E266" s="16">
         <v>4</v>
       </c>
       <c r="F266" s="31">
-        <v>10045204</v>
+        <v>1045204</v>
       </c>
       <c r="G266" s="14">
         <v>0</v>
@@ -23584,7 +23584,7 @@
         <v>5000</v>
       </c>
       <c r="Z266" s="2" t="s">
-        <v>286</v>
+        <v>789</v>
       </c>
     </row>
     <row r="267" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23592,13 +23592,13 @@
         <v>4000204</v>
       </c>
       <c r="D267" s="31" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="E267" s="16">
         <v>4</v>
       </c>
       <c r="F267" s="31">
-        <v>10045205</v>
+        <v>1045205</v>
       </c>
       <c r="G267" s="14">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>7500</v>
       </c>
       <c r="Z267" s="2" t="s">
-        <v>288</v>
+        <v>790</v>
       </c>
     </row>
     <row r="268" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23666,13 +23666,13 @@
         <v>4000205</v>
       </c>
       <c r="D268" s="31" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="E268" s="16">
         <v>4</v>
       </c>
       <c r="F268" s="31">
-        <v>10045206</v>
+        <v>1045206</v>
       </c>
       <c r="G268" s="14">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>10000</v>
       </c>
       <c r="Z268" s="2" t="s">
-        <v>290</v>
+        <v>791</v>
       </c>
     </row>
     <row r="269" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23740,13 +23740,13 @@
         <v>4000206</v>
       </c>
       <c r="D269" s="31" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E269" s="16">
         <v>4</v>
       </c>
       <c r="F269" s="31">
-        <v>10045207</v>
+        <v>1045207</v>
       </c>
       <c r="G269" s="14">
         <v>0</v>
@@ -23806,7 +23806,7 @@
         <v>20000</v>
       </c>
       <c r="Z269" s="2" t="s">
-        <v>292</v>
+        <v>792</v>
       </c>
     </row>
     <row r="270" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23814,13 +23814,13 @@
         <v>4000207</v>
       </c>
       <c r="D270" s="31" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="E270" s="16">
         <v>4</v>
       </c>
       <c r="F270" s="31">
-        <v>10045208</v>
+        <v>1045208</v>
       </c>
       <c r="G270" s="14">
         <v>0</v>
@@ -23880,7 +23880,7 @@
         <v>30000</v>
       </c>
       <c r="Z270" s="8" t="s">
-        <v>294</v>
+        <v>793</v>
       </c>
     </row>
     <row r="271" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23888,13 +23888,13 @@
         <v>4000208</v>
       </c>
       <c r="D271" s="31" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="E271" s="16">
         <v>4</v>
       </c>
       <c r="F271" s="31">
-        <v>10045209</v>
+        <v>1045209</v>
       </c>
       <c r="G271" s="14">
         <v>0</v>
@@ -23954,7 +23954,7 @@
         <v>40000</v>
       </c>
       <c r="Z271" s="8" t="s">
-        <v>296</v>
+        <v>794</v>
       </c>
     </row>
     <row r="272" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23962,13 +23962,13 @@
         <v>4000209</v>
       </c>
       <c r="D272" s="31" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="E272" s="16">
         <v>4</v>
       </c>
       <c r="F272" s="31">
-        <v>10045210</v>
+        <v>1045210</v>
       </c>
       <c r="G272" s="14">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>50000</v>
       </c>
       <c r="Z272" s="8" t="s">
-        <v>298</v>
+        <v>795</v>
       </c>
     </row>
     <row r="273" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24036,13 +24036,13 @@
         <v>4000210</v>
       </c>
       <c r="D273" s="32" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E273" s="33">
         <v>4</v>
       </c>
       <c r="F273" s="31">
-        <v>10045211</v>
+        <v>1045211</v>
       </c>
       <c r="G273" s="34">
         <v>0</v>
@@ -24102,7 +24102,7 @@
         <v>100000</v>
       </c>
       <c r="Z273" s="5" t="s">
-        <v>300</v>
+        <v>796</v>
       </c>
     </row>
     <row r="274" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24110,13 +24110,13 @@
         <v>4000211</v>
       </c>
       <c r="D274" s="32" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="E274" s="33">
         <v>4</v>
       </c>
       <c r="F274" s="31">
-        <v>10045212</v>
+        <v>1045212</v>
       </c>
       <c r="G274" s="34">
         <v>0</v>
@@ -24176,7 +24176,7 @@
         <v>200000</v>
       </c>
       <c r="Z274" s="5" t="s">
-        <v>302</v>
+        <v>797</v>
       </c>
     </row>
     <row r="275" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24184,13 +24184,13 @@
         <v>4000301</v>
       </c>
       <c r="D275" s="31" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="E275" s="16">
         <v>4</v>
       </c>
       <c r="F275" s="31">
-        <v>10045302</v>
+        <v>1045302</v>
       </c>
       <c r="G275" s="14">
         <v>0</v>
@@ -24250,7 +24250,7 @@
         <v>2500</v>
       </c>
       <c r="Z275" s="8" t="s">
-        <v>304</v>
+        <v>798</v>
       </c>
     </row>
     <row r="276" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24258,13 +24258,13 @@
         <v>4000302</v>
       </c>
       <c r="D276" s="31" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="E276" s="16">
         <v>4</v>
       </c>
       <c r="F276" s="31">
-        <v>10045303</v>
+        <v>1045303</v>
       </c>
       <c r="G276" s="14">
         <v>0</v>
@@ -24324,7 +24324,7 @@
         <v>3500</v>
       </c>
       <c r="Z276" s="8" t="s">
-        <v>306</v>
+        <v>799</v>
       </c>
     </row>
     <row r="277" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24332,13 +24332,13 @@
         <v>4000303</v>
       </c>
       <c r="D277" s="31" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="E277" s="16">
         <v>4</v>
       </c>
       <c r="F277" s="31">
-        <v>10045304</v>
+        <v>1045304</v>
       </c>
       <c r="G277" s="14">
         <v>0</v>
@@ -24398,7 +24398,7 @@
         <v>5000</v>
       </c>
       <c r="Z277" s="8" t="s">
-        <v>308</v>
+        <v>800</v>
       </c>
     </row>
     <row r="278" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24406,13 +24406,13 @@
         <v>4000304</v>
       </c>
       <c r="D278" s="31" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="E278" s="16">
         <v>4</v>
       </c>
       <c r="F278" s="31">
-        <v>10045305</v>
+        <v>1045305</v>
       </c>
       <c r="G278" s="14">
         <v>0</v>
@@ -24472,7 +24472,7 @@
         <v>7500</v>
       </c>
       <c r="Z278" s="8" t="s">
-        <v>310</v>
+        <v>801</v>
       </c>
     </row>
     <row r="279" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24480,13 +24480,13 @@
         <v>4000305</v>
       </c>
       <c r="D279" s="31" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="E279" s="16">
         <v>4</v>
       </c>
       <c r="F279" s="31">
-        <v>10045306</v>
+        <v>1045306</v>
       </c>
       <c r="G279" s="14">
         <v>0</v>
@@ -24546,7 +24546,7 @@
         <v>10000</v>
       </c>
       <c r="Z279" s="8" t="s">
-        <v>312</v>
+        <v>802</v>
       </c>
     </row>
     <row r="280" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24554,13 +24554,13 @@
         <v>4000306</v>
       </c>
       <c r="D280" s="31" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="E280" s="16">
         <v>4</v>
       </c>
       <c r="F280" s="31">
-        <v>10045307</v>
+        <v>1045307</v>
       </c>
       <c r="G280" s="14">
         <v>0</v>
@@ -24620,7 +24620,7 @@
         <v>20000</v>
       </c>
       <c r="Z280" s="8" t="s">
-        <v>314</v>
+        <v>803</v>
       </c>
     </row>
     <row r="281" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24628,13 +24628,13 @@
         <v>4000307</v>
       </c>
       <c r="D281" s="31" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="E281" s="16">
         <v>4</v>
       </c>
       <c r="F281" s="31">
-        <v>10045308</v>
+        <v>1045308</v>
       </c>
       <c r="G281" s="14">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>30000</v>
       </c>
       <c r="Z281" s="8" t="s">
-        <v>316</v>
+        <v>804</v>
       </c>
     </row>
     <row r="282" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24702,13 +24702,13 @@
         <v>4000308</v>
       </c>
       <c r="D282" s="31" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="E282" s="16">
         <v>4</v>
       </c>
       <c r="F282" s="31">
-        <v>10045309</v>
+        <v>1045309</v>
       </c>
       <c r="G282" s="14">
         <v>0</v>
@@ -24768,7 +24768,7 @@
         <v>40000</v>
       </c>
       <c r="Z282" s="8" t="s">
-        <v>318</v>
+        <v>805</v>
       </c>
     </row>
     <row r="283" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24776,13 +24776,13 @@
         <v>4000309</v>
       </c>
       <c r="D283" s="31" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="E283" s="16">
         <v>4</v>
       </c>
       <c r="F283" s="31">
-        <v>10045310</v>
+        <v>1045310</v>
       </c>
       <c r="G283" s="14">
         <v>0</v>
@@ -24842,7 +24842,7 @@
         <v>50000</v>
       </c>
       <c r="Z283" s="8" t="s">
-        <v>320</v>
+        <v>806</v>
       </c>
     </row>
     <row r="284" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24850,13 +24850,13 @@
         <v>4000310</v>
       </c>
       <c r="D284" s="31" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="E284" s="33">
         <v>4</v>
       </c>
       <c r="F284" s="31">
-        <v>10045311</v>
+        <v>1045311</v>
       </c>
       <c r="G284" s="34">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         <v>100000</v>
       </c>
       <c r="Z284" s="8" t="s">
-        <v>322</v>
+        <v>807</v>
       </c>
     </row>
     <row r="285" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24924,13 +24924,13 @@
         <v>4000311</v>
       </c>
       <c r="D285" s="31" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="E285" s="33">
         <v>4</v>
       </c>
       <c r="F285" s="31">
-        <v>10045312</v>
+        <v>1045312</v>
       </c>
       <c r="G285" s="34">
         <v>0</v>
@@ -24990,7 +24990,7 @@
         <v>200000</v>
       </c>
       <c r="Z285" s="8" t="s">
-        <v>324</v>
+        <v>808</v>
       </c>
     </row>
     <row r="286" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24998,13 +24998,13 @@
         <v>4000401</v>
       </c>
       <c r="D286" s="31" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="E286" s="16">
         <v>4</v>
       </c>
       <c r="F286" s="31">
-        <v>10045402</v>
+        <v>1045402</v>
       </c>
       <c r="G286" s="14">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>2500</v>
       </c>
       <c r="Z286" s="8" t="s">
-        <v>326</v>
+        <v>809</v>
       </c>
     </row>
     <row r="287" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25072,13 +25072,13 @@
         <v>4000402</v>
       </c>
       <c r="D287" s="31" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="E287" s="16">
         <v>4</v>
       </c>
       <c r="F287" s="31">
-        <v>10045403</v>
+        <v>1045403</v>
       </c>
       <c r="G287" s="14">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>3500</v>
       </c>
       <c r="Z287" s="8" t="s">
-        <v>328</v>
+        <v>810</v>
       </c>
     </row>
     <row r="288" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25146,13 +25146,13 @@
         <v>4000403</v>
       </c>
       <c r="D288" s="31" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="E288" s="16">
         <v>4</v>
       </c>
       <c r="F288" s="31">
-        <v>10045404</v>
+        <v>1045404</v>
       </c>
       <c r="G288" s="14">
         <v>0</v>
@@ -25212,7 +25212,7 @@
         <v>5000</v>
       </c>
       <c r="Z288" s="8" t="s">
-        <v>330</v>
+        <v>811</v>
       </c>
     </row>
     <row r="289" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25220,13 +25220,13 @@
         <v>4000404</v>
       </c>
       <c r="D289" s="31" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="E289" s="16">
         <v>4</v>
       </c>
       <c r="F289" s="31">
-        <v>10045405</v>
+        <v>1045405</v>
       </c>
       <c r="G289" s="14">
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>7500</v>
       </c>
       <c r="Z289" s="8" t="s">
-        <v>332</v>
+        <v>812</v>
       </c>
     </row>
     <row r="290" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25294,13 +25294,13 @@
         <v>4000405</v>
       </c>
       <c r="D290" s="31" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="E290" s="16">
         <v>4</v>
       </c>
       <c r="F290" s="31">
-        <v>10045406</v>
+        <v>1045406</v>
       </c>
       <c r="G290" s="14">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>10000</v>
       </c>
       <c r="Z290" s="8" t="s">
-        <v>334</v>
+        <v>813</v>
       </c>
     </row>
     <row r="291" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25368,13 +25368,13 @@
         <v>4000406</v>
       </c>
       <c r="D291" s="31" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="E291" s="16">
         <v>4</v>
       </c>
       <c r="F291" s="31">
-        <v>10045407</v>
+        <v>1045407</v>
       </c>
       <c r="G291" s="14">
         <v>0</v>
@@ -25434,7 +25434,7 @@
         <v>20000</v>
       </c>
       <c r="Z291" s="8" t="s">
-        <v>336</v>
+        <v>814</v>
       </c>
     </row>
     <row r="292" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25442,13 +25442,13 @@
         <v>4000407</v>
       </c>
       <c r="D292" s="31" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="E292" s="16">
         <v>4</v>
       </c>
       <c r="F292" s="31">
-        <v>10045408</v>
+        <v>1045408</v>
       </c>
       <c r="G292" s="14">
         <v>0</v>
@@ -25508,7 +25508,7 @@
         <v>30000</v>
       </c>
       <c r="Z292" s="8" t="s">
-        <v>338</v>
+        <v>815</v>
       </c>
     </row>
     <row r="293" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25516,13 +25516,13 @@
         <v>4000408</v>
       </c>
       <c r="D293" s="31" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="E293" s="16">
         <v>4</v>
       </c>
       <c r="F293" s="31">
-        <v>10045409</v>
+        <v>1045409</v>
       </c>
       <c r="G293" s="14">
         <v>0</v>
@@ -25582,7 +25582,7 @@
         <v>40000</v>
       </c>
       <c r="Z293" s="8" t="s">
-        <v>340</v>
+        <v>816</v>
       </c>
     </row>
     <row r="294" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25590,13 +25590,13 @@
         <v>4000409</v>
       </c>
       <c r="D294" s="31" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="E294" s="16">
         <v>4</v>
       </c>
       <c r="F294" s="31">
-        <v>10045410</v>
+        <v>1045410</v>
       </c>
       <c r="G294" s="14">
         <v>0</v>
@@ -25656,7 +25656,7 @@
         <v>50000</v>
       </c>
       <c r="Z294" s="8" t="s">
-        <v>342</v>
+        <v>817</v>
       </c>
     </row>
     <row r="295" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25664,13 +25664,13 @@
         <v>4000410</v>
       </c>
       <c r="D295" s="31" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="E295" s="33">
         <v>4</v>
       </c>
       <c r="F295" s="31">
-        <v>10045411</v>
+        <v>1045411</v>
       </c>
       <c r="G295" s="34">
         <v>0</v>
@@ -25730,7 +25730,7 @@
         <v>100000</v>
       </c>
       <c r="Z295" s="8" t="s">
-        <v>344</v>
+        <v>818</v>
       </c>
     </row>
     <row r="296" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25738,13 +25738,13 @@
         <v>4000411</v>
       </c>
       <c r="D296" s="31" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="E296" s="33">
         <v>4</v>
       </c>
       <c r="F296" s="31">
-        <v>10045412</v>
+        <v>1045412</v>
       </c>
       <c r="G296" s="34">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>200000</v>
       </c>
       <c r="Z296" s="8" t="s">
-        <v>346</v>
+        <v>819</v>
       </c>
     </row>
     <row r="297" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25812,7 +25812,7 @@
         <v>5000001</v>
       </c>
       <c r="D297" s="37" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E297" s="6">
         <v>0</v>
@@ -25878,7 +25878,7 @@
         <v>1000000</v>
       </c>
       <c r="Z297" s="6" t="s">
-        <v>743</v>
+        <v>699</v>
       </c>
     </row>
     <row r="298" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25886,7 +25886,7 @@
         <v>5000002</v>
       </c>
       <c r="D298" s="37" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="E298" s="6">
         <v>0</v>
@@ -25952,7 +25952,7 @@
         <v>1000000</v>
       </c>
       <c r="Z298" s="6" t="s">
-        <v>743</v>
+        <v>699</v>
       </c>
     </row>
     <row r="299" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25960,7 +25960,7 @@
         <v>5000003</v>
       </c>
       <c r="D299" s="37" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="E299" s="6">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>1000000</v>
       </c>
       <c r="Z299" s="6" t="s">
-        <v>743</v>
+        <v>699</v>
       </c>
     </row>
     <row r="300" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26034,7 +26034,7 @@
         <v>5000011</v>
       </c>
       <c r="D300" s="37" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="E300" s="6">
         <v>0</v>
@@ -26100,7 +26100,7 @@
         <v>1000000</v>
       </c>
       <c r="Z300" s="6" t="s">
-        <v>743</v>
+        <v>699</v>
       </c>
     </row>
     <row r="301" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26108,7 +26108,7 @@
         <v>5000012</v>
       </c>
       <c r="D301" s="37" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="E301" s="6">
         <v>0</v>
@@ -26174,7 +26174,7 @@
         <v>1000000</v>
       </c>
       <c r="Z301" s="6" t="s">
-        <v>743</v>
+        <v>699</v>
       </c>
     </row>
     <row r="302" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26182,7 +26182,7 @@
         <v>5000013</v>
       </c>
       <c r="D302" s="37" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="E302" s="6">
         <v>0</v>
@@ -26248,7 +26248,7 @@
         <v>1000000</v>
       </c>
       <c r="Z302" s="6" t="s">
-        <v>743</v>
+        <v>699</v>
       </c>
     </row>
     <row r="303" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26256,7 +26256,7 @@
         <v>5000021</v>
       </c>
       <c r="D303" s="37" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="E303" s="6">
         <v>0</v>
@@ -26322,7 +26322,7 @@
         <v>1000000</v>
       </c>
       <c r="Z303" s="6" t="s">
-        <v>743</v>
+        <v>699</v>
       </c>
     </row>
     <row r="304" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26330,7 +26330,7 @@
         <v>5000022</v>
       </c>
       <c r="D304" s="37" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="E304" s="6">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>1000000</v>
       </c>
       <c r="Z304" s="6" t="s">
-        <v>743</v>
+        <v>699</v>
       </c>
     </row>
     <row r="305" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26404,7 +26404,7 @@
         <v>5000023</v>
       </c>
       <c r="D305" s="37" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="E305" s="6">
         <v>0</v>
@@ -26470,7 +26470,7 @@
         <v>1000000</v>
       </c>
       <c r="Z305" s="6" t="s">
-        <v>743</v>
+        <v>699</v>
       </c>
     </row>
     <row r="306" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26478,7 +26478,7 @@
         <v>5000031</v>
       </c>
       <c r="D306" s="37" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="E306" s="6">
         <v>0</v>
@@ -26544,7 +26544,7 @@
         <v>1000000</v>
       </c>
       <c r="Z306" s="6" t="s">
-        <v>743</v>
+        <v>699</v>
       </c>
     </row>
     <row r="307" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26552,7 +26552,7 @@
         <v>5000032</v>
       </c>
       <c r="D307" s="37" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="E307" s="6">
         <v>0</v>
@@ -26618,7 +26618,7 @@
         <v>1000000</v>
       </c>
       <c r="Z307" s="6" t="s">
-        <v>743</v>
+        <v>699</v>
       </c>
     </row>
     <row r="308" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26626,7 +26626,7 @@
         <v>5000033</v>
       </c>
       <c r="D308" s="37" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="E308" s="6">
         <v>0</v>
@@ -26692,7 +26692,7 @@
         <v>1000000</v>
       </c>
       <c r="Z308" s="6" t="s">
-        <v>743</v>
+        <v>699</v>
       </c>
     </row>
     <row r="309" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26700,7 +26700,7 @@
         <v>5000041</v>
       </c>
       <c r="D309" s="37" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
       <c r="E309" s="6">
         <v>0</v>
@@ -26766,7 +26766,7 @@
         <v>1000000</v>
       </c>
       <c r="Z309" s="6" t="s">
-        <v>743</v>
+        <v>699</v>
       </c>
     </row>
     <row r="310" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26774,7 +26774,7 @@
         <v>5000042</v>
       </c>
       <c r="D310" s="37" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="E310" s="6">
         <v>0</v>
@@ -26840,7 +26840,7 @@
         <v>1000000</v>
       </c>
       <c r="Z310" s="6" t="s">
-        <v>743</v>
+        <v>699</v>
       </c>
     </row>
     <row r="311" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26848,7 +26848,7 @@
         <v>5000043</v>
       </c>
       <c r="D311" s="37" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="E311" s="6">
         <v>0</v>
@@ -26914,7 +26914,7 @@
         <v>1000000</v>
       </c>
       <c r="Z311" s="6" t="s">
-        <v>743</v>
+        <v>699</v>
       </c>
     </row>
     <row r="312" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26922,7 +26922,7 @@
         <v>5000051</v>
       </c>
       <c r="D312" s="37" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="E312" s="6">
         <v>0</v>
@@ -26988,7 +26988,7 @@
         <v>1000000</v>
       </c>
       <c r="Z312" s="6" t="s">
-        <v>744</v>
+        <v>700</v>
       </c>
     </row>
     <row r="313" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26996,7 +26996,7 @@
         <v>5000052</v>
       </c>
       <c r="D313" s="37" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="E313" s="6">
         <v>0</v>
@@ -27062,7 +27062,7 @@
         <v>1000000</v>
       </c>
       <c r="Z313" s="6" t="s">
-        <v>744</v>
+        <v>700</v>
       </c>
     </row>
     <row r="314" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27070,7 +27070,7 @@
         <v>5000061</v>
       </c>
       <c r="D314" s="37" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="E314" s="6">
         <v>0</v>
@@ -27136,7 +27136,7 @@
         <v>1000000</v>
       </c>
       <c r="Z314" s="6" t="s">
-        <v>744</v>
+        <v>700</v>
       </c>
     </row>
     <row r="315" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27144,7 +27144,7 @@
         <v>5000062</v>
       </c>
       <c r="D315" s="37" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="E315" s="6">
         <v>0</v>
@@ -27210,7 +27210,7 @@
         <v>1000000</v>
       </c>
       <c r="Z315" s="6" t="s">
-        <v>744</v>
+        <v>700</v>
       </c>
     </row>
     <row r="316" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27218,7 +27218,7 @@
         <v>5000071</v>
       </c>
       <c r="D316" s="37" t="s">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c r="E316" s="6">
         <v>0</v>
@@ -27284,7 +27284,7 @@
         <v>1000000</v>
       </c>
       <c r="Z316" s="6" t="s">
-        <v>745</v>
+        <v>701</v>
       </c>
     </row>
     <row r="317" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27292,7 +27292,7 @@
         <v>5000072</v>
       </c>
       <c r="D317" s="37" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
       <c r="E317" s="6">
         <v>0</v>
@@ -27358,7 +27358,7 @@
         <v>1000000</v>
       </c>
       <c r="Z317" s="6" t="s">
-        <v>745</v>
+        <v>701</v>
       </c>
     </row>
     <row r="318" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27366,7 +27366,7 @@
         <v>5000081</v>
       </c>
       <c r="D318" s="18" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="E318" s="6">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>1000000</v>
       </c>
       <c r="Z318" s="6" t="s">
-        <v>745</v>
+        <v>701</v>
       </c>
     </row>
     <row r="319" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27440,7 +27440,7 @@
         <v>5000082</v>
       </c>
       <c r="D319" s="18" t="s">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="E319" s="6">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>1000000</v>
       </c>
       <c r="Z319" s="6" t="s">
-        <v>745</v>
+        <v>701</v>
       </c>
     </row>
     <row r="320" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27514,7 +27514,7 @@
         <v>5000091</v>
       </c>
       <c r="D320" s="37" t="s">
-        <v>370</v>
+        <v>326</v>
       </c>
       <c r="E320" s="6">
         <v>0</v>
@@ -27580,7 +27580,7 @@
         <v>1000000</v>
       </c>
       <c r="Z320" s="6" t="s">
-        <v>746</v>
+        <v>702</v>
       </c>
     </row>
     <row r="321" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27588,7 +27588,7 @@
         <v>5000092</v>
       </c>
       <c r="D321" s="37" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="E321" s="6">
         <v>0</v>
@@ -27654,7 +27654,7 @@
         <v>1000000</v>
       </c>
       <c r="Z321" s="6" t="s">
-        <v>746</v>
+        <v>702</v>
       </c>
     </row>
     <row r="322" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27662,7 +27662,7 @@
         <v>5000093</v>
       </c>
       <c r="D322" s="37" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
       <c r="E322" s="6">
         <v>0</v>
@@ -27728,7 +27728,7 @@
         <v>1000000</v>
       </c>
       <c r="Z322" s="6" t="s">
-        <v>746</v>
+        <v>702</v>
       </c>
     </row>
     <row r="323" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27736,7 +27736,7 @@
         <v>5000101</v>
       </c>
       <c r="D323" s="37" t="s">
-        <v>564</v>
+        <v>520</v>
       </c>
       <c r="E323" s="6">
         <v>0</v>
@@ -27802,7 +27802,7 @@
         <v>1000000</v>
       </c>
       <c r="Z323" s="6" t="s">
-        <v>745</v>
+        <v>701</v>
       </c>
     </row>
     <row r="324" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27810,13 +27810,13 @@
         <v>5001001</v>
       </c>
       <c r="D324" s="38" t="s">
-        <v>373</v>
+        <v>329</v>
       </c>
       <c r="E324" s="6">
         <v>5</v>
       </c>
-      <c r="F324" s="13">
-        <v>10010051</v>
+      <c r="F324" s="47">
+        <v>1010061</v>
       </c>
       <c r="G324" s="14">
         <v>0</v>
@@ -27876,7 +27876,7 @@
         <v>50000</v>
       </c>
       <c r="Z324" s="6" t="s">
-        <v>816</v>
+        <v>772</v>
       </c>
     </row>
     <row r="325" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27884,13 +27884,13 @@
         <v>5001002</v>
       </c>
       <c r="D325" s="38" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="E325" s="6">
         <v>5</v>
       </c>
-      <c r="F325" s="13">
-        <v>10010052</v>
+      <c r="F325" s="47">
+        <v>1010062</v>
       </c>
       <c r="G325" s="14">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>100000</v>
       </c>
       <c r="Z325" s="6" t="s">
-        <v>817</v>
+        <v>773</v>
       </c>
     </row>
     <row r="326" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27958,13 +27958,13 @@
         <v>5001003</v>
       </c>
       <c r="D326" s="38" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
       <c r="E326" s="6">
         <v>5</v>
       </c>
-      <c r="F326" s="13">
-        <v>10010053</v>
+      <c r="F326" s="47">
+        <v>1010063</v>
       </c>
       <c r="G326" s="14">
         <v>0</v>
@@ -28024,7 +28024,7 @@
         <v>300000</v>
       </c>
       <c r="Z326" s="6" t="s">
-        <v>818</v>
+        <v>774</v>
       </c>
     </row>
     <row r="327" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28032,7 +28032,7 @@
         <v>5001004</v>
       </c>
       <c r="D327" s="38" t="s">
-        <v>553</v>
+        <v>509</v>
       </c>
       <c r="E327" s="6">
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>300000</v>
       </c>
       <c r="Z327" s="6" t="s">
-        <v>819</v>
+        <v>775</v>
       </c>
     </row>
     <row r="328" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28106,7 +28106,7 @@
         <v>5002001</v>
       </c>
       <c r="D328" s="18" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="E328" s="7">
         <v>0</v>
@@ -28172,7 +28172,7 @@
         <v>0</v>
       </c>
       <c r="Z328" s="39" t="s">
-        <v>747</v>
+        <v>703</v>
       </c>
     </row>
     <row r="329" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28180,7 +28180,7 @@
         <v>5002002</v>
       </c>
       <c r="D329" s="18" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="E329" s="7">
         <v>0</v>
@@ -28246,7 +28246,7 @@
         <v>0</v>
       </c>
       <c r="Z329" s="39" t="s">
-        <v>748</v>
+        <v>704</v>
       </c>
     </row>
     <row r="330" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28254,7 +28254,7 @@
         <v>5002003</v>
       </c>
       <c r="D330" s="18" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="E330" s="7">
         <v>0</v>
@@ -28320,7 +28320,7 @@
         <v>0</v>
       </c>
       <c r="Z330" s="39" t="s">
-        <v>749</v>
+        <v>705</v>
       </c>
     </row>
     <row r="331" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28328,7 +28328,7 @@
         <v>5002011</v>
       </c>
       <c r="D331" s="18" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="E331" s="7">
         <v>0</v>
@@ -28394,7 +28394,7 @@
         <v>0</v>
       </c>
       <c r="Z331" s="39" t="s">
-        <v>750</v>
+        <v>706</v>
       </c>
     </row>
     <row r="332" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28402,7 +28402,7 @@
         <v>5002012</v>
       </c>
       <c r="D332" s="18" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="E332" s="7">
         <v>0</v>
@@ -28468,7 +28468,7 @@
         <v>0</v>
       </c>
       <c r="Z332" s="39" t="s">
-        <v>751</v>
+        <v>707</v>
       </c>
     </row>
     <row r="333" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28476,7 +28476,7 @@
         <v>5002013</v>
       </c>
       <c r="D333" s="18" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="E333" s="7">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="Z333" s="39" t="s">
-        <v>752</v>
+        <v>708</v>
       </c>
     </row>
     <row r="334" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28550,7 +28550,7 @@
         <v>5002021</v>
       </c>
       <c r="D334" s="18" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="E334" s="7">
         <v>0</v>
@@ -28616,7 +28616,7 @@
         <v>0</v>
       </c>
       <c r="Z334" s="39" t="s">
-        <v>753</v>
+        <v>709</v>
       </c>
     </row>
     <row r="335" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28624,7 +28624,7 @@
         <v>5002022</v>
       </c>
       <c r="D335" s="18" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="E335" s="7">
         <v>0</v>
@@ -28690,7 +28690,7 @@
         <v>0</v>
       </c>
       <c r="Z335" s="39" t="s">
-        <v>754</v>
+        <v>710</v>
       </c>
     </row>
     <row r="336" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28698,7 +28698,7 @@
         <v>5002023</v>
       </c>
       <c r="D336" s="18" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="E336" s="7">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Z336" s="39" t="s">
-        <v>755</v>
+        <v>711</v>
       </c>
     </row>
     <row r="337" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28772,7 +28772,7 @@
         <v>5002031</v>
       </c>
       <c r="D337" s="18" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="E337" s="7">
         <v>0</v>
@@ -28838,7 +28838,7 @@
         <v>0</v>
       </c>
       <c r="Z337" s="39" t="s">
-        <v>756</v>
+        <v>712</v>
       </c>
     </row>
     <row r="338" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28846,7 +28846,7 @@
         <v>5002032</v>
       </c>
       <c r="D338" s="18" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="E338" s="7">
         <v>0</v>
@@ -28912,7 +28912,7 @@
         <v>0</v>
       </c>
       <c r="Z338" s="39" t="s">
-        <v>757</v>
+        <v>713</v>
       </c>
     </row>
     <row r="339" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28920,7 +28920,7 @@
         <v>5002033</v>
       </c>
       <c r="D339" s="18" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="E339" s="7">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="Z339" s="39" t="s">
-        <v>758</v>
+        <v>714</v>
       </c>
     </row>
     <row r="340" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28994,7 +28994,7 @@
         <v>5002041</v>
       </c>
       <c r="D340" s="18" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
       <c r="E340" s="7">
         <v>0</v>
@@ -29060,7 +29060,7 @@
         <v>0</v>
       </c>
       <c r="Z340" s="39" t="s">
-        <v>759</v>
+        <v>715</v>
       </c>
     </row>
     <row r="341" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29068,7 +29068,7 @@
         <v>5002042</v>
       </c>
       <c r="D341" s="18" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="E341" s="7">
         <v>0</v>
@@ -29134,7 +29134,7 @@
         <v>0</v>
       </c>
       <c r="Z341" s="39" t="s">
-        <v>760</v>
+        <v>716</v>
       </c>
     </row>
     <row r="342" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29142,7 +29142,7 @@
         <v>5002043</v>
       </c>
       <c r="D342" s="18" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="E342" s="7">
         <v>0</v>
@@ -29208,7 +29208,7 @@
         <v>0</v>
       </c>
       <c r="Z342" s="39" t="s">
-        <v>761</v>
+        <v>717</v>
       </c>
     </row>
     <row r="343" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29216,7 +29216,7 @@
         <v>5002051</v>
       </c>
       <c r="D343" s="18" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="E343" s="7">
         <v>0</v>
@@ -29282,7 +29282,7 @@
         <v>0</v>
       </c>
       <c r="Z343" s="39" t="s">
-        <v>762</v>
+        <v>718</v>
       </c>
     </row>
     <row r="344" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29290,7 +29290,7 @@
         <v>5002052</v>
       </c>
       <c r="D344" s="18" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="E344" s="7">
         <v>0</v>
@@ -29356,7 +29356,7 @@
         <v>0</v>
       </c>
       <c r="Z344" s="39" t="s">
-        <v>763</v>
+        <v>719</v>
       </c>
     </row>
     <row r="345" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29364,7 +29364,7 @@
         <v>5002061</v>
       </c>
       <c r="D345" s="18" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="E345" s="7">
         <v>0</v>
@@ -29430,7 +29430,7 @@
         <v>0</v>
       </c>
       <c r="Z345" s="39" t="s">
-        <v>764</v>
+        <v>720</v>
       </c>
     </row>
     <row r="346" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29438,7 +29438,7 @@
         <v>5002062</v>
       </c>
       <c r="D346" s="18" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="E346" s="7">
         <v>0</v>
@@ -29504,7 +29504,7 @@
         <v>0</v>
       </c>
       <c r="Z346" s="39" t="s">
-        <v>765</v>
+        <v>721</v>
       </c>
     </row>
     <row r="347" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29512,7 +29512,7 @@
         <v>5002071</v>
       </c>
       <c r="D347" s="18" t="s">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c r="E347" s="7">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Z347" s="39" t="s">
-        <v>766</v>
+        <v>722</v>
       </c>
     </row>
     <row r="348" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29586,7 +29586,7 @@
         <v>5002072</v>
       </c>
       <c r="D348" s="18" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
       <c r="E348" s="7">
         <v>0</v>
@@ -29652,7 +29652,7 @@
         <v>0</v>
       </c>
       <c r="Z348" s="39" t="s">
-        <v>767</v>
+        <v>723</v>
       </c>
     </row>
     <row r="349" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29660,7 +29660,7 @@
         <v>5002081</v>
       </c>
       <c r="D349" s="18" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="E349" s="7">
         <v>0</v>
@@ -29726,7 +29726,7 @@
         <v>0</v>
       </c>
       <c r="Z349" s="39" t="s">
-        <v>768</v>
+        <v>724</v>
       </c>
     </row>
     <row r="350" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29734,7 +29734,7 @@
         <v>5002082</v>
       </c>
       <c r="D350" s="18" t="s">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="E350" s="7">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="Z350" s="39" t="s">
-        <v>769</v>
+        <v>725</v>
       </c>
     </row>
     <row r="351" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29808,7 +29808,7 @@
         <v>5002091</v>
       </c>
       <c r="D351" s="18" t="s">
-        <v>370</v>
+        <v>326</v>
       </c>
       <c r="E351" s="7">
         <v>0</v>
@@ -29874,7 +29874,7 @@
         <v>0</v>
       </c>
       <c r="Z351" s="39" t="s">
-        <v>770</v>
+        <v>726</v>
       </c>
     </row>
     <row r="352" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29882,7 +29882,7 @@
         <v>5002092</v>
       </c>
       <c r="D352" s="18" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="E352" s="7">
         <v>0</v>
@@ -29948,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="Z352" s="39" t="s">
-        <v>771</v>
+        <v>727</v>
       </c>
     </row>
     <row r="353" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29956,7 +29956,7 @@
         <v>5002093</v>
       </c>
       <c r="D353" s="18" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
       <c r="E353" s="7">
         <v>0</v>
@@ -30022,7 +30022,7 @@
         <v>0</v>
       </c>
       <c r="Z353" s="39" t="s">
-        <v>772</v>
+        <v>728</v>
       </c>
     </row>
     <row r="354" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30030,7 +30030,7 @@
         <v>5002101</v>
       </c>
       <c r="D354" s="18" t="s">
-        <v>565</v>
+        <v>521</v>
       </c>
       <c r="E354" s="7">
         <v>0</v>
@@ -30096,7 +30096,7 @@
         <v>0</v>
       </c>
       <c r="Z354" s="39" t="s">
-        <v>773</v>
+        <v>729</v>
       </c>
     </row>
     <row r="355" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30104,7 +30104,7 @@
         <v>6101001</v>
       </c>
       <c r="D355" s="41" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="E355" s="6">
         <v>6</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="Z355" s="42" t="s">
-        <v>701</v>
+        <v>657</v>
       </c>
     </row>
     <row r="356" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30179,7 +30179,7 @@
         <v>6101002</v>
       </c>
       <c r="D356" s="41" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="E356" s="6">
         <v>6</v>
@@ -30246,7 +30246,7 @@
         <v>0</v>
       </c>
       <c r="Z356" s="42" t="s">
-        <v>732</v>
+        <v>688</v>
       </c>
     </row>
     <row r="357" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30254,7 +30254,7 @@
         <v>6101003</v>
       </c>
       <c r="D357" s="41" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="E357" s="6">
         <v>6</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="Z357" s="42" t="s">
-        <v>702</v>
+        <v>658</v>
       </c>
     </row>
     <row r="358" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30329,7 +30329,7 @@
         <v>6102001</v>
       </c>
       <c r="D358" s="41" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="E358" s="6">
         <v>6</v>
@@ -30396,7 +30396,7 @@
         <v>0</v>
       </c>
       <c r="Z358" s="42" t="s">
-        <v>701</v>
+        <v>657</v>
       </c>
     </row>
     <row r="359" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30405,7 +30405,7 @@
         <v>6102002</v>
       </c>
       <c r="D359" s="41" t="s">
-        <v>380</v>
+        <v>336</v>
       </c>
       <c r="E359" s="6">
         <v>6</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="Z359" s="42" t="s">
-        <v>703</v>
+        <v>659</v>
       </c>
     </row>
     <row r="360" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30481,7 +30481,7 @@
         <v>6102003</v>
       </c>
       <c r="D360" s="41" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
       <c r="E360" s="6">
         <v>6</v>
@@ -30547,7 +30547,7 @@
         <v>0</v>
       </c>
       <c r="Z360" s="42" t="s">
-        <v>704</v>
+        <v>660</v>
       </c>
     </row>
     <row r="361" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30556,7 +30556,7 @@
         <v>6103001</v>
       </c>
       <c r="D361" s="41" t="s">
-        <v>382</v>
+        <v>338</v>
       </c>
       <c r="E361" s="6">
         <v>6</v>
@@ -30623,7 +30623,7 @@
         <v>0</v>
       </c>
       <c r="Z361" s="42" t="s">
-        <v>733</v>
+        <v>689</v>
       </c>
     </row>
     <row r="362" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30632,7 +30632,7 @@
         <v>6103002</v>
       </c>
       <c r="D362" s="41" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="E362" s="6">
         <v>6</v>
@@ -30699,7 +30699,7 @@
         <v>0</v>
       </c>
       <c r="Z362" s="42" t="s">
-        <v>705</v>
+        <v>661</v>
       </c>
     </row>
     <row r="363" spans="3:26" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -30708,7 +30708,7 @@
         <v>6103003</v>
       </c>
       <c r="D363" s="41" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="E363" s="6">
         <v>6</v>
@@ -30774,7 +30774,7 @@
         <v>0</v>
       </c>
       <c r="Z363" s="42" t="s">
-        <v>706</v>
+        <v>662</v>
       </c>
     </row>
     <row r="364" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30782,7 +30782,7 @@
         <v>6104001</v>
       </c>
       <c r="D364" s="41" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="E364" s="6">
         <v>6</v>
@@ -30849,7 +30849,7 @@
         <v>0</v>
       </c>
       <c r="Z364" s="42" t="s">
-        <v>707</v>
+        <v>663</v>
       </c>
     </row>
     <row r="365" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30857,7 +30857,7 @@
         <v>6104002</v>
       </c>
       <c r="D365" s="41" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="E365" s="6">
         <v>6</v>
@@ -30924,7 +30924,7 @@
         <v>0</v>
       </c>
       <c r="Z365" s="42" t="s">
-        <v>703</v>
+        <v>659</v>
       </c>
     </row>
     <row r="366" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30932,7 +30932,7 @@
         <v>6104003</v>
       </c>
       <c r="D366" s="41" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
       <c r="E366" s="6">
         <v>6</v>
@@ -30999,7 +30999,7 @@
         <v>0</v>
       </c>
       <c r="Z366" s="42" t="s">
-        <v>708</v>
+        <v>664</v>
       </c>
     </row>
     <row r="367" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31007,7 +31007,7 @@
         <v>6104004</v>
       </c>
       <c r="D367" s="41" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="E367" s="6">
         <v>6</v>
@@ -31073,7 +31073,7 @@
         <v>0</v>
       </c>
       <c r="Z367" s="42" t="s">
-        <v>706</v>
+        <v>662</v>
       </c>
     </row>
     <row r="368" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31081,7 +31081,7 @@
         <v>6105001</v>
       </c>
       <c r="D368" s="41" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="E368" s="6">
         <v>6</v>
@@ -31148,7 +31148,7 @@
         <v>0</v>
       </c>
       <c r="Z368" s="42" t="s">
-        <v>707</v>
+        <v>663</v>
       </c>
     </row>
     <row r="369" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31156,7 +31156,7 @@
         <v>6105002</v>
       </c>
       <c r="D369" s="41" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="E369" s="6">
         <v>6</v>
@@ -31223,7 +31223,7 @@
         <v>0</v>
       </c>
       <c r="Z369" s="42" t="s">
-        <v>703</v>
+        <v>659</v>
       </c>
     </row>
     <row r="370" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31231,7 +31231,7 @@
         <v>6105003</v>
       </c>
       <c r="D370" s="41" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
       <c r="E370" s="6">
         <v>6</v>
@@ -31298,7 +31298,7 @@
         <v>0</v>
       </c>
       <c r="Z370" s="42" t="s">
-        <v>708</v>
+        <v>664</v>
       </c>
     </row>
     <row r="371" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31306,7 +31306,7 @@
         <v>6105004</v>
       </c>
       <c r="D371" s="41" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="E371" s="6">
         <v>6</v>
@@ -31372,7 +31372,7 @@
         <v>0</v>
       </c>
       <c r="Z371" s="42" t="s">
-        <v>706</v>
+        <v>662</v>
       </c>
     </row>
     <row r="372" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31380,7 +31380,7 @@
         <v>6106001</v>
       </c>
       <c r="D372" s="41" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="E372" s="6">
         <v>6</v>
@@ -31447,7 +31447,7 @@
         <v>0</v>
       </c>
       <c r="Z372" s="42" t="s">
-        <v>709</v>
+        <v>665</v>
       </c>
     </row>
     <row r="373" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31455,7 +31455,7 @@
         <v>6106002</v>
       </c>
       <c r="D373" s="41" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="E373" s="6">
         <v>6</v>
@@ -31522,7 +31522,7 @@
         <v>0</v>
       </c>
       <c r="Z373" s="42" t="s">
-        <v>705</v>
+        <v>661</v>
       </c>
     </row>
     <row r="374" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31530,7 +31530,7 @@
         <v>6106003</v>
       </c>
       <c r="D374" s="41" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="E374" s="6">
         <v>6</v>
@@ -31596,7 +31596,7 @@
         <v>0</v>
       </c>
       <c r="Z374" s="42" t="s">
-        <v>706</v>
+        <v>662</v>
       </c>
     </row>
     <row r="375" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31604,7 +31604,7 @@
         <v>6201001</v>
       </c>
       <c r="D375" s="41" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="E375" s="6">
         <v>6</v>
@@ -31670,7 +31670,7 @@
         <v>0</v>
       </c>
       <c r="Z375" s="42" t="s">
-        <v>710</v>
+        <v>666</v>
       </c>
     </row>
     <row r="376" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31678,7 +31678,7 @@
         <v>6201002</v>
       </c>
       <c r="D376" s="41" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="E376" s="6">
         <v>6</v>
@@ -31744,7 +31744,7 @@
         <v>0</v>
       </c>
       <c r="Z376" s="42" t="s">
-        <v>734</v>
+        <v>690</v>
       </c>
     </row>
     <row r="377" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31752,7 +31752,7 @@
         <v>6201003</v>
       </c>
       <c r="D377" s="41" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="E377" s="6">
         <v>6</v>
@@ -31818,7 +31818,7 @@
         <v>0</v>
       </c>
       <c r="Z377" s="42" t="s">
-        <v>711</v>
+        <v>667</v>
       </c>
     </row>
     <row r="378" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31826,7 +31826,7 @@
         <v>6202001</v>
       </c>
       <c r="D378" s="41" t="s">
-        <v>399</v>
+        <v>355</v>
       </c>
       <c r="E378" s="6">
         <v>6</v>
@@ -31892,7 +31892,7 @@
         <v>0</v>
       </c>
       <c r="Z378" s="42" t="s">
-        <v>710</v>
+        <v>666</v>
       </c>
     </row>
     <row r="379" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31900,7 +31900,7 @@
         <v>6202002</v>
       </c>
       <c r="D379" s="41" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="E379" s="6">
         <v>6</v>
@@ -31966,7 +31966,7 @@
         <v>0</v>
       </c>
       <c r="Z379" s="42" t="s">
-        <v>712</v>
+        <v>668</v>
       </c>
     </row>
     <row r="380" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31974,7 +31974,7 @@
         <v>6202003</v>
       </c>
       <c r="D380" s="41" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="E380" s="6">
         <v>6</v>
@@ -32040,7 +32040,7 @@
         <v>0</v>
       </c>
       <c r="Z380" s="42" t="s">
-        <v>713</v>
+        <v>669</v>
       </c>
     </row>
     <row r="381" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32048,7 +32048,7 @@
         <v>6203001</v>
       </c>
       <c r="D381" s="41" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="E381" s="6">
         <v>6</v>
@@ -32114,7 +32114,7 @@
         <v>0</v>
       </c>
       <c r="Z381" s="42" t="s">
-        <v>735</v>
+        <v>691</v>
       </c>
     </row>
     <row r="382" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32122,7 +32122,7 @@
         <v>6203002</v>
       </c>
       <c r="D382" s="41" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="E382" s="6">
         <v>6</v>
@@ -32188,7 +32188,7 @@
         <v>0</v>
       </c>
       <c r="Z382" s="42" t="s">
-        <v>714</v>
+        <v>670</v>
       </c>
     </row>
     <row r="383" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32196,7 +32196,7 @@
         <v>6203003</v>
       </c>
       <c r="D383" s="41" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="E383" s="6">
         <v>6</v>
@@ -32262,7 +32262,7 @@
         <v>0</v>
       </c>
       <c r="Z383" s="42" t="s">
-        <v>715</v>
+        <v>671</v>
       </c>
     </row>
     <row r="384" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32270,7 +32270,7 @@
         <v>6204001</v>
       </c>
       <c r="D384" s="41" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="E384" s="6">
         <v>6</v>
@@ -32336,7 +32336,7 @@
         <v>0</v>
       </c>
       <c r="Z384" s="42" t="s">
-        <v>716</v>
+        <v>672</v>
       </c>
     </row>
     <row r="385" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32344,7 +32344,7 @@
         <v>6204002</v>
       </c>
       <c r="D385" s="41" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="E385" s="6">
         <v>6</v>
@@ -32410,7 +32410,7 @@
         <v>0</v>
       </c>
       <c r="Z385" s="42" t="s">
-        <v>712</v>
+        <v>668</v>
       </c>
     </row>
     <row r="386" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32418,7 +32418,7 @@
         <v>6204003</v>
       </c>
       <c r="D386" s="41" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="E386" s="6">
         <v>6</v>
@@ -32484,7 +32484,7 @@
         <v>0</v>
       </c>
       <c r="Z386" s="42" t="s">
-        <v>717</v>
+        <v>673</v>
       </c>
     </row>
     <row r="387" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32492,7 +32492,7 @@
         <v>6204004</v>
       </c>
       <c r="D387" s="41" t="s">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="E387" s="6">
         <v>6</v>
@@ -32558,7 +32558,7 @@
         <v>0</v>
       </c>
       <c r="Z387" s="42" t="s">
-        <v>715</v>
+        <v>671</v>
       </c>
     </row>
     <row r="388" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32566,7 +32566,7 @@
         <v>6205001</v>
       </c>
       <c r="D388" s="41" t="s">
-        <v>409</v>
+        <v>365</v>
       </c>
       <c r="E388" s="6">
         <v>6</v>
@@ -32632,7 +32632,7 @@
         <v>0</v>
       </c>
       <c r="Z388" s="42" t="s">
-        <v>716</v>
+        <v>672</v>
       </c>
     </row>
     <row r="389" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32640,7 +32640,7 @@
         <v>6205002</v>
       </c>
       <c r="D389" s="41" t="s">
-        <v>410</v>
+        <v>366</v>
       </c>
       <c r="E389" s="6">
         <v>6</v>
@@ -32706,7 +32706,7 @@
         <v>0</v>
       </c>
       <c r="Z389" s="42" t="s">
-        <v>712</v>
+        <v>668</v>
       </c>
     </row>
     <row r="390" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32714,7 +32714,7 @@
         <v>6205003</v>
       </c>
       <c r="D390" s="41" t="s">
-        <v>411</v>
+        <v>367</v>
       </c>
       <c r="E390" s="6">
         <v>6</v>
@@ -32780,7 +32780,7 @@
         <v>0</v>
       </c>
       <c r="Z390" s="42" t="s">
-        <v>717</v>
+        <v>673</v>
       </c>
     </row>
     <row r="391" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32788,7 +32788,7 @@
         <v>6205004</v>
       </c>
       <c r="D391" s="41" t="s">
-        <v>412</v>
+        <v>368</v>
       </c>
       <c r="E391" s="6">
         <v>6</v>
@@ -32854,7 +32854,7 @@
         <v>0</v>
       </c>
       <c r="Z391" s="42" t="s">
-        <v>715</v>
+        <v>671</v>
       </c>
     </row>
     <row r="392" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32862,7 +32862,7 @@
         <v>6206001</v>
       </c>
       <c r="D392" s="41" t="s">
-        <v>413</v>
+        <v>369</v>
       </c>
       <c r="E392" s="6">
         <v>6</v>
@@ -32928,7 +32928,7 @@
         <v>0</v>
       </c>
       <c r="Z392" s="42" t="s">
-        <v>718</v>
+        <v>674</v>
       </c>
     </row>
     <row r="393" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32936,7 +32936,7 @@
         <v>6206002</v>
       </c>
       <c r="D393" s="41" t="s">
-        <v>414</v>
+        <v>370</v>
       </c>
       <c r="E393" s="6">
         <v>6</v>
@@ -33002,7 +33002,7 @@
         <v>0</v>
       </c>
       <c r="Z393" s="42" t="s">
-        <v>717</v>
+        <v>673</v>
       </c>
     </row>
     <row r="394" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33010,7 +33010,7 @@
         <v>6206003</v>
       </c>
       <c r="D394" s="41" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
       <c r="E394" s="6">
         <v>6</v>
@@ -33076,7 +33076,7 @@
         <v>0</v>
       </c>
       <c r="Z394" s="42" t="s">
-        <v>715</v>
+        <v>671</v>
       </c>
     </row>
     <row r="395" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33084,7 +33084,7 @@
         <v>6301001</v>
       </c>
       <c r="D395" s="41" t="s">
-        <v>416</v>
+        <v>372</v>
       </c>
       <c r="E395" s="6">
         <v>6</v>
@@ -33151,7 +33151,7 @@
         <v>0</v>
       </c>
       <c r="Z395" s="42" t="s">
-        <v>719</v>
+        <v>675</v>
       </c>
     </row>
     <row r="396" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33159,7 +33159,7 @@
         <v>6301002</v>
       </c>
       <c r="D396" s="41" t="s">
-        <v>417</v>
+        <v>373</v>
       </c>
       <c r="E396" s="6">
         <v>6</v>
@@ -33226,7 +33226,7 @@
         <v>0</v>
       </c>
       <c r="Z396" s="42" t="s">
-        <v>736</v>
+        <v>692</v>
       </c>
     </row>
     <row r="397" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33234,7 +33234,7 @@
         <v>6301003</v>
       </c>
       <c r="D397" s="41" t="s">
-        <v>418</v>
+        <v>374</v>
       </c>
       <c r="E397" s="6">
         <v>6</v>
@@ -33301,7 +33301,7 @@
         <v>0</v>
       </c>
       <c r="Z397" s="42" t="s">
-        <v>720</v>
+        <v>676</v>
       </c>
     </row>
     <row r="398" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33309,7 +33309,7 @@
         <v>6302001</v>
       </c>
       <c r="D398" s="41" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="E398" s="6">
         <v>6</v>
@@ -33376,7 +33376,7 @@
         <v>0</v>
       </c>
       <c r="Z398" s="42" t="s">
-        <v>719</v>
+        <v>675</v>
       </c>
     </row>
     <row r="399" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33384,7 +33384,7 @@
         <v>6302002</v>
       </c>
       <c r="D399" s="41" t="s">
-        <v>420</v>
+        <v>376</v>
       </c>
       <c r="E399" s="6">
         <v>6</v>
@@ -33450,7 +33450,7 @@
         <v>0</v>
       </c>
       <c r="Z399" s="42" t="s">
-        <v>721</v>
+        <v>677</v>
       </c>
     </row>
     <row r="400" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33458,7 +33458,7 @@
         <v>6302003</v>
       </c>
       <c r="D400" s="41" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="E400" s="6">
         <v>6</v>
@@ -33525,7 +33525,7 @@
         <v>0</v>
       </c>
       <c r="Z400" s="42" t="s">
-        <v>722</v>
+        <v>678</v>
       </c>
     </row>
     <row r="401" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33533,7 +33533,7 @@
         <v>6303001</v>
       </c>
       <c r="D401" s="41" t="s">
-        <v>422</v>
+        <v>378</v>
       </c>
       <c r="E401" s="6">
         <v>6</v>
@@ -33600,7 +33600,7 @@
         <v>0</v>
       </c>
       <c r="Z401" s="42" t="s">
-        <v>737</v>
+        <v>693</v>
       </c>
     </row>
     <row r="402" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33608,7 +33608,7 @@
         <v>6303002</v>
       </c>
       <c r="D402" s="41" t="s">
-        <v>423</v>
+        <v>379</v>
       </c>
       <c r="E402" s="6">
         <v>6</v>
@@ -33674,7 +33674,7 @@
         <v>0</v>
       </c>
       <c r="Z402" s="42" t="s">
-        <v>723</v>
+        <v>679</v>
       </c>
     </row>
     <row r="403" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33682,7 +33682,7 @@
         <v>6303003</v>
       </c>
       <c r="D403" s="41" t="s">
-        <v>424</v>
+        <v>380</v>
       </c>
       <c r="E403" s="6">
         <v>6</v>
@@ -33749,7 +33749,7 @@
         <v>0</v>
       </c>
       <c r="Z403" s="42" t="s">
-        <v>724</v>
+        <v>680</v>
       </c>
     </row>
     <row r="404" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33757,7 +33757,7 @@
         <v>6304001</v>
       </c>
       <c r="D404" s="41" t="s">
-        <v>425</v>
+        <v>381</v>
       </c>
       <c r="E404" s="6">
         <v>6</v>
@@ -33824,7 +33824,7 @@
         <v>0</v>
       </c>
       <c r="Z404" s="42" t="s">
-        <v>725</v>
+        <v>681</v>
       </c>
     </row>
     <row r="405" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33832,7 +33832,7 @@
         <v>6304002</v>
       </c>
       <c r="D405" s="41" t="s">
-        <v>426</v>
+        <v>382</v>
       </c>
       <c r="E405" s="6">
         <v>6</v>
@@ -33898,7 +33898,7 @@
         <v>0</v>
       </c>
       <c r="Z405" s="42" t="s">
-        <v>721</v>
+        <v>677</v>
       </c>
     </row>
     <row r="406" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33906,7 +33906,7 @@
         <v>6304003</v>
       </c>
       <c r="D406" s="41" t="s">
-        <v>427</v>
+        <v>383</v>
       </c>
       <c r="E406" s="6">
         <v>6</v>
@@ -33972,7 +33972,7 @@
         <v>0</v>
       </c>
       <c r="Z406" s="42" t="s">
-        <v>726</v>
+        <v>682</v>
       </c>
     </row>
     <row r="407" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33980,7 +33980,7 @@
         <v>6304004</v>
       </c>
       <c r="D407" s="41" t="s">
-        <v>428</v>
+        <v>384</v>
       </c>
       <c r="E407" s="6">
         <v>6</v>
@@ -34047,7 +34047,7 @@
         <v>0</v>
       </c>
       <c r="Z407" s="42" t="s">
-        <v>724</v>
+        <v>680</v>
       </c>
     </row>
     <row r="408" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34055,7 +34055,7 @@
         <v>6305001</v>
       </c>
       <c r="D408" s="41" t="s">
-        <v>429</v>
+        <v>385</v>
       </c>
       <c r="E408" s="6">
         <v>6</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="Z408" s="42" t="s">
-        <v>725</v>
+        <v>681</v>
       </c>
     </row>
     <row r="409" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34130,7 +34130,7 @@
         <v>6305002</v>
       </c>
       <c r="D409" s="41" t="s">
-        <v>430</v>
+        <v>386</v>
       </c>
       <c r="E409" s="6">
         <v>6</v>
@@ -34196,7 +34196,7 @@
         <v>0</v>
       </c>
       <c r="Z409" s="42" t="s">
-        <v>721</v>
+        <v>677</v>
       </c>
     </row>
     <row r="410" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34204,7 +34204,7 @@
         <v>6305003</v>
       </c>
       <c r="D410" s="41" t="s">
-        <v>431</v>
+        <v>387</v>
       </c>
       <c r="E410" s="6">
         <v>6</v>
@@ -34270,7 +34270,7 @@
         <v>0</v>
       </c>
       <c r="Z410" s="42" t="s">
-        <v>726</v>
+        <v>682</v>
       </c>
     </row>
     <row r="411" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34278,7 +34278,7 @@
         <v>6305004</v>
       </c>
       <c r="D411" s="41" t="s">
-        <v>432</v>
+        <v>388</v>
       </c>
       <c r="E411" s="6">
         <v>6</v>
@@ -34345,7 +34345,7 @@
         <v>0</v>
       </c>
       <c r="Z411" s="42" t="s">
-        <v>724</v>
+        <v>680</v>
       </c>
     </row>
     <row r="412" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34353,7 +34353,7 @@
         <v>6306001</v>
       </c>
       <c r="D412" s="41" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="E412" s="6">
         <v>6</v>
@@ -34420,7 +34420,7 @@
         <v>0</v>
       </c>
       <c r="Z412" s="42" t="s">
-        <v>727</v>
+        <v>683</v>
       </c>
     </row>
     <row r="413" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34428,7 +34428,7 @@
         <v>6306002</v>
       </c>
       <c r="D413" s="41" t="s">
-        <v>434</v>
+        <v>390</v>
       </c>
       <c r="E413" s="6">
         <v>6</v>
@@ -34494,7 +34494,7 @@
         <v>0</v>
       </c>
       <c r="Z413" s="42" t="s">
-        <v>723</v>
+        <v>679</v>
       </c>
     </row>
     <row r="414" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34502,7 +34502,7 @@
         <v>6306003</v>
       </c>
       <c r="D414" s="41" t="s">
-        <v>435</v>
+        <v>391</v>
       </c>
       <c r="E414" s="6">
         <v>6</v>
@@ -34568,7 +34568,7 @@
         <v>0</v>
       </c>
       <c r="Z414" s="42" t="s">
-        <v>724</v>
+        <v>680</v>
       </c>
     </row>
     <row r="415" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34576,7 +34576,7 @@
         <v>7101001</v>
       </c>
       <c r="D415" s="41" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="E415" s="6">
         <v>1</v>
@@ -34642,7 +34642,7 @@
         <v>0</v>
       </c>
       <c r="Z415" s="42" t="s">
-        <v>675</v>
+        <v>631</v>
       </c>
     </row>
     <row r="416" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34650,7 +34650,7 @@
         <v>7101002</v>
       </c>
       <c r="D416" s="41" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="E416" s="6">
         <v>1</v>
@@ -34716,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="Z416" s="8" t="s">
-        <v>675</v>
+        <v>631</v>
       </c>
     </row>
     <row r="417" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34724,7 +34724,7 @@
         <v>7101003</v>
       </c>
       <c r="D417" s="41" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="E417" s="6">
         <v>1</v>
@@ -34790,7 +34790,7 @@
         <v>0</v>
       </c>
       <c r="Z417" s="8" t="s">
-        <v>675</v>
+        <v>631</v>
       </c>
     </row>
     <row r="418" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34798,7 +34798,7 @@
         <v>7101004</v>
       </c>
       <c r="D418" s="41" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="E418" s="6">
         <v>1</v>
@@ -34864,7 +34864,7 @@
         <v>0</v>
       </c>
       <c r="Z418" s="8" t="s">
-        <v>675</v>
+        <v>631</v>
       </c>
     </row>
     <row r="419" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34872,7 +34872,7 @@
         <v>7102001</v>
       </c>
       <c r="D419" s="41" t="s">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="E419" s="6">
         <v>1</v>
@@ -34939,7 +34939,7 @@
         <v>0</v>
       </c>
       <c r="Z419" s="8" t="s">
-        <v>676</v>
+        <v>632</v>
       </c>
     </row>
     <row r="420" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34947,7 +34947,7 @@
         <v>7102002</v>
       </c>
       <c r="D420" s="41" t="s">
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="E420" s="6">
         <v>1</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="Z420" s="8" t="s">
-        <v>676</v>
+        <v>632</v>
       </c>
     </row>
     <row r="421" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35022,7 +35022,7 @@
         <v>7102003</v>
       </c>
       <c r="D421" s="41" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="E421" s="6">
         <v>1</v>
@@ -35089,7 +35089,7 @@
         <v>0</v>
       </c>
       <c r="Z421" s="8" t="s">
-        <v>676</v>
+        <v>632</v>
       </c>
     </row>
     <row r="422" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35097,7 +35097,7 @@
         <v>7102004</v>
       </c>
       <c r="D422" s="41" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="E422" s="6">
         <v>1</v>
@@ -35164,7 +35164,7 @@
         <v>0</v>
       </c>
       <c r="Z422" s="8" t="s">
-        <v>676</v>
+        <v>632</v>
       </c>
     </row>
     <row r="423" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35172,7 +35172,7 @@
         <v>7103001</v>
       </c>
       <c r="D423" s="41" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="E423" s="6">
         <v>1</v>
@@ -35239,7 +35239,7 @@
         <v>0</v>
       </c>
       <c r="Z423" s="8" t="s">
-        <v>677</v>
+        <v>633</v>
       </c>
     </row>
     <row r="424" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35247,7 +35247,7 @@
         <v>7103002</v>
       </c>
       <c r="D424" s="41" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="E424" s="6">
         <v>1</v>
@@ -35314,7 +35314,7 @@
         <v>0</v>
       </c>
       <c r="Z424" s="8" t="s">
-        <v>677</v>
+        <v>633</v>
       </c>
     </row>
     <row r="425" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35322,7 +35322,7 @@
         <v>7103003</v>
       </c>
       <c r="D425" s="41" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
       <c r="E425" s="6">
         <v>1</v>
@@ -35389,7 +35389,7 @@
         <v>0</v>
       </c>
       <c r="Z425" s="8" t="s">
-        <v>677</v>
+        <v>633</v>
       </c>
     </row>
     <row r="426" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35397,7 +35397,7 @@
         <v>7103004</v>
       </c>
       <c r="D426" s="41" t="s">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="E426" s="6">
         <v>1</v>
@@ -35464,7 +35464,7 @@
         <v>0</v>
       </c>
       <c r="Z426" s="8" t="s">
-        <v>677</v>
+        <v>633</v>
       </c>
     </row>
     <row r="427" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35472,7 +35472,7 @@
         <v>7201001</v>
       </c>
       <c r="D427" s="30" t="s">
-        <v>448</v>
+        <v>404</v>
       </c>
       <c r="E427" s="6">
         <v>2</v>
@@ -35538,7 +35538,7 @@
         <v>0</v>
       </c>
       <c r="Z427" s="8" t="s">
-        <v>678</v>
+        <v>634</v>
       </c>
     </row>
     <row r="428" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35546,7 +35546,7 @@
         <v>7201002</v>
       </c>
       <c r="D428" s="30" t="s">
-        <v>449</v>
+        <v>405</v>
       </c>
       <c r="E428" s="6">
         <v>2</v>
@@ -35612,7 +35612,7 @@
         <v>0</v>
       </c>
       <c r="Z428" s="8" t="s">
-        <v>678</v>
+        <v>634</v>
       </c>
     </row>
     <row r="429" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35620,7 +35620,7 @@
         <v>7201003</v>
       </c>
       <c r="D429" s="30" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="E429" s="6">
         <v>2</v>
@@ -35686,7 +35686,7 @@
         <v>0</v>
       </c>
       <c r="Z429" s="8" t="s">
-        <v>678</v>
+        <v>634</v>
       </c>
     </row>
     <row r="430" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35694,7 +35694,7 @@
         <v>7201004</v>
       </c>
       <c r="D430" s="30" t="s">
-        <v>451</v>
+        <v>407</v>
       </c>
       <c r="E430" s="6">
         <v>2</v>
@@ -35760,7 +35760,7 @@
         <v>0</v>
       </c>
       <c r="Z430" s="8" t="s">
-        <v>678</v>
+        <v>634</v>
       </c>
     </row>
     <row r="431" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35768,7 +35768,7 @@
         <v>7202001</v>
       </c>
       <c r="D431" s="30" t="s">
-        <v>452</v>
+        <v>408</v>
       </c>
       <c r="E431" s="6">
         <v>2</v>
@@ -35835,7 +35835,7 @@
         <v>0</v>
       </c>
       <c r="Z431" s="8" t="s">
-        <v>679</v>
+        <v>635</v>
       </c>
     </row>
     <row r="432" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35843,7 +35843,7 @@
         <v>7202002</v>
       </c>
       <c r="D432" s="30" t="s">
-        <v>453</v>
+        <v>409</v>
       </c>
       <c r="E432" s="6">
         <v>2</v>
@@ -35910,7 +35910,7 @@
         <v>0</v>
       </c>
       <c r="Z432" s="8" t="s">
-        <v>679</v>
+        <v>635</v>
       </c>
     </row>
     <row r="433" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35918,7 +35918,7 @@
         <v>7202003</v>
       </c>
       <c r="D433" s="30" t="s">
-        <v>454</v>
+        <v>410</v>
       </c>
       <c r="E433" s="6">
         <v>2</v>
@@ -35985,7 +35985,7 @@
         <v>0</v>
       </c>
       <c r="Z433" s="8" t="s">
-        <v>679</v>
+        <v>635</v>
       </c>
     </row>
     <row r="434" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35993,7 +35993,7 @@
         <v>7202004</v>
       </c>
       <c r="D434" s="30" t="s">
-        <v>455</v>
+        <v>411</v>
       </c>
       <c r="E434" s="6">
         <v>2</v>
@@ -36060,7 +36060,7 @@
         <v>0</v>
       </c>
       <c r="Z434" s="8" t="s">
-        <v>679</v>
+        <v>635</v>
       </c>
     </row>
     <row r="435" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36068,7 +36068,7 @@
         <v>7203001</v>
       </c>
       <c r="D435" s="30" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="E435" s="6">
         <v>2</v>
@@ -36135,7 +36135,7 @@
         <v>0</v>
       </c>
       <c r="Z435" s="8" t="s">
-        <v>680</v>
+        <v>636</v>
       </c>
     </row>
     <row r="436" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36143,7 +36143,7 @@
         <v>7203002</v>
       </c>
       <c r="D436" s="30" t="s">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="E436" s="6">
         <v>2</v>
@@ -36210,7 +36210,7 @@
         <v>0</v>
       </c>
       <c r="Z436" s="8" t="s">
-        <v>680</v>
+        <v>636</v>
       </c>
     </row>
     <row r="437" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36218,7 +36218,7 @@
         <v>7203003</v>
       </c>
       <c r="D437" s="30" t="s">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="E437" s="6">
         <v>2</v>
@@ -36285,7 +36285,7 @@
         <v>0</v>
       </c>
       <c r="Z437" s="8" t="s">
-        <v>680</v>
+        <v>636</v>
       </c>
     </row>
     <row r="438" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36293,7 +36293,7 @@
         <v>7203004</v>
       </c>
       <c r="D438" s="30" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="E438" s="6">
         <v>2</v>
@@ -36360,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="Z438" s="8" t="s">
-        <v>680</v>
+        <v>636</v>
       </c>
     </row>
     <row r="439" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36368,7 +36368,7 @@
         <v>7204101</v>
       </c>
       <c r="D439" s="30" t="s">
-        <v>460</v>
+        <v>416</v>
       </c>
       <c r="E439" s="6">
         <v>2</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="Z439" s="8" t="s">
-        <v>681</v>
+        <v>637</v>
       </c>
     </row>
     <row r="440" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36442,7 +36442,7 @@
         <v>7204102</v>
       </c>
       <c r="D440" s="30" t="s">
-        <v>461</v>
+        <v>417</v>
       </c>
       <c r="E440" s="6">
         <v>2</v>
@@ -36508,7 +36508,7 @@
         <v>0</v>
       </c>
       <c r="Z440" s="8" t="s">
-        <v>682</v>
+        <v>638</v>
       </c>
     </row>
     <row r="441" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36516,7 +36516,7 @@
         <v>7204103</v>
       </c>
       <c r="D441" s="30" t="s">
-        <v>462</v>
+        <v>418</v>
       </c>
       <c r="E441" s="6">
         <v>2</v>
@@ -36582,7 +36582,7 @@
         <v>0</v>
       </c>
       <c r="Z441" s="8" t="s">
-        <v>683</v>
+        <v>639</v>
       </c>
     </row>
     <row r="442" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36590,7 +36590,7 @@
         <v>7204201</v>
       </c>
       <c r="D442" s="30" t="s">
-        <v>463</v>
+        <v>419</v>
       </c>
       <c r="E442" s="6">
         <v>2</v>
@@ -36656,7 +36656,7 @@
         <v>0</v>
       </c>
       <c r="Z442" s="8" t="s">
-        <v>681</v>
+        <v>637</v>
       </c>
     </row>
     <row r="443" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36664,7 +36664,7 @@
         <v>7204202</v>
       </c>
       <c r="D443" s="30" t="s">
-        <v>464</v>
+        <v>420</v>
       </c>
       <c r="E443" s="6">
         <v>2</v>
@@ -36730,7 +36730,7 @@
         <v>0</v>
       </c>
       <c r="Z443" s="8" t="s">
-        <v>682</v>
+        <v>638</v>
       </c>
     </row>
     <row r="444" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36738,7 +36738,7 @@
         <v>7204203</v>
       </c>
       <c r="D444" s="30" t="s">
-        <v>465</v>
+        <v>421</v>
       </c>
       <c r="E444" s="6">
         <v>2</v>
@@ -36804,7 +36804,7 @@
         <v>0</v>
       </c>
       <c r="Z444" s="8" t="s">
-        <v>683</v>
+        <v>639</v>
       </c>
     </row>
     <row r="445" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36812,7 +36812,7 @@
         <v>7204301</v>
       </c>
       <c r="D445" s="30" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="E445" s="6">
         <v>2</v>
@@ -36878,7 +36878,7 @@
         <v>0</v>
       </c>
       <c r="Z445" s="8" t="s">
-        <v>681</v>
+        <v>637</v>
       </c>
     </row>
     <row r="446" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36886,7 +36886,7 @@
         <v>7204302</v>
       </c>
       <c r="D446" s="30" t="s">
-        <v>467</v>
+        <v>423</v>
       </c>
       <c r="E446" s="6">
         <v>2</v>
@@ -36952,7 +36952,7 @@
         <v>0</v>
       </c>
       <c r="Z446" s="8" t="s">
-        <v>682</v>
+        <v>638</v>
       </c>
     </row>
     <row r="447" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36960,7 +36960,7 @@
         <v>7204303</v>
       </c>
       <c r="D447" s="30" t="s">
-        <v>468</v>
+        <v>424</v>
       </c>
       <c r="E447" s="6">
         <v>2</v>
@@ -37026,7 +37026,7 @@
         <v>0</v>
       </c>
       <c r="Z447" s="8" t="s">
-        <v>683</v>
+        <v>639</v>
       </c>
     </row>
     <row r="448" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37034,7 +37034,7 @@
         <v>7204401</v>
       </c>
       <c r="D448" s="30" t="s">
-        <v>469</v>
+        <v>425</v>
       </c>
       <c r="E448" s="6">
         <v>2</v>
@@ -37100,7 +37100,7 @@
         <v>0</v>
       </c>
       <c r="Z448" s="8" t="s">
-        <v>681</v>
+        <v>637</v>
       </c>
     </row>
     <row r="449" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37108,7 +37108,7 @@
         <v>7204402</v>
       </c>
       <c r="D449" s="30" t="s">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="E449" s="6">
         <v>2</v>
@@ -37174,7 +37174,7 @@
         <v>0</v>
       </c>
       <c r="Z449" s="8" t="s">
-        <v>682</v>
+        <v>638</v>
       </c>
     </row>
     <row r="450" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37182,7 +37182,7 @@
         <v>7204403</v>
       </c>
       <c r="D450" s="30" t="s">
-        <v>471</v>
+        <v>427</v>
       </c>
       <c r="E450" s="6">
         <v>2</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="Z450" s="8" t="s">
-        <v>683</v>
+        <v>639</v>
       </c>
     </row>
     <row r="451" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37256,7 +37256,7 @@
         <v>7204501</v>
       </c>
       <c r="D451" s="30" t="s">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="E451" s="6">
         <v>2</v>
@@ -37322,7 +37322,7 @@
         <v>0</v>
       </c>
       <c r="Z451" s="8" t="s">
-        <v>681</v>
+        <v>637</v>
       </c>
     </row>
     <row r="452" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37330,7 +37330,7 @@
         <v>7204502</v>
       </c>
       <c r="D452" s="30" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="E452" s="6">
         <v>2</v>
@@ -37396,7 +37396,7 @@
         <v>0</v>
       </c>
       <c r="Z452" s="8" t="s">
-        <v>682</v>
+        <v>638</v>
       </c>
     </row>
     <row r="453" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37404,7 +37404,7 @@
         <v>7204503</v>
       </c>
       <c r="D453" s="30" t="s">
-        <v>474</v>
+        <v>430</v>
       </c>
       <c r="E453" s="6">
         <v>2</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="Z453" s="8" t="s">
-        <v>683</v>
+        <v>639</v>
       </c>
     </row>
     <row r="454" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37478,7 +37478,7 @@
         <v>7301001</v>
       </c>
       <c r="D454" s="30" t="s">
-        <v>475</v>
+        <v>431</v>
       </c>
       <c r="E454" s="6">
         <v>3</v>
@@ -37544,7 +37544,7 @@
         <v>0</v>
       </c>
       <c r="Z454" s="8" t="s">
-        <v>698</v>
+        <v>654</v>
       </c>
     </row>
     <row r="455" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37552,7 +37552,7 @@
         <v>7301002</v>
       </c>
       <c r="D455" s="30" t="s">
-        <v>476</v>
+        <v>432</v>
       </c>
       <c r="E455" s="6">
         <v>3</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="Z455" s="8" t="s">
-        <v>698</v>
+        <v>654</v>
       </c>
     </row>
     <row r="456" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37626,7 +37626,7 @@
         <v>7302001</v>
       </c>
       <c r="D456" s="30" t="s">
-        <v>477</v>
+        <v>433</v>
       </c>
       <c r="E456" s="6">
         <v>3</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="Z456" s="8" t="s">
-        <v>699</v>
+        <v>655</v>
       </c>
     </row>
     <row r="457" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37700,7 +37700,7 @@
         <v>7302002</v>
       </c>
       <c r="D457" s="30" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="E457" s="6">
         <v>3</v>
@@ -37766,7 +37766,7 @@
         <v>0</v>
       </c>
       <c r="Z457" s="8" t="s">
-        <v>699</v>
+        <v>655</v>
       </c>
     </row>
     <row r="458" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37774,7 +37774,7 @@
         <v>7303001</v>
       </c>
       <c r="D458" s="30" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="E458" s="6">
         <v>3</v>
@@ -37840,7 +37840,7 @@
         <v>0</v>
       </c>
       <c r="Z458" s="8" t="s">
-        <v>700</v>
+        <v>656</v>
       </c>
     </row>
     <row r="459" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37848,7 +37848,7 @@
         <v>7303002</v>
       </c>
       <c r="D459" s="30" t="s">
-        <v>480</v>
+        <v>436</v>
       </c>
       <c r="E459" s="6">
         <v>3</v>
@@ -37914,7 +37914,7 @@
         <v>0</v>
       </c>
       <c r="Z459" s="8" t="s">
-        <v>700</v>
+        <v>656</v>
       </c>
     </row>
     <row r="460" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -37922,7 +37922,7 @@
         <v>8000001</v>
       </c>
       <c r="D460" s="30" t="s">
-        <v>481</v>
+        <v>437</v>
       </c>
       <c r="E460" s="6">
         <v>8</v>
@@ -37988,7 +37988,7 @@
         <v>0</v>
       </c>
       <c r="Z460" s="43" t="s">
-        <v>482</v>
+        <v>438</v>
       </c>
     </row>
     <row r="461" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -37996,7 +37996,7 @@
         <v>8000002</v>
       </c>
       <c r="D461" s="30" t="s">
-        <v>483</v>
+        <v>439</v>
       </c>
       <c r="E461" s="6">
         <v>8</v>
@@ -38062,7 +38062,7 @@
         <v>0</v>
       </c>
       <c r="Z461" s="43" t="s">
-        <v>484</v>
+        <v>440</v>
       </c>
     </row>
     <row r="462" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38070,7 +38070,7 @@
         <v>8000003</v>
       </c>
       <c r="D462" s="30" t="s">
-        <v>485</v>
+        <v>441</v>
       </c>
       <c r="E462" s="6">
         <v>8</v>
@@ -38136,7 +38136,7 @@
         <v>0</v>
       </c>
       <c r="Z462" s="43" t="s">
-        <v>486</v>
+        <v>442</v>
       </c>
     </row>
     <row r="463" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38144,7 +38144,7 @@
         <v>8000004</v>
       </c>
       <c r="D463" s="30" t="s">
-        <v>487</v>
+        <v>443</v>
       </c>
       <c r="E463" s="6">
         <v>8</v>
@@ -38210,7 +38210,7 @@
         <v>0</v>
       </c>
       <c r="Z463" s="43" t="s">
-        <v>488</v>
+        <v>444</v>
       </c>
     </row>
     <row r="464" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38218,7 +38218,7 @@
         <v>8000005</v>
       </c>
       <c r="D464" s="30" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="E464" s="6">
         <v>8</v>
@@ -38284,7 +38284,7 @@
         <v>0</v>
       </c>
       <c r="Z464" s="43" t="s">
-        <v>490</v>
+        <v>446</v>
       </c>
     </row>
     <row r="465" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38292,7 +38292,7 @@
         <v>8000006</v>
       </c>
       <c r="D465" s="30" t="s">
-        <v>491</v>
+        <v>447</v>
       </c>
       <c r="E465" s="6">
         <v>8</v>
@@ -38358,7 +38358,7 @@
         <v>0</v>
       </c>
       <c r="Z465" s="43" t="s">
-        <v>492</v>
+        <v>448</v>
       </c>
     </row>
     <row r="466" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38366,7 +38366,7 @@
         <v>8000007</v>
       </c>
       <c r="D466" s="30" t="s">
-        <v>493</v>
+        <v>449</v>
       </c>
       <c r="E466" s="6">
         <v>8</v>
@@ -38432,7 +38432,7 @@
         <v>0</v>
       </c>
       <c r="Z466" s="43" t="s">
-        <v>494</v>
+        <v>450</v>
       </c>
     </row>
     <row r="467" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38440,7 +38440,7 @@
         <v>8000008</v>
       </c>
       <c r="D467" s="30" t="s">
-        <v>495</v>
+        <v>451</v>
       </c>
       <c r="E467" s="6">
         <v>8</v>
@@ -38506,7 +38506,7 @@
         <v>0</v>
       </c>
       <c r="Z467" s="43" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
     </row>
     <row r="468" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38514,7 +38514,7 @@
         <v>8000009</v>
       </c>
       <c r="D468" s="30" t="s">
-        <v>497</v>
+        <v>453</v>
       </c>
       <c r="E468" s="6">
         <v>8</v>
@@ -38580,7 +38580,7 @@
         <v>0</v>
       </c>
       <c r="Z468" s="43" t="s">
-        <v>498</v>
+        <v>454</v>
       </c>
     </row>
     <row r="469" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38588,7 +38588,7 @@
         <v>8000010</v>
       </c>
       <c r="D469" s="30" t="s">
-        <v>499</v>
+        <v>455</v>
       </c>
       <c r="E469" s="6">
         <v>8</v>
@@ -38654,7 +38654,7 @@
         <v>0</v>
       </c>
       <c r="Z469" s="43" t="s">
-        <v>500</v>
+        <v>456</v>
       </c>
     </row>
     <row r="470" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38662,7 +38662,7 @@
         <v>8000011</v>
       </c>
       <c r="D470" s="30" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="E470" s="6">
         <v>8</v>
@@ -38728,7 +38728,7 @@
         <v>0</v>
       </c>
       <c r="Z470" s="43" t="s">
-        <v>502</v>
+        <v>458</v>
       </c>
     </row>
     <row r="471" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38736,7 +38736,7 @@
         <v>8000012</v>
       </c>
       <c r="D471" s="30" t="s">
-        <v>503</v>
+        <v>459</v>
       </c>
       <c r="E471" s="6">
         <v>8</v>
@@ -38802,7 +38802,7 @@
         <v>0</v>
       </c>
       <c r="Z471" s="43" t="s">
-        <v>504</v>
+        <v>460</v>
       </c>
     </row>
     <row r="472" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38810,7 +38810,7 @@
         <v>8000013</v>
       </c>
       <c r="D472" s="30" t="s">
-        <v>505</v>
+        <v>461</v>
       </c>
       <c r="E472" s="6">
         <v>8</v>
@@ -38876,7 +38876,7 @@
         <v>0</v>
       </c>
       <c r="Z472" s="43" t="s">
-        <v>506</v>
+        <v>462</v>
       </c>
     </row>
     <row r="473" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38884,7 +38884,7 @@
         <v>8000014</v>
       </c>
       <c r="D473" s="30" t="s">
-        <v>507</v>
+        <v>463</v>
       </c>
       <c r="E473" s="6">
         <v>8</v>
@@ -38950,7 +38950,7 @@
         <v>0</v>
       </c>
       <c r="Z473" s="43" t="s">
-        <v>508</v>
+        <v>464</v>
       </c>
     </row>
     <row r="474" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -38958,7 +38958,7 @@
         <v>8000015</v>
       </c>
       <c r="D474" s="30" t="s">
-        <v>509</v>
+        <v>465</v>
       </c>
       <c r="E474" s="6">
         <v>8</v>
@@ -39024,7 +39024,7 @@
         <v>0</v>
       </c>
       <c r="Z474" s="43" t="s">
-        <v>510</v>
+        <v>466</v>
       </c>
     </row>
     <row r="475" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39032,7 +39032,7 @@
         <v>8000016</v>
       </c>
       <c r="D475" s="30" t="s">
-        <v>511</v>
+        <v>467</v>
       </c>
       <c r="E475" s="6">
         <v>8</v>
@@ -39098,7 +39098,7 @@
         <v>0</v>
       </c>
       <c r="Z475" s="43" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
     </row>
     <row r="476" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39106,7 +39106,7 @@
         <v>8000017</v>
       </c>
       <c r="D476" s="30" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="E476" s="6">
         <v>8</v>
@@ -39172,7 +39172,7 @@
         <v>0</v>
       </c>
       <c r="Z476" s="43" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
     </row>
     <row r="477" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39180,7 +39180,7 @@
         <v>8000018</v>
       </c>
       <c r="D477" s="30" t="s">
-        <v>515</v>
+        <v>471</v>
       </c>
       <c r="E477" s="6">
         <v>8</v>
@@ -39246,7 +39246,7 @@
         <v>0</v>
       </c>
       <c r="Z477" s="43" t="s">
-        <v>516</v>
+        <v>472</v>
       </c>
     </row>
     <row r="478" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39254,7 +39254,7 @@
         <v>8000019</v>
       </c>
       <c r="D478" s="30" t="s">
-        <v>517</v>
+        <v>473</v>
       </c>
       <c r="E478" s="6">
         <v>8</v>
@@ -39320,7 +39320,7 @@
         <v>0</v>
       </c>
       <c r="Z478" s="43" t="s">
-        <v>518</v>
+        <v>474</v>
       </c>
     </row>
     <row r="479" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39328,7 +39328,7 @@
         <v>8000020</v>
       </c>
       <c r="D479" s="30" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="E479" s="6">
         <v>8</v>
@@ -39394,7 +39394,7 @@
         <v>0</v>
       </c>
       <c r="Z479" s="43" t="s">
-        <v>520</v>
+        <v>476</v>
       </c>
     </row>
     <row r="480" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39402,7 +39402,7 @@
         <v>8000021</v>
       </c>
       <c r="D480" s="30" t="s">
-        <v>521</v>
+        <v>477</v>
       </c>
       <c r="E480" s="6">
         <v>8</v>
@@ -39468,7 +39468,7 @@
         <v>0</v>
       </c>
       <c r="Z480" s="43" t="s">
-        <v>522</v>
+        <v>478</v>
       </c>
     </row>
     <row r="481" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39476,7 +39476,7 @@
         <v>8000022</v>
       </c>
       <c r="D481" s="30" t="s">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="E481" s="6">
         <v>8</v>
@@ -39542,7 +39542,7 @@
         <v>0</v>
       </c>
       <c r="Z481" s="43" t="s">
-        <v>524</v>
+        <v>480</v>
       </c>
     </row>
     <row r="482" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39550,7 +39550,7 @@
         <v>8000023</v>
       </c>
       <c r="D482" s="30" t="s">
-        <v>525</v>
+        <v>481</v>
       </c>
       <c r="E482" s="6">
         <v>8</v>
@@ -39616,7 +39616,7 @@
         <v>0</v>
       </c>
       <c r="Z482" s="43" t="s">
-        <v>526</v>
+        <v>482</v>
       </c>
     </row>
     <row r="483" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39624,7 +39624,7 @@
         <v>8000024</v>
       </c>
       <c r="D483" s="30" t="s">
-        <v>527</v>
+        <v>483</v>
       </c>
       <c r="E483" s="6">
         <v>8</v>
@@ -39690,7 +39690,7 @@
         <v>0</v>
       </c>
       <c r="Z483" s="43" t="s">
-        <v>528</v>
+        <v>484</v>
       </c>
     </row>
     <row r="484" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39698,7 +39698,7 @@
         <v>8000025</v>
       </c>
       <c r="D484" s="30" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="E484" s="6">
         <v>8</v>
@@ -39764,7 +39764,7 @@
         <v>0</v>
       </c>
       <c r="Z484" s="43" t="s">
-        <v>530</v>
+        <v>486</v>
       </c>
     </row>
     <row r="485" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39772,7 +39772,7 @@
         <v>8000026</v>
       </c>
       <c r="D485" s="30" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="E485" s="6">
         <v>8</v>
@@ -39838,7 +39838,7 @@
         <v>0</v>
       </c>
       <c r="Z485" s="43" t="s">
-        <v>532</v>
+        <v>488</v>
       </c>
     </row>
     <row r="486" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39846,7 +39846,7 @@
         <v>8000027</v>
       </c>
       <c r="D486" s="30" t="s">
-        <v>533</v>
+        <v>489</v>
       </c>
       <c r="E486" s="6">
         <v>8</v>
@@ -39912,7 +39912,7 @@
         <v>0</v>
       </c>
       <c r="Z486" s="43" t="s">
-        <v>534</v>
+        <v>490</v>
       </c>
     </row>
     <row r="487" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39920,7 +39920,7 @@
         <v>8000028</v>
       </c>
       <c r="D487" s="30" t="s">
-        <v>535</v>
+        <v>491</v>
       </c>
       <c r="E487" s="6">
         <v>8</v>
@@ -39986,7 +39986,7 @@
         <v>0</v>
       </c>
       <c r="Z487" s="43" t="s">
-        <v>536</v>
+        <v>492</v>
       </c>
     </row>
     <row r="488" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -39994,7 +39994,7 @@
         <v>8000029</v>
       </c>
       <c r="D488" s="30" t="s">
-        <v>537</v>
+        <v>493</v>
       </c>
       <c r="E488" s="6">
         <v>8</v>
@@ -40060,7 +40060,7 @@
         <v>0</v>
       </c>
       <c r="Z488" s="43" t="s">
-        <v>538</v>
+        <v>494</v>
       </c>
     </row>
     <row r="489" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40068,7 +40068,7 @@
         <v>8000030</v>
       </c>
       <c r="D489" s="30" t="s">
-        <v>539</v>
+        <v>495</v>
       </c>
       <c r="E489" s="6">
         <v>8</v>
@@ -40134,7 +40134,7 @@
         <v>0</v>
       </c>
       <c r="Z489" s="43" t="s">
-        <v>540</v>
+        <v>496</v>
       </c>
     </row>
     <row r="490" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40142,7 +40142,7 @@
         <v>8000031</v>
       </c>
       <c r="D490" s="30" t="s">
-        <v>541</v>
+        <v>497</v>
       </c>
       <c r="E490" s="6">
         <v>8</v>
@@ -40208,7 +40208,7 @@
         <v>0</v>
       </c>
       <c r="Z490" s="43" t="s">
-        <v>542</v>
+        <v>498</v>
       </c>
     </row>
     <row r="491" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40216,7 +40216,7 @@
         <v>8000032</v>
       </c>
       <c r="D491" s="30" t="s">
-        <v>543</v>
+        <v>499</v>
       </c>
       <c r="E491" s="6">
         <v>8</v>
@@ -40282,7 +40282,7 @@
         <v>0</v>
       </c>
       <c r="Z491" s="43" t="s">
-        <v>544</v>
+        <v>500</v>
       </c>
     </row>
     <row r="492" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40290,7 +40290,7 @@
         <v>8000033</v>
       </c>
       <c r="D492" s="30" t="s">
-        <v>545</v>
+        <v>501</v>
       </c>
       <c r="E492" s="6">
         <v>8</v>
@@ -40356,7 +40356,7 @@
         <v>0</v>
       </c>
       <c r="Z492" s="43" t="s">
-        <v>546</v>
+        <v>502</v>
       </c>
     </row>
     <row r="493" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40364,7 +40364,7 @@
         <v>8000034</v>
       </c>
       <c r="D493" s="30" t="s">
-        <v>547</v>
+        <v>503</v>
       </c>
       <c r="E493" s="6">
         <v>8</v>
@@ -40430,7 +40430,7 @@
         <v>0</v>
       </c>
       <c r="Z493" s="43" t="s">
-        <v>548</v>
+        <v>504</v>
       </c>
     </row>
     <row r="494" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40438,7 +40438,7 @@
         <v>8000035</v>
       </c>
       <c r="D494" s="30" t="s">
-        <v>549</v>
+        <v>505</v>
       </c>
       <c r="E494" s="6">
         <v>8</v>
@@ -40504,7 +40504,7 @@
         <v>0</v>
       </c>
       <c r="Z494" s="43" t="s">
-        <v>550</v>
+        <v>506</v>
       </c>
     </row>
     <row r="495" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Unity/Assets/Config/Excel/EquipMakeConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EquipMakeConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B970FBC-6111-449A-9383-9CEAA0A5EB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781E922F-8053-483F-9B75-C356AE6A2099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="EquipMakeProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EquipMakeProto!$G$1:$G$1107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EquipMakeProto!$G$1:$G$1106</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -46,15 +46,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0:</t>
+0:</t>
         </r>
         <r>
           <rPr>
@@ -135,38 +127,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">宝石类型
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">5.神器类型
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">6.附魔类型
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">8.家园类型
-</t>
+          <t>宝石类型
+5.神器类型
+6.附魔类型
+8.家园类型
+9.宠物装备</t>
         </r>
       </text>
     </comment>
@@ -557,7 +522,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="840">
   <si>
     <t>#</t>
   </si>
@@ -3140,6 +3105,86 @@
   </si>
   <si>
     <t>1045411;2</t>
+  </si>
+  <si>
+    <t>宠物:翠玉颈环</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物:翠玉护腕</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物:翠玉坠饰</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物:翠玉装甲</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物:龙鳞颈环</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物:龙鳞护腕</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物:龙鳞坠饰</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物:龙鳞装甲</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物:炎息颈环</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物:炎息护腕</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物:炎息坠饰</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物:炎息装甲</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物:泰坦颈环</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物:泰坦护腕</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物:泰坦坠饰</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物:泰坦装甲</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000001;20@1000028;20@1000027;5@1000029;5</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000001;30@1000028;30@1000027;10@1000029;10</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000001;40@1000028;40@1000027;15@1000029;15</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000001;50@1000028;50@1000027;20@1000029;20</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3832,11 +3877,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:Z1107"/>
+  <dimension ref="C1:Z1106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J288" sqref="J288"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E505" sqref="E505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -40507,74 +40552,1197 @@
         <v>506</v>
       </c>
     </row>
-    <row r="495" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" spans="5:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" spans="5:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" spans="5:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" spans="5:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" spans="5:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E502" s="8"/>
-      <c r="H502" s="8"/>
-      <c r="I502" s="8"/>
-      <c r="J502" s="8"/>
-    </row>
-    <row r="503" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E503" s="8"/>
-      <c r="H503" s="8"/>
-      <c r="I503" s="8"/>
-      <c r="J503" s="8"/>
-    </row>
-    <row r="504" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E504" s="8"/>
-      <c r="H504" s="8"/>
-      <c r="I504" s="8"/>
-      <c r="J504" s="8"/>
-    </row>
-    <row r="505" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E505" s="8"/>
-      <c r="H505" s="8"/>
-      <c r="I505" s="8"/>
-      <c r="J505" s="8"/>
-    </row>
-    <row r="506" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E506" s="8"/>
-      <c r="H506" s="8"/>
-      <c r="I506" s="8"/>
-      <c r="J506" s="8"/>
-    </row>
-    <row r="507" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E507" s="8"/>
-      <c r="H507" s="8"/>
-      <c r="I507" s="8"/>
-      <c r="J507" s="8"/>
-    </row>
-    <row r="508" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E508" s="8"/>
-      <c r="H508" s="8"/>
-      <c r="I508" s="8"/>
-      <c r="J508" s="8"/>
-    </row>
-    <row r="509" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E509" s="8"/>
-      <c r="H509" s="8"/>
-      <c r="I509" s="8"/>
-      <c r="J509" s="8"/>
-    </row>
-    <row r="510" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E510" s="8"/>
-      <c r="H510" s="8"/>
-      <c r="I510" s="8"/>
-      <c r="J510" s="8"/>
-    </row>
-    <row r="511" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="495" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C495" s="6">
+        <v>9000101</v>
+      </c>
+      <c r="D495" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="E495" s="6">
+        <v>2</v>
+      </c>
+      <c r="F495" s="30">
+        <v>1800101</v>
+      </c>
+      <c r="G495" s="6">
+        <v>0</v>
+      </c>
+      <c r="H495" s="6">
+        <v>12</v>
+      </c>
+      <c r="I495" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J495" s="6">
+        <v>5</v>
+      </c>
+      <c r="K495" s="6">
+        <v>0</v>
+      </c>
+      <c r="L495" s="6">
+        <v>1</v>
+      </c>
+      <c r="M495" s="6">
+        <v>1</v>
+      </c>
+      <c r="N495" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="O495" s="6">
+        <v>0</v>
+      </c>
+      <c r="P495" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q495" s="6">
+        <v>1</v>
+      </c>
+      <c r="R495" s="6">
+        <v>1</v>
+      </c>
+      <c r="S495" s="6">
+        <v>100</v>
+      </c>
+      <c r="T495" s="6">
+        <v>200</v>
+      </c>
+      <c r="U495" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="V495" s="6">
+        <v>0</v>
+      </c>
+      <c r="W495" s="6">
+        <v>1</v>
+      </c>
+      <c r="X495" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y495" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z495" s="43" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="496" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C496" s="6">
+        <v>9000102</v>
+      </c>
+      <c r="D496" s="30" t="s">
+        <v>821</v>
+      </c>
+      <c r="E496" s="6">
+        <v>2</v>
+      </c>
+      <c r="F496" s="30">
+        <v>1800102</v>
+      </c>
+      <c r="G496" s="6">
+        <v>0</v>
+      </c>
+      <c r="H496" s="6">
+        <v>12</v>
+      </c>
+      <c r="I496" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J496" s="6">
+        <v>5</v>
+      </c>
+      <c r="K496" s="6">
+        <v>0</v>
+      </c>
+      <c r="L496" s="6">
+        <v>1</v>
+      </c>
+      <c r="M496" s="6">
+        <v>1</v>
+      </c>
+      <c r="N496" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="O496" s="6">
+        <v>0</v>
+      </c>
+      <c r="P496" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q496" s="6">
+        <v>1</v>
+      </c>
+      <c r="R496" s="6">
+        <v>1</v>
+      </c>
+      <c r="S496" s="6">
+        <v>100</v>
+      </c>
+      <c r="T496" s="6">
+        <v>200</v>
+      </c>
+      <c r="U496" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="V496" s="6">
+        <v>0</v>
+      </c>
+      <c r="W496" s="6">
+        <v>1</v>
+      </c>
+      <c r="X496" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y496" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z496" s="43" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="497" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C497" s="6">
+        <v>9000103</v>
+      </c>
+      <c r="D497" s="30" t="s">
+        <v>822</v>
+      </c>
+      <c r="E497" s="6">
+        <v>2</v>
+      </c>
+      <c r="F497" s="30">
+        <v>1800103</v>
+      </c>
+      <c r="G497" s="6">
+        <v>0</v>
+      </c>
+      <c r="H497" s="6">
+        <v>12</v>
+      </c>
+      <c r="I497" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J497" s="6">
+        <v>5</v>
+      </c>
+      <c r="K497" s="6">
+        <v>0</v>
+      </c>
+      <c r="L497" s="6">
+        <v>1</v>
+      </c>
+      <c r="M497" s="6">
+        <v>1</v>
+      </c>
+      <c r="N497" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="O497" s="6">
+        <v>0</v>
+      </c>
+      <c r="P497" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q497" s="6">
+        <v>1</v>
+      </c>
+      <c r="R497" s="6">
+        <v>1</v>
+      </c>
+      <c r="S497" s="6">
+        <v>100</v>
+      </c>
+      <c r="T497" s="6">
+        <v>200</v>
+      </c>
+      <c r="U497" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="V497" s="6">
+        <v>0</v>
+      </c>
+      <c r="W497" s="6">
+        <v>1</v>
+      </c>
+      <c r="X497" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y497" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z497" s="43" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="498" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C498" s="6">
+        <v>9000104</v>
+      </c>
+      <c r="D498" s="30" t="s">
+        <v>823</v>
+      </c>
+      <c r="E498" s="6">
+        <v>2</v>
+      </c>
+      <c r="F498" s="30">
+        <v>1800104</v>
+      </c>
+      <c r="G498" s="6">
+        <v>0</v>
+      </c>
+      <c r="H498" s="6">
+        <v>12</v>
+      </c>
+      <c r="I498" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J498" s="6">
+        <v>5</v>
+      </c>
+      <c r="K498" s="6">
+        <v>0</v>
+      </c>
+      <c r="L498" s="6">
+        <v>1</v>
+      </c>
+      <c r="M498" s="6">
+        <v>1</v>
+      </c>
+      <c r="N498" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="O498" s="6">
+        <v>0</v>
+      </c>
+      <c r="P498" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q498" s="6">
+        <v>1</v>
+      </c>
+      <c r="R498" s="6">
+        <v>1</v>
+      </c>
+      <c r="S498" s="6">
+        <v>100</v>
+      </c>
+      <c r="T498" s="6">
+        <v>200</v>
+      </c>
+      <c r="U498" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="V498" s="6">
+        <v>0</v>
+      </c>
+      <c r="W498" s="6">
+        <v>1</v>
+      </c>
+      <c r="X498" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y498" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z498" s="43" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="499" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C499" s="6">
+        <v>9000201</v>
+      </c>
+      <c r="D499" s="30" t="s">
+        <v>824</v>
+      </c>
+      <c r="E499" s="6">
+        <v>2</v>
+      </c>
+      <c r="F499" s="30">
+        <v>1800201</v>
+      </c>
+      <c r="G499" s="6">
+        <v>0</v>
+      </c>
+      <c r="H499" s="6">
+        <v>12</v>
+      </c>
+      <c r="I499" s="6">
+        <v>100000</v>
+      </c>
+      <c r="J499" s="6">
+        <v>5</v>
+      </c>
+      <c r="K499" s="6">
+        <v>0</v>
+      </c>
+      <c r="L499" s="6">
+        <v>1</v>
+      </c>
+      <c r="M499" s="6">
+        <v>1</v>
+      </c>
+      <c r="N499" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="O499" s="6">
+        <v>0</v>
+      </c>
+      <c r="P499" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q499" s="6">
+        <v>1</v>
+      </c>
+      <c r="R499" s="6">
+        <v>1</v>
+      </c>
+      <c r="S499" s="6">
+        <v>100</v>
+      </c>
+      <c r="T499" s="6">
+        <v>200</v>
+      </c>
+      <c r="U499" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="V499" s="6">
+        <v>0</v>
+      </c>
+      <c r="W499" s="6">
+        <v>1</v>
+      </c>
+      <c r="X499" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y499" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z499" s="43" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="500" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C500" s="6">
+        <v>9000202</v>
+      </c>
+      <c r="D500" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="E500" s="6">
+        <v>2</v>
+      </c>
+      <c r="F500" s="30">
+        <v>1800202</v>
+      </c>
+      <c r="G500" s="6">
+        <v>0</v>
+      </c>
+      <c r="H500" s="6">
+        <v>12</v>
+      </c>
+      <c r="I500" s="6">
+        <v>100000</v>
+      </c>
+      <c r="J500" s="6">
+        <v>5</v>
+      </c>
+      <c r="K500" s="6">
+        <v>0</v>
+      </c>
+      <c r="L500" s="6">
+        <v>1</v>
+      </c>
+      <c r="M500" s="6">
+        <v>1</v>
+      </c>
+      <c r="N500" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="O500" s="6">
+        <v>0</v>
+      </c>
+      <c r="P500" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q500" s="6">
+        <v>1</v>
+      </c>
+      <c r="R500" s="6">
+        <v>1</v>
+      </c>
+      <c r="S500" s="6">
+        <v>100</v>
+      </c>
+      <c r="T500" s="6">
+        <v>200</v>
+      </c>
+      <c r="U500" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="V500" s="6">
+        <v>0</v>
+      </c>
+      <c r="W500" s="6">
+        <v>1</v>
+      </c>
+      <c r="X500" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y500" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z500" s="43" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="501" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C501" s="6">
+        <v>9000203</v>
+      </c>
+      <c r="D501" s="30" t="s">
+        <v>826</v>
+      </c>
+      <c r="E501" s="6">
+        <v>2</v>
+      </c>
+      <c r="F501" s="30">
+        <v>1800203</v>
+      </c>
+      <c r="G501" s="6">
+        <v>0</v>
+      </c>
+      <c r="H501" s="6">
+        <v>12</v>
+      </c>
+      <c r="I501" s="6">
+        <v>100000</v>
+      </c>
+      <c r="J501" s="6">
+        <v>5</v>
+      </c>
+      <c r="K501" s="6">
+        <v>0</v>
+      </c>
+      <c r="L501" s="6">
+        <v>1</v>
+      </c>
+      <c r="M501" s="6">
+        <v>1</v>
+      </c>
+      <c r="N501" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="O501" s="6">
+        <v>0</v>
+      </c>
+      <c r="P501" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q501" s="6">
+        <v>1</v>
+      </c>
+      <c r="R501" s="6">
+        <v>1</v>
+      </c>
+      <c r="S501" s="6">
+        <v>100</v>
+      </c>
+      <c r="T501" s="6">
+        <v>200</v>
+      </c>
+      <c r="U501" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="V501" s="6">
+        <v>0</v>
+      </c>
+      <c r="W501" s="6">
+        <v>1</v>
+      </c>
+      <c r="X501" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y501" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z501" s="43" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="502" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C502" s="6">
+        <v>9000204</v>
+      </c>
+      <c r="D502" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="E502" s="6">
+        <v>2</v>
+      </c>
+      <c r="F502" s="30">
+        <v>1800204</v>
+      </c>
+      <c r="G502" s="6">
+        <v>0</v>
+      </c>
+      <c r="H502" s="6">
+        <v>12</v>
+      </c>
+      <c r="I502" s="6">
+        <v>100000</v>
+      </c>
+      <c r="J502" s="6">
+        <v>5</v>
+      </c>
+      <c r="K502" s="6">
+        <v>0</v>
+      </c>
+      <c r="L502" s="6">
+        <v>1</v>
+      </c>
+      <c r="M502" s="6">
+        <v>1</v>
+      </c>
+      <c r="N502" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="O502" s="6">
+        <v>0</v>
+      </c>
+      <c r="P502" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q502" s="6">
+        <v>1</v>
+      </c>
+      <c r="R502" s="6">
+        <v>1</v>
+      </c>
+      <c r="S502" s="6">
+        <v>100</v>
+      </c>
+      <c r="T502" s="6">
+        <v>200</v>
+      </c>
+      <c r="U502" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="V502" s="6">
+        <v>0</v>
+      </c>
+      <c r="W502" s="6">
+        <v>1</v>
+      </c>
+      <c r="X502" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y502" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z502" s="43" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="503" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C503" s="6">
+        <v>9000301</v>
+      </c>
+      <c r="D503" s="30" t="s">
+        <v>828</v>
+      </c>
+      <c r="E503" s="6">
+        <v>2</v>
+      </c>
+      <c r="F503" s="30">
+        <v>1800301</v>
+      </c>
+      <c r="G503" s="6">
+        <v>0</v>
+      </c>
+      <c r="H503" s="6">
+        <v>12</v>
+      </c>
+      <c r="I503" s="6">
+        <v>150000</v>
+      </c>
+      <c r="J503" s="6">
+        <v>5</v>
+      </c>
+      <c r="K503" s="6">
+        <v>0</v>
+      </c>
+      <c r="L503" s="6">
+        <v>1</v>
+      </c>
+      <c r="M503" s="6">
+        <v>1</v>
+      </c>
+      <c r="N503" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="O503" s="6">
+        <v>0</v>
+      </c>
+      <c r="P503" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q503" s="6">
+        <v>1</v>
+      </c>
+      <c r="R503" s="6">
+        <v>1</v>
+      </c>
+      <c r="S503" s="6">
+        <v>100</v>
+      </c>
+      <c r="T503" s="6">
+        <v>200</v>
+      </c>
+      <c r="U503" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="V503" s="6">
+        <v>0</v>
+      </c>
+      <c r="W503" s="6">
+        <v>1</v>
+      </c>
+      <c r="X503" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y503" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z503" s="43" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="504" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C504" s="6">
+        <v>9000302</v>
+      </c>
+      <c r="D504" s="30" t="s">
+        <v>829</v>
+      </c>
+      <c r="E504" s="6">
+        <v>2</v>
+      </c>
+      <c r="F504" s="30">
+        <v>1800302</v>
+      </c>
+      <c r="G504" s="6">
+        <v>0</v>
+      </c>
+      <c r="H504" s="6">
+        <v>12</v>
+      </c>
+      <c r="I504" s="6">
+        <v>150000</v>
+      </c>
+      <c r="J504" s="6">
+        <v>5</v>
+      </c>
+      <c r="K504" s="6">
+        <v>0</v>
+      </c>
+      <c r="L504" s="6">
+        <v>1</v>
+      </c>
+      <c r="M504" s="6">
+        <v>1</v>
+      </c>
+      <c r="N504" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="O504" s="6">
+        <v>0</v>
+      </c>
+      <c r="P504" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q504" s="6">
+        <v>1</v>
+      </c>
+      <c r="R504" s="6">
+        <v>1</v>
+      </c>
+      <c r="S504" s="6">
+        <v>100</v>
+      </c>
+      <c r="T504" s="6">
+        <v>200</v>
+      </c>
+      <c r="U504" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="V504" s="6">
+        <v>0</v>
+      </c>
+      <c r="W504" s="6">
+        <v>1</v>
+      </c>
+      <c r="X504" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y504" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z504" s="43" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="505" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C505" s="6">
+        <v>9000303</v>
+      </c>
+      <c r="D505" s="30" t="s">
+        <v>830</v>
+      </c>
+      <c r="E505" s="6">
+        <v>2</v>
+      </c>
+      <c r="F505" s="30">
+        <v>1800303</v>
+      </c>
+      <c r="G505" s="6">
+        <v>0</v>
+      </c>
+      <c r="H505" s="6">
+        <v>12</v>
+      </c>
+      <c r="I505" s="6">
+        <v>150000</v>
+      </c>
+      <c r="J505" s="6">
+        <v>5</v>
+      </c>
+      <c r="K505" s="6">
+        <v>0</v>
+      </c>
+      <c r="L505" s="6">
+        <v>1</v>
+      </c>
+      <c r="M505" s="6">
+        <v>1</v>
+      </c>
+      <c r="N505" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="O505" s="6">
+        <v>0</v>
+      </c>
+      <c r="P505" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q505" s="6">
+        <v>1</v>
+      </c>
+      <c r="R505" s="6">
+        <v>1</v>
+      </c>
+      <c r="S505" s="6">
+        <v>100</v>
+      </c>
+      <c r="T505" s="6">
+        <v>200</v>
+      </c>
+      <c r="U505" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="V505" s="6">
+        <v>0</v>
+      </c>
+      <c r="W505" s="6">
+        <v>1</v>
+      </c>
+      <c r="X505" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y505" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z505" s="43" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="506" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C506" s="6">
+        <v>9000304</v>
+      </c>
+      <c r="D506" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="E506" s="6">
+        <v>2</v>
+      </c>
+      <c r="F506" s="30">
+        <v>1800304</v>
+      </c>
+      <c r="G506" s="6">
+        <v>0</v>
+      </c>
+      <c r="H506" s="6">
+        <v>12</v>
+      </c>
+      <c r="I506" s="6">
+        <v>150000</v>
+      </c>
+      <c r="J506" s="6">
+        <v>5</v>
+      </c>
+      <c r="K506" s="6">
+        <v>0</v>
+      </c>
+      <c r="L506" s="6">
+        <v>1</v>
+      </c>
+      <c r="M506" s="6">
+        <v>1</v>
+      </c>
+      <c r="N506" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="O506" s="6">
+        <v>0</v>
+      </c>
+      <c r="P506" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q506" s="6">
+        <v>1</v>
+      </c>
+      <c r="R506" s="6">
+        <v>1</v>
+      </c>
+      <c r="S506" s="6">
+        <v>100</v>
+      </c>
+      <c r="T506" s="6">
+        <v>200</v>
+      </c>
+      <c r="U506" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="V506" s="6">
+        <v>0</v>
+      </c>
+      <c r="W506" s="6">
+        <v>1</v>
+      </c>
+      <c r="X506" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y506" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z506" s="43" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="507" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C507" s="6">
+        <v>9000401</v>
+      </c>
+      <c r="D507" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="E507" s="6">
+        <v>2</v>
+      </c>
+      <c r="F507" s="30">
+        <v>1800401</v>
+      </c>
+      <c r="G507" s="6">
+        <v>0</v>
+      </c>
+      <c r="H507" s="6">
+        <v>12</v>
+      </c>
+      <c r="I507" s="6">
+        <v>200000</v>
+      </c>
+      <c r="J507" s="6">
+        <v>5</v>
+      </c>
+      <c r="K507" s="6">
+        <v>0</v>
+      </c>
+      <c r="L507" s="6">
+        <v>1</v>
+      </c>
+      <c r="M507" s="6">
+        <v>1</v>
+      </c>
+      <c r="N507" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="O507" s="6">
+        <v>0</v>
+      </c>
+      <c r="P507" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q507" s="6">
+        <v>1</v>
+      </c>
+      <c r="R507" s="6">
+        <v>1</v>
+      </c>
+      <c r="S507" s="6">
+        <v>100</v>
+      </c>
+      <c r="T507" s="6">
+        <v>200</v>
+      </c>
+      <c r="U507" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="V507" s="6">
+        <v>0</v>
+      </c>
+      <c r="W507" s="6">
+        <v>1</v>
+      </c>
+      <c r="X507" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y507" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z507" s="43" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="508" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C508" s="6">
+        <v>9000402</v>
+      </c>
+      <c r="D508" s="30" t="s">
+        <v>833</v>
+      </c>
+      <c r="E508" s="6">
+        <v>2</v>
+      </c>
+      <c r="F508" s="30">
+        <v>1800402</v>
+      </c>
+      <c r="G508" s="6">
+        <v>0</v>
+      </c>
+      <c r="H508" s="6">
+        <v>12</v>
+      </c>
+      <c r="I508" s="6">
+        <v>200000</v>
+      </c>
+      <c r="J508" s="6">
+        <v>5</v>
+      </c>
+      <c r="K508" s="6">
+        <v>0</v>
+      </c>
+      <c r="L508" s="6">
+        <v>1</v>
+      </c>
+      <c r="M508" s="6">
+        <v>1</v>
+      </c>
+      <c r="N508" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="O508" s="6">
+        <v>0</v>
+      </c>
+      <c r="P508" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q508" s="6">
+        <v>1</v>
+      </c>
+      <c r="R508" s="6">
+        <v>1</v>
+      </c>
+      <c r="S508" s="6">
+        <v>100</v>
+      </c>
+      <c r="T508" s="6">
+        <v>200</v>
+      </c>
+      <c r="U508" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="V508" s="6">
+        <v>0</v>
+      </c>
+      <c r="W508" s="6">
+        <v>1</v>
+      </c>
+      <c r="X508" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y508" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z508" s="43" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="509" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C509" s="6">
+        <v>9000403</v>
+      </c>
+      <c r="D509" s="30" t="s">
+        <v>834</v>
+      </c>
+      <c r="E509" s="6">
+        <v>2</v>
+      </c>
+      <c r="F509" s="30">
+        <v>1800403</v>
+      </c>
+      <c r="G509" s="6">
+        <v>0</v>
+      </c>
+      <c r="H509" s="6">
+        <v>12</v>
+      </c>
+      <c r="I509" s="6">
+        <v>200000</v>
+      </c>
+      <c r="J509" s="6">
+        <v>5</v>
+      </c>
+      <c r="K509" s="6">
+        <v>0</v>
+      </c>
+      <c r="L509" s="6">
+        <v>1</v>
+      </c>
+      <c r="M509" s="6">
+        <v>1</v>
+      </c>
+      <c r="N509" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="O509" s="6">
+        <v>0</v>
+      </c>
+      <c r="P509" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q509" s="6">
+        <v>1</v>
+      </c>
+      <c r="R509" s="6">
+        <v>1</v>
+      </c>
+      <c r="S509" s="6">
+        <v>100</v>
+      </c>
+      <c r="T509" s="6">
+        <v>200</v>
+      </c>
+      <c r="U509" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="V509" s="6">
+        <v>0</v>
+      </c>
+      <c r="W509" s="6">
+        <v>1</v>
+      </c>
+      <c r="X509" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y509" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z509" s="43" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="510" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C510" s="6">
+        <v>9000404</v>
+      </c>
+      <c r="D510" s="30" t="s">
+        <v>835</v>
+      </c>
+      <c r="E510" s="6">
+        <v>2</v>
+      </c>
+      <c r="F510" s="30">
+        <v>1800404</v>
+      </c>
+      <c r="G510" s="6">
+        <v>0</v>
+      </c>
+      <c r="H510" s="6">
+        <v>12</v>
+      </c>
+      <c r="I510" s="6">
+        <v>200000</v>
+      </c>
+      <c r="J510" s="6">
+        <v>5</v>
+      </c>
+      <c r="K510" s="6">
+        <v>0</v>
+      </c>
+      <c r="L510" s="6">
+        <v>1</v>
+      </c>
+      <c r="M510" s="6">
+        <v>1</v>
+      </c>
+      <c r="N510" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="O510" s="6">
+        <v>0</v>
+      </c>
+      <c r="P510" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q510" s="6">
+        <v>1</v>
+      </c>
+      <c r="R510" s="6">
+        <v>1</v>
+      </c>
+      <c r="S510" s="6">
+        <v>100</v>
+      </c>
+      <c r="T510" s="6">
+        <v>200</v>
+      </c>
+      <c r="U510" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="V510" s="6">
+        <v>0</v>
+      </c>
+      <c r="W510" s="6">
+        <v>1</v>
+      </c>
+      <c r="X510" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y510" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z510" s="43" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="511" spans="3:26" x14ac:dyDescent="0.3">
       <c r="E511" s="8"/>
       <c r="H511" s="8"/>
       <c r="I511" s="8"/>
       <c r="J511" s="8"/>
     </row>
-    <row r="512" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="512" spans="3:26" x14ac:dyDescent="0.3">
       <c r="E512" s="8"/>
       <c r="H512" s="8"/>
       <c r="I512" s="8"/>
@@ -44144,14 +45312,8 @@
       <c r="I1106" s="8"/>
       <c r="J1106" s="8"/>
     </row>
-    <row r="1107" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E1107" s="8"/>
-      <c r="H1107" s="8"/>
-      <c r="I1107" s="8"/>
-      <c r="J1107" s="8"/>
-    </row>
   </sheetData>
-  <autoFilter ref="G1:G1107" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="G1:G1106" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
